--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\dds\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1005" windowWidth="16380" windowHeight="7170" tabRatio="804"/>
+    <workbookView xWindow="590" yWindow="1010" windowWidth="16380" windowHeight="7170" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="1143">
   <si>
     <t>Identifier</t>
   </si>
@@ -3457,8 +3462,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3781,6 +3786,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3828,7 +3836,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3863,7 +3871,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4077,30 +4085,30 @@
   </sheetPr>
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="53.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="64.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="175.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.81640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="64.54296875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="175.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="20.140625" style="18"/>
-    <col min="1027" max="16384" width="9.140625" style="18"/>
+    <col min="13" max="13" width="24.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="20.1796875" style="18"/>
+    <col min="1027" max="16384" width="9.1796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="15" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4141,7 +4149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="17" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>219</v>
       </c>
@@ -4164,7 +4172,7 @@
       <c r="L2" s="16"/>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="17" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>220</v>
       </c>
@@ -4187,7 +4195,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="25"/>
     </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="17" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>383</v>
       </c>
@@ -4210,7 +4218,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="25"/>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="17" customFormat="1">
       <c r="A5" s="9" t="s">
         <v>221</v>
       </c>
@@ -4233,7 +4241,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="25"/>
     </row>
-    <row r="6" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="17" customFormat="1">
       <c r="A6" s="9" t="s">
         <v>386</v>
       </c>
@@ -4256,7 +4264,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="25"/>
     </row>
-    <row r="7" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="17" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>384</v>
       </c>
@@ -4279,7 +4287,7 @@
       <c r="L7" s="16"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="17" customFormat="1">
       <c r="A8" s="11" t="s">
         <v>385</v>
       </c>
@@ -4302,7 +4310,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="25"/>
     </row>
-    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="17" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>222</v>
       </c>
@@ -4325,7 +4333,7 @@
       <c r="L9" s="16"/>
       <c r="M9" s="25"/>
     </row>
-    <row r="10" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="17" customFormat="1">
       <c r="A10" s="9" t="s">
         <v>223</v>
       </c>
@@ -4348,7 +4356,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="25"/>
     </row>
-    <row r="11" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="17" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>224</v>
       </c>
@@ -4371,7 +4379,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="25"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="22" t="s">
         <v>226</v>
       </c>
@@ -4387,7 +4395,7 @@
       </c>
       <c r="M12" s="25"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="22" t="s">
         <v>225</v>
       </c>
@@ -4403,7 +4411,7 @@
       </c>
       <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="30" t="s">
         <v>863</v>
       </c>
@@ -4417,7 +4425,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="30" t="s">
         <v>339</v>
       </c>
@@ -4432,7 +4440,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="30" t="s">
         <v>351</v>
       </c>
@@ -4447,7 +4455,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="30" t="s">
         <v>846</v>
       </c>
@@ -4461,7 +4469,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="30" t="s">
         <v>847</v>
       </c>
@@ -4475,7 +4483,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="30" t="s">
         <v>848</v>
       </c>
@@ -4489,7 +4497,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="30" t="s">
         <v>849</v>
       </c>
@@ -4503,7 +4511,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="30" t="s">
         <v>850</v>
       </c>
@@ -4517,7 +4525,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="30" t="s">
         <v>851</v>
       </c>
@@ -4531,7 +4539,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="30" t="s">
         <v>352</v>
       </c>
@@ -4546,7 +4554,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="30" t="s">
         <v>375</v>
       </c>
@@ -4561,7 +4569,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="30" t="s">
         <v>340</v>
       </c>
@@ -4576,7 +4584,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="30" t="s">
         <v>342</v>
       </c>
@@ -4591,7 +4599,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="30" t="s">
         <v>343</v>
       </c>
@@ -4606,7 +4614,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="30" t="s">
         <v>344</v>
       </c>
@@ -4621,7 +4629,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="30" t="s">
         <v>345</v>
       </c>
@@ -4636,7 +4644,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="30" t="s">
         <v>943</v>
       </c>
@@ -4651,7 +4659,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="30" t="s">
         <v>942</v>
       </c>
@@ -4666,7 +4674,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="30" t="s">
         <v>557</v>
       </c>
@@ -4680,7 +4688,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="30" t="s">
         <v>558</v>
       </c>
@@ -4694,7 +4702,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="30" t="s">
         <v>559</v>
       </c>
@@ -4708,7 +4716,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="30" t="s">
         <v>562</v>
       </c>
@@ -4722,7 +4730,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="30" t="s">
         <v>560</v>
       </c>
@@ -4736,7 +4744,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="30" t="s">
         <v>561</v>
       </c>
@@ -4750,7 +4758,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="30" t="s">
         <v>571</v>
       </c>
@@ -4764,7 +4772,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="18" t="s">
         <v>564</v>
       </c>
@@ -4778,7 +4786,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="18" t="s">
         <v>565</v>
       </c>
@@ -4792,7 +4800,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="18" t="s">
         <v>566</v>
       </c>
@@ -4806,7 +4814,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="18" t="s">
         <v>567</v>
       </c>
@@ -4820,7 +4828,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="18" t="s">
         <v>568</v>
       </c>
@@ -4837,7 +4845,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="18" t="s">
         <v>569</v>
       </c>
@@ -4854,7 +4862,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="18" t="s">
         <v>570</v>
       </c>
@@ -4871,7 +4879,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="18" t="s">
         <v>860</v>
       </c>
@@ -4885,7 +4893,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="18" t="s">
         <v>941</v>
       </c>
@@ -4899,7 +4907,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
         <v>866</v>
       </c>
@@ -4913,7 +4921,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="18" t="s">
         <v>584</v>
       </c>
@@ -4927,7 +4935,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="43" t="s">
         <v>580</v>
       </c>
@@ -4943,7 +4951,7 @@
       </c>
       <c r="M50" s="25"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="43" t="s">
         <v>939</v>
       </c>
@@ -4959,7 +4967,7 @@
       </c>
       <c r="M51" s="25"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="44" t="s">
         <v>949</v>
       </c>
@@ -4976,7 +4984,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="44" t="s">
         <v>585</v>
       </c>
@@ -4993,7 +5001,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="44" t="s">
         <v>586</v>
       </c>
@@ -5010,7 +5018,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="44" t="s">
         <v>598</v>
       </c>
@@ -5027,7 +5035,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="44" t="s">
         <v>599</v>
       </c>
@@ -5044,7 +5052,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="44" t="s">
         <v>868</v>
       </c>
@@ -5061,7 +5069,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="44" t="s">
         <v>874</v>
       </c>
@@ -5078,7 +5086,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="44" t="s">
         <v>876</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="44" t="s">
         <v>878</v>
       </c>
@@ -5112,7 +5120,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="44" t="s">
         <v>879</v>
       </c>
@@ -5129,7 +5137,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="44" t="s">
         <v>880</v>
       </c>
@@ -5146,7 +5154,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="44" t="s">
         <v>888</v>
       </c>
@@ -5163,7 +5171,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="44" t="s">
         <v>889</v>
       </c>
@@ -5180,7 +5188,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="44" t="s">
         <v>890</v>
       </c>
@@ -5197,7 +5205,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="44" t="s">
         <v>891</v>
       </c>
@@ -5214,7 +5222,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="44" t="s">
         <v>892</v>
       </c>
@@ -5231,7 +5239,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="44" t="s">
         <v>893</v>
       </c>
@@ -5248,7 +5256,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="44" t="s">
         <v>900</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="44" t="s">
         <v>901</v>
       </c>
@@ -5282,7 +5290,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="44" t="s">
         <v>902</v>
       </c>
@@ -5299,7 +5307,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="44" t="s">
         <v>903</v>
       </c>
@@ -5316,7 +5324,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="44" t="s">
         <v>904</v>
       </c>
@@ -5333,7 +5341,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="44" t="s">
         <v>905</v>
       </c>
@@ -5350,7 +5358,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="44" t="s">
         <v>912</v>
       </c>
@@ -5367,7 +5375,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="44" t="s">
         <v>914</v>
       </c>
@@ -5384,7 +5392,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="44" t="s">
         <v>916</v>
       </c>
@@ -5401,7 +5409,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="44" t="s">
         <v>917</v>
       </c>
@@ -5418,7 +5426,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="44" t="s">
         <v>918</v>
       </c>
@@ -5435,7 +5443,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" s="44" t="s">
         <v>587</v>
       </c>
@@ -5452,7 +5460,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="81" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" customFormat="1">
       <c r="A81" s="41" t="s">
         <v>582</v>
       </c>
@@ -5469,7 +5477,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" s="18" t="s">
         <v>1067</v>
       </c>
@@ -5483,7 +5491,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="18" t="s">
         <v>1081</v>
       </c>
@@ -5497,7 +5505,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" s="18" t="s">
         <v>1068</v>
       </c>
@@ -5511,7 +5519,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="18" t="s">
         <v>1082</v>
       </c>
@@ -5525,7 +5533,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" s="18" t="s">
         <v>1069</v>
       </c>
@@ -5539,7 +5547,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" s="18" t="s">
         <v>1083</v>
       </c>
@@ -5553,7 +5561,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" s="18" t="s">
         <v>1070</v>
       </c>
@@ -5567,7 +5575,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" s="18" t="s">
         <v>1084</v>
       </c>
@@ -5581,7 +5589,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" s="18" t="s">
         <v>1071</v>
       </c>
@@ -5595,7 +5603,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" s="18" t="s">
         <v>1085</v>
       </c>
@@ -5609,7 +5617,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" s="18" t="s">
         <v>1072</v>
       </c>
@@ -5623,7 +5631,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" s="18" t="s">
         <v>1086</v>
       </c>
@@ -5637,7 +5645,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" s="18" t="s">
         <v>1073</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" s="18" t="s">
         <v>1087</v>
       </c>
@@ -5665,7 +5673,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" s="18" t="s">
         <v>1074</v>
       </c>
@@ -5679,7 +5687,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="18" t="s">
         <v>1088</v>
       </c>
@@ -5693,7 +5701,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="18" t="s">
         <v>1075</v>
       </c>
@@ -5707,7 +5715,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="18" t="s">
         <v>1089</v>
       </c>
@@ -5721,7 +5729,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="18" t="s">
         <v>1076</v>
       </c>
@@ -5735,7 +5743,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="18" t="s">
         <v>1090</v>
       </c>
@@ -5749,7 +5757,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="18" t="s">
         <v>1077</v>
       </c>
@@ -5763,7 +5771,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="18" t="s">
         <v>1091</v>
       </c>
@@ -5777,7 +5785,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="18" t="s">
         <v>1078</v>
       </c>
@@ -5791,7 +5799,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="18" t="s">
         <v>1092</v>
       </c>
@@ -5805,7 +5813,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="18" t="s">
         <v>1079</v>
       </c>
@@ -5819,7 +5827,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="18" t="s">
         <v>1093</v>
       </c>
@@ -5833,7 +5841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="18" t="s">
         <v>1080</v>
       </c>
@@ -5847,7 +5855,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="18" t="s">
         <v>1094</v>
       </c>
@@ -5861,7 +5869,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="18" t="s">
         <v>1095</v>
       </c>
@@ -5892,88 +5900,88 @@
   </sheetPr>
   <dimension ref="A1:CK32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="21" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="17" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="25" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="20" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="20" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="17" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="89" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="76" max="89" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -6242,7 +6250,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:89" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" s="12" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>219</v>
       </c>
@@ -6310,7 +6318,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89">
       <c r="A3" s="9" t="s">
         <v>220</v>
       </c>
@@ -6363,7 +6371,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89">
       <c r="A4" s="23" t="s">
         <v>383</v>
       </c>
@@ -6425,7 +6433,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89">
       <c r="A5" s="9" t="s">
         <v>221</v>
       </c>
@@ -6469,7 +6477,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89">
       <c r="A6" s="9" t="s">
         <v>386</v>
       </c>
@@ -6504,7 +6512,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89">
       <c r="A7" s="9" t="s">
         <v>384</v>
       </c>
@@ -6539,7 +6547,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89">
       <c r="A8" s="11" t="s">
         <v>385</v>
       </c>
@@ -6574,7 +6582,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89">
       <c r="A9" s="9" t="s">
         <v>222</v>
       </c>
@@ -6615,7 +6623,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89">
       <c r="A10" s="9" t="s">
         <v>223</v>
       </c>
@@ -6656,7 +6664,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89">
       <c r="A11" s="9" t="s">
         <v>224</v>
       </c>
@@ -6715,7 +6723,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89">
       <c r="A12" s="22" t="s">
         <v>226</v>
       </c>
@@ -6942,7 +6950,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89">
       <c r="A13" s="22" t="s">
         <v>225</v>
       </c>
@@ -6983,7 +6991,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89">
       <c r="A14" s="30" t="s">
         <v>339</v>
       </c>
@@ -7027,7 +7035,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89">
       <c r="A15" s="30" t="s">
         <v>351</v>
       </c>
@@ -7038,7 +7046,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89">
       <c r="A16" s="30" t="s">
         <v>352</v>
       </c>
@@ -7049,7 +7057,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="18" t="s">
         <v>568</v>
       </c>
@@ -7060,7 +7068,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="30" t="s">
         <v>580</v>
       </c>
@@ -7086,7 +7094,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="30" t="s">
         <v>846</v>
       </c>
@@ -7097,7 +7105,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="30" t="s">
         <v>847</v>
       </c>
@@ -7108,7 +7116,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="30" t="s">
         <v>848</v>
       </c>
@@ -7119,7 +7127,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="30" t="s">
         <v>849</v>
       </c>
@@ -7130,7 +7138,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="30" t="s">
         <v>850</v>
       </c>
@@ -7141,7 +7149,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="30" t="s">
         <v>851</v>
       </c>
@@ -7152,7 +7160,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="18" t="s">
         <v>868</v>
       </c>
@@ -7169,7 +7177,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="18" t="s">
         <v>878</v>
       </c>
@@ -7189,7 +7197,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="18" t="s">
         <v>888</v>
       </c>
@@ -7206,7 +7214,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="18" t="s">
         <v>891</v>
       </c>
@@ -7226,7 +7234,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="18" t="s">
         <v>900</v>
       </c>
@@ -7243,7 +7251,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="18" t="s">
         <v>903</v>
       </c>
@@ -7263,7 +7271,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>582</v>
       </c>
@@ -7280,7 +7288,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="30" t="s">
         <v>939</v>
       </c>
@@ -7319,25 +7327,25 @@
   </sheetPr>
   <dimension ref="A1:CK107"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:B107"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="53.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="6.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="89" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="90" max="1025" width="20.140625" style="18"/>
-    <col min="1026" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="53.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="89" width="7.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="90" max="1025" width="20.1796875" style="18"/>
+    <col min="1026" max="16384" width="9.1796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -7606,7 +7614,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89">
       <c r="A2" s="9" t="s">
         <v>219</v>
       </c>
@@ -7678,7 +7686,7 @@
       <c r="Y2" s="17"/>
       <c r="Z2" s="17"/>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89">
       <c r="A3" s="9" t="s">
         <v>220</v>
       </c>
@@ -7731,7 +7739,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89">
       <c r="A4" s="9" t="s">
         <v>383</v>
       </c>
@@ -7793,7 +7801,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89">
       <c r="A5" s="9" t="s">
         <v>221</v>
       </c>
@@ -7837,7 +7845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89">
       <c r="A6" s="9" t="s">
         <v>386</v>
       </c>
@@ -7872,7 +7880,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89">
       <c r="A7" s="9" t="s">
         <v>384</v>
       </c>
@@ -7907,7 +7915,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89">
       <c r="A8" s="11" t="s">
         <v>385</v>
       </c>
@@ -7942,7 +7950,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89">
       <c r="A9" s="9" t="s">
         <v>222</v>
       </c>
@@ -7983,7 +7991,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89">
       <c r="A10" s="9" t="s">
         <v>223</v>
       </c>
@@ -8024,7 +8032,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89">
       <c r="A11" s="9" t="s">
         <v>224</v>
       </c>
@@ -8083,7 +8091,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89">
       <c r="A12" s="22" t="s">
         <v>226</v>
       </c>
@@ -8310,7 +8318,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89">
       <c r="A13" s="22" t="s">
         <v>225</v>
       </c>
@@ -8351,7 +8359,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89">
       <c r="A14" s="30" t="s">
         <v>339</v>
       </c>
@@ -8395,7 +8403,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89">
       <c r="A15" s="30" t="s">
         <v>351</v>
       </c>
@@ -8406,7 +8414,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89">
       <c r="A16" s="30" t="s">
         <v>352</v>
       </c>
@@ -8417,7 +8425,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="30" t="s">
         <v>846</v>
       </c>
@@ -8428,7 +8436,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="30" t="s">
         <v>847</v>
       </c>
@@ -8439,7 +8447,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="30" t="s">
         <v>848</v>
       </c>
@@ -8450,7 +8458,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="30" t="s">
         <v>849</v>
       </c>
@@ -8461,7 +8469,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="30" t="s">
         <v>850</v>
       </c>
@@ -8472,7 +8480,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="30" t="s">
         <v>851</v>
       </c>
@@ -8483,7 +8491,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="30" t="s">
         <v>375</v>
       </c>
@@ -8491,7 +8499,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="30" t="s">
         <v>340</v>
       </c>
@@ -8499,7 +8507,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="30" t="s">
         <v>342</v>
       </c>
@@ -8507,7 +8515,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="30" t="s">
         <v>343</v>
       </c>
@@ -8515,7 +8523,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="30" t="s">
         <v>344</v>
       </c>
@@ -8523,7 +8531,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="30" t="s">
         <v>345</v>
       </c>
@@ -8531,7 +8539,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="30" t="s">
         <v>943</v>
       </c>
@@ -8539,7 +8547,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="30" t="s">
         <v>942</v>
       </c>
@@ -8547,7 +8555,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="30" t="s">
         <v>557</v>
       </c>
@@ -8555,7 +8563,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="30" t="s">
         <v>558</v>
       </c>
@@ -8563,7 +8571,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="30" t="s">
         <v>559</v>
       </c>
@@ -8571,7 +8579,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="30" t="s">
         <v>562</v>
       </c>
@@ -8579,7 +8587,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="30" t="s">
         <v>560</v>
       </c>
@@ -8587,7 +8595,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="30" t="s">
         <v>561</v>
       </c>
@@ -8595,7 +8603,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="30" t="s">
         <v>571</v>
       </c>
@@ -8603,7 +8611,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="18" t="s">
         <v>564</v>
       </c>
@@ -8611,7 +8619,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="18" t="s">
         <v>565</v>
       </c>
@@ -8619,7 +8627,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="18" t="s">
         <v>566</v>
       </c>
@@ -8627,7 +8635,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="18" t="s">
         <v>567</v>
       </c>
@@ -8635,7 +8643,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="18" t="s">
         <v>568</v>
       </c>
@@ -8646,7 +8654,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="18" t="s">
         <v>569</v>
       </c>
@@ -8654,7 +8662,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="18" t="s">
         <v>570</v>
       </c>
@@ -8662,7 +8670,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="30" t="s">
         <v>580</v>
       </c>
@@ -8688,7 +8696,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="18" t="s">
         <v>860</v>
       </c>
@@ -8702,7 +8710,7 @@
       <c r="G46"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="18" t="s">
         <v>941</v>
       </c>
@@ -8710,7 +8718,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="18" t="s">
         <v>585</v>
       </c>
@@ -8718,7 +8726,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="18" t="s">
         <v>586</v>
       </c>
@@ -8726,7 +8734,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="18" t="s">
         <v>598</v>
       </c>
@@ -8734,7 +8742,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="18" t="s">
         <v>599</v>
       </c>
@@ -8742,7 +8750,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="18" t="s">
         <v>868</v>
       </c>
@@ -8759,7 +8767,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="18" t="s">
         <v>874</v>
       </c>
@@ -8767,7 +8775,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="18" t="s">
         <v>876</v>
       </c>
@@ -8775,7 +8783,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="18" t="s">
         <v>878</v>
       </c>
@@ -8791,8 +8799,11 @@
       <c r="E55" s="18" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="18" t="s">
         <v>879</v>
       </c>
@@ -8800,7 +8811,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="18" t="s">
         <v>880</v>
       </c>
@@ -8808,7 +8819,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="18" t="s">
         <v>888</v>
       </c>
@@ -8825,7 +8836,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="18" t="s">
         <v>889</v>
       </c>
@@ -8833,7 +8844,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="18" t="s">
         <v>890</v>
       </c>
@@ -8841,7 +8852,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="18" t="s">
         <v>891</v>
       </c>
@@ -8857,8 +8868,11 @@
       <c r="E61" s="18" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="18" t="s">
         <v>892</v>
       </c>
@@ -8866,7 +8880,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="18" t="s">
         <v>893</v>
       </c>
@@ -8874,7 +8888,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="18" t="s">
         <v>900</v>
       </c>
@@ -8891,7 +8905,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="18" t="s">
         <v>901</v>
       </c>
@@ -8899,7 +8913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="18" t="s">
         <v>902</v>
       </c>
@@ -8907,7 +8921,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="18" t="s">
         <v>903</v>
       </c>
@@ -8923,8 +8937,11 @@
       <c r="E67" s="18" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F67" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="18" t="s">
         <v>904</v>
       </c>
@@ -8932,7 +8949,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="18" t="s">
         <v>905</v>
       </c>
@@ -8940,7 +8957,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="18" t="s">
         <v>912</v>
       </c>
@@ -8948,7 +8965,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="18" t="s">
         <v>914</v>
       </c>
@@ -8956,7 +8973,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="18" t="s">
         <v>916</v>
       </c>
@@ -8964,7 +8981,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="18" t="s">
         <v>917</v>
       </c>
@@ -8972,7 +8989,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="18" t="s">
         <v>918</v>
       </c>
@@ -8980,7 +8997,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="18" t="s">
         <v>587</v>
       </c>
@@ -8988,7 +9005,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" customFormat="1">
       <c r="A76" t="s">
         <v>582</v>
       </c>
@@ -9005,7 +9022,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="30" t="s">
         <v>939</v>
       </c>
@@ -9031,7 +9048,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="18" t="s">
         <v>949</v>
       </c>
@@ -9039,7 +9056,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="18" t="s">
         <v>1067</v>
       </c>
@@ -9047,7 +9064,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="18" t="s">
         <v>1068</v>
       </c>
@@ -9055,7 +9072,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="18" t="s">
         <v>1069</v>
       </c>
@@ -9063,7 +9080,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="18" t="s">
         <v>1070</v>
       </c>
@@ -9071,7 +9088,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="18" t="s">
         <v>1071</v>
       </c>
@@ -9079,7 +9096,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="18" t="s">
         <v>1072</v>
       </c>
@@ -9087,7 +9104,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="18" t="s">
         <v>1073</v>
       </c>
@@ -9095,7 +9112,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="18" t="s">
         <v>1074</v>
       </c>
@@ -9103,7 +9120,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="18" t="s">
         <v>1075</v>
       </c>
@@ -9111,7 +9128,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="18" t="s">
         <v>1076</v>
       </c>
@@ -9119,7 +9136,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="18" t="s">
         <v>1077</v>
       </c>
@@ -9127,7 +9144,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="18" t="s">
         <v>1078</v>
       </c>
@@ -9135,7 +9152,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="18" t="s">
         <v>1079</v>
       </c>
@@ -9143,7 +9160,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="18" t="s">
         <v>1080</v>
       </c>
@@ -9151,7 +9168,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="18" t="s">
         <v>1081</v>
       </c>
@@ -9159,7 +9176,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="18" t="s">
         <v>1082</v>
       </c>
@@ -9167,7 +9184,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="18" t="s">
         <v>1083</v>
       </c>
@@ -9175,7 +9192,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="18" t="s">
         <v>1084</v>
       </c>
@@ -9183,7 +9200,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="18" t="s">
         <v>1085</v>
       </c>
@@ -9191,7 +9208,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="18" t="s">
         <v>1086</v>
       </c>
@@ -9199,7 +9216,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="18" t="s">
         <v>1087</v>
       </c>
@@ -9207,7 +9224,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="18" t="s">
         <v>1088</v>
       </c>
@@ -9215,7 +9232,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="18" t="s">
         <v>1089</v>
       </c>
@@ -9223,7 +9240,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="18" t="s">
         <v>1090</v>
       </c>
@@ -9231,7 +9248,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="18" t="s">
         <v>1091</v>
       </c>
@@ -9239,7 +9256,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="18" t="s">
         <v>1092</v>
       </c>
@@ -9247,7 +9264,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="18" t="s">
         <v>1093</v>
       </c>
@@ -9255,7 +9272,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="18" t="s">
         <v>1094</v>
       </c>
@@ -9263,7 +9280,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="18" t="s">
         <v>1095</v>
       </c>
@@ -9291,23 +9308,23 @@
       <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="53.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="6.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="22" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="73" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="76" max="89" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="90" max="1025" width="20.140625" style="21"/>
-    <col min="1026" max="16384" width="9.140625" style="21"/>
+    <col min="23" max="73" width="7.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="9.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="76" max="89" width="7.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="90" max="1025" width="20.1796875" style="21"/>
+    <col min="1026" max="16384" width="9.1796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="20" customFormat="1">
       <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
@@ -9576,7 +9593,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:89" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" s="10" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>219</v>
       </c>
@@ -9644,7 +9661,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:89" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" s="10" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>220</v>
       </c>
@@ -9701,7 +9718,7 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89">
       <c r="A4" s="23" t="s">
         <v>383</v>
       </c>
@@ -9763,7 +9780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89">
       <c r="A5" s="9" t="s">
         <v>221</v>
       </c>
@@ -9807,7 +9824,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89">
       <c r="A6" s="9" t="s">
         <v>386</v>
       </c>
@@ -9842,7 +9859,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89">
       <c r="A7" s="9" t="s">
         <v>384</v>
       </c>
@@ -9877,7 +9894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89">
       <c r="A8" s="11" t="s">
         <v>385</v>
       </c>
@@ -9912,7 +9929,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89">
       <c r="A9" s="9" t="s">
         <v>222</v>
       </c>
@@ -9953,7 +9970,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89">
       <c r="A10" s="9" t="s">
         <v>223</v>
       </c>
@@ -9994,7 +10011,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89">
       <c r="A11" s="9" t="s">
         <v>224</v>
       </c>
@@ -10053,7 +10070,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89">
       <c r="A12" s="21" t="s">
         <v>226</v>
       </c>
@@ -10280,7 +10297,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89">
       <c r="A13" s="22" t="s">
         <v>225</v>
       </c>
@@ -10321,7 +10338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89">
       <c r="A14" s="30" t="s">
         <v>375</v>
       </c>
@@ -10329,7 +10346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89">
       <c r="A15" s="30" t="s">
         <v>340</v>
       </c>
@@ -10337,7 +10354,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89">
       <c r="A16" s="30" t="s">
         <v>342</v>
       </c>
@@ -10345,7 +10362,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="30" t="s">
         <v>343</v>
       </c>
@@ -10353,7 +10370,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="30" t="s">
         <v>344</v>
       </c>
@@ -10361,7 +10378,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="30" t="s">
         <v>345</v>
       </c>
@@ -10369,7 +10386,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="30" t="s">
         <v>943</v>
       </c>
@@ -10377,7 +10394,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="30" t="s">
         <v>942</v>
       </c>
@@ -10385,7 +10402,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="30" t="s">
         <v>557</v>
       </c>
@@ -10393,7 +10410,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23" s="30" t="s">
         <v>562</v>
       </c>
@@ -10401,7 +10418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="30" t="s">
         <v>560</v>
       </c>
@@ -10409,7 +10426,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="30" t="s">
         <v>561</v>
       </c>
@@ -10417,7 +10434,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="18" t="s">
         <v>564</v>
       </c>
@@ -10425,7 +10442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
         <v>565</v>
       </c>
@@ -10433,7 +10450,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="18" t="s">
         <v>566</v>
       </c>
@@ -10441,7 +10458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="18" t="s">
         <v>567</v>
       </c>
@@ -10449,7 +10466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
         <v>568</v>
       </c>
@@ -10460,7 +10477,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
         <v>569</v>
       </c>
@@ -10468,7 +10485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="18" t="s">
         <v>570</v>
       </c>
@@ -10476,7 +10493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="30" t="s">
         <v>580</v>
       </c>
@@ -10502,7 +10519,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="18" t="s">
         <v>941</v>
       </c>
@@ -10510,7 +10527,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="18" t="s">
         <v>586</v>
       </c>
@@ -10518,7 +10535,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="18" t="s">
         <v>599</v>
       </c>
@@ -10526,7 +10543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="18" t="s">
         <v>868</v>
       </c>
@@ -10543,7 +10560,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="18" t="s">
         <v>874</v>
       </c>
@@ -10551,7 +10568,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="18" t="s">
         <v>876</v>
       </c>
@@ -10559,7 +10576,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="18" t="s">
         <v>878</v>
       </c>
@@ -10579,7 +10596,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="18" t="s">
         <v>879</v>
       </c>
@@ -10587,7 +10604,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="18" t="s">
         <v>880</v>
       </c>
@@ -10595,7 +10612,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="18" t="s">
         <v>888</v>
       </c>
@@ -10612,7 +10629,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="18" t="s">
         <v>889</v>
       </c>
@@ -10620,7 +10637,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="18" t="s">
         <v>890</v>
       </c>
@@ -10628,7 +10645,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="18" t="s">
         <v>891</v>
       </c>
@@ -10648,7 +10665,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="18" t="s">
         <v>892</v>
       </c>
@@ -10656,7 +10673,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="18" t="s">
         <v>893</v>
       </c>
@@ -10664,7 +10681,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="18" t="s">
         <v>900</v>
       </c>
@@ -10681,7 +10698,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="18" t="s">
         <v>901</v>
       </c>
@@ -10689,7 +10706,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="18" t="s">
         <v>902</v>
       </c>
@@ -10697,7 +10714,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="18" t="s">
         <v>903</v>
       </c>
@@ -10717,7 +10734,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="18" t="s">
         <v>904</v>
       </c>
@@ -10725,7 +10742,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="18" t="s">
         <v>905</v>
       </c>
@@ -10733,7 +10750,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="18" t="s">
         <v>912</v>
       </c>
@@ -10741,7 +10758,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="18" t="s">
         <v>914</v>
       </c>
@@ -10749,7 +10766,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="18" t="s">
         <v>916</v>
       </c>
@@ -10757,7 +10774,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="18" t="s">
         <v>917</v>
       </c>
@@ -10765,7 +10782,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="18" t="s">
         <v>918</v>
       </c>
@@ -10773,7 +10790,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="18" t="s">
         <v>587</v>
       </c>
@@ -10781,7 +10798,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>582</v>
       </c>
@@ -10798,7 +10815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="30" t="s">
         <v>939</v>
       </c>
@@ -10824,7 +10841,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="18" t="s">
         <v>1081</v>
       </c>
@@ -10832,7 +10849,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="18" t="s">
         <v>1082</v>
       </c>
@@ -10840,7 +10857,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="18" t="s">
         <v>1083</v>
       </c>
@@ -10848,7 +10865,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="18" t="s">
         <v>1084</v>
       </c>
@@ -10856,7 +10873,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="18" t="s">
         <v>1085</v>
       </c>
@@ -10864,7 +10881,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="18" t="s">
         <v>1086</v>
       </c>
@@ -10872,7 +10889,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="18" t="s">
         <v>1087</v>
       </c>
@@ -10880,7 +10897,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="18" t="s">
         <v>1088</v>
       </c>
@@ -10888,7 +10905,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="18" t="s">
         <v>1089</v>
       </c>
@@ -10896,7 +10913,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="18" t="s">
         <v>1090</v>
       </c>
@@ -10904,7 +10921,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="18" t="s">
         <v>1091</v>
       </c>
@@ -10912,7 +10929,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="18" t="s">
         <v>1092</v>
       </c>
@@ -10920,7 +10937,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="18" t="s">
         <v>1093</v>
       </c>
@@ -10928,7 +10945,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="18" t="s">
         <v>1094</v>
       </c>
@@ -10953,15 +10970,15 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33.85546875"/>
-    <col min="2" max="2" width="20.140625"/>
-    <col min="3" max="3" width="24.28515625"/>
-    <col min="4" max="1025" width="20.140625"/>
+    <col min="1" max="1" width="33.81640625"/>
+    <col min="2" max="2" width="20.1796875"/>
+    <col min="3" max="3" width="24.26953125"/>
+    <col min="4" max="1025" width="20.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -10979,7 +10996,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -11050,7 +11067,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -11106,7 +11123,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -11171,7 +11188,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -11218,7 +11235,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76">
       <c r="A6" t="s">
         <v>386</v>
       </c>
@@ -11256,7 +11273,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76">
       <c r="A7" t="s">
         <v>384</v>
       </c>
@@ -11294,7 +11311,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76">
       <c r="A8" t="s">
         <v>385</v>
       </c>
@@ -11332,7 +11349,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -11376,7 +11393,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -11420,7 +11437,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -11482,7 +11499,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -11712,7 +11729,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -11756,7 +11773,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76">
       <c r="A14" t="s">
         <v>568</v>
       </c>
@@ -11776,7 +11793,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76">
       <c r="A15" t="s">
         <v>569</v>
       </c>
@@ -11793,7 +11810,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76">
       <c r="A16" t="s">
         <v>570</v>
       </c>
@@ -11810,7 +11827,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="30" t="s">
         <v>863</v>
       </c>
@@ -11841,26 +11858,26 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="1025" width="20.140625"/>
+    <col min="1" max="1" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="1025" width="20.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -11877,7 +11894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="4" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>351</v>
       </c>
@@ -11890,7 +11907,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="4" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>352</v>
       </c>
@@ -11936,7 +11953,7 @@
       <c r="O3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="4" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>846</v>
       </c>
@@ -11960,7 +11977,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="4" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>847</v>
       </c>
@@ -11982,7 +11999,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="4" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>848</v>
       </c>
@@ -12004,7 +12021,7 @@
       <c r="O6"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="4" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>849</v>
       </c>
@@ -12030,7 +12047,7 @@
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="4" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>850</v>
       </c>
@@ -12062,7 +12079,7 @@
       <c r="O8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="4" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>851</v>
       </c>
@@ -12086,7 +12103,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="18" t="s">
         <v>860</v>
       </c>
@@ -12097,7 +12114,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="30" t="s">
         <v>559</v>
       </c>
@@ -12108,7 +12125,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="30" t="s">
         <v>558</v>
       </c>
@@ -12125,7 +12142,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="30" t="s">
         <v>580</v>
       </c>
@@ -12139,7 +12156,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="30" t="s">
         <v>939</v>
       </c>
@@ -12147,7 +12164,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="30" t="s">
         <v>339</v>
       </c>
@@ -12181,13 +12198,13 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="10:26">
       <c r="J1" s="7"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="590" yWindow="1010" windowWidth="16380" windowHeight="7170" tabRatio="474"/>
+    <workbookView xWindow="590" yWindow="1010" windowWidth="16380" windowHeight="7170" tabRatio="474" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -1818,18 +1818,6 @@
     <t>Installation Port Safety Factors</t>
   </si>
   <si>
-    <t>equipment_rov</t>
-  </si>
-  <si>
-    <t>equipment_divers</t>
-  </si>
-  <si>
-    <t>equipment_cable_burial</t>
-  </si>
-  <si>
-    <t>equipment_excavating</t>
-  </si>
-  <si>
     <t>rov_class</t>
   </si>
   <si>
@@ -2001,9 +1989,6 @@
     <t xml:space="preserve">excavator_day_rate </t>
   </si>
   <si>
-    <t>equipment_mattress</t>
-  </si>
-  <si>
     <t>concrete_resistance</t>
   </si>
   <si>
@@ -2034,9 +2019,6 @@
     <t>cost_per_unit</t>
   </si>
   <si>
-    <t>equipment_rock_filter_bags</t>
-  </si>
-  <si>
     <t>particle_diameter_min</t>
   </si>
   <si>
@@ -2058,12 +2040,6 @@
     <t>velocity_grouped</t>
   </si>
   <si>
-    <t>equipment_split_pipe</t>
-  </si>
-  <si>
-    <t>equipment_drilling_rigs</t>
-  </si>
-  <si>
     <t>material</t>
   </si>
   <si>
@@ -2082,12 +2058,6 @@
     <t>min_bend_radius</t>
   </si>
   <si>
-    <t>equipment_hammer</t>
-  </si>
-  <si>
-    <t>equipment_vibro_driver</t>
-  </si>
-  <si>
     <t>length double</t>
   </si>
   <si>
@@ -2112,9 +2082,6 @@
     <t>hammer_day_rate</t>
   </si>
   <si>
-    <t>vessels</t>
-  </si>
-  <si>
     <t>drilling_diameter_range</t>
   </si>
   <si>
@@ -2382,9 +2349,6 @@
     <t>op_max_day_rate</t>
   </si>
   <si>
-    <t>ports</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -2433,15 +2397,6 @@
     <t>hidden.site_filtered</t>
   </si>
   <si>
-    <t>time_series_om_wave</t>
-  </si>
-  <si>
-    <t>time_series_om_tidal</t>
-  </si>
-  <si>
-    <t>time_series_om_wind</t>
-  </si>
-  <si>
     <t>measure_date</t>
   </si>
   <si>
@@ -3442,6 +3397,51 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>reference.equipment_rov</t>
+  </si>
+  <si>
+    <t>reference.equipment_divers</t>
+  </si>
+  <si>
+    <t>reference.equipment_cable_burial</t>
+  </si>
+  <si>
+    <t>reference.equipment_excavating</t>
+  </si>
+  <si>
+    <t>reference.equipment_mattress</t>
+  </si>
+  <si>
+    <t>reference.equipment_rock_filter_bags</t>
+  </si>
+  <si>
+    <t>reference.equipment_split_pipe</t>
+  </si>
+  <si>
+    <t>reference.equipment_hammer</t>
+  </si>
+  <si>
+    <t>reference.equipment_drilling_rigs</t>
+  </si>
+  <si>
+    <t>reference.equipment_vibro_driver</t>
+  </si>
+  <si>
+    <t>reference.vessels</t>
+  </si>
+  <si>
+    <t>reference.ports</t>
+  </si>
+  <si>
+    <t>filter.time_series_om_wave</t>
+  </si>
+  <si>
+    <t>filter.time_series_om_tidal</t>
+  </si>
+  <si>
+    <t>filter.time_series_om_wind</t>
   </si>
 </sst>
 </file>
@@ -4070,7 +4070,7 @@
   </sheetPr>
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>369</v>
@@ -4120,13 +4120,13 @@
         <v>212</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
@@ -4138,13 +4138,13 @@
         <v>213</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
@@ -4156,13 +4156,13 @@
         <v>376</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
@@ -4174,13 +4174,13 @@
         <v>214</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
@@ -4192,13 +4192,13 @@
         <v>379</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
@@ -4210,13 +4210,13 @@
         <v>377</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
@@ -4228,13 +4228,13 @@
         <v>378</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -4246,13 +4246,13 @@
         <v>215</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
@@ -4264,13 +4264,13 @@
         <v>216</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
@@ -4282,13 +4282,13 @@
         <v>217</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
@@ -4300,13 +4300,13 @@
         <v>219</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -4318,13 +4318,13 @@
         <v>218</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
@@ -4333,16 +4333,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="30" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -4358,7 +4358,7 @@
         <v>585</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="G15" s="33"/>
     </row>
@@ -4373,92 +4373,92 @@
         <v>595</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="30" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>569</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="30" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>569</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="30" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>569</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>997</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="30" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>569</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="30" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>569</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="30" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>569</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4469,10 +4469,10 @@
         <v>569</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="G23" s="33"/>
     </row>
@@ -4484,10 +4484,10 @@
         <v>576</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="G24" s="33"/>
     </row>
@@ -4502,7 +4502,7 @@
         <v>586</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="G25" s="33"/>
     </row>
@@ -4517,7 +4517,7 @@
         <v>587</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="G26" s="33"/>
     </row>
@@ -4532,7 +4532,7 @@
         <v>588</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="G27" s="33"/>
     </row>
@@ -4547,7 +4547,7 @@
         <v>589</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="G28" s="33"/>
     </row>
@@ -4562,37 +4562,37 @@
         <v>590</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="30" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>334</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="30" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>334</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="G31" s="33"/>
     </row>
@@ -4604,10 +4604,10 @@
         <v>334</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4618,10 +4618,10 @@
         <v>334</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>1011</v>
+        <v>996</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4632,10 +4632,10 @@
         <v>334</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4646,10 +4646,10 @@
         <v>334</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4660,10 +4660,10 @@
         <v>334</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>1035</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4674,10 +4674,10 @@
         <v>334</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4688,10 +4688,10 @@
         <v>556</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
@@ -4704,10 +4704,10 @@
         <v>334</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="48"/>
@@ -4720,10 +4720,10 @@
         <v>334</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
@@ -4736,10 +4736,10 @@
         <v>334</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="E41" s="48"/>
       <c r="F41" s="48"/>
@@ -4752,10 +4752,10 @@
         <v>334</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="E42" s="48"/>
       <c r="F42" s="48"/>
@@ -4765,16 +4765,16 @@
         <v>561</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4782,16 +4782,16 @@
         <v>562</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>990</v>
+        <v>975</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4799,62 +4799,62 @@
         <v>563</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="18" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="48"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="18" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="18" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>556</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4865,10 +4865,10 @@
         <v>556</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4879,10 +4879,10 @@
         <v>569</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="47"/>
@@ -4891,16 +4891,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="43" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B51" s="33" t="s">
         <v>569</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="47"/>
@@ -4909,21 +4909,21 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="44" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
       <c r="H52" s="18" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4937,10 +4937,10 @@
         <v>582</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4954,10 +4954,10 @@
         <v>581</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4971,10 +4971,10 @@
         <v>593</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4988,401 +4988,401 @@
         <v>594</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="44" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>569</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="44" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="44" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="44" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>569</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="44" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="44" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="44" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>569</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="44" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="44" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="44" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>569</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="44" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="44" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="44" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>569</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="44" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="44" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="44" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>569</v>
       </c>
       <c r="C72" s="40" t="s">
+        <v>887</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H72" s="18" t="s">
         <v>902</v>
-      </c>
-      <c r="D72" s="40" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="44" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="44" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="44" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="44" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="44" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="44" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="44" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>584</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5396,10 +5396,10 @@
         <v>583</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="81" spans="1:8" customFormat="1">
@@ -5407,424 +5407,424 @@
         <v>575</v>
       </c>
       <c r="B81" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="E81" s="50"/>
       <c r="F81" s="50"/>
       <c r="H81" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="18" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="B82" s="18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C82" s="40" t="s">
         <v>1090</v>
       </c>
-      <c r="C82" s="40" t="s">
-        <v>1105</v>
-      </c>
       <c r="D82" s="40" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="18" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="18" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="18" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="18" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="18" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="18" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="18" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="18" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="18" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="18" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="18" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="18" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="18" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="18" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="18" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="18" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="18" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="18" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="18" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="18" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="18" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="18" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="18" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="18" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>1117</v>
+        <v>1102</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="18" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="18" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="18" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>334</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="18" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>1134</v>
+        <v>1119</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
   </sheetData>
@@ -6984,10 +6984,10 @@
         <v>344</v>
       </c>
       <c r="B15" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="C15" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:89">
@@ -6995,10 +6995,10 @@
         <v>345</v>
       </c>
       <c r="B16" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="C16" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7040,179 +7040,179 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="30" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="B19" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="C19" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="30" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="B20" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="C20" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="30" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="B21" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="C21" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="30" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="B22" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="C22" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="30" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="B23" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="C23" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="30" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="B24" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="C24" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="18" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="B25" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="C25" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="D25" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="E25" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="18" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="B26" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="C26" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="E26" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="F26" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="18" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B27" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="C27" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="D27" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="E27" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="18" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="B28" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="C28" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="E28" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="F28" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="18" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="B29" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="C29" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="D29" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="E29" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="18" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="B30" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="C30" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="E30" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="F30" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7220,21 +7220,21 @@
         <v>575</v>
       </c>
       <c r="B31" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="C31" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="D31" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="E31" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="30" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>572</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="30" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>220</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="30" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>220</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="30" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>220</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="30" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>220</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="30" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>220</v>
@@ -8426,7 +8426,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="30" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>220</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="30" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>221</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="30" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>221</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="18" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>220</v>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="18" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>221</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="18" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>221</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="18" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>221</v>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="18" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>221</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="18" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>221</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="18" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>221</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="18" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>221</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="18" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>221</v>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="18" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>221</v>
@@ -8790,7 +8790,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="18" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>221</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="18" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>221</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="18" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>221</v>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="18" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>221</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="18" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>221</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="18" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>221</v>
@@ -8859,7 +8859,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="18" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>221</v>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="18" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>221</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="18" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>221</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="18" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>221</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="18" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>221</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="18" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>221</v>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="18" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>221</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="18" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>221</v>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="18" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>221</v>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="30" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B77" s="30" t="s">
         <v>220</v>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="18" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>289</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="18" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="B79" s="33" t="s">
         <v>220</v>
@@ -9010,7 +9010,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="18" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="B80" s="33" t="s">
         <v>220</v>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="18" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>220</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="18" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>220</v>
@@ -9034,7 +9034,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="18" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>220</v>
@@ -9042,7 +9042,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="18" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="B84" s="33" t="s">
         <v>220</v>
@@ -9050,7 +9050,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="18" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="B85" s="33" t="s">
         <v>220</v>
@@ -9058,7 +9058,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="18" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="B86" s="33" t="s">
         <v>220</v>
@@ -9066,7 +9066,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="18" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="B87" s="33" t="s">
         <v>220</v>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="18" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="B88" s="33" t="s">
         <v>220</v>
@@ -9082,7 +9082,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="18" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="B89" s="33" t="s">
         <v>220</v>
@@ -9090,7 +9090,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="18" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="B90" s="33" t="s">
         <v>220</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="18" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>220</v>
@@ -9106,7 +9106,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="18" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>220</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="18" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>221</v>
@@ -9122,7 +9122,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="18" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>221</v>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="18" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>221</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="18" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>221</v>
@@ -9146,7 +9146,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="18" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>221</v>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="18" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>221</v>
@@ -9162,7 +9162,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="18" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>221</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="18" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>221</v>
@@ -9178,7 +9178,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="18" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>221</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="18" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>221</v>
@@ -9194,7 +9194,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="18" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>221</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="18" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>221</v>
@@ -9210,7 +9210,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="18" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>221</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="18" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>221</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="18" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>220</v>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="30" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>342</v>
@@ -10340,7 +10340,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="30" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>343</v>
@@ -10351,7 +10351,7 @@
         <v>550</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1">
@@ -10367,7 +10367,7 @@
         <v>553</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -10375,7 +10375,7 @@
         <v>554</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -10460,12 +10460,12 @@
         <v>11</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="18" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>342</v>
@@ -10489,249 +10489,249 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="18" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="18" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="18" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="18" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="18" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="18" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="18" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="18" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="18" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="18" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="18" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="18" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="18" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="18" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="18" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="18" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="18" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="18" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="18" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="18" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="18" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="18" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="18" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -10739,7 +10739,7 @@
         <v>580</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -10750,7 +10750,7 @@
         <v>11</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>11</v>
@@ -10761,7 +10761,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="30" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B62" s="30" t="s">
         <v>11</v>
@@ -10782,119 +10782,119 @@
         <v>11</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="18" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="18" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="18" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="18" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="18" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="18" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="18" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="18" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="18" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="18" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="18" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="18" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="18" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -10910,14 +10910,14 @@
   </sheetPr>
   <dimension ref="A1:BX17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33.81640625"/>
-    <col min="2" max="2" width="20.1796875"/>
+    <col min="2" max="2" width="36.7265625" customWidth="1"/>
     <col min="3" max="3" width="24.26953125"/>
     <col min="4" max="1025" width="20.1796875"/>
   </cols>
@@ -10945,70 +10945,70 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C2" t="s">
         <v>596</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G2" t="s">
         <v>600</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>601</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>602</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>603</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>604</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>605</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>606</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>607</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>608</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>609</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>610</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>611</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>612</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>613</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>614</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>615</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>616</v>
-      </c>
-      <c r="T2" t="s">
-        <v>617</v>
-      </c>
-      <c r="U2" t="s">
-        <v>618</v>
-      </c>
-      <c r="V2" t="s">
-        <v>619</v>
-      </c>
-      <c r="W2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:76">
@@ -11016,55 +11016,55 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>597</v>
+        <v>1124</v>
       </c>
       <c r="C3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G3" t="s">
         <v>621</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>622</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>623</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>624</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>625</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>626</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>627</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>628</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>629</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>630</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>631</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>632</v>
-      </c>
-      <c r="O3" t="s">
-        <v>633</v>
-      </c>
-      <c r="P3" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>635</v>
-      </c>
-      <c r="R3" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:76">
@@ -11072,64 +11072,64 @@
         <v>376</v>
       </c>
       <c r="B4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F4" t="s">
         <v>598</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H4" t="s">
+        <v>600</v>
+      </c>
+      <c r="I4" t="s">
+        <v>601</v>
+      </c>
+      <c r="J4" t="s">
+        <v>635</v>
+      </c>
+      <c r="K4" t="s">
+        <v>636</v>
+      </c>
+      <c r="L4" t="s">
         <v>637</v>
       </c>
-      <c r="D4" t="s">
-        <v>622</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="M4" t="s">
         <v>638</v>
       </c>
-      <c r="F4" t="s">
-        <v>602</v>
-      </c>
-      <c r="G4" t="s">
-        <v>603</v>
-      </c>
-      <c r="H4" t="s">
-        <v>604</v>
-      </c>
-      <c r="I4" t="s">
-        <v>605</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>639</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>640</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>641</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>642</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
+        <v>610</v>
+      </c>
+      <c r="S4" t="s">
+        <v>611</v>
+      </c>
+      <c r="T4" t="s">
         <v>643</v>
       </c>
-      <c r="O4" t="s">
+      <c r="U4" t="s">
         <v>644</v>
-      </c>
-      <c r="P4" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>646</v>
-      </c>
-      <c r="R4" t="s">
-        <v>614</v>
-      </c>
-      <c r="S4" t="s">
-        <v>615</v>
-      </c>
-      <c r="T4" t="s">
-        <v>647</v>
-      </c>
-      <c r="U4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:76">
@@ -11137,46 +11137,46 @@
         <v>214</v>
       </c>
       <c r="B5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D5" t="s">
         <v>599</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G5" t="s">
+        <v>646</v>
+      </c>
+      <c r="H5" t="s">
         <v>601</v>
       </c>
-      <c r="D5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E5" t="s">
-        <v>604</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
+        <v>647</v>
+      </c>
+      <c r="J5" t="s">
+        <v>648</v>
+      </c>
+      <c r="K5" t="s">
         <v>649</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
         <v>650</v>
       </c>
-      <c r="H5" t="s">
-        <v>605</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>651</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>652</v>
       </c>
-      <c r="K5" t="s">
-        <v>653</v>
-      </c>
-      <c r="L5" t="s">
-        <v>654</v>
-      </c>
-      <c r="M5" t="s">
-        <v>655</v>
-      </c>
-      <c r="N5" t="s">
-        <v>656</v>
-      </c>
       <c r="O5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:76">
@@ -11184,37 +11184,37 @@
         <v>379</v>
       </c>
       <c r="B6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" t="s">
+        <v>654</v>
+      </c>
+      <c r="E6" t="s">
+        <v>655</v>
+      </c>
+      <c r="F6" t="s">
+        <v>656</v>
+      </c>
+      <c r="G6" t="s">
         <v>657</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>658</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>659</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>660</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>661</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
         <v>662</v>
-      </c>
-      <c r="H6" t="s">
-        <v>663</v>
-      </c>
-      <c r="I6" t="s">
-        <v>664</v>
-      </c>
-      <c r="J6" t="s">
-        <v>665</v>
-      </c>
-      <c r="K6" t="s">
-        <v>666</v>
-      </c>
-      <c r="L6" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:76">
@@ -11222,37 +11222,37 @@
         <v>377</v>
       </c>
       <c r="B7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D7" t="s">
+        <v>663</v>
+      </c>
+      <c r="E7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G7" t="s">
+        <v>666</v>
+      </c>
+      <c r="H7" t="s">
+        <v>600</v>
+      </c>
+      <c r="I7" t="s">
+        <v>667</v>
+      </c>
+      <c r="J7" t="s">
         <v>668</v>
       </c>
-      <c r="C7" t="s">
-        <v>605</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="K7" t="s">
         <v>669</v>
       </c>
-      <c r="E7" t="s">
-        <v>670</v>
-      </c>
-      <c r="F7" t="s">
-        <v>671</v>
-      </c>
-      <c r="G7" t="s">
-        <v>672</v>
-      </c>
-      <c r="H7" t="s">
-        <v>604</v>
-      </c>
-      <c r="I7" t="s">
-        <v>673</v>
-      </c>
-      <c r="J7" t="s">
-        <v>674</v>
-      </c>
-      <c r="K7" t="s">
-        <v>675</v>
-      </c>
       <c r="L7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:76">
@@ -11260,37 +11260,37 @@
         <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>676</v>
+        <v>1129</v>
       </c>
       <c r="C8" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D8" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E8" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F8" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G8" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="H8" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="I8" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="J8" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="K8" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="L8" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:76">
@@ -11298,43 +11298,43 @@
         <v>215</v>
       </c>
       <c r="B9" t="s">
-        <v>684</v>
+        <v>1130</v>
       </c>
       <c r="C9" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D9" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="E9" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F9" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G9" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="H9" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="I9" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="J9" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="K9" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="M9" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="N9" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:76">
@@ -11342,43 +11342,43 @@
         <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>677</v>
+        <v>1131</v>
       </c>
       <c r="C10" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F10" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="G10" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="H10" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="I10" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="J10" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="K10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="M10" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="N10" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:76">
@@ -11386,61 +11386,61 @@
         <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>685</v>
+        <v>1132</v>
       </c>
       <c r="C11" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E11" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F11" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="G11" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="H11" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="I11" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="J11" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="K11" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="L11" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="M11" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="N11" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="O11" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="P11" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="Q11" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="R11" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="S11" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="T11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:76">
@@ -11448,229 +11448,229 @@
         <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>694</v>
+        <v>1133</v>
       </c>
       <c r="C12" t="s">
+        <v>700</v>
+      </c>
+      <c r="D12" t="s">
+        <v>701</v>
+      </c>
+      <c r="E12" t="s">
+        <v>702</v>
+      </c>
+      <c r="F12" t="s">
+        <v>598</v>
+      </c>
+      <c r="G12" t="s">
+        <v>703</v>
+      </c>
+      <c r="H12" t="s">
+        <v>704</v>
+      </c>
+      <c r="I12" t="s">
+        <v>705</v>
+      </c>
+      <c r="J12" t="s">
+        <v>706</v>
+      </c>
+      <c r="K12" t="s">
+        <v>707</v>
+      </c>
+      <c r="L12" t="s">
+        <v>708</v>
+      </c>
+      <c r="M12" t="s">
+        <v>709</v>
+      </c>
+      <c r="N12" t="s">
+        <v>710</v>
+      </c>
+      <c r="O12" t="s">
         <v>711</v>
       </c>
-      <c r="D12" t="s">
+      <c r="P12" t="s">
         <v>712</v>
       </c>
-      <c r="E12" t="s">
+      <c r="Q12" t="s">
         <v>713</v>
       </c>
-      <c r="F12" t="s">
-        <v>602</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="R12" t="s">
         <v>714</v>
       </c>
-      <c r="H12" t="s">
+      <c r="S12" t="s">
         <v>715</v>
       </c>
-      <c r="I12" t="s">
+      <c r="T12" t="s">
         <v>716</v>
       </c>
-      <c r="J12" t="s">
+      <c r="U12" t="s">
         <v>717</v>
       </c>
-      <c r="K12" t="s">
+      <c r="V12" t="s">
         <v>718</v>
       </c>
-      <c r="L12" t="s">
+      <c r="W12" t="s">
         <v>719</v>
       </c>
-      <c r="M12" t="s">
+      <c r="X12" t="s">
         <v>720</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Y12" t="s">
         <v>721</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Z12" t="s">
         <v>722</v>
       </c>
-      <c r="P12" t="s">
+      <c r="AA12" t="s">
         <v>723</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="AB12" t="s">
         <v>724</v>
       </c>
-      <c r="R12" t="s">
+      <c r="AC12" t="s">
         <v>725</v>
       </c>
-      <c r="S12" t="s">
+      <c r="AD12" t="s">
         <v>726</v>
       </c>
-      <c r="T12" t="s">
+      <c r="AE12" t="s">
         <v>727</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AF12" t="s">
         <v>728</v>
       </c>
-      <c r="V12" t="s">
+      <c r="AG12" t="s">
+        <v>730</v>
+      </c>
+      <c r="AH12" t="s">
         <v>729</v>
       </c>
-      <c r="W12" t="s">
-        <v>730</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="AI12" t="s">
         <v>731</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AJ12" t="s">
         <v>732</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AK12" t="s">
         <v>733</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AL12" t="s">
         <v>734</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AM12" t="s">
         <v>735</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AN12" t="s">
         <v>736</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AO12" t="s">
         <v>737</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AP12" t="s">
         <v>738</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AQ12" t="s">
         <v>739</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AR12" t="s">
+        <v>740</v>
+      </c>
+      <c r="AS12" t="s">
         <v>741</v>
       </c>
-      <c r="AH12" t="s">
-        <v>740</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AT12" t="s">
         <v>742</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AU12" t="s">
         <v>743</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AV12" t="s">
         <v>744</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AW12" t="s">
         <v>745</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AX12" t="s">
         <v>746</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AY12" t="s">
         <v>747</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AZ12" t="s">
         <v>748</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="BA12" t="s">
         <v>749</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="BB12" t="s">
         <v>750</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="BC12" t="s">
         <v>751</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="BD12" t="s">
         <v>752</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="BE12" t="s">
         <v>753</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="BF12" t="s">
         <v>754</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="BG12" t="s">
         <v>755</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="BH12" t="s">
         <v>756</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="BI12" t="s">
         <v>757</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="BJ12" t="s">
         <v>758</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BK12" t="s">
         <v>759</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BL12" t="s">
         <v>760</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BM12" t="s">
         <v>761</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BN12" t="s">
         <v>762</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BO12" t="s">
         <v>763</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BP12" t="s">
         <v>764</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BQ12" t="s">
         <v>765</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BR12" t="s">
         <v>766</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BS12" t="s">
         <v>767</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BT12" t="s">
         <v>768</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BU12" t="s">
         <v>769</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BV12" t="s">
         <v>770</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BW12" t="s">
         <v>771</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BX12" t="s">
         <v>772</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>773</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>774</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>775</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>776</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>777</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>778</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>779</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>780</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>781</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>782</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:76">
@@ -11678,43 +11678,43 @@
         <v>218</v>
       </c>
       <c r="B13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" t="s">
+        <v>774</v>
+      </c>
+      <c r="E13" t="s">
+        <v>776</v>
+      </c>
+      <c r="F13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G13" t="s">
+        <v>778</v>
+      </c>
+      <c r="H13" t="s">
+        <v>779</v>
+      </c>
+      <c r="I13" t="s">
+        <v>780</v>
+      </c>
+      <c r="J13" t="s">
+        <v>781</v>
+      </c>
+      <c r="K13" t="s">
+        <v>782</v>
+      </c>
+      <c r="L13" t="s">
+        <v>783</v>
+      </c>
+      <c r="M13" t="s">
         <v>784</v>
       </c>
-      <c r="C13" t="s">
+      <c r="N13" t="s">
         <v>785</v>
-      </c>
-      <c r="D13" t="s">
-        <v>786</v>
-      </c>
-      <c r="E13" t="s">
-        <v>788</v>
-      </c>
-      <c r="F13" t="s">
-        <v>789</v>
-      </c>
-      <c r="G13" t="s">
-        <v>790</v>
-      </c>
-      <c r="H13" t="s">
-        <v>791</v>
-      </c>
-      <c r="I13" t="s">
-        <v>792</v>
-      </c>
-      <c r="J13" t="s">
-        <v>793</v>
-      </c>
-      <c r="K13" t="s">
-        <v>794</v>
-      </c>
-      <c r="L13" t="s">
-        <v>795</v>
-      </c>
-      <c r="M13" t="s">
-        <v>796</v>
-      </c>
-      <c r="N13" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:76">
@@ -11722,19 +11722,19 @@
         <v>561</v>
       </c>
       <c r="B14" t="s">
-        <v>801</v>
+        <v>1135</v>
       </c>
       <c r="C14" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="D14" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="E14" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="F14" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
     </row>
     <row r="15" spans="1:76">
@@ -11742,16 +11742,16 @@
         <v>562</v>
       </c>
       <c r="B15" t="s">
-        <v>802</v>
+        <v>1136</v>
       </c>
       <c r="C15" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="D15" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="E15" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:76">
@@ -11759,30 +11759,30 @@
         <v>563</v>
       </c>
       <c r="B16" t="s">
-        <v>803</v>
+        <v>1137</v>
       </c>
       <c r="C16" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="D16" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="E16" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="30" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="B17" t="s">
-        <v>784</v>
+        <v>1134</v>
       </c>
       <c r="C17" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="D17" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -11843,10 +11843,10 @@
         <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="C2" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -11856,56 +11856,56 @@
         <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="C3" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="E3" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="F3" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="G3" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="H3" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="I3" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="J3" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="K3" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="L3" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="M3" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="N3" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1">
       <c r="A4" s="30" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="B4" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="C4" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -11923,10 +11923,10 @@
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1">
       <c r="A5" s="30" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="B5" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -11945,10 +11945,10 @@
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1">
       <c r="A6" s="30" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="B6" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -11967,16 +11967,16 @@
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="B7" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="C7" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="D7" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -11993,25 +11993,25 @@
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1">
       <c r="A8" s="30" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="B8" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="C8" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="D8" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="E8" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="F8" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="G8" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -12025,13 +12025,13 @@
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1">
       <c r="A9" s="30" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="B9" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="C9" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -12049,13 +12049,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="18" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="B10" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C10" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -12063,10 +12063,10 @@
         <v>552</v>
       </c>
       <c r="B11" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="C11" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -12074,16 +12074,16 @@
         <v>551</v>
       </c>
       <c r="B12" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="C12" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="D12" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="E12" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -12091,21 +12091,21 @@
         <v>573</v>
       </c>
       <c r="B13" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="C13" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="D13" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="30" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B14" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -12113,19 +12113,19 @@
         <v>332</v>
       </c>
       <c r="B15" t="s">
-        <v>937</v>
+        <v>922</v>
       </c>
       <c r="C15" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="D15" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="E15" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="F15" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="590" yWindow="1010" windowWidth="16380" windowHeight="7170" tabRatio="474"/>
+    <workbookView xWindow="590" yWindow="1010" windowWidth="16380" windowHeight="7170" tabRatio="474" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="1154">
   <si>
     <t>Identifier</t>
   </si>
@@ -3442,6 +3442,54 @@
   </si>
   <si>
     <t>project.commissioning_time</t>
+  </si>
+  <si>
+    <t>filter.device_shared</t>
+  </si>
+  <si>
+    <t>assembly_duration</t>
+  </si>
+  <si>
+    <t>SimpleDataColumn</t>
+  </si>
+  <si>
+    <t>connect_duration</t>
+  </si>
+  <si>
+    <t>disconnect_duration</t>
+  </si>
+  <si>
+    <t>installation_limit_Cs</t>
+  </si>
+  <si>
+    <t>installation_limit_Hs</t>
+  </si>
+  <si>
+    <t>installation_limit_Tp</t>
+  </si>
+  <si>
+    <t>installation_limit_Ws</t>
+  </si>
+  <si>
+    <t>load_out_method</t>
+  </si>
+  <si>
+    <t>transportation_method</t>
+  </si>
+  <si>
+    <t>filter.view_sub_systems_installation</t>
+  </si>
+  <si>
+    <t>sub_system</t>
+  </si>
+  <si>
+    <t>dry_mass</t>
+  </si>
+  <si>
+    <t>assembly_location</t>
+  </si>
+  <si>
+    <t>filter.view_control_system_installation</t>
   </si>
 </sst>
 </file>
@@ -3602,7 +3650,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3711,13 +3759,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="8" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
@@ -3747,24 +3788,7 @@
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 3 2" xfId="6"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -4137,9 +4161,9 @@
   </sheetPr>
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4200,7 +4224,7 @@
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
     </row>
-    <row r="3" spans="1:8" s="51" customFormat="1">
+    <row r="3" spans="1:8" s="48" customFormat="1">
       <c r="A3" s="41" t="s">
         <v>213</v>
       </c>
@@ -4236,8 +4260,8 @@
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
     </row>
-    <row r="5" spans="1:8" s="51" customFormat="1">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:8" s="48" customFormat="1">
+      <c r="A5" s="50" t="s">
         <v>332</v>
       </c>
       <c r="B5" s="42" t="s">
@@ -4246,13 +4270,13 @@
       <c r="C5" s="43" t="s">
         <v>573</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>911</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="42"/>
-      <c r="H5" s="54"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" s="43" customFormat="1">
       <c r="A6" s="41" t="s">
@@ -4308,11 +4332,11 @@
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
     </row>
-    <row r="9" spans="1:8" s="51" customFormat="1">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:8" s="48" customFormat="1">
+      <c r="A9" s="50" t="s">
         <v>820</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>821</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -4323,10 +4347,10 @@
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-    </row>
-    <row r="10" spans="1:8" s="51" customFormat="1">
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:8" s="48" customFormat="1">
       <c r="A10" s="41" t="s">
         <v>218</v>
       </c>
@@ -4362,7 +4386,7 @@
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
     </row>
-    <row r="12" spans="1:8" s="52" customFormat="1">
+    <row r="12" spans="1:8" s="49" customFormat="1">
       <c r="A12" s="41" t="s">
         <v>212</v>
       </c>
@@ -4380,8 +4404,8 @@
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
     </row>
-    <row r="13" spans="1:8" s="52" customFormat="1">
-      <c r="A13" s="53" t="s">
+    <row r="13" spans="1:8" s="49" customFormat="1">
+      <c r="A13" s="50" t="s">
         <v>370</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -4398,7 +4422,7 @@
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
     </row>
-    <row r="14" spans="1:8" s="54" customFormat="1">
+    <row r="14" spans="1:8" s="51" customFormat="1">
       <c r="A14" s="41" t="s">
         <v>219</v>
       </c>
@@ -4416,7 +4440,7 @@
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
     </row>
-    <row r="15" spans="1:8" s="54" customFormat="1">
+    <row r="15" spans="1:8" s="51" customFormat="1">
       <c r="A15" s="41" t="s">
         <v>217</v>
       </c>
@@ -4434,1617 +4458,1585 @@
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
     </row>
-    <row r="16" spans="1:8" s="52" customFormat="1">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:8" s="51" customFormat="1">
+      <c r="A16" s="50" t="s">
         <v>542</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>954</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="51" t="s">
         <v>922</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-    </row>
-    <row r="17" spans="1:8" s="54" customFormat="1">
-      <c r="A17" s="44" t="s">
+    </row>
+    <row r="17" spans="1:8" s="51" customFormat="1">
+      <c r="A17" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C17" s="43" t="s">
         <v>957</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="51" t="s">
         <v>953</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:8" s="54" customFormat="1">
-      <c r="A18" s="44" t="s">
+    </row>
+    <row r="18" spans="1:8" s="51" customFormat="1">
+      <c r="A18" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C18" s="43" t="s">
         <v>920</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="51" t="s">
         <v>975</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-    </row>
-    <row r="19" spans="1:8" s="54" customFormat="1">
-      <c r="A19" s="44" t="s">
+    </row>
+    <row r="19" spans="1:8" s="51" customFormat="1">
+      <c r="A19" s="50" t="s">
         <v>873</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="C19" s="46" t="s">
+      <c r="B19" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>969</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="42" t="s">
         <v>970</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="1:8" s="52" customFormat="1">
-      <c r="A20" s="44" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" s="51" customFormat="1">
+      <c r="A20" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="51" t="s">
         <v>976</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-    </row>
-    <row r="21" spans="1:8" s="52" customFormat="1">
-      <c r="A21" s="47" t="s">
+    </row>
+    <row r="21" spans="1:8" s="51" customFormat="1">
+      <c r="A21" s="51" t="s">
         <v>552</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C21" s="46" t="s">
+      <c r="B21" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>918</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="43" t="s">
         <v>961</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-    </row>
-    <row r="22" spans="1:8" s="52" customFormat="1">
-      <c r="A22" s="47" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" s="51" customFormat="1">
+      <c r="A22" s="51" t="s">
         <v>549</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>916</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="43" t="s">
         <v>958</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-    </row>
-    <row r="23" spans="1:8" s="54" customFormat="1">
-      <c r="A23" s="47" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" s="51" customFormat="1">
+      <c r="A23" s="51" t="s">
         <v>550</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C23" s="46" t="s">
+      <c r="B23" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C23" s="43" t="s">
         <v>919</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="43" t="s">
         <v>959</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-    </row>
-    <row r="24" spans="1:8" s="52" customFormat="1">
-      <c r="A24" s="47" t="s">
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" s="51" customFormat="1">
+      <c r="A24" s="51" t="s">
         <v>551</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C24" s="43" t="s">
         <v>917</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="43" t="s">
         <v>960</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-    </row>
-    <row r="25" spans="1:8" s="52" customFormat="1">
-      <c r="A25" s="44" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" s="51" customFormat="1">
+      <c r="A25" s="50" t="s">
         <v>543</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C25" s="46" t="s">
+      <c r="B25" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>955</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="51" t="s">
         <v>951</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-    </row>
-    <row r="26" spans="1:8" s="54" customFormat="1">
-      <c r="A26" s="44" t="s">
+    </row>
+    <row r="26" spans="1:8" s="51" customFormat="1">
+      <c r="A26" s="50" t="s">
         <v>565</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="42" t="s">
+        <v>558</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>968</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="42" t="s">
         <v>971</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:8" s="54" customFormat="1">
-      <c r="A27" s="44" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+    </row>
+    <row r="27" spans="1:8" s="51" customFormat="1">
+      <c r="A27" s="50" t="s">
         <v>544</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>956</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="51" t="s">
         <v>952</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-    </row>
-    <row r="28" spans="1:8" s="52" customFormat="1">
-      <c r="A28" s="54" t="s">
+    </row>
+    <row r="28" spans="1:8" s="49" customFormat="1">
+      <c r="A28" s="51" t="s">
         <v>554</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="51" t="s">
         <v>816</v>
       </c>
       <c r="C28" s="43" t="s">
         <v>930</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="51" t="s">
         <v>932</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54" t="s">
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51" t="s">
         <v>774</v>
       </c>
-      <c r="H28" s="54"/>
-    </row>
-    <row r="29" spans="1:8" s="52" customFormat="1">
-      <c r="A29" s="54" t="s">
+      <c r="H28" s="51"/>
+    </row>
+    <row r="29" spans="1:8" s="49" customFormat="1">
+      <c r="A29" s="51" t="s">
         <v>553</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="51" t="s">
         <v>773</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>928</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="51" t="s">
         <v>931</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54" t="s">
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51" t="s">
         <v>774</v>
       </c>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" spans="1:8" s="47" customFormat="1">
-      <c r="A30" s="54" t="s">
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:8" s="44" customFormat="1">
+      <c r="A30" s="51" t="s">
         <v>555</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="51" t="s">
         <v>816</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>929</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="51" t="s">
         <v>933</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54" t="s">
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51" t="s">
         <v>774</v>
       </c>
-      <c r="H30" s="54"/>
-    </row>
-    <row r="31" spans="1:8" s="47" customFormat="1">
-      <c r="A31" s="52" t="s">
+      <c r="H30" s="51"/>
+    </row>
+    <row r="31" spans="1:8" s="44" customFormat="1">
+      <c r="A31" s="49" t="s">
         <v>882</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="48" t="s">
         <v>883</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="48" t="s">
         <v>967</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52" t="s">
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="47" customFormat="1">
-      <c r="A32" s="49" t="s">
+    <row r="32" spans="1:8" s="44" customFormat="1">
+      <c r="A32" s="46" t="s">
         <v>1093</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="48" t="s">
         <v>814</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="49" t="s">
         <v>939</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-    </row>
-    <row r="33" spans="1:8" s="47" customFormat="1">
-      <c r="A33" s="48" t="s">
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+    </row>
+    <row r="33" spans="1:8" s="44" customFormat="1">
+      <c r="A33" s="45" t="s">
         <v>568</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="45" t="s">
         <v>548</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="45" t="s">
         <v>924</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="45" t="s">
         <v>926</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-    </row>
-    <row r="34" spans="1:8" s="47" customFormat="1">
-      <c r="A34" s="49" t="s">
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8" s="44" customFormat="1">
+      <c r="A34" s="46" t="s">
         <v>1137</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="48" t="s">
         <v>948</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="49" t="s">
         <v>949</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="52"/>
-    </row>
-    <row r="35" spans="1:8" s="47" customFormat="1">
-      <c r="A35" s="52" t="s">
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="49"/>
+    </row>
+    <row r="35" spans="1:8" s="44" customFormat="1">
+      <c r="A35" s="49" t="s">
         <v>875</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="49" t="s">
         <v>962</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="48" t="s">
         <v>972</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-    </row>
-    <row r="36" spans="1:8" s="47" customFormat="1">
-      <c r="A36" s="48" t="s">
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+    </row>
+    <row r="36" spans="1:8" s="44" customFormat="1">
+      <c r="A36" s="45" t="s">
         <v>1107</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="45" t="s">
         <v>831</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="45" t="s">
         <v>982</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48" t="s">
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="47" customFormat="1">
-      <c r="A37" s="48" t="s">
+    <row r="37" spans="1:8" s="44" customFormat="1">
+      <c r="A37" s="45" t="s">
         <v>1108</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="45" t="s">
         <v>830</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="45" t="s">
         <v>977</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48" t="s">
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="47" customFormat="1">
-      <c r="A38" s="48" t="s">
+    <row r="38" spans="1:8" s="44" customFormat="1">
+      <c r="A38" s="45" t="s">
         <v>1109</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="45" t="s">
         <v>825</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="45" t="s">
         <v>973</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48" t="s">
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="47" customFormat="1">
-      <c r="A39" s="48" t="s">
+    <row r="39" spans="1:8" s="44" customFormat="1">
+      <c r="A39" s="45" t="s">
         <v>1110</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="45" t="s">
         <v>833</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="45" t="s">
         <v>985</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48" t="s">
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="47" customFormat="1">
-      <c r="A40" s="48" t="s">
+    <row r="40" spans="1:8" s="44" customFormat="1">
+      <c r="A40" s="45" t="s">
         <v>1111</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="45" t="s">
         <v>987</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="47" customFormat="1">
-      <c r="A41" s="48" t="s">
+    <row r="41" spans="1:8" s="44" customFormat="1">
+      <c r="A41" s="45" t="s">
         <v>1112</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="45" t="s">
         <v>834</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="45" t="s">
         <v>990</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="48" customFormat="1">
-      <c r="A42" s="49" t="s">
+    <row r="42" spans="1:8" s="45" customFormat="1">
+      <c r="A42" s="46" t="s">
         <v>1094</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="48" t="s">
         <v>811</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="49" t="s">
         <v>936</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-    </row>
-    <row r="43" spans="1:8" s="48" customFormat="1">
-      <c r="A43" s="48" t="s">
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+    </row>
+    <row r="43" spans="1:8" s="45" customFormat="1">
+      <c r="A43" s="45" t="s">
         <v>1113</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="45" t="s">
         <v>841</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="45" t="s">
         <v>981</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="48" customFormat="1">
-      <c r="A44" s="48" t="s">
+    <row r="44" spans="1:8" s="45" customFormat="1">
+      <c r="A44" s="45" t="s">
         <v>1114</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="45" t="s">
         <v>840</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="45" t="s">
         <v>979</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="48" customFormat="1">
-      <c r="A45" s="48" t="s">
+    <row r="45" spans="1:8" s="45" customFormat="1">
+      <c r="A45" s="45" t="s">
         <v>1115</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="45" t="s">
         <v>839</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="45" t="s">
         <v>978</v>
       </c>
-      <c r="H45" s="48" t="s">
+      <c r="H45" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="48" customFormat="1">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:8" s="45" customFormat="1">
+      <c r="A46" s="45" t="s">
         <v>1116</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="45" t="s">
         <v>984</v>
       </c>
-      <c r="H46" s="48" t="s">
+      <c r="H46" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="48" customFormat="1">
-      <c r="A47" s="48" t="s">
+    <row r="47" spans="1:8" s="45" customFormat="1">
+      <c r="A47" s="45" t="s">
         <v>1117</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="45" t="s">
         <v>842</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="45" t="s">
         <v>988</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="48" customFormat="1">
-      <c r="A48" s="48" t="s">
+    <row r="48" spans="1:8" s="45" customFormat="1">
+      <c r="A48" s="45" t="s">
         <v>1118</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="45" t="s">
         <v>844</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="45" t="s">
         <v>991</v>
       </c>
-      <c r="H48" s="48" t="s">
+      <c r="H48" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="48" customFormat="1">
-      <c r="A49" s="49" t="s">
+    <row r="49" spans="1:8" s="45" customFormat="1">
+      <c r="A49" s="46" t="s">
         <v>1095</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="48" t="s">
         <v>578</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="49" t="s">
         <v>946</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="52"/>
-    </row>
-    <row r="50" spans="1:8" s="48" customFormat="1">
-      <c r="A50" s="49" t="s">
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="49"/>
+    </row>
+    <row r="50" spans="1:8" s="45" customFormat="1">
+      <c r="A50" s="46" t="s">
         <v>1096</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="48" t="s">
         <v>577</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="49" t="s">
         <v>945</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="52"/>
-    </row>
-    <row r="51" spans="1:8" s="48" customFormat="1">
-      <c r="A51" s="49" t="s">
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="49"/>
+    </row>
+    <row r="51" spans="1:8" s="45" customFormat="1">
+      <c r="A51" s="46" t="s">
         <v>1097</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="48" t="s">
         <v>812</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="49" t="s">
         <v>937</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-    </row>
-    <row r="52" spans="1:8" s="48" customFormat="1">
-      <c r="A52" s="48" t="s">
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+    </row>
+    <row r="52" spans="1:8" s="45" customFormat="1">
+      <c r="A52" s="45" t="s">
         <v>1004</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="45" t="s">
         <v>1049</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="45" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="48" customFormat="1">
-      <c r="A53" s="48" t="s">
+    <row r="53" spans="1:8" s="45" customFormat="1">
+      <c r="A53" s="45" t="s">
         <v>1018</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="45" t="s">
         <v>1063</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="52" customFormat="1">
-      <c r="A54" s="48" t="s">
+    <row r="54" spans="1:8" s="49" customFormat="1">
+      <c r="A54" s="45" t="s">
         <v>1007</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="45" t="s">
         <v>1052</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="45" t="s">
         <v>1038</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-    </row>
-    <row r="55" spans="1:8" s="48" customFormat="1">
-      <c r="A55" s="48" t="s">
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+    </row>
+    <row r="55" spans="1:8" s="45" customFormat="1">
+      <c r="A55" s="45" t="s">
         <v>1021</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="45" t="s">
         <v>1066</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="48" customFormat="1">
-      <c r="A56" s="48" t="s">
+    <row r="56" spans="1:8" s="45" customFormat="1">
+      <c r="A56" s="45" t="s">
         <v>1001</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C56" s="48" t="s">
+      <c r="C56" s="45" t="s">
         <v>1046</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="45" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="48" customFormat="1">
-      <c r="A57" s="48" t="s">
+    <row r="57" spans="1:8" s="45" customFormat="1">
+      <c r="A57" s="45" t="s">
         <v>1015</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="45" t="s">
         <v>1060</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="48" customFormat="1">
-      <c r="A58" s="48" t="s">
+    <row r="58" spans="1:8" s="45" customFormat="1">
+      <c r="A58" s="45" t="s">
         <v>1009</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="45" t="s">
         <v>1054</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="45" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="48" customFormat="1">
-      <c r="A59" s="48" t="s">
+    <row r="59" spans="1:8" s="45" customFormat="1">
+      <c r="A59" s="45" t="s">
         <v>1023</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="45" t="s">
         <v>1068</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="48" customFormat="1">
-      <c r="A60" s="48" t="s">
+    <row r="60" spans="1:8" s="45" customFormat="1">
+      <c r="A60" s="45" t="s">
         <v>1012</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="45" t="s">
         <v>1057</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="45" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="48" customFormat="1">
-      <c r="A61" s="48" t="s">
+    <row r="61" spans="1:8" s="45" customFormat="1">
+      <c r="A61" s="45" t="s">
         <v>1026</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="45" t="s">
         <v>1071</v>
       </c>
-      <c r="D61" s="48" t="s">
+      <c r="D61" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="48" customFormat="1">
-      <c r="A62" s="48" t="s">
+    <row r="62" spans="1:8" s="45" customFormat="1">
+      <c r="A62" s="45" t="s">
         <v>1008</v>
       </c>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="45" t="s">
         <v>1053</v>
       </c>
-      <c r="D62" s="48" t="s">
+      <c r="D62" s="45" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="48" customFormat="1">
-      <c r="A63" s="48" t="s">
+    <row r="63" spans="1:8" s="45" customFormat="1">
+      <c r="A63" s="45" t="s">
         <v>1022</v>
       </c>
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="45" t="s">
         <v>1067</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="D63" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="48" customFormat="1">
-      <c r="A64" s="48" t="s">
+    <row r="64" spans="1:8" s="45" customFormat="1">
+      <c r="A64" s="45" t="s">
         <v>1002</v>
       </c>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="45" t="s">
         <v>1047</v>
       </c>
-      <c r="D64" s="48" t="s">
+      <c r="D64" s="45" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="48" customFormat="1">
-      <c r="A65" s="48" t="s">
+    <row r="65" spans="1:8" s="45" customFormat="1">
+      <c r="A65" s="45" t="s">
         <v>1016</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="45" t="s">
         <v>1061</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="48" customFormat="1">
-      <c r="A66" s="48" t="s">
+    <row r="66" spans="1:8" s="45" customFormat="1">
+      <c r="A66" s="45" t="s">
         <v>1003</v>
       </c>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="45" t="s">
         <v>1048</v>
       </c>
-      <c r="D66" s="48" t="s">
+      <c r="D66" s="45" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="48" customFormat="1">
-      <c r="A67" s="48" t="s">
+    <row r="67" spans="1:8" s="45" customFormat="1">
+      <c r="A67" s="45" t="s">
         <v>1017</v>
       </c>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="45" t="s">
         <v>1062</v>
       </c>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="48" customFormat="1">
-      <c r="A68" s="48" t="s">
+    <row r="68" spans="1:8" s="45" customFormat="1">
+      <c r="A68" s="45" t="s">
         <v>1010</v>
       </c>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="45" t="s">
         <v>1055</v>
       </c>
-      <c r="D68" s="48" t="s">
+      <c r="D68" s="45" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="48" customFormat="1">
-      <c r="A69" s="48" t="s">
+    <row r="69" spans="1:8" s="45" customFormat="1">
+      <c r="A69" s="45" t="s">
         <v>1024</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="45" t="s">
         <v>1069</v>
       </c>
-      <c r="D69" s="48" t="s">
+      <c r="D69" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="54" customFormat="1">
-      <c r="A70" s="48" t="s">
+    <row r="70" spans="1:8" s="51" customFormat="1">
+      <c r="A70" s="45" t="s">
         <v>1011</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="45" t="s">
         <v>1056</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="45" t="s">
         <v>1042</v>
       </c>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-    </row>
-    <row r="71" spans="1:8" s="48" customFormat="1">
-      <c r="A71" s="48" t="s">
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+    </row>
+    <row r="71" spans="1:8" s="45" customFormat="1">
+      <c r="A71" s="45" t="s">
         <v>1025</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="45" t="s">
         <v>1070</v>
       </c>
-      <c r="D71" s="48" t="s">
+      <c r="D71" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="48" customFormat="1">
-      <c r="A72" s="48" t="s">
+    <row r="72" spans="1:8" s="45" customFormat="1">
+      <c r="A72" s="45" t="s">
         <v>1006</v>
       </c>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C72" s="48" t="s">
+      <c r="C72" s="45" t="s">
         <v>1051</v>
       </c>
-      <c r="D72" s="48" t="s">
+      <c r="D72" s="45" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="54" customFormat="1">
-      <c r="A73" s="48" t="s">
+    <row r="73" spans="1:8" s="51" customFormat="1">
+      <c r="A73" s="45" t="s">
         <v>1020</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="45" t="s">
         <v>1065</v>
       </c>
-      <c r="D73" s="48" t="s">
+      <c r="D73" s="45" t="s">
         <v>1073</v>
       </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-    </row>
-    <row r="74" spans="1:8" s="54" customFormat="1">
-      <c r="A74" s="48" t="s">
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+    </row>
+    <row r="74" spans="1:8" s="51" customFormat="1">
+      <c r="A74" s="45" t="s">
         <v>1013</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C74" s="48" t="s">
+      <c r="C74" s="45" t="s">
         <v>1058</v>
       </c>
-      <c r="D74" s="48" t="s">
+      <c r="D74" s="45" t="s">
         <v>1044</v>
       </c>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-    </row>
-    <row r="75" spans="1:8" s="52" customFormat="1">
-      <c r="A75" s="48" t="s">
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+    </row>
+    <row r="75" spans="1:8" s="49" customFormat="1">
+      <c r="A75" s="45" t="s">
         <v>1027</v>
       </c>
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="45" t="s">
         <v>1072</v>
       </c>
-      <c r="D75" s="48" t="s">
+      <c r="D75" s="45" t="s">
         <v>1073</v>
       </c>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-    </row>
-    <row r="76" spans="1:8" s="52" customFormat="1">
-      <c r="A76" s="48" t="s">
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+    </row>
+    <row r="76" spans="1:8" s="49" customFormat="1">
+      <c r="A76" s="45" t="s">
         <v>1000</v>
       </c>
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="45" t="s">
         <v>1045</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="45" t="s">
         <v>1031</v>
       </c>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-    </row>
-    <row r="77" spans="1:8" s="48" customFormat="1">
-      <c r="A77" s="48" t="s">
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+    </row>
+    <row r="77" spans="1:8" s="45" customFormat="1">
+      <c r="A77" s="45" t="s">
         <v>1014</v>
       </c>
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="45" t="s">
         <v>1059</v>
       </c>
-      <c r="D77" s="48" t="s">
+      <c r="D77" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="52" customFormat="1">
-      <c r="A78" s="48" t="s">
+    <row r="78" spans="1:8" s="49" customFormat="1">
+      <c r="A78" s="45" t="s">
         <v>1005</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="45" t="s">
         <v>1030</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="45" t="s">
         <v>1050</v>
       </c>
-      <c r="D78" s="48" t="s">
+      <c r="D78" s="45" t="s">
         <v>1036</v>
       </c>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-    </row>
-    <row r="79" spans="1:8" s="48" customFormat="1">
-      <c r="A79" s="48" t="s">
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+    </row>
+    <row r="79" spans="1:8" s="45" customFormat="1">
+      <c r="A79" s="45" t="s">
         <v>1019</v>
       </c>
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="45" t="s">
         <v>1064</v>
       </c>
-      <c r="D79" s="48" t="s">
+      <c r="D79" s="45" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="48" customFormat="1">
-      <c r="A80" s="48" t="s">
+    <row r="80" spans="1:8" s="45" customFormat="1">
+      <c r="A80" s="45" t="s">
         <v>823</v>
       </c>
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="45" t="s">
         <v>548</v>
       </c>
-      <c r="C80" s="48" t="s">
+      <c r="C80" s="45" t="s">
         <v>925</v>
       </c>
-      <c r="D80" s="48" t="s">
+      <c r="D80" s="45" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="55" customFormat="1">
-      <c r="A81" s="48" t="s">
+    <row r="81" spans="1:8" s="52" customFormat="1">
+      <c r="A81" s="45" t="s">
         <v>1120</v>
       </c>
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C81" s="48" t="s">
+      <c r="C81" s="45" t="s">
         <v>852</v>
       </c>
-      <c r="D81" s="48" t="s">
+      <c r="D81" s="45" t="s">
         <v>996</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48" t="s">
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="48" customFormat="1">
-      <c r="A82" s="55" t="s">
+    <row r="82" spans="1:8" s="45" customFormat="1">
+      <c r="A82" s="52" t="s">
         <v>1121</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="52" t="s">
         <v>857</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="C82" s="52" t="s">
         <v>863</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D82" s="52" t="s">
         <v>999</v>
       </c>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55" t="s">
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="48" customFormat="1">
-      <c r="A83" s="48" t="s">
+    <row r="83" spans="1:8" s="45" customFormat="1">
+      <c r="A83" s="45" t="s">
         <v>1122</v>
       </c>
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C83" s="48" t="s">
+      <c r="C83" s="45" t="s">
         <v>579</v>
       </c>
-      <c r="D83" s="48" t="s">
+      <c r="D83" s="45" t="s">
         <v>965</v>
       </c>
-      <c r="H83" s="48" t="s">
+      <c r="H83" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="48" customFormat="1">
-      <c r="A84" s="48" t="s">
+    <row r="84" spans="1:8" s="45" customFormat="1">
+      <c r="A84" s="45" t="s">
         <v>1123</v>
       </c>
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="45" t="s">
         <v>851</v>
       </c>
-      <c r="D84" s="48" t="s">
+      <c r="D84" s="45" t="s">
         <v>993</v>
       </c>
-      <c r="H84" s="48" t="s">
+      <c r="H84" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="48" customFormat="1">
-      <c r="A85" s="48" t="s">
+    <row r="85" spans="1:8" s="45" customFormat="1">
+      <c r="A85" s="45" t="s">
         <v>1124</v>
       </c>
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C85" s="48" t="s">
+      <c r="C85" s="45" t="s">
         <v>853</v>
       </c>
-      <c r="D85" s="48" t="s">
+      <c r="D85" s="45" t="s">
         <v>995</v>
       </c>
-      <c r="H85" s="48" t="s">
+      <c r="H85" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="48" customFormat="1">
-      <c r="A86" s="48" t="s">
+    <row r="86" spans="1:8" s="45" customFormat="1">
+      <c r="A86" s="45" t="s">
         <v>1028</v>
       </c>
-      <c r="B86" s="48" t="s">
+      <c r="B86" s="45" t="s">
         <v>1029</v>
       </c>
-      <c r="C86" s="48" t="s">
+      <c r="C86" s="45" t="s">
         <v>1074</v>
       </c>
-      <c r="D86" s="48" t="s">
+      <c r="D86" s="45" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="48" customFormat="1">
-      <c r="A87" s="48" t="s">
+    <row r="87" spans="1:8" s="45" customFormat="1">
+      <c r="A87" s="45" t="s">
         <v>1125</v>
       </c>
-      <c r="B87" s="48" t="s">
+      <c r="B87" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C87" s="48" t="s">
+      <c r="C87" s="45" t="s">
         <v>854</v>
       </c>
-      <c r="D87" s="48" t="s">
+      <c r="D87" s="45" t="s">
         <v>997</v>
       </c>
-      <c r="H87" s="48" t="s">
+      <c r="H87" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="48" customFormat="1">
-      <c r="A88" s="48" t="s">
+    <row r="88" spans="1:8" s="45" customFormat="1">
+      <c r="A88" s="45" t="s">
         <v>1126</v>
       </c>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="45" t="s">
         <v>580</v>
       </c>
-      <c r="D88" s="48" t="s">
+      <c r="D88" s="45" t="s">
         <v>966</v>
       </c>
-      <c r="H88" s="48" t="s">
+      <c r="H88" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="48" customFormat="1">
-      <c r="A89" s="52" t="s">
+    <row r="89" spans="1:8" s="45" customFormat="1">
+      <c r="A89" s="49" t="s">
         <v>1106</v>
       </c>
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="48" t="s">
         <v>817</v>
       </c>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="E89" s="51"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-    </row>
-    <row r="90" spans="1:8" s="48" customFormat="1">
-      <c r="A90" s="49" t="s">
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+    </row>
+    <row r="90" spans="1:8" s="45" customFormat="1">
+      <c r="A90" s="46" t="s">
         <v>1119</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="48" t="s">
         <v>910</v>
       </c>
-      <c r="D90" s="52" t="s">
+      <c r="D90" s="49" t="s">
         <v>912</v>
       </c>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="52"/>
-    </row>
-    <row r="91" spans="1:8" s="48" customFormat="1">
-      <c r="A91" s="49" t="s">
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="49"/>
+    </row>
+    <row r="91" spans="1:8" s="45" customFormat="1">
+      <c r="A91" s="46" t="s">
         <v>1098</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="48" t="s">
         <v>576</v>
       </c>
-      <c r="D91" s="52" t="s">
+      <c r="D91" s="49" t="s">
         <v>944</v>
       </c>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="52"/>
-    </row>
-    <row r="92" spans="1:8" s="48" customFormat="1">
-      <c r="A92" s="48" t="s">
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="49"/>
+    </row>
+    <row r="92" spans="1:8" s="45" customFormat="1">
+      <c r="A92" s="45" t="s">
         <v>1127</v>
       </c>
-      <c r="B92" s="48" t="s">
+      <c r="B92" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="45" t="s">
         <v>847</v>
       </c>
-      <c r="D92" s="48" t="s">
+      <c r="D92" s="45" t="s">
         <v>983</v>
       </c>
-      <c r="H92" s="48" t="s">
+      <c r="H92" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="48" customFormat="1">
-      <c r="A93" s="48" t="s">
+    <row r="93" spans="1:8" s="45" customFormat="1">
+      <c r="A93" s="45" t="s">
         <v>1128</v>
       </c>
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C93" s="48" t="s">
+      <c r="C93" s="45" t="s">
         <v>846</v>
       </c>
-      <c r="D93" s="48" t="s">
+      <c r="D93" s="45" t="s">
         <v>980</v>
       </c>
-      <c r="H93" s="48" t="s">
+      <c r="H93" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="48" customFormat="1">
-      <c r="A94" s="48" t="s">
+    <row r="94" spans="1:8" s="45" customFormat="1">
+      <c r="A94" s="45" t="s">
         <v>1129</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="45" t="s">
         <v>845</v>
       </c>
-      <c r="D94" s="48" t="s">
+      <c r="D94" s="45" t="s">
         <v>974</v>
       </c>
-      <c r="H94" s="48" t="s">
+      <c r="H94" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="48" customFormat="1">
-      <c r="A95" s="48" t="s">
+    <row r="95" spans="1:8" s="45" customFormat="1">
+      <c r="A95" s="45" t="s">
         <v>1130</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C95" s="48" t="s">
+      <c r="C95" s="45" t="s">
         <v>849</v>
       </c>
-      <c r="D95" s="48" t="s">
+      <c r="D95" s="45" t="s">
         <v>986</v>
       </c>
-      <c r="H95" s="48" t="s">
+      <c r="H95" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="48" customFormat="1">
-      <c r="A96" s="48" t="s">
+    <row r="96" spans="1:8" s="45" customFormat="1">
+      <c r="A96" s="45" t="s">
         <v>1131</v>
       </c>
-      <c r="B96" s="48" t="s">
+      <c r="B96" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="C96" s="48" t="s">
+      <c r="C96" s="45" t="s">
         <v>848</v>
       </c>
-      <c r="D96" s="48" t="s">
+      <c r="D96" s="45" t="s">
         <v>989</v>
       </c>
-      <c r="H96" s="48" t="s">
+      <c r="H96" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="48" customFormat="1">
-      <c r="A97" s="48" t="s">
+    <row r="97" spans="1:8" s="45" customFormat="1">
+      <c r="A97" s="45" t="s">
         <v>1132</v>
       </c>
-      <c r="B97" s="48" t="s">
+      <c r="B97" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="C97" s="48" t="s">
+      <c r="C97" s="45" t="s">
         <v>850</v>
       </c>
-      <c r="D97" s="48" t="s">
+      <c r="D97" s="45" t="s">
         <v>992</v>
       </c>
-      <c r="H97" s="48" t="s">
+      <c r="H97" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="48" customFormat="1">
-      <c r="A98" s="48" t="s">
+    <row r="98" spans="1:8" s="45" customFormat="1">
+      <c r="A98" s="45" t="s">
         <v>1133</v>
       </c>
-      <c r="B98" s="48" t="s">
+      <c r="B98" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C98" s="48" t="s">
+      <c r="C98" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="D98" s="48" t="s">
+      <c r="D98" s="45" t="s">
         <v>964</v>
       </c>
-      <c r="H98" s="48" t="s">
+      <c r="H98" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="48" customFormat="1">
-      <c r="A99" s="48" t="s">
+    <row r="99" spans="1:8" s="45" customFormat="1">
+      <c r="A99" s="45" t="s">
         <v>1134</v>
       </c>
-      <c r="B99" s="48" t="s">
+      <c r="B99" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C99" s="48" t="s">
+      <c r="C99" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="D99" s="48" t="s">
+      <c r="D99" s="45" t="s">
         <v>927</v>
       </c>
-      <c r="H99" s="48" t="s">
+      <c r="H99" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="48" customFormat="1">
-      <c r="A100" s="49" t="s">
+    <row r="100" spans="1:8" s="45" customFormat="1">
+      <c r="A100" s="46" t="s">
         <v>876</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B100" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="48" t="s">
         <v>950</v>
       </c>
-      <c r="D100" s="52" t="s">
+      <c r="D100" s="49" t="s">
         <v>947</v>
       </c>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="52"/>
-    </row>
-    <row r="101" spans="1:8" s="48" customFormat="1">
-      <c r="A101" s="49" t="s">
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="49"/>
+    </row>
+    <row r="101" spans="1:8" s="45" customFormat="1">
+      <c r="A101" s="46" t="s">
         <v>1099</v>
       </c>
-      <c r="B101" s="50" t="s">
+      <c r="B101" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="48" t="s">
         <v>581</v>
       </c>
-      <c r="D101" s="52" t="s">
+      <c r="D101" s="49" t="s">
         <v>934</v>
       </c>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="52"/>
-    </row>
-    <row r="102" spans="1:8" s="48" customFormat="1">
-      <c r="A102" s="49" t="s">
+      <c r="E101" s="49"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="49"/>
+    </row>
+    <row r="102" spans="1:8" s="45" customFormat="1">
+      <c r="A102" s="46" t="s">
         <v>1100</v>
       </c>
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="C102" s="51" t="s">
+      <c r="C102" s="48" t="s">
         <v>810</v>
       </c>
-      <c r="D102" s="52" t="s">
+      <c r="D102" s="49" t="s">
         <v>935</v>
       </c>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-    </row>
-    <row r="103" spans="1:8" s="48" customFormat="1">
-      <c r="A103" s="49" t="s">
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="49"/>
+    </row>
+    <row r="103" spans="1:8" s="45" customFormat="1">
+      <c r="A103" s="46" t="s">
         <v>1101</v>
       </c>
-      <c r="B103" s="50" t="s">
+      <c r="B103" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="C103" s="51" t="s">
+      <c r="C103" s="48" t="s">
         <v>575</v>
       </c>
-      <c r="D103" s="52" t="s">
+      <c r="D103" s="49" t="s">
         <v>943</v>
       </c>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="52"/>
-    </row>
-    <row r="104" spans="1:8" s="48" customFormat="1">
-      <c r="A104" s="49" t="s">
+      <c r="E103" s="49"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="49"/>
+    </row>
+    <row r="104" spans="1:8" s="45" customFormat="1">
+      <c r="A104" s="46" t="s">
         <v>1102</v>
       </c>
-      <c r="B104" s="50" t="s">
+      <c r="B104" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="C104" s="51" t="s">
+      <c r="C104" s="48" t="s">
         <v>815</v>
       </c>
-      <c r="D104" s="52" t="s">
+      <c r="D104" s="49" t="s">
         <v>940</v>
       </c>
-      <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-    </row>
-    <row r="105" spans="1:8" s="48" customFormat="1">
-      <c r="A105" s="49" t="s">
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="49"/>
+    </row>
+    <row r="105" spans="1:8" s="45" customFormat="1">
+      <c r="A105" s="46" t="s">
         <v>556</v>
       </c>
-      <c r="B105" s="52" t="s">
+      <c r="B105" s="49" t="s">
         <v>548</v>
       </c>
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="48" t="s">
         <v>914</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D105" s="48" t="s">
         <v>915</v>
       </c>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-    </row>
-    <row r="106" spans="1:8" s="48" customFormat="1">
-      <c r="A106" s="49" t="s">
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+    </row>
+    <row r="106" spans="1:8" s="45" customFormat="1">
+      <c r="A106" s="46" t="s">
         <v>1103</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="48" t="s">
         <v>574</v>
       </c>
-      <c r="D106" s="52" t="s">
+      <c r="D106" s="49" t="s">
         <v>942</v>
       </c>
-      <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="52"/>
-    </row>
-    <row r="107" spans="1:8" s="48" customFormat="1">
-      <c r="A107" s="48" t="s">
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="49"/>
+    </row>
+    <row r="107" spans="1:8" s="45" customFormat="1">
+      <c r="A107" s="45" t="s">
         <v>1135</v>
       </c>
-      <c r="B107" s="48" t="s">
+      <c r="B107" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C107" s="48" t="s">
+      <c r="C107" s="45" t="s">
         <v>855</v>
       </c>
-      <c r="D107" s="48" t="s">
+      <c r="D107" s="45" t="s">
         <v>994</v>
       </c>
-      <c r="H107" s="48" t="s">
+      <c r="H107" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="48" customFormat="1">
-      <c r="A108" s="48" t="s">
+    <row r="108" spans="1:8" s="45" customFormat="1">
+      <c r="A108" s="45" t="s">
         <v>1136</v>
       </c>
-      <c r="B108" s="48" t="s">
+      <c r="B108" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C108" s="48" t="s">
+      <c r="C108" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="D108" s="48" t="s">
+      <c r="D108" s="45" t="s">
         <v>998</v>
       </c>
-      <c r="H108" s="48" t="s">
+      <c r="H108" s="45" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="52" customFormat="1">
-      <c r="A109" s="49" t="s">
+    <row r="109" spans="1:8" s="49" customFormat="1">
+      <c r="A109" s="46" t="s">
         <v>1104</v>
       </c>
-      <c r="B109" s="50" t="s">
+      <c r="B109" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="C109" s="51" t="s">
+      <c r="C109" s="48" t="s">
         <v>909</v>
       </c>
-      <c r="D109" s="52" t="s">
+      <c r="D109" s="49" t="s">
         <v>941</v>
       </c>
-      <c r="G109" s="50"/>
-    </row>
-    <row r="110" spans="1:8" s="52" customFormat="1">
-      <c r="A110" s="49" t="s">
+      <c r="G109" s="47"/>
+    </row>
+    <row r="110" spans="1:8" s="49" customFormat="1">
+      <c r="A110" s="46" t="s">
         <v>1105</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="48" t="s">
         <v>813</v>
       </c>
-      <c r="D110" s="52" t="s">
+      <c r="D110" s="49" t="s">
         <v>938</v>
       </c>
     </row>
@@ -6069,8 +6061,8 @@
   </sheetPr>
   <dimension ref="A1:CK32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.54296875" defaultRowHeight="14.5"/>
@@ -11133,10 +11125,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:BX17"/>
+  <dimension ref="A1:BX29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -11996,7 +11988,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:9">
       <c r="A17" s="29" t="s">
         <v>820</v>
       </c>
@@ -12008,6 +12000,174 @@
       </c>
       <c r="D17" t="s">
         <v>761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>542</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>547</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>545</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>552</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>549</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>550</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>551</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>543</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>544</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>584</v>
+      </c>
+      <c r="E28" t="s">
+        <v>585</v>
+      </c>
+      <c r="F28" t="s">
+        <v>586</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>873</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D29" t="s">
+        <v>584</v>
+      </c>
+      <c r="E29" t="s">
+        <v>585</v>
+      </c>
+      <c r="F29" t="s">
+        <v>586</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
@@ -12024,7 +12184,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="590" yWindow="1010" windowWidth="16380" windowHeight="7170" tabRatio="474" activeTab="1"/>
+    <workbookView xWindow="590" yWindow="1010" windowWidth="16380" windowHeight="7170" tabRatio="474"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -1711,9 +1711,6 @@
     <t>Sub System</t>
   </si>
   <si>
-    <t>device.sub_systems_installation</t>
-  </si>
-  <si>
     <t>PointData</t>
   </si>
   <si>
@@ -2632,9 +2629,6 @@
     <t>Support Structure</t>
   </si>
   <si>
-    <t>device.control_system_installation</t>
-  </si>
-  <si>
     <t>Control System</t>
   </si>
   <si>
@@ -3464,6 +3458,12 @@
   </si>
   <si>
     <t>Max  Current Velocity</t>
+  </si>
+  <si>
+    <t>device.control_subsystem_installation</t>
+  </si>
+  <si>
+    <t>device.subsystem_installation</t>
   </si>
 </sst>
 </file>
@@ -4142,7 +4142,7 @@
   </sheetPr>
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A22" sqref="A22"/>
     </sheetView>
@@ -4175,10 +4175,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>361</v>
@@ -4192,13 +4192,13 @@
         <v>368</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -4210,13 +4210,13 @@
         <v>213</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -4228,13 +4228,13 @@
         <v>216</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -4249,10 +4249,10 @@
         <v>554</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
@@ -4264,13 +4264,13 @@
         <v>214</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
@@ -4282,13 +4282,13 @@
         <v>215</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
@@ -4300,13 +4300,13 @@
         <v>371</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
@@ -4315,16 +4315,16 @@
     </row>
     <row r="9" spans="1:8" s="47" customFormat="1">
       <c r="A9" s="49" t="s">
+        <v>813</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>814</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="C9" s="42" t="s">
         <v>815</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>816</v>
-      </c>
       <c r="D9" s="42" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
@@ -4336,13 +4336,13 @@
         <v>218</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -4354,13 +4354,13 @@
         <v>369</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -4372,13 +4372,13 @@
         <v>212</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -4390,13 +4390,13 @@
         <v>370</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -4408,13 +4408,13 @@
         <v>219</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -4426,13 +4426,13 @@
         <v>217</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
@@ -4444,13 +4444,13 @@
         <v>542</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="50" customFormat="1">
@@ -4458,13 +4458,13 @@
         <v>547</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="50" customFormat="1">
@@ -4472,27 +4472,27 @@
         <v>545</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="50" customFormat="1">
-      <c r="A19" s="49" t="s">
-        <v>867</v>
+      <c r="A19" s="52" t="s">
+        <v>1143</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>554</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
@@ -4504,13 +4504,13 @@
         <v>546</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="50" customFormat="1">
@@ -4518,27 +4518,27 @@
         <v>543</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="50" customFormat="1">
       <c r="A22" s="52" t="s">
-        <v>560</v>
+        <v>1144</v>
       </c>
       <c r="B22" s="41" t="s">
         <v>554</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
@@ -4550,13 +4550,13 @@
         <v>544</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="48" customFormat="1">
@@ -4564,18 +4564,18 @@
         <v>550</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C24" s="42" t="s">
+        <v>918</v>
+      </c>
+      <c r="D24" s="50" t="s">
         <v>920</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>922</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H24" s="50"/>
     </row>
@@ -4584,18 +4584,18 @@
         <v>549</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H25" s="50"/>
     </row>
@@ -4604,53 +4604,53 @@
         <v>551</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" s="43" customFormat="1">
       <c r="A27" s="48" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>333</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47"/>
       <c r="G27" s="48"/>
       <c r="H27" s="48" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="43" customFormat="1">
       <c r="A28" s="45" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B28" s="46" t="s">
         <v>557</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
@@ -4659,16 +4659,16 @@
     </row>
     <row r="29" spans="1:8" s="43" customFormat="1">
       <c r="A29" s="44" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B29" s="44" t="s">
         <v>548</v>
       </c>
       <c r="C29" s="44" t="s">
+        <v>912</v>
+      </c>
+      <c r="D29" s="44" t="s">
         <v>914</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>916</v>
       </c>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
@@ -4677,16 +4677,16 @@
     </row>
     <row r="30" spans="1:8" s="43" customFormat="1">
       <c r="A30" s="45" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>333</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48"/>
@@ -4695,16 +4695,16 @@
     </row>
     <row r="31" spans="1:8" s="43" customFormat="1">
       <c r="A31" s="48" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>333</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
@@ -4713,136 +4713,136 @@
     </row>
     <row r="32" spans="1:8" s="43" customFormat="1">
       <c r="A32" s="44" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="43" customFormat="1">
       <c r="A33" s="44" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="43" customFormat="1">
       <c r="A34" s="44" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B34" s="44" t="s">
         <v>557</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="43" customFormat="1">
       <c r="A35" s="44" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="43" customFormat="1">
       <c r="A36" s="44" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B36" s="44" t="s">
         <v>557</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="43" customFormat="1">
       <c r="A37" s="44" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="44" customFormat="1">
       <c r="A38" s="45" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>557</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E38" s="48"/>
       <c r="F38" s="48"/>
@@ -4851,118 +4851,118 @@
     </row>
     <row r="39" spans="1:8" s="44" customFormat="1">
       <c r="A39" s="44" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="44" customFormat="1">
       <c r="A40" s="44" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="44" customFormat="1">
       <c r="A41" s="44" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B41" s="44" t="s">
         <v>557</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="44" customFormat="1">
       <c r="A42" s="44" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="44" customFormat="1">
       <c r="A43" s="44" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B43" s="44" t="s">
         <v>557</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="44" customFormat="1">
       <c r="A44" s="44" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="44" customFormat="1">
       <c r="A45" s="45" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B45" s="46" t="s">
         <v>333</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
@@ -4971,16 +4971,16 @@
     </row>
     <row r="46" spans="1:8" s="44" customFormat="1">
       <c r="A46" s="45" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B46" s="46" t="s">
         <v>333</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="48"/>
@@ -4989,16 +4989,16 @@
     </row>
     <row r="47" spans="1:8" s="44" customFormat="1">
       <c r="A47" s="45" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B47" s="46" t="s">
         <v>557</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
@@ -5007,44 +5007,44 @@
     </row>
     <row r="48" spans="1:8" s="44" customFormat="1">
       <c r="A48" s="44" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="44" customFormat="1">
       <c r="A49" s="44" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B49" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="48" customFormat="1">
       <c r="A50" s="44" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
@@ -5053,226 +5053,226 @@
     </row>
     <row r="51" spans="1:8" s="44" customFormat="1">
       <c r="A51" s="44" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B51" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="44" customFormat="1">
       <c r="A52" s="44" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B52" s="44" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D52" s="44" t="s">
         <v>1016</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="44" customFormat="1">
       <c r="A53" s="44" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B53" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="44" customFormat="1">
       <c r="A54" s="44" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="44" customFormat="1">
       <c r="A55" s="44" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B55" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="44" customFormat="1">
       <c r="A56" s="44" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="44" customFormat="1">
       <c r="A57" s="44" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B57" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C57" s="44" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D57" s="44" t="s">
         <v>1057</v>
-      </c>
-      <c r="D57" s="44" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="44" customFormat="1">
       <c r="A58" s="44" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="44" customFormat="1">
       <c r="A59" s="44" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B59" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="44" customFormat="1">
       <c r="A60" s="44" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="44" customFormat="1">
       <c r="A61" s="44" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B61" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="44" customFormat="1">
       <c r="A62" s="44" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="44" customFormat="1">
       <c r="A63" s="44" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B63" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="44" customFormat="1">
       <c r="A64" s="44" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="44" customFormat="1">
       <c r="A65" s="44" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B65" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="50" customFormat="1">
       <c r="A66" s="44" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E66" s="44"/>
       <c r="F66" s="44"/>
@@ -5281,44 +5281,44 @@
     </row>
     <row r="67" spans="1:8" s="44" customFormat="1">
       <c r="A67" s="44" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B67" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="44" customFormat="1">
       <c r="A68" s="44" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="50" customFormat="1">
       <c r="A69" s="44" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B69" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
@@ -5327,16 +5327,16 @@
     </row>
     <row r="70" spans="1:8" s="50" customFormat="1">
       <c r="A70" s="44" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C70" s="44" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E70" s="44"/>
       <c r="F70" s="44"/>
@@ -5345,16 +5345,16 @@
     </row>
     <row r="71" spans="1:8" s="48" customFormat="1">
       <c r="A71" s="44" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B71" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E71" s="44"/>
       <c r="F71" s="44"/>
@@ -5363,16 +5363,16 @@
     </row>
     <row r="72" spans="1:8" s="48" customFormat="1">
       <c r="A72" s="44" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E72" s="44"/>
       <c r="F72" s="44"/>
@@ -5381,30 +5381,30 @@
     </row>
     <row r="73" spans="1:8" s="44" customFormat="1">
       <c r="A73" s="44" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B73" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="48" customFormat="1">
       <c r="A74" s="44" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E74" s="44"/>
       <c r="F74" s="44"/>
@@ -5413,183 +5413,183 @@
     </row>
     <row r="75" spans="1:8" s="44" customFormat="1">
       <c r="A75" s="44" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B75" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="44" customFormat="1">
       <c r="A76" s="44" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B76" s="44" t="s">
         <v>548</v>
       </c>
       <c r="C76" s="44" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="51" customFormat="1">
       <c r="A77" s="44" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E77" s="44"/>
       <c r="F77" s="44"/>
       <c r="G77" s="44"/>
       <c r="H77" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="44" customFormat="1">
       <c r="A78" s="51" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D78" s="51" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E78" s="51"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="44" customFormat="1">
       <c r="A79" s="44" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B79" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C79" s="44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H79" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="44" customFormat="1">
       <c r="A80" s="44" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C80" s="44" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D80" s="44" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H80" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="44" customFormat="1">
       <c r="A81" s="44" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H81" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="44" customFormat="1">
       <c r="A82" s="44" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D82" s="44" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="44" customFormat="1">
       <c r="A83" s="44" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H83" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="44" customFormat="1">
       <c r="A84" s="44" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B84" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H84" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="44" customFormat="1">
       <c r="A85" s="48" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B85" s="48" t="s">
         <v>333</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E85" s="47"/>
       <c r="F85" s="47"/>
@@ -5598,16 +5598,16 @@
     </row>
     <row r="86" spans="1:8" s="44" customFormat="1">
       <c r="A86" s="45" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B86" s="46" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C86" s="47" t="s">
+        <v>902</v>
+      </c>
+      <c r="D86" s="48" t="s">
         <v>904</v>
-      </c>
-      <c r="D86" s="48" t="s">
-        <v>906</v>
       </c>
       <c r="E86" s="48"/>
       <c r="F86" s="48"/>
@@ -5616,16 +5616,16 @@
     </row>
     <row r="87" spans="1:8" s="44" customFormat="1">
       <c r="A87" s="45" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B87" s="46" t="s">
         <v>333</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D87" s="48" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E87" s="48"/>
       <c r="F87" s="48"/>
@@ -5634,152 +5634,152 @@
     </row>
     <row r="88" spans="1:8" s="44" customFormat="1">
       <c r="A88" s="44" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C88" s="44" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D88" s="44" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H88" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="44" customFormat="1">
       <c r="A89" s="44" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H89" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="44" customFormat="1">
       <c r="A90" s="44" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B90" s="44" t="s">
         <v>557</v>
       </c>
       <c r="C90" s="44" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H90" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="44" customFormat="1">
       <c r="A91" s="44" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H91" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="44" customFormat="1">
       <c r="A92" s="44" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B92" s="44" t="s">
         <v>557</v>
       </c>
       <c r="C92" s="44" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D92" s="44" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H92" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="44" customFormat="1">
       <c r="A93" s="44" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C93" s="44" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D93" s="44" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H93" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="44" customFormat="1">
       <c r="A94" s="44" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B94" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C94" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D94" s="44" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H94" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="44" customFormat="1">
       <c r="A95" s="44" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B95" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H95" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="44" customFormat="1">
       <c r="A96" s="45" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B96" s="46" t="s">
         <v>333</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D96" s="48" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E96" s="48"/>
       <c r="F96" s="48"/>
@@ -5788,16 +5788,16 @@
     </row>
     <row r="97" spans="1:8" s="44" customFormat="1">
       <c r="A97" s="45" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B97" s="46" t="s">
         <v>557</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D97" s="48" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E97" s="48"/>
       <c r="F97" s="48"/>
@@ -5806,16 +5806,16 @@
     </row>
     <row r="98" spans="1:8" s="44" customFormat="1">
       <c r="A98" s="45" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B98" s="46" t="s">
         <v>557</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D98" s="48" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E98" s="48"/>
       <c r="F98" s="48"/>
@@ -5824,16 +5824,16 @@
     </row>
     <row r="99" spans="1:8" s="44" customFormat="1">
       <c r="A99" s="45" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B99" s="46" t="s">
         <v>333</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D99" s="48" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E99" s="48"/>
       <c r="F99" s="48"/>
@@ -5842,16 +5842,16 @@
     </row>
     <row r="100" spans="1:8" s="44" customFormat="1">
       <c r="A100" s="45" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B100" s="46" t="s">
         <v>557</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D100" s="48" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E100" s="48"/>
       <c r="F100" s="48"/>
@@ -5866,10 +5866,10 @@
         <v>548</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D101" s="47" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E101" s="47"/>
       <c r="F101" s="47"/>
@@ -5878,16 +5878,16 @@
     </row>
     <row r="102" spans="1:8" s="44" customFormat="1">
       <c r="A102" s="45" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B102" s="46" t="s">
         <v>333</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D102" s="48" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E102" s="48"/>
       <c r="F102" s="48"/>
@@ -5896,65 +5896,65 @@
     </row>
     <row r="103" spans="1:8" s="44" customFormat="1">
       <c r="A103" s="44" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B103" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D103" s="44" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="104" spans="1:8" s="44" customFormat="1">
       <c r="A104" s="44" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B104" s="44" t="s">
         <v>333</v>
       </c>
       <c r="C104" s="44" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D104" s="44" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H104" s="44" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="48" customFormat="1">
       <c r="A105" s="45" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B105" s="46" t="s">
         <v>557</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D105" s="48" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G105" s="46"/>
     </row>
     <row r="106" spans="1:8" s="48" customFormat="1">
       <c r="A106" s="45" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B106" s="46" t="s">
         <v>557</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D106" s="48" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -5978,7 +5978,7 @@
   </sheetPr>
   <dimension ref="A1:CK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="15" spans="1:89">
       <c r="A15" s="28" t="s">
-        <v>867</v>
+        <v>1143</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>559</v>
@@ -7269,21 +7269,21 @@
         <v>558</v>
       </c>
       <c r="G15" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H15" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="I15" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="J15" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="16" spans="1:89">
       <c r="A16" s="28" t="s">
-        <v>560</v>
+        <v>1144</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>559</v>
@@ -7301,16 +7301,16 @@
         <v>558</v>
       </c>
       <c r="G16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I16" t="s">
         <v>1135</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>1136</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1137</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7326,218 +7326,218 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="28" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B18" t="s">
+        <v>774</v>
+      </c>
+      <c r="C18" t="s">
         <v>775</v>
-      </c>
-      <c r="C18" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="17" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D19" t="s">
+        <v>819</v>
+      </c>
+      <c r="E19" t="s">
         <v>820</v>
-      </c>
-      <c r="E19" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="17" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C20" t="s">
+        <v>828</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="E20" t="s">
         <v>829</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>830</v>
-      </c>
-      <c r="F20" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="28" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B21" t="s">
+        <v>774</v>
+      </c>
+      <c r="C21" t="s">
         <v>775</v>
-      </c>
-      <c r="C21" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B22" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D22" t="s">
+        <v>819</v>
+      </c>
+      <c r="E22" t="s">
         <v>820</v>
-      </c>
-      <c r="E22" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C23" t="s">
+        <v>828</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="E23" t="s">
         <v>829</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>830</v>
-      </c>
-      <c r="F23" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="28" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B24" t="s">
+        <v>774</v>
+      </c>
+      <c r="C24" t="s">
         <v>775</v>
-      </c>
-      <c r="C24" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B25" t="s">
+        <v>852</v>
+      </c>
+      <c r="C25" t="s">
         <v>853</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>854</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>855</v>
-      </c>
-      <c r="E25" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C26" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D26" t="s">
+        <v>819</v>
+      </c>
+      <c r="E26" t="s">
         <v>820</v>
-      </c>
-      <c r="E26" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="17" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C27" t="s">
+        <v>828</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="E27" t="s">
         <v>829</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>830</v>
-      </c>
-      <c r="F27" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="28" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B28" t="s">
+        <v>774</v>
+      </c>
+      <c r="C28" t="s">
         <v>775</v>
-      </c>
-      <c r="C28" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="28" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B29" t="s">
+        <v>774</v>
+      </c>
+      <c r="C29" t="s">
         <v>775</v>
-      </c>
-      <c r="C29" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="28" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B30" t="s">
+        <v>774</v>
+      </c>
+      <c r="C30" t="s">
         <v>775</v>
-      </c>
-      <c r="C30" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="28" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B31" t="s">
+        <v>774</v>
+      </c>
+      <c r="C31" t="s">
         <v>775</v>
-      </c>
-      <c r="C31" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="28" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B32" t="s">
+        <v>774</v>
+      </c>
+      <c r="C32" t="s">
         <v>775</v>
-      </c>
-      <c r="C32" t="s">
-        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="15" spans="1:89">
       <c r="A15" s="28" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>220</v>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="16" spans="1:89">
       <c r="A16" s="28" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>220</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="28" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>220</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="28" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>220</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="28" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>220</v>
@@ -8691,7 +8691,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="28" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>220</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="28" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>220</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="28" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>220</v>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="28" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>221</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="28" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>221</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="28" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>221</v>
@@ -8748,7 +8748,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="28" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>221</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="28" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>221</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="28" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>221</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="28" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>221</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="28" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>221</v>
@@ -8871,7 +8871,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="28" t="s">
-        <v>560</v>
+        <v>1144</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>220</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="17" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>220</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="17" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>221</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="17" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>220</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="17" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>221</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="17" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>222</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="17" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>221</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="17" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>221</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="17" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>221</v>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>221</v>
@@ -8990,7 +8990,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="17" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>221</v>
@@ -9010,7 +9010,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>221</v>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="17" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>221</v>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>221</v>
@@ -9043,7 +9043,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="17" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>221</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="17" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>221</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>221</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>221</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="17" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>221</v>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>221</v>
@@ -9112,7 +9112,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="17" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>221</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="17" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>221</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="17" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>221</v>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="17" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>221</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="17" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>221</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="17" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>221</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="17" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>221</v>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="17" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>221</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="17" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>221</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="17" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>221</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="17" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B71" s="17" t="s">
         <v>221</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="72" spans="1:10" customFormat="1">
       <c r="A72" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B72" t="s">
         <v>220</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="28" t="s">
-        <v>867</v>
+        <v>1143</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>220</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="17" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>289</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="17" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>220</v>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="17" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>220</v>
@@ -9285,7 +9285,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="17" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>220</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="17" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>220</v>
@@ -9301,7 +9301,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="17" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>220</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="17" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>220</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="17" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>220</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="17" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>220</v>
@@ -9333,7 +9333,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="17" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B83" s="31" t="s">
         <v>220</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B84" s="31" t="s">
         <v>220</v>
@@ -9349,7 +9349,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="17" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B85" s="31" t="s">
         <v>220</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="17" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B86" s="31" t="s">
         <v>220</v>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="17" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B87" s="31" t="s">
         <v>220</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B88" s="31" t="s">
         <v>220</v>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="17" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>221</v>
@@ -9389,7 +9389,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="17" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>221</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>221</v>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>221</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>221</v>
@@ -9421,7 +9421,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="17" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>221</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>221</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>221</v>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="17" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>221</v>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>221</v>
@@ -9461,7 +9461,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>221</v>
@@ -9469,7 +9469,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B100" s="17" t="s">
         <v>221</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>221</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="17" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>221</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="17" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>220</v>
@@ -10551,7 +10551,7 @@
     </row>
     <row r="14" spans="1:89">
       <c r="A14" s="28" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>12</v>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="15" spans="1:89">
       <c r="A15" s="28" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>334</v>
@@ -10567,7 +10567,7 @@
     </row>
     <row r="16" spans="1:89">
       <c r="A16" s="28" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>334</v>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="28" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>334</v>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="28" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>335</v>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="28" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>336</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="28" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>337</v>
@@ -10607,7 +10607,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="28" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>338</v>
@@ -10618,7 +10618,7 @@
         <v>542</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
@@ -10634,7 +10634,7 @@
         <v>545</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10642,7 +10642,7 @@
         <v>546</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10674,7 +10674,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="28" t="s">
-        <v>560</v>
+        <v>1144</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>11</v>
@@ -10706,7 +10706,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="17" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>337</v>
@@ -10714,7 +10714,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="17" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>224</v>
@@ -10722,7 +10722,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="17" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>12</v>
@@ -10730,268 +10730,268 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="17" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="17" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="17" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="17" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="17" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="17" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="17" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="17" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="17" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="17" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="17" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="17" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="17" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="17" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="17" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="17" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="17" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="17" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="17" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="17" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>11</v>
@@ -11002,7 +11002,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="28" t="s">
-        <v>867</v>
+        <v>1143</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>11</v>
@@ -11034,114 +11034,114 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="17" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="17" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="17" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="17" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="17" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -11192,70 +11192,70 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2" t="s">
         <v>576</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>577</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>578</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>579</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>580</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>581</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>582</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>583</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>584</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>585</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>586</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>587</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>588</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>589</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>590</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>591</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>592</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>593</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>594</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>595</v>
-      </c>
-      <c r="W2" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:76">
@@ -11263,55 +11263,55 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3" t="s">
         <v>597</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>598</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>599</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>600</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>601</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>602</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>603</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>604</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>605</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>606</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>607</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>608</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>609</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>610</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>611</v>
-      </c>
-      <c r="R3" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:76">
@@ -11319,64 +11319,64 @@
         <v>368</v>
       </c>
       <c r="B4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E4" t="s">
         <v>613</v>
       </c>
-      <c r="D4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G4" t="s">
+        <v>578</v>
+      </c>
+      <c r="H4" t="s">
+        <v>579</v>
+      </c>
+      <c r="I4" t="s">
+        <v>580</v>
+      </c>
+      <c r="J4" t="s">
         <v>614</v>
       </c>
-      <c r="F4" t="s">
-        <v>578</v>
-      </c>
-      <c r="G4" t="s">
-        <v>579</v>
-      </c>
-      <c r="H4" t="s">
-        <v>580</v>
-      </c>
-      <c r="I4" t="s">
-        <v>581</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>615</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>616</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>617</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>618</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>619</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>620</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>621</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>589</v>
+      </c>
+      <c r="S4" t="s">
+        <v>590</v>
+      </c>
+      <c r="T4" t="s">
         <v>622</v>
       </c>
-      <c r="R4" t="s">
-        <v>590</v>
-      </c>
-      <c r="S4" t="s">
-        <v>591</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>623</v>
-      </c>
-      <c r="U4" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:76">
@@ -11384,46 +11384,46 @@
         <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E5" t="s">
         <v>579</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>624</v>
+      </c>
+      <c r="G5" t="s">
+        <v>625</v>
+      </c>
+      <c r="H5" t="s">
         <v>580</v>
       </c>
-      <c r="F5" t="s">
-        <v>625</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>626</v>
       </c>
-      <c r="H5" t="s">
-        <v>581</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>627</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>628</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>629</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>630</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>631</v>
       </c>
-      <c r="N5" t="s">
-        <v>632</v>
-      </c>
       <c r="O5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:76">
@@ -11431,37 +11431,37 @@
         <v>371</v>
       </c>
       <c r="B6" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D6" t="s">
         <v>633</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>634</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>635</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>636</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>637</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>638</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>639</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>640</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>641</v>
-      </c>
-      <c r="L6" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:76">
@@ -11469,37 +11469,37 @@
         <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E7" t="s">
         <v>643</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>644</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>645</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>579</v>
+      </c>
+      <c r="I7" t="s">
         <v>646</v>
       </c>
-      <c r="H7" t="s">
-        <v>580</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>647</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>648</v>
       </c>
-      <c r="K7" t="s">
-        <v>649</v>
-      </c>
       <c r="L7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:76">
@@ -11507,37 +11507,37 @@
         <v>370</v>
       </c>
       <c r="B8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E8" t="s">
+        <v>638</v>
+      </c>
+      <c r="F8" t="s">
+        <v>634</v>
+      </c>
+      <c r="G8" t="s">
         <v>650</v>
       </c>
-      <c r="D8" t="s">
-        <v>638</v>
-      </c>
-      <c r="E8" t="s">
-        <v>639</v>
-      </c>
-      <c r="F8" t="s">
-        <v>635</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>651</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>652</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>653</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>654</v>
       </c>
-      <c r="K8" t="s">
-        <v>655</v>
-      </c>
       <c r="L8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:76">
@@ -11545,43 +11545,43 @@
         <v>215</v>
       </c>
       <c r="B9" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D9" t="s">
+        <v>655</v>
+      </c>
+      <c r="E9" t="s">
         <v>656</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>657</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>658</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>659</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>660</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>661</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>589</v>
+      </c>
+      <c r="L9" t="s">
+        <v>590</v>
+      </c>
+      <c r="M9" t="s">
         <v>662</v>
       </c>
-      <c r="K9" t="s">
-        <v>590</v>
-      </c>
-      <c r="L9" t="s">
-        <v>591</v>
-      </c>
-      <c r="M9" t="s">
-        <v>663</v>
-      </c>
       <c r="N9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:76">
@@ -11589,43 +11589,43 @@
         <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F10" t="s">
+        <v>663</v>
+      </c>
+      <c r="G10" t="s">
         <v>664</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>665</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>666</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>667</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>589</v>
+      </c>
+      <c r="L10" t="s">
+        <v>590</v>
+      </c>
+      <c r="M10" t="s">
         <v>668</v>
       </c>
-      <c r="K10" t="s">
-        <v>590</v>
-      </c>
-      <c r="L10" t="s">
-        <v>591</v>
-      </c>
-      <c r="M10" t="s">
-        <v>669</v>
-      </c>
       <c r="N10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:76">
@@ -11633,61 +11633,61 @@
         <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C11" t="s">
+        <v>578</v>
+      </c>
+      <c r="D11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E11" t="s">
         <v>579</v>
       </c>
-      <c r="D11" t="s">
-        <v>578</v>
-      </c>
-      <c r="E11" t="s">
-        <v>580</v>
-      </c>
       <c r="F11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G11" t="s">
         <v>670</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>671</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>672</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>673</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>674</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>657</v>
+      </c>
+      <c r="M11" t="s">
+        <v>658</v>
+      </c>
+      <c r="N11" t="s">
         <v>675</v>
       </c>
-      <c r="L11" t="s">
-        <v>658</v>
-      </c>
-      <c r="M11" t="s">
-        <v>659</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>676</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>677</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
+        <v>589</v>
+      </c>
+      <c r="R11" t="s">
+        <v>590</v>
+      </c>
+      <c r="S11" t="s">
         <v>678</v>
       </c>
-      <c r="Q11" t="s">
-        <v>590</v>
-      </c>
-      <c r="R11" t="s">
-        <v>591</v>
-      </c>
-      <c r="S11" t="s">
-        <v>679</v>
-      </c>
       <c r="T11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:76">
@@ -11695,229 +11695,229 @@
         <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C12" t="s">
+        <v>679</v>
+      </c>
+      <c r="D12" t="s">
         <v>680</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>681</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>577</v>
+      </c>
+      <c r="G12" t="s">
         <v>682</v>
       </c>
-      <c r="F12" t="s">
-        <v>578</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>683</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>684</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>685</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>686</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>687</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>688</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>689</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>690</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>691</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>692</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>693</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>694</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>695</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>696</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>697</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>698</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>699</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>700</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>701</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>702</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>703</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>704</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>705</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>706</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>707</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
+        <v>709</v>
+      </c>
+      <c r="AH12" t="s">
         <v>708</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AI12" t="s">
         <v>710</v>
       </c>
-      <c r="AH12" t="s">
-        <v>709</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>711</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>712</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>713</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>714</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>715</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" t="s">
         <v>716</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>717</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>718</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>719</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>720</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>721</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>722</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>723</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>724</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>725</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>726</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>727</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>728</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>729</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>730</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BD12" t="s">
         <v>731</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BE12" t="s">
         <v>732</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>733</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BG12" t="s">
         <v>734</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BH12" t="s">
         <v>735</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>736</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>737</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BK12" t="s">
         <v>738</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
         <v>739</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BM12" t="s">
         <v>740</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BN12" t="s">
         <v>741</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BO12" t="s">
         <v>742</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
         <v>743</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BQ12" t="s">
         <v>744</v>
       </c>
-      <c r="BQ12" t="s">
+      <c r="BR12" t="s">
         <v>745</v>
       </c>
-      <c r="BR12" t="s">
+      <c r="BS12" t="s">
         <v>746</v>
       </c>
-      <c r="BS12" t="s">
+      <c r="BT12" t="s">
         <v>747</v>
       </c>
-      <c r="BT12" t="s">
+      <c r="BU12" t="s">
         <v>748</v>
       </c>
-      <c r="BU12" t="s">
+      <c r="BV12" t="s">
         <v>749</v>
       </c>
-      <c r="BV12" t="s">
+      <c r="BW12" t="s">
         <v>750</v>
       </c>
-      <c r="BW12" t="s">
+      <c r="BX12" t="s">
         <v>751</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:76">
@@ -11925,43 +11925,43 @@
         <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C13" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" t="s">
         <v>753</v>
       </c>
-      <c r="D13" t="s">
-        <v>754</v>
-      </c>
       <c r="E13" t="s">
+        <v>755</v>
+      </c>
+      <c r="F13" t="s">
         <v>756</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>757</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>758</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>759</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>760</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>761</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>762</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>763</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>764</v>
-      </c>
-      <c r="N13" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:76">
@@ -11969,19 +11969,19 @@
         <v>549</v>
       </c>
       <c r="B14" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C14" t="s">
+        <v>768</v>
+      </c>
+      <c r="D14" t="s">
         <v>769</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>770</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>771</v>
-      </c>
-      <c r="F14" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:76">
@@ -11989,16 +11989,16 @@
         <v>550</v>
       </c>
       <c r="B15" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C15" t="s">
+        <v>768</v>
+      </c>
+      <c r="D15" t="s">
         <v>769</v>
       </c>
-      <c r="D15" t="s">
-        <v>770</v>
-      </c>
       <c r="E15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:76">
@@ -12006,30 +12006,30 @@
         <v>551</v>
       </c>
       <c r="B16" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D16" t="s">
         <v>769</v>
       </c>
-      <c r="D16" t="s">
-        <v>770</v>
-      </c>
       <c r="E16" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="28" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B17" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -12037,10 +12037,10 @@
         <v>542</v>
       </c>
       <c r="B18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C18" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -12048,10 +12048,10 @@
         <v>547</v>
       </c>
       <c r="B19" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -12059,10 +12059,10 @@
         <v>545</v>
       </c>
       <c r="B20" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C20" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -12070,10 +12070,10 @@
         <v>546</v>
       </c>
       <c r="B21" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C21" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -12081,10 +12081,10 @@
         <v>543</v>
       </c>
       <c r="B22" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C22" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -12092,80 +12092,80 @@
         <v>544</v>
       </c>
       <c r="B23" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C23" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>560</v>
+        <v>1144</v>
       </c>
       <c r="B24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>577</v>
+      </c>
+      <c r="E24" t="s">
+        <v>578</v>
+      </c>
+      <c r="F24" t="s">
+        <v>579</v>
+      </c>
+      <c r="G24" t="s">
         <v>1131</v>
       </c>
-      <c r="C24" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D24" t="s">
-        <v>578</v>
-      </c>
-      <c r="E24" t="s">
-        <v>579</v>
-      </c>
-      <c r="F24" t="s">
-        <v>580</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1133</v>
-      </c>
       <c r="H24" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K24" t="s">
         <v>1139</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1142</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>867</v>
+        <v>1143</v>
       </c>
       <c r="B25" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C25" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D25" t="s">
+        <v>577</v>
+      </c>
+      <c r="E25" t="s">
         <v>578</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>579</v>
       </c>
-      <c r="F25" t="s">
-        <v>580</v>
-      </c>
       <c r="G25" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H25" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K25" t="s">
         <v>1139</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1140</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1142</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -12223,72 +12223,72 @@
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1">
       <c r="A2" s="28" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2" t="s">
         <v>777</v>
-      </c>
-      <c r="C2" t="s">
-        <v>778</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1">
       <c r="A3" s="28" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C3" t="s">
         <v>779</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>780</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>781</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>782</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>783</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>784</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>785</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>786</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>787</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>788</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>789</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>790</v>
-      </c>
-      <c r="N3" t="s">
-        <v>791</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1">
       <c r="A4" s="28" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C4" t="s">
         <v>792</v>
-      </c>
-      <c r="C4" t="s">
-        <v>793</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -12306,10 +12306,10 @@
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1">
       <c r="A5" s="28" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -12328,10 +12328,10 @@
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1">
       <c r="A6" s="28" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -12350,16 +12350,16 @@
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1">
       <c r="A7" s="28" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B7" t="s">
+        <v>794</v>
+      </c>
+      <c r="C7" t="s">
         <v>795</v>
       </c>
-      <c r="C7" t="s">
-        <v>796</v>
-      </c>
       <c r="D7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -12376,25 +12376,25 @@
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1">
       <c r="A8" s="28" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B8" t="s">
+        <v>796</v>
+      </c>
+      <c r="C8" t="s">
         <v>797</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>798</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>799</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>800</v>
       </c>
-      <c r="F8" t="s">
-        <v>801</v>
-      </c>
       <c r="G8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -12408,13 +12408,13 @@
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1">
       <c r="A9" s="28" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C9" t="s">
         <v>802</v>
-      </c>
-      <c r="C9" t="s">
-        <v>803</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -12432,13 +12432,13 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="17" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C10" t="s">
         <v>812</v>
-      </c>
-      <c r="C10" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -12446,10 +12446,10 @@
         <v>544</v>
       </c>
       <c r="B11" t="s">
+        <v>857</v>
+      </c>
+      <c r="C11" t="s">
         <v>858</v>
-      </c>
-      <c r="C11" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -12457,38 +12457,38 @@
         <v>543</v>
       </c>
       <c r="B12" t="s">
+        <v>859</v>
+      </c>
+      <c r="C12" t="s">
         <v>860</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>861</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>862</v>
-      </c>
-      <c r="E12" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="28" t="s">
-        <v>560</v>
+        <v>1144</v>
       </c>
       <c r="B13" t="s">
+        <v>863</v>
+      </c>
+      <c r="C13" t="s">
         <v>864</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>865</v>
-      </c>
-      <c r="D13" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="28" t="s">
-        <v>867</v>
+        <v>1143</v>
       </c>
       <c r="B14" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -12496,19 +12496,19 @@
         <v>332</v>
       </c>
       <c r="B15" t="s">
+        <v>869</v>
+      </c>
+      <c r="C15" t="s">
+        <v>870</v>
+      </c>
+      <c r="D15" t="s">
         <v>871</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>872</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>873</v>
-      </c>
-      <c r="E15" t="s">
-        <v>874</v>
-      </c>
-      <c r="F15" t="s">
-        <v>875</v>
       </c>
     </row>
   </sheetData>

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474" activeTab="5"/>
+    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="794">
   <si>
     <t>Identifier</t>
   </si>
@@ -1530,9 +1530,6 @@
     <t>SimpleList</t>
   </si>
   <si>
-    <t>TimeSeries</t>
-  </si>
-  <si>
     <t>Dates for installing the device support structure. Dates are defined as: Start, Depart and End.</t>
   </si>
   <si>
@@ -2398,6 +2395,24 @@
   </si>
   <si>
     <t>Min Day Rate</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>rov_class</t>
+  </si>
+  <si>
+    <t>DateTimeDict</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Depart</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -2580,7 +2595,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2692,6 +2707,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
@@ -2706,7 +2722,24 @@
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 3 2" xfId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -3079,9 +3112,9 @@
   </sheetPr>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A118" sqref="A118"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3112,10 +3145,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>545</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>546</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>141</v>
@@ -3125,721 +3158,743 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="A3" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>372</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="A4" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="32"/>
+      <c r="A5" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="A6" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="A7" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="A8" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="A9" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="A10" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="A11" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>501</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="A13" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
-        <v>705</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>706</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>719</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
-        <v>721</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>722</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>723</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="A15" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
-        <v>725</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>726</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>731</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="A16" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="39" t="s">
-        <v>733</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>734</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>735</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="A17" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39" t="s">
-        <v>728</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>729</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>730</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>738</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>739</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="39" t="s">
-        <v>741</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>743</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>742</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
-        <v>747</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>745</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>746</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>749</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>750</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>754</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>755</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="39" t="s">
-        <v>757</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>758</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>759</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="A18" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="39" t="s">
-        <v>761</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>762</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>763</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="A25" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="39" t="s">
-        <v>765</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>766</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>767</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="A26" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="A27" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>396</v>
-      </c>
+      <c r="A28" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>427</v>
-      </c>
+      <c r="A29" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>444</v>
-      </c>
+      <c r="A30" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>624</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="A31" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>445</v>
-      </c>
+      <c r="A32" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>608</v>
+        <v>175</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>429</v>
+        <v>186</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="35" t="s">
-        <v>627</v>
+      <c r="C34" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31" t="s">
-        <v>165</v>
+    <row r="35" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="34" t="s">
+        <v>624</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>426</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>626</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31" t="s">
-        <v>629</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>631</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="A36" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="32" t="s">
-        <v>171</v>
+      <c r="A37" s="31" t="s">
+        <v>301</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32" t="s">
-        <v>257</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="H38" s="32"/>
+      <c r="A38" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="H39" s="32"/>
+      <c r="A39" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="B40" s="30" t="s">
+      <c r="A40" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>437</v>
-      </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30" t="s">
-        <v>391</v>
-      </c>
+      <c r="C40" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
-        <v>561</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>413</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="A41" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
-        <v>181</v>
+        <v>495</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>398</v>
+        <v>539</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>400</v>
+        <v>541</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
@@ -3847,308 +3902,293 @@
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>423</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="30"/>
+      <c r="C43" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="B44" s="30" t="s">
+      <c r="A44" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B44" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-    </row>
-    <row r="45" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C44" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
-        <v>575</v>
+        <v>486</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>312</v>
+        <v>530</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>451</v>
+        <v>541</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
-      <c r="H45" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
-        <v>576</v>
+        <v>493</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>311</v>
+        <v>537</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>446</v>
+        <v>541</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
-      <c r="H46" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>306</v>
+        <v>538</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
-      <c r="H47" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H47" s="26"/>
+    </row>
+    <row r="48" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>314</v>
+        <v>533</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>454</v>
+        <v>541</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
-        <v>579</v>
+        <v>496</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>313</v>
+        <v>540</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
-      <c r="H49" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
-        <v>580</v>
+        <v>483</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>315</v>
+        <v>527</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>339</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-    </row>
-    <row r="52" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>320</v>
+        <v>183</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>324</v>
+        <v>182</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>325</v>
+        <v>184</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="B58" s="28" t="s">
+      <c r="A58" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" s="30" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>420</v>
-      </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="30"/>
+        <v>363</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="59" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>190</v>
+        <v>422</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
@@ -4156,987 +4196,1092 @@
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="27" t="s">
-        <v>565</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>411</v>
-      </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
+      <c r="A60" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="D61" s="47" t="s">
-        <v>504</v>
-      </c>
+      <c r="A61" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="B62" s="26" t="s">
+      <c r="A62" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="D62" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C62" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="G62" s="28"/>
     </row>
     <row r="63" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D63" s="47" t="s">
-        <v>507</v>
-      </c>
+      <c r="A63" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="B64" s="26" t="s">
+      <c r="A64" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="B64" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>542</v>
-      </c>
+      <c r="C64" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="D65" s="47" t="s">
-        <v>501</v>
-      </c>
+      <c r="A65" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="30"/>
     </row>
     <row r="66" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="B66" s="26" t="s">
+      <c r="A66" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="B66" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>542</v>
-      </c>
+      <c r="C66" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>509</v>
-      </c>
+      <c r="A67" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="30"/>
     </row>
     <row r="68" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>537</v>
-      </c>
-      <c r="D68" s="47" t="s">
-        <v>542</v>
-      </c>
+      <c r="A68" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
     </row>
     <row r="69" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="D69" s="47" t="s">
-        <v>512</v>
-      </c>
+      <c r="A69" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
     </row>
     <row r="70" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>542</v>
-      </c>
+      <c r="A70" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
     </row>
     <row r="71" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>508</v>
-      </c>
+      <c r="A71" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
     </row>
     <row r="72" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="D72" s="47" t="s">
-        <v>542</v>
-      </c>
+      <c r="A72" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
     </row>
     <row r="73" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>502</v>
-      </c>
+      <c r="A73" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
     </row>
     <row r="74" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="D74" s="47" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+    </row>
+    <row r="75" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
-        <v>472</v>
+        <v>574</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>499</v>
+        <v>185</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>517</v>
+        <v>312</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
-        <v>486</v>
+        <v>575</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>531</v>
+        <v>311</v>
       </c>
       <c r="D76" s="47" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
-        <v>479</v>
+        <v>577</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>499</v>
+        <v>185</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>524</v>
+        <v>314</v>
       </c>
       <c r="D77" s="47" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
-        <v>493</v>
+        <v>579</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>538</v>
+        <v>315</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>542</v>
+        <v>459</v>
       </c>
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
       <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-    </row>
-    <row r="79" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H78" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>499</v>
+        <v>185</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>525</v>
+        <v>322</v>
       </c>
       <c r="D79" s="47" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
-        <v>494</v>
+        <v>581</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>539</v>
+        <v>321</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
-        <v>475</v>
+        <v>583</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>499</v>
+        <v>185</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>520</v>
+        <v>324</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-    </row>
-    <row r="82" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H81" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
-        <v>489</v>
+        <v>585</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>534</v>
+        <v>325</v>
       </c>
       <c r="D82" s="47" t="s">
-        <v>542</v>
+        <v>460</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
+      <c r="H82" s="26" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="83" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
-        <v>482</v>
+        <v>587</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>499</v>
+        <v>185</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>527</v>
+        <v>333</v>
       </c>
       <c r="D83" s="47" t="s">
-        <v>513</v>
+        <v>465</v>
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
+      <c r="H83" s="26" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="84" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>541</v>
+        <v>332</v>
       </c>
       <c r="D84" s="47" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
+      <c r="H84" s="26" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="85" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
-        <v>469</v>
+        <v>591</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>499</v>
+        <v>185</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>514</v>
+        <v>334</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>500</v>
+        <v>464</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
-        <v>483</v>
+        <v>592</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>528</v>
+        <v>335</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-    </row>
-    <row r="87" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H86" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
-        <v>474</v>
+        <v>594</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>499</v>
+        <v>185</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>519</v>
+        <v>328</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
-        <v>488</v>
+        <v>595</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>533</v>
+        <v>327</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
-        <v>304</v>
+        <v>597</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-    </row>
-    <row r="90" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H89" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="B90" s="26" t="s">
         <v>185</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H90" s="26" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="B91" s="33" t="s">
+      <c r="A91" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="B92" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C92" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="D91" s="47" t="s">
+      <c r="D92" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33" t="s">
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="H92" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
     <row r="93" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="D93" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="H93" s="26" t="s">
-        <v>339</v>
-      </c>
+      <c r="A93" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="D94" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="H94" s="26" t="s">
-        <v>339</v>
-      </c>
+      <c r="A94" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
     </row>
     <row r="95" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="D95" s="47" t="s">
-        <v>544</v>
-      </c>
+      <c r="A95" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
     </row>
     <row r="96" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="H96" s="26" t="s">
-        <v>339</v>
-      </c>
+      <c r="A96" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
     </row>
     <row r="97" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="26" t="s">
-        <v>594</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" s="47" t="s">
-        <v>436</v>
-      </c>
-      <c r="H97" s="26" t="s">
-        <v>339</v>
-      </c>
+      <c r="A97" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="B98" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="D98" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
+      <c r="A98" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
     </row>
     <row r="99" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="D99" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="30"/>
+      <c r="A99" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
     </row>
     <row r="100" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>418</v>
-      </c>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="30"/>
-    </row>
-    <row r="101" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="D101" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="H101" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="D102" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="H102" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="26" t="s">
-        <v>597</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="D103" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="H103" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="26" t="s">
-        <v>598</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>455</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="D105" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="H105" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="26" t="s">
-        <v>600</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="D106" s="47" t="s">
-        <v>461</v>
-      </c>
-      <c r="H106" s="26" t="s">
-        <v>339</v>
-      </c>
+      <c r="A100" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+    </row>
+    <row r="101" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+    </row>
+    <row r="102" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+    </row>
+    <row r="103" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="39" t="s">
+        <v>704</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>705</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>718</v>
+      </c>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+    </row>
+    <row r="104" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>721</v>
+      </c>
+      <c r="D104" s="44" t="s">
+        <v>722</v>
+      </c>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+    </row>
+    <row r="105" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="39" t="s">
+        <v>724</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>730</v>
+      </c>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+    </row>
+    <row r="106" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>733</v>
+      </c>
+      <c r="D106" s="44" t="s">
+        <v>734</v>
+      </c>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
     </row>
     <row r="107" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D107" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="H107" s="26" t="s">
-        <v>339</v>
-      </c>
+      <c r="A107" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="40" t="s">
+        <v>728</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>729</v>
+      </c>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
     </row>
     <row r="108" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="26" t="s">
-        <v>602</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D108" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="H108" s="26" t="s">
-        <v>339</v>
-      </c>
+      <c r="A108" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>737</v>
+      </c>
+      <c r="D108" s="44" t="s">
+        <v>738</v>
+      </c>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C109" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="D109" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="30"/>
+      <c r="A109" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>742</v>
+      </c>
+      <c r="D109" s="44" t="s">
+        <v>741</v>
+      </c>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
     </row>
     <row r="110" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D110" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="30"/>
+      <c r="A110" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>744</v>
+      </c>
+      <c r="D110" s="44" t="s">
+        <v>745</v>
+      </c>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
     </row>
     <row r="111" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="D111" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
+      <c r="A111" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>749</v>
+      </c>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
     </row>
     <row r="112" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="B112" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D112" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="30"/>
+      <c r="A112" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>753</v>
+      </c>
+      <c r="D112" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
     </row>
     <row r="113" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="B113" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="D113" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
+      <c r="A113" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="40" t="s">
+        <v>757</v>
+      </c>
+      <c r="D113" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
     </row>
     <row r="114" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B114" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="D114" s="45" t="s">
-        <v>393</v>
-      </c>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
+      <c r="A114" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>761</v>
+      </c>
+      <c r="D114" s="44" t="s">
+        <v>762</v>
+      </c>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
     </row>
     <row r="115" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="27" t="s">
-        <v>571</v>
-      </c>
-      <c r="B115" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C115" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D115" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="30"/>
+      <c r="A115" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C115" s="40" t="s">
+        <v>765</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>766</v>
+      </c>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
     </row>
     <row r="116" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="26" t="s">
-        <v>603</v>
-      </c>
-      <c r="B116" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="D116" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="H116" s="26" t="s">
-        <v>339</v>
-      </c>
+      <c r="A116" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D116" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
     </row>
     <row r="117" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="B117" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D117" s="47" t="s">
-        <v>467</v>
-      </c>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26" t="s">
-        <v>339</v>
-      </c>
+      <c r="A117" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D117" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="H117" s="32"/>
     </row>
     <row r="118" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="B118" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C118" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="D118" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="G118" s="28"/>
+      <c r="A118" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="D118" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="H118" s="32"/>
     </row>
     <row r="119" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="27" t="s">
-        <v>573</v>
-      </c>
-      <c r="B119" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="D119" s="46" t="s">
-        <v>412</v>
-      </c>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="30"/>
+      <c r="A119" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D119" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H119">
-    <sortState ref="A2:H107">
-      <sortCondition ref="A1:A106"/>
+    <sortState ref="A2:H119">
+      <sortCondition ref="B1:B119"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:L70">
@@ -5156,7 +5301,7 @@
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A43" sqref="A43"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5345,46 +5490,46 @@
         <v>179</v>
       </c>
       <c r="G2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H2" t="s">
         <v>636</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>637</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>638</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>639</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>640</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>641</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>642</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>643</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>644</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>646</v>
+      </c>
+      <c r="R2" t="s">
+        <v>658</v>
+      </c>
+      <c r="S2" t="s">
+        <v>647</v>
+      </c>
+      <c r="T2" t="s">
         <v>645</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>647</v>
-      </c>
-      <c r="R2" t="s">
-        <v>659</v>
-      </c>
-      <c r="S2" t="s">
-        <v>648</v>
-      </c>
-      <c r="T2" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -5395,16 +5540,16 @@
         <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
@@ -5424,25 +5569,25 @@
         <v>179</v>
       </c>
       <c r="F4" t="s">
+        <v>654</v>
+      </c>
+      <c r="G4" t="s">
         <v>655</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>656</v>
       </c>
-      <c r="H4" t="s">
-        <v>657</v>
-      </c>
       <c r="I4" t="s">
+        <v>646</v>
+      </c>
+      <c r="J4" t="s">
+        <v>658</v>
+      </c>
+      <c r="K4" t="s">
         <v>647</v>
       </c>
-      <c r="J4" t="s">
-        <v>659</v>
-      </c>
-      <c r="K4" t="s">
-        <v>648</v>
-      </c>
       <c r="L4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
@@ -5506,13 +5651,13 @@
         <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -5530,25 +5675,25 @@
         <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G7" t="s">
         <v>662</v>
       </c>
-      <c r="G7" t="s">
-        <v>663</v>
-      </c>
       <c r="H7" t="s">
+        <v>646</v>
+      </c>
+      <c r="I7" t="s">
+        <v>658</v>
+      </c>
+      <c r="J7" t="s">
         <v>647</v>
       </c>
-      <c r="I7" t="s">
-        <v>659</v>
-      </c>
-      <c r="J7" t="s">
-        <v>648</v>
-      </c>
       <c r="K7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -5565,7 +5710,7 @@
         <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F8" t="s">
         <v>179</v>
@@ -5585,31 +5730,31 @@
         <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E9" t="s">
+        <v>680</v>
+      </c>
+      <c r="F9" t="s">
         <v>681</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>682</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>683</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>684</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>685</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>686</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>687</v>
-      </c>
-      <c r="L9" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
@@ -5639,47 +5784,50 @@
       <c r="B11" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D11" t="s">
         <v>138</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>136</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>142</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>179</v>
       </c>
-      <c r="G11" t="s">
-        <v>660</v>
-      </c>
       <c r="H11" t="s">
+        <v>659</v>
+      </c>
+      <c r="I11" t="s">
         <v>149</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>670</v>
+      </c>
+      <c r="K11" t="s">
+        <v>646</v>
+      </c>
+      <c r="L11" t="s">
+        <v>658</v>
+      </c>
+      <c r="M11" t="s">
+        <v>666</v>
+      </c>
+      <c r="N11" t="s">
+        <v>667</v>
+      </c>
+      <c r="O11" t="s">
+        <v>647</v>
+      </c>
+      <c r="P11" t="s">
         <v>671</v>
       </c>
-      <c r="J11" t="s">
-        <v>647</v>
-      </c>
-      <c r="K11" t="s">
-        <v>659</v>
-      </c>
-      <c r="L11" t="s">
-        <v>667</v>
-      </c>
-      <c r="M11" t="s">
-        <v>668</v>
-      </c>
-      <c r="N11" t="s">
-        <v>648</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>672</v>
-      </c>
-      <c r="P11" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
@@ -5698,13 +5846,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B13" t="s">
         <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D13" t="s">
         <v>136</v>
@@ -5713,57 +5861,57 @@
         <v>148</v>
       </c>
       <c r="F13" t="s">
+        <v>709</v>
+      </c>
+      <c r="G13" t="s">
         <v>710</v>
       </c>
-      <c r="G13" t="s">
-        <v>711</v>
-      </c>
       <c r="H13" t="s">
+        <v>770</v>
+      </c>
+      <c r="I13" t="s">
         <v>771</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>772</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>712</v>
+      </c>
+      <c r="L13" t="s">
         <v>773</v>
       </c>
-      <c r="K13" t="s">
-        <v>713</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>774</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>775</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>776</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>706</v>
+      </c>
+      <c r="R13" t="s">
+        <v>787</v>
+      </c>
+      <c r="S13" t="s">
         <v>777</v>
-      </c>
-      <c r="P13" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>707</v>
-      </c>
-      <c r="R13" t="s">
-        <v>788</v>
-      </c>
-      <c r="S13" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B14" t="s">
         <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D14" t="s">
         <v>136</v>
@@ -5772,78 +5920,78 @@
         <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G14" t="s">
         <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I14" t="s">
+        <v>709</v>
+      </c>
+      <c r="J14" t="s">
         <v>710</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>770</v>
+      </c>
+      <c r="L14" t="s">
+        <v>771</v>
+      </c>
+      <c r="M14" t="s">
+        <v>772</v>
+      </c>
+      <c r="N14" t="s">
         <v>711</v>
       </c>
-      <c r="K14" t="s">
-        <v>771</v>
-      </c>
-      <c r="L14" t="s">
-        <v>772</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
+        <v>717</v>
+      </c>
+      <c r="P14" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>712</v>
+      </c>
+      <c r="R14" t="s">
+        <v>779</v>
+      </c>
+      <c r="S14" t="s">
         <v>773</v>
       </c>
-      <c r="N14" t="s">
-        <v>712</v>
-      </c>
-      <c r="O14" t="s">
-        <v>718</v>
-      </c>
-      <c r="P14" t="s">
-        <v>769</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>713</v>
-      </c>
-      <c r="R14" t="s">
-        <v>780</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>774</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>775</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>776</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
+        <v>707</v>
+      </c>
+      <c r="X14" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>787</v>
+      </c>
+      <c r="Z14" t="s">
         <v>777</v>
-      </c>
-      <c r="W14" t="s">
-        <v>708</v>
-      </c>
-      <c r="X14" t="s">
-        <v>707</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>788</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B15" t="s">
         <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D15" t="s">
         <v>136</v>
@@ -5852,78 +6000,78 @@
         <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G15" t="s">
         <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I15" t="s">
+        <v>709</v>
+      </c>
+      <c r="J15" t="s">
         <v>710</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>770</v>
+      </c>
+      <c r="L15" t="s">
+        <v>771</v>
+      </c>
+      <c r="M15" t="s">
+        <v>772</v>
+      </c>
+      <c r="N15" t="s">
         <v>711</v>
       </c>
-      <c r="K15" t="s">
-        <v>771</v>
-      </c>
-      <c r="L15" t="s">
-        <v>772</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
+        <v>717</v>
+      </c>
+      <c r="P15" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>712</v>
+      </c>
+      <c r="R15" t="s">
+        <v>779</v>
+      </c>
+      <c r="S15" t="s">
         <v>773</v>
       </c>
-      <c r="N15" t="s">
-        <v>712</v>
-      </c>
-      <c r="O15" t="s">
-        <v>718</v>
-      </c>
-      <c r="P15" t="s">
-        <v>769</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>713</v>
-      </c>
-      <c r="R15" t="s">
-        <v>780</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>774</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>775</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>776</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
+        <v>707</v>
+      </c>
+      <c r="X15" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>787</v>
+      </c>
+      <c r="Z15" t="s">
         <v>777</v>
-      </c>
-      <c r="W15" t="s">
-        <v>708</v>
-      </c>
-      <c r="X15" t="s">
-        <v>707</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>788</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B16" t="s">
         <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D16" t="s">
         <v>136</v>
@@ -5932,66 +6080,66 @@
         <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G16" t="s">
         <v>148</v>
       </c>
       <c r="H16" t="s">
+        <v>709</v>
+      </c>
+      <c r="I16" t="s">
         <v>710</v>
       </c>
-      <c r="I16" t="s">
-        <v>711</v>
-      </c>
       <c r="J16" t="s">
+        <v>770</v>
+      </c>
+      <c r="K16" t="s">
         <v>771</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>772</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
+        <v>715</v>
+      </c>
+      <c r="N16" t="s">
+        <v>712</v>
+      </c>
+      <c r="O16" t="s">
         <v>773</v>
       </c>
-      <c r="M16" t="s">
-        <v>716</v>
-      </c>
-      <c r="N16" t="s">
-        <v>713</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>774</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>775</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>776</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
+        <v>707</v>
+      </c>
+      <c r="T16" t="s">
+        <v>706</v>
+      </c>
+      <c r="U16" t="s">
+        <v>787</v>
+      </c>
+      <c r="V16" t="s">
         <v>777</v>
-      </c>
-      <c r="S16" t="s">
-        <v>708</v>
-      </c>
-      <c r="T16" t="s">
-        <v>707</v>
-      </c>
-      <c r="U16" t="s">
-        <v>788</v>
-      </c>
-      <c r="V16" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D17" t="s">
         <v>136</v>
@@ -6000,66 +6148,66 @@
         <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G17" t="s">
         <v>148</v>
       </c>
       <c r="H17" t="s">
+        <v>709</v>
+      </c>
+      <c r="I17" t="s">
         <v>710</v>
       </c>
-      <c r="I17" t="s">
-        <v>711</v>
-      </c>
       <c r="J17" t="s">
+        <v>770</v>
+      </c>
+      <c r="K17" t="s">
         <v>771</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>772</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
+        <v>715</v>
+      </c>
+      <c r="N17" t="s">
+        <v>712</v>
+      </c>
+      <c r="O17" t="s">
         <v>773</v>
       </c>
-      <c r="M17" t="s">
-        <v>716</v>
-      </c>
-      <c r="N17" t="s">
-        <v>713</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>774</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>775</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>776</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
+        <v>707</v>
+      </c>
+      <c r="T17" t="s">
+        <v>706</v>
+      </c>
+      <c r="U17" t="s">
+        <v>787</v>
+      </c>
+      <c r="V17" t="s">
         <v>777</v>
-      </c>
-      <c r="S17" t="s">
-        <v>708</v>
-      </c>
-      <c r="T17" t="s">
-        <v>707</v>
-      </c>
-      <c r="U17" t="s">
-        <v>788</v>
-      </c>
-      <c r="V17" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B18" t="s">
         <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D18" t="s">
         <v>136</v>
@@ -6068,66 +6216,66 @@
         <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G18" t="s">
         <v>148</v>
       </c>
       <c r="H18" t="s">
+        <v>709</v>
+      </c>
+      <c r="I18" t="s">
         <v>710</v>
       </c>
-      <c r="I18" t="s">
-        <v>711</v>
-      </c>
       <c r="J18" t="s">
+        <v>770</v>
+      </c>
+      <c r="K18" t="s">
         <v>771</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>772</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
+        <v>715</v>
+      </c>
+      <c r="N18" t="s">
+        <v>712</v>
+      </c>
+      <c r="O18" t="s">
         <v>773</v>
       </c>
-      <c r="M18" t="s">
-        <v>716</v>
-      </c>
-      <c r="N18" t="s">
-        <v>713</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>774</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>775</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>776</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
+        <v>707</v>
+      </c>
+      <c r="T18" t="s">
+        <v>706</v>
+      </c>
+      <c r="U18" t="s">
+        <v>787</v>
+      </c>
+      <c r="V18" t="s">
         <v>777</v>
-      </c>
-      <c r="S18" t="s">
-        <v>708</v>
-      </c>
-      <c r="T18" t="s">
-        <v>707</v>
-      </c>
-      <c r="U18" t="s">
-        <v>788</v>
-      </c>
-      <c r="V18" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B19" t="s">
         <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D19" t="s">
         <v>136</v>
@@ -6136,66 +6284,66 @@
         <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G19" t="s">
         <v>148</v>
       </c>
       <c r="H19" t="s">
+        <v>709</v>
+      </c>
+      <c r="I19" t="s">
         <v>710</v>
       </c>
-      <c r="I19" t="s">
-        <v>711</v>
-      </c>
       <c r="J19" t="s">
+        <v>770</v>
+      </c>
+      <c r="K19" t="s">
         <v>771</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>772</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
+        <v>715</v>
+      </c>
+      <c r="N19" t="s">
+        <v>712</v>
+      </c>
+      <c r="O19" t="s">
         <v>773</v>
       </c>
-      <c r="M19" t="s">
-        <v>716</v>
-      </c>
-      <c r="N19" t="s">
-        <v>713</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>774</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>775</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>776</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
+        <v>707</v>
+      </c>
+      <c r="T19" t="s">
+        <v>706</v>
+      </c>
+      <c r="U19" t="s">
+        <v>787</v>
+      </c>
+      <c r="V19" t="s">
         <v>777</v>
-      </c>
-      <c r="S19" t="s">
-        <v>708</v>
-      </c>
-      <c r="T19" t="s">
-        <v>707</v>
-      </c>
-      <c r="U19" t="s">
-        <v>788</v>
-      </c>
-      <c r="V19" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B20" t="s">
         <v>140</v>
       </c>
       <c r="C20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D20" t="s">
         <v>136</v>
@@ -6204,66 +6352,66 @@
         <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G20" t="s">
         <v>148</v>
       </c>
       <c r="H20" t="s">
+        <v>709</v>
+      </c>
+      <c r="I20" t="s">
         <v>710</v>
       </c>
-      <c r="I20" t="s">
-        <v>711</v>
-      </c>
       <c r="J20" t="s">
+        <v>770</v>
+      </c>
+      <c r="K20" t="s">
         <v>771</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>772</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
+        <v>715</v>
+      </c>
+      <c r="N20" t="s">
+        <v>712</v>
+      </c>
+      <c r="O20" t="s">
         <v>773</v>
       </c>
-      <c r="M20" t="s">
-        <v>716</v>
-      </c>
-      <c r="N20" t="s">
-        <v>713</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>774</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>775</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>776</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
+        <v>707</v>
+      </c>
+      <c r="T20" t="s">
+        <v>706</v>
+      </c>
+      <c r="U20" t="s">
+        <v>787</v>
+      </c>
+      <c r="V20" t="s">
         <v>777</v>
-      </c>
-      <c r="S20" t="s">
-        <v>708</v>
-      </c>
-      <c r="T20" t="s">
-        <v>707</v>
-      </c>
-      <c r="U20" t="s">
-        <v>788</v>
-      </c>
-      <c r="V20" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
         <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D21" t="s">
         <v>136</v>
@@ -6272,78 +6420,78 @@
         <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G21" t="s">
         <v>148</v>
       </c>
       <c r="H21" t="s">
+        <v>709</v>
+      </c>
+      <c r="I21" t="s">
         <v>710</v>
       </c>
-      <c r="I21" t="s">
-        <v>711</v>
-      </c>
       <c r="J21" t="s">
+        <v>770</v>
+      </c>
+      <c r="K21" t="s">
         <v>771</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>772</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
+        <v>693</v>
+      </c>
+      <c r="N21" t="s">
+        <v>780</v>
+      </c>
+      <c r="O21" t="s">
+        <v>713</v>
+      </c>
+      <c r="P21" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>715</v>
+      </c>
+      <c r="R21" t="s">
+        <v>712</v>
+      </c>
+      <c r="S21" t="s">
         <v>773</v>
       </c>
-      <c r="M21" t="s">
-        <v>694</v>
-      </c>
-      <c r="N21" t="s">
-        <v>781</v>
-      </c>
-      <c r="O21" t="s">
-        <v>714</v>
-      </c>
-      <c r="P21" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>716</v>
-      </c>
-      <c r="R21" t="s">
-        <v>713</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>774</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>775</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>776</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
+        <v>707</v>
+      </c>
+      <c r="X21" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>787</v>
+      </c>
+      <c r="Z21" t="s">
         <v>777</v>
-      </c>
-      <c r="W21" t="s">
-        <v>708</v>
-      </c>
-      <c r="X21" t="s">
-        <v>707</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>788</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B22" t="s">
         <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D22" t="s">
         <v>136</v>
@@ -6352,81 +6500,81 @@
         <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G22" t="s">
         <v>148</v>
       </c>
       <c r="H22" t="s">
+        <v>709</v>
+      </c>
+      <c r="I22" t="s">
         <v>710</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>770</v>
+      </c>
+      <c r="K22" t="s">
+        <v>771</v>
+      </c>
+      <c r="L22" t="s">
+        <v>772</v>
+      </c>
+      <c r="M22" t="s">
         <v>711</v>
       </c>
-      <c r="J22" t="s">
-        <v>771</v>
-      </c>
-      <c r="K22" t="s">
-        <v>772</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
+        <v>693</v>
+      </c>
+      <c r="O22" t="s">
+        <v>780</v>
+      </c>
+      <c r="P22" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>714</v>
+      </c>
+      <c r="R22" t="s">
+        <v>715</v>
+      </c>
+      <c r="S22" t="s">
+        <v>712</v>
+      </c>
+      <c r="T22" t="s">
         <v>773</v>
       </c>
-      <c r="M22" t="s">
-        <v>712</v>
-      </c>
-      <c r="N22" t="s">
-        <v>694</v>
-      </c>
-      <c r="O22" t="s">
-        <v>781</v>
-      </c>
-      <c r="P22" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>715</v>
-      </c>
-      <c r="R22" t="s">
-        <v>716</v>
-      </c>
-      <c r="S22" t="s">
-        <v>713</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>774</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>775</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>776</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>706</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>787</v>
+      </c>
+      <c r="AA22" t="s">
         <v>777</v>
-      </c>
-      <c r="X22" t="s">
-        <v>708</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>707</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>788</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B23" t="s">
         <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D23" t="s">
         <v>136</v>
@@ -6435,87 +6583,87 @@
         <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G23" t="s">
         <v>148</v>
       </c>
       <c r="H23" t="s">
+        <v>709</v>
+      </c>
+      <c r="I23" t="s">
         <v>710</v>
       </c>
-      <c r="I23" t="s">
-        <v>711</v>
-      </c>
       <c r="J23" t="s">
+        <v>770</v>
+      </c>
+      <c r="K23" t="s">
         <v>771</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>772</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
+        <v>715</v>
+      </c>
+      <c r="N23" t="s">
+        <v>712</v>
+      </c>
+      <c r="O23" t="s">
+        <v>781</v>
+      </c>
+      <c r="P23" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>782</v>
+      </c>
+      <c r="R23" t="s">
+        <v>783</v>
+      </c>
+      <c r="S23" t="s">
+        <v>784</v>
+      </c>
+      <c r="T23" t="s">
+        <v>785</v>
+      </c>
+      <c r="U23" t="s">
+        <v>786</v>
+      </c>
+      <c r="V23" t="s">
         <v>773</v>
       </c>
-      <c r="M23" t="s">
-        <v>716</v>
-      </c>
-      <c r="N23" t="s">
-        <v>713</v>
-      </c>
-      <c r="O23" t="s">
-        <v>782</v>
-      </c>
-      <c r="P23" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>783</v>
-      </c>
-      <c r="R23" t="s">
-        <v>784</v>
-      </c>
-      <c r="S23" t="s">
-        <v>785</v>
-      </c>
-      <c r="T23" t="s">
-        <v>786</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="W23" t="s">
+        <v>774</v>
+      </c>
+      <c r="X23" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>707</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>706</v>
+      </c>
+      <c r="AB23" t="s">
         <v>787</v>
       </c>
-      <c r="V23" t="s">
-        <v>774</v>
-      </c>
-      <c r="W23" t="s">
-        <v>775</v>
-      </c>
-      <c r="X23" t="s">
-        <v>776</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="AC23" t="s">
         <v>777</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>708</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>707</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>788</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B24" t="s">
         <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D24" t="s">
         <v>136</v>
@@ -6524,87 +6672,87 @@
         <v>147</v>
       </c>
       <c r="F24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G24" t="s">
         <v>148</v>
       </c>
       <c r="H24" t="s">
+        <v>709</v>
+      </c>
+      <c r="I24" t="s">
         <v>710</v>
       </c>
-      <c r="I24" t="s">
-        <v>711</v>
-      </c>
       <c r="J24" t="s">
+        <v>770</v>
+      </c>
+      <c r="K24" t="s">
         <v>771</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>772</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
+        <v>715</v>
+      </c>
+      <c r="N24" t="s">
+        <v>712</v>
+      </c>
+      <c r="O24" t="s">
+        <v>781</v>
+      </c>
+      <c r="P24" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>782</v>
+      </c>
+      <c r="R24" t="s">
+        <v>783</v>
+      </c>
+      <c r="S24" t="s">
+        <v>784</v>
+      </c>
+      <c r="T24" t="s">
+        <v>785</v>
+      </c>
+      <c r="U24" t="s">
+        <v>786</v>
+      </c>
+      <c r="V24" t="s">
         <v>773</v>
       </c>
-      <c r="M24" t="s">
-        <v>716</v>
-      </c>
-      <c r="N24" t="s">
-        <v>713</v>
-      </c>
-      <c r="O24" t="s">
-        <v>782</v>
-      </c>
-      <c r="P24" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>783</v>
-      </c>
-      <c r="R24" t="s">
-        <v>784</v>
-      </c>
-      <c r="S24" t="s">
-        <v>785</v>
-      </c>
-      <c r="T24" t="s">
-        <v>786</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="W24" t="s">
+        <v>774</v>
+      </c>
+      <c r="X24" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>707</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>706</v>
+      </c>
+      <c r="AB24" t="s">
         <v>787</v>
       </c>
-      <c r="V24" t="s">
-        <v>774</v>
-      </c>
-      <c r="W24" t="s">
-        <v>775</v>
-      </c>
-      <c r="X24" t="s">
-        <v>776</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="AC24" t="s">
         <v>777</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>708</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>707</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>788</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B25" t="s">
         <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D25" t="s">
         <v>136</v>
@@ -6613,43 +6761,43 @@
         <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G25" t="s">
         <v>148</v>
       </c>
       <c r="H25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I25" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K25" t="s">
+        <v>773</v>
+      </c>
+      <c r="L25" t="s">
         <v>774</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>775</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>776</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
+        <v>707</v>
+      </c>
+      <c r="P25" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>787</v>
+      </c>
+      <c r="R25" t="s">
         <v>777</v>
-      </c>
-      <c r="O25" t="s">
-        <v>708</v>
-      </c>
-      <c r="P25" t="s">
-        <v>707</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>788</v>
-      </c>
-      <c r="R25" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
@@ -6669,39 +6817,39 @@
         <v>142</v>
       </c>
       <c r="F26" t="s">
+        <v>677</v>
+      </c>
+      <c r="G26" t="s">
+        <v>674</v>
+      </c>
+      <c r="H26" t="s">
+        <v>661</v>
+      </c>
+      <c r="I26" t="s">
+        <v>662</v>
+      </c>
+      <c r="J26" t="s">
         <v>678</v>
       </c>
-      <c r="G26" t="s">
-        <v>675</v>
-      </c>
-      <c r="H26" t="s">
-        <v>662</v>
-      </c>
-      <c r="I26" t="s">
-        <v>663</v>
-      </c>
-      <c r="J26" t="s">
-        <v>679</v>
-      </c>
       <c r="K26" t="s">
+        <v>646</v>
+      </c>
+      <c r="L26" t="s">
+        <v>658</v>
+      </c>
+      <c r="M26" t="s">
         <v>647</v>
       </c>
-      <c r="L26" t="s">
-        <v>659</v>
-      </c>
-      <c r="M26" t="s">
-        <v>648</v>
-      </c>
       <c r="N26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C27" t="s">
         <v>136</v>
@@ -6716,24 +6864,24 @@
         <v>179</v>
       </c>
       <c r="G27" t="s">
+        <v>616</v>
+      </c>
+      <c r="H27" t="s">
         <v>617</v>
       </c>
-      <c r="H27" t="s">
-        <v>618</v>
-      </c>
       <c r="I27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>624</v>
+      </c>
+      <c r="B28" t="s">
         <v>625</v>
-      </c>
-      <c r="B28" t="s">
-        <v>626</v>
       </c>
       <c r="C28" t="s">
         <v>136</v>
@@ -6748,16 +6896,16 @@
         <v>179</v>
       </c>
       <c r="G28" t="s">
+        <v>616</v>
+      </c>
+      <c r="H28" t="s">
         <v>617</v>
       </c>
-      <c r="H28" t="s">
-        <v>618</v>
-      </c>
       <c r="I28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
@@ -6773,7 +6921,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B30" t="s">
         <v>264</v>
@@ -6784,7 +6932,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B31" t="s">
         <v>319</v>
@@ -6801,7 +6949,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B32" t="s">
         <v>319</v>
@@ -6821,7 +6969,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B33" t="s">
         <v>264</v>
@@ -6832,7 +6980,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B34" t="s">
         <v>319</v>
@@ -6849,7 +6997,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B35" t="s">
         <v>319</v>
@@ -6869,7 +7017,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B36" t="s">
         <v>264</v>
@@ -6880,7 +7028,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B37" t="s">
         <v>340</v>
@@ -6897,7 +7045,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B38" t="s">
         <v>319</v>
@@ -6914,7 +7062,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B39" t="s">
         <v>319</v>
@@ -6934,7 +7082,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B40" t="s">
         <v>264</v>
@@ -6945,7 +7093,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B41" t="s">
         <v>264</v>
@@ -6956,7 +7104,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B42" t="s">
         <v>264</v>
@@ -6967,7 +7115,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B43" t="s">
         <v>264</v>
@@ -6978,7 +7126,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B44" t="s">
         <v>264</v>
@@ -6999,10 +7147,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:CK116"/>
+  <dimension ref="A1:CK102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7480,8 +7628,8 @@
       <c r="B11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>110</v>
+      <c r="C11" s="49" t="s">
+        <v>109</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>110</v>
@@ -7508,30 +7656,33 @@
         <v>110</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>111</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="P11" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q11" s="17"/>
+      <c r="P11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="12"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="18"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
@@ -7549,7 +7700,7 @@
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>109</v>
@@ -7664,7 +7815,7 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>109</v>
@@ -7793,7 +7944,7 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>109</v>
@@ -7922,7 +8073,7 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>109</v>
@@ -8043,7 +8194,7 @@
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>109</v>
@@ -8164,7 +8315,7 @@
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>109</v>
@@ -8285,7 +8436,7 @@
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>109</v>
@@ -8406,7 +8557,7 @@
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>109</v>
@@ -8527,7 +8678,7 @@
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>109</v>
@@ -8658,7 +8809,7 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>109</v>
@@ -8792,7 +8943,7 @@
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>109</v>
@@ -8927,7 +9078,7 @@
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>109</v>
@@ -9062,7 +9213,7 @@
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>109</v>
@@ -9244,7 +9395,7 @@
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>109</v>
@@ -9292,7 +9443,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>109</v>
@@ -9332,7 +9483,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>129</v>
@@ -9375,7 +9526,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>109</v>
@@ -9386,7 +9537,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>110</v>
@@ -9402,7 +9553,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>110</v>
@@ -9410,7 +9561,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>110</v>
@@ -9418,7 +9569,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>110</v>
@@ -9435,7 +9586,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>110</v>
@@ -9443,7 +9594,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>110</v>
@@ -9463,7 +9614,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>110</v>
@@ -9471,7 +9622,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>109</v>
@@ -9482,7 +9633,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>110</v>
@@ -9490,7 +9641,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>110</v>
@@ -9498,7 +9649,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>110</v>
@@ -9515,7 +9666,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>110</v>
@@ -9523,7 +9674,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>110</v>
@@ -9543,7 +9694,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>110</v>
@@ -9551,7 +9702,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>110</v>
@@ -9559,7 +9710,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>110</v>
@@ -9567,7 +9718,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>109</v>
@@ -9578,15 +9729,15 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>109</v>
+        <v>487</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>110</v>
@@ -9594,15 +9745,15 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>109</v>
+        <v>484</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>110</v>
@@ -9610,655 +9761,543 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>109</v>
+        <v>495</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="B65" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A66" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A68" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A69" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A70" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="13"/>
+      <c r="AB71" s="13"/>
+      <c r="AC71" s="13"/>
+      <c r="AD71" s="13"/>
+      <c r="AE71" s="13"/>
+      <c r="AF71" s="13"/>
+      <c r="AG71" s="13"/>
+      <c r="AH71" s="13"/>
+      <c r="AI71" s="13"/>
+      <c r="AJ71" s="13"/>
+      <c r="AK71" s="13"/>
+      <c r="AL71" s="13"/>
+      <c r="AM71" s="13"/>
+      <c r="AN71" s="13"/>
+      <c r="AO71" s="13"/>
+      <c r="AP71" s="13"/>
+      <c r="AQ71" s="13"/>
+      <c r="AR71" s="13"/>
+      <c r="AS71" s="13"/>
+      <c r="AT71" s="13"/>
+      <c r="AU71" s="13"/>
+      <c r="AV71" s="13"/>
+      <c r="AW71" s="13"/>
+      <c r="AX71" s="13"/>
+      <c r="AY71" s="13"/>
+      <c r="AZ71" s="13"/>
+      <c r="BA71" s="13"/>
+      <c r="BB71" s="13"/>
+      <c r="BC71" s="13"/>
+      <c r="BD71" s="13"/>
+      <c r="BE71" s="13"/>
+      <c r="BF71" s="13"/>
+      <c r="BG71" s="13"/>
+      <c r="BH71" s="13"/>
+      <c r="BI71" s="13"/>
+      <c r="BJ71" s="13"/>
+      <c r="BK71" s="13"/>
+      <c r="BL71" s="13"/>
+      <c r="BM71" s="13"/>
+      <c r="BN71" s="13"/>
+      <c r="BO71" s="13"/>
+      <c r="BP71" s="13"/>
+      <c r="BQ71" s="13"/>
+      <c r="BR71" s="13"/>
+      <c r="BS71" s="13"/>
+      <c r="BT71" s="13"/>
+      <c r="BU71" s="13"/>
+      <c r="BV71" s="13"/>
+      <c r="BW71" s="13"/>
+      <c r="BX71" s="13"/>
+      <c r="BY71" s="13"/>
+      <c r="BZ71" s="13"/>
+      <c r="CA71" s="13"/>
+      <c r="CB71" s="13"/>
+      <c r="CC71" s="13"/>
+      <c r="CD71" s="13"/>
+      <c r="CE71" s="13"/>
+      <c r="CF71" s="13"/>
+      <c r="CG71" s="13"/>
+      <c r="CH71" s="13"/>
+      <c r="CI71" s="13"/>
+      <c r="CJ71" s="13"/>
+      <c r="CK71" s="13"/>
+    </row>
+    <row r="72" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A72" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A73" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>588</v>
+      </c>
+      <c r="B74" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="B67" s="19" t="s">
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" t="s">
+        <v>111</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+      <c r="AL74"/>
+      <c r="AM74"/>
+      <c r="AN74"/>
+      <c r="AO74"/>
+      <c r="AP74"/>
+      <c r="AQ74"/>
+      <c r="AR74"/>
+      <c r="AS74"/>
+      <c r="AT74"/>
+      <c r="AU74"/>
+      <c r="AV74"/>
+      <c r="AW74"/>
+      <c r="AX74"/>
+      <c r="AY74"/>
+      <c r="AZ74"/>
+      <c r="BA74"/>
+      <c r="BB74"/>
+      <c r="BC74"/>
+      <c r="BD74"/>
+      <c r="BE74"/>
+      <c r="BF74"/>
+      <c r="BG74"/>
+      <c r="BH74"/>
+      <c r="BI74"/>
+      <c r="BJ74"/>
+      <c r="BK74"/>
+      <c r="BL74"/>
+      <c r="BM74"/>
+      <c r="BN74"/>
+      <c r="BO74"/>
+      <c r="BP74"/>
+      <c r="BQ74"/>
+      <c r="BR74"/>
+      <c r="BS74"/>
+      <c r="BT74"/>
+      <c r="BU74"/>
+      <c r="BV74"/>
+      <c r="BW74"/>
+      <c r="BX74"/>
+      <c r="BY74"/>
+      <c r="BZ74"/>
+      <c r="CA74"/>
+      <c r="CB74"/>
+      <c r="CC74"/>
+      <c r="CD74"/>
+      <c r="CE74"/>
+      <c r="CF74"/>
+      <c r="CG74"/>
+      <c r="CH74"/>
+      <c r="CI74"/>
+      <c r="CJ74"/>
+      <c r="CK74"/>
+    </row>
+    <row r="75" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A75" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A76" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A77" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A78" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="B69" s="19" t="s">
+    <row r="79" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A79" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:89" x14ac:dyDescent="0.35">
+      <c r="A80" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="B71" s="19" t="s">
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="B73" s="19" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="B93" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="B75" s="19" t="s">
+      <c r="C93" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="B77" s="19" t="s">
+      <c r="C94" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="B79" s="19" t="s">
+      <c r="C96" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A81" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="B81" s="19" t="s">
+      <c r="C101" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="82" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A82" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A83" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="13"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
-      <c r="Y84" s="13"/>
-      <c r="Z84" s="13"/>
-      <c r="AA84" s="13"/>
-      <c r="AB84" s="13"/>
-      <c r="AC84" s="13"/>
-      <c r="AD84" s="13"/>
-      <c r="AE84" s="13"/>
-      <c r="AF84" s="13"/>
-      <c r="AG84" s="13"/>
-      <c r="AH84" s="13"/>
-      <c r="AI84" s="13"/>
-      <c r="AJ84" s="13"/>
-      <c r="AK84" s="13"/>
-      <c r="AL84" s="13"/>
-      <c r="AM84" s="13"/>
-      <c r="AN84" s="13"/>
-      <c r="AO84" s="13"/>
-      <c r="AP84" s="13"/>
-      <c r="AQ84" s="13"/>
-      <c r="AR84" s="13"/>
-      <c r="AS84" s="13"/>
-      <c r="AT84" s="13"/>
-      <c r="AU84" s="13"/>
-      <c r="AV84" s="13"/>
-      <c r="AW84" s="13"/>
-      <c r="AX84" s="13"/>
-      <c r="AY84" s="13"/>
-      <c r="AZ84" s="13"/>
-      <c r="BA84" s="13"/>
-      <c r="BB84" s="13"/>
-      <c r="BC84" s="13"/>
-      <c r="BD84" s="13"/>
-      <c r="BE84" s="13"/>
-      <c r="BF84" s="13"/>
-      <c r="BG84" s="13"/>
-      <c r="BH84" s="13"/>
-      <c r="BI84" s="13"/>
-      <c r="BJ84" s="13"/>
-      <c r="BK84" s="13"/>
-      <c r="BL84" s="13"/>
-      <c r="BM84" s="13"/>
-      <c r="BN84" s="13"/>
-      <c r="BO84" s="13"/>
-      <c r="BP84" s="13"/>
-      <c r="BQ84" s="13"/>
-      <c r="BR84" s="13"/>
-      <c r="BS84" s="13"/>
-      <c r="BT84" s="13"/>
-      <c r="BU84" s="13"/>
-      <c r="BV84" s="13"/>
-      <c r="BW84" s="13"/>
-      <c r="BX84" s="13"/>
-      <c r="BY84" s="13"/>
-      <c r="BZ84" s="13"/>
-      <c r="CA84" s="13"/>
-      <c r="CB84" s="13"/>
-      <c r="CC84" s="13"/>
-      <c r="CD84" s="13"/>
-      <c r="CE84" s="13"/>
-      <c r="CF84" s="13"/>
-      <c r="CG84" s="13"/>
-      <c r="CH84" s="13"/>
-      <c r="CI84" s="13"/>
-      <c r="CJ84" s="13"/>
-      <c r="CK84" s="13"/>
-    </row>
-    <row r="85" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A85" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A86" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A87" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>589</v>
-      </c>
-      <c r="B88" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E88" t="s">
-        <v>111</v>
-      </c>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
-      <c r="R88"/>
-      <c r="S88"/>
-      <c r="T88"/>
-      <c r="U88"/>
-      <c r="V88"/>
-      <c r="W88"/>
-      <c r="X88"/>
-      <c r="Y88"/>
-      <c r="Z88"/>
-      <c r="AA88"/>
-      <c r="AB88"/>
-      <c r="AC88"/>
-      <c r="AD88"/>
-      <c r="AE88"/>
-      <c r="AF88"/>
-      <c r="AG88"/>
-      <c r="AH88"/>
-      <c r="AI88"/>
-      <c r="AJ88"/>
-      <c r="AK88"/>
-      <c r="AL88"/>
-      <c r="AM88"/>
-      <c r="AN88"/>
-      <c r="AO88"/>
-      <c r="AP88"/>
-      <c r="AQ88"/>
-      <c r="AR88"/>
-      <c r="AS88"/>
-      <c r="AT88"/>
-      <c r="AU88"/>
-      <c r="AV88"/>
-      <c r="AW88"/>
-      <c r="AX88"/>
-      <c r="AY88"/>
-      <c r="AZ88"/>
-      <c r="BA88"/>
-      <c r="BB88"/>
-      <c r="BC88"/>
-      <c r="BD88"/>
-      <c r="BE88"/>
-      <c r="BF88"/>
-      <c r="BG88"/>
-      <c r="BH88"/>
-      <c r="BI88"/>
-      <c r="BJ88"/>
-      <c r="BK88"/>
-      <c r="BL88"/>
-      <c r="BM88"/>
-      <c r="BN88"/>
-      <c r="BO88"/>
-      <c r="BP88"/>
-      <c r="BQ88"/>
-      <c r="BR88"/>
-      <c r="BS88"/>
-      <c r="BT88"/>
-      <c r="BU88"/>
-      <c r="BV88"/>
-      <c r="BW88"/>
-      <c r="BX88"/>
-      <c r="BY88"/>
-      <c r="BZ88"/>
-      <c r="CA88"/>
-      <c r="CB88"/>
-      <c r="CC88"/>
-      <c r="CD88"/>
-      <c r="CE88"/>
-      <c r="CF88"/>
-      <c r="CG88"/>
-      <c r="CH88"/>
-      <c r="CI88"/>
-      <c r="CJ88"/>
-      <c r="CK88"/>
-    </row>
-    <row r="89" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A89" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A90" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A91" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A92" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A93" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A94" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A95" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="1:89" x14ac:dyDescent="0.35">
-      <c r="A96" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="C102" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C116" s="13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -10280,7 +10319,7 @@
   <dimension ref="A1:CK84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10464,13 +10503,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -10500,7 +10539,7 @@
         <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S2" t="s">
         <v>118</v>
@@ -10523,7 +10562,7 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
@@ -10543,7 +10582,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -10558,7 +10597,7 @@
         <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K4" t="s">
         <v>118</v>
@@ -10581,7 +10620,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -10604,7 +10643,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -10619,7 +10658,7 @@
         <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J6" t="s">
         <v>118</v>
@@ -10645,7 +10684,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G7" t="s">
         <v>310</v>
@@ -10671,7 +10710,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -10680,10 +10719,10 @@
         <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -10703,7 +10742,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F9" t="s">
         <v>310</v>
@@ -10716,8 +10755,8 @@
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -10726,36 +10765,39 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>635</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
+        <v>634</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
-        <v>635</v>
-      </c>
       <c r="I10" t="s">
+        <v>634</v>
+      </c>
+      <c r="J10" t="s">
         <v>81</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>91</v>
       </c>
-      <c r="K10" t="s">
-        <v>635</v>
-      </c>
       <c r="L10" t="s">
-        <v>11</v>
+        <v>634</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="O10" t="s">
         <v>118</v>
       </c>
       <c r="P10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10775,7 +10817,7 @@
     </row>
     <row r="12" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -10799,10 +10841,10 @@
         <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
@@ -10834,7 +10876,7 @@
     </row>
     <row r="13" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -10867,19 +10909,19 @@
         <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O13" t="s">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q13" t="s">
         <v>11</v>
@@ -10914,7 +10956,7 @@
     </row>
     <row r="14" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -10947,19 +10989,19 @@
         <v>114</v>
       </c>
       <c r="L14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O14" t="s">
         <v>12</v>
       </c>
       <c r="P14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q14" t="s">
         <v>11</v>
@@ -10994,7 +11036,7 @@
     </row>
     <row r="15" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -11024,10 +11066,10 @@
         <v>114</v>
       </c>
       <c r="K15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M15" t="s">
         <v>11</v>
@@ -11062,7 +11104,7 @@
     </row>
     <row r="16" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -11092,10 +11134,10 @@
         <v>114</v>
       </c>
       <c r="K16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M16" t="s">
         <v>11</v>
@@ -11130,7 +11172,7 @@
     </row>
     <row r="17" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -11160,10 +11202,10 @@
         <v>114</v>
       </c>
       <c r="K17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M17" t="s">
         <v>11</v>
@@ -11198,7 +11240,7 @@
     </row>
     <row r="18" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -11228,10 +11270,10 @@
         <v>114</v>
       </c>
       <c r="K18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
@@ -11266,7 +11308,7 @@
     </row>
     <row r="19" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -11296,10 +11338,10 @@
         <v>114</v>
       </c>
       <c r="K19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M19" t="s">
         <v>11</v>
@@ -11334,7 +11376,7 @@
     </row>
     <row r="20" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -11364,16 +11406,16 @@
         <v>114</v>
       </c>
       <c r="K20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M20" t="s">
         <v>11</v>
       </c>
       <c r="N20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O20" t="s">
         <v>12</v>
@@ -11414,7 +11456,7 @@
     </row>
     <row r="21" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -11444,19 +11486,19 @@
         <v>114</v>
       </c>
       <c r="K21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N21" t="s">
         <v>11</v>
       </c>
       <c r="O21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P21" t="s">
         <v>12</v>
@@ -11497,7 +11539,7 @@
     </row>
     <row r="22" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -11527,10 +11569,10 @@
         <v>114</v>
       </c>
       <c r="K22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M22" t="s">
         <v>11</v>
@@ -11545,7 +11587,7 @@
         <v>116</v>
       </c>
       <c r="Q22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="R22" t="s">
         <v>12</v>
@@ -11586,7 +11628,7 @@
     </row>
     <row r="23" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -11616,10 +11658,10 @@
         <v>114</v>
       </c>
       <c r="K23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M23" t="s">
         <v>11</v>
@@ -11634,7 +11676,7 @@
         <v>116</v>
       </c>
       <c r="Q23" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="R23" t="s">
         <v>12</v>
@@ -11675,7 +11717,7 @@
     </row>
     <row r="24" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -11702,7 +11744,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -11746,10 +11788,10 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H25" t="s">
         <v>80</v>
@@ -11758,13 +11800,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K25" t="s">
         <v>91</v>
       </c>
       <c r="L25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M25" t="s">
         <v>118</v>
@@ -11786,7 +11828,7 @@
         <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
@@ -11799,7 +11841,7 @@
     </row>
     <row r="29" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -11839,7 +11881,7 @@
     </row>
     <row r="31" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -11898,7 +11940,7 @@
     </row>
     <row r="35" spans="1:6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B35" t="s">
         <v>135</v>
@@ -11914,7 +11956,7 @@
     </row>
     <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B37" t="s">
         <v>310</v>
@@ -11922,7 +11964,7 @@
     </row>
     <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B38" t="s">
         <v>310</v>
@@ -11930,7 +11972,7 @@
     </row>
     <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -11947,7 +11989,7 @@
     </row>
     <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B40" t="s">
         <v>305</v>
@@ -11955,7 +11997,7 @@
     </row>
     <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -11975,7 +12017,7 @@
     </row>
     <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B42" t="s">
         <v>305</v>
@@ -11983,7 +12025,7 @@
     </row>
     <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B43" t="s">
         <v>310</v>
@@ -11991,7 +12033,7 @@
     </row>
     <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B44" t="s">
         <v>310</v>
@@ -11999,7 +12041,7 @@
     </row>
     <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -12016,7 +12058,7 @@
     </row>
     <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B46" t="s">
         <v>305</v>
@@ -12024,7 +12066,7 @@
     </row>
     <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -12044,7 +12086,7 @@
     </row>
     <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B48" t="s">
         <v>305</v>
@@ -12052,15 +12094,15 @@
     </row>
     <row r="49" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B49" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="50" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B50" t="s">
         <v>133</v>
@@ -12180,7 +12222,7 @@
     </row>
     <row r="65" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B65" t="s">
         <v>310</v>
@@ -12188,7 +12230,7 @@
     </row>
     <row r="66" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -12205,7 +12247,7 @@
     </row>
     <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B67" t="s">
         <v>310</v>
@@ -12213,7 +12255,7 @@
     </row>
     <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B68" t="s">
         <v>305</v>
@@ -12221,7 +12263,7 @@
     </row>
     <row r="69" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B69" t="s">
         <v>305</v>
@@ -12229,7 +12271,7 @@
     </row>
     <row r="70" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -12237,7 +12279,7 @@
     </row>
     <row r="71" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -12245,7 +12287,7 @@
     </row>
     <row r="72" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B72" t="s">
         <v>132</v>
@@ -12253,7 +12295,7 @@
     </row>
     <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B73" t="s">
         <v>310</v>
@@ -12261,7 +12303,7 @@
     </row>
     <row r="74" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B74" t="s">
         <v>310</v>
@@ -12269,7 +12311,7 @@
     </row>
     <row r="75" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -12286,7 +12328,7 @@
     </row>
     <row r="76" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B76" t="s">
         <v>305</v>
@@ -12294,7 +12336,7 @@
     </row>
     <row r="77" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -12314,7 +12356,7 @@
     </row>
     <row r="78" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B78" t="s">
         <v>305</v>
@@ -12322,7 +12364,7 @@
     </row>
     <row r="79" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
@@ -12338,7 +12380,7 @@
     </row>
     <row r="81" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B81" t="s">
         <v>132</v>
@@ -12346,7 +12388,7 @@
     </row>
     <row r="82" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B82" t="s">
         <v>132</v>
@@ -12354,7 +12396,7 @@
     </row>
     <row r="83" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B83" t="s">
         <v>310</v>
@@ -12362,7 +12404,7 @@
     </row>
     <row r="84" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B84" t="s">
         <v>305</v>
@@ -12382,8 +12424,8 @@
   </sheetPr>
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12486,10 +12528,10 @@
         <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D2" t="s">
         <v>197</v>
@@ -12501,7 +12543,7 @@
         <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H2" t="s">
         <v>201</v>
@@ -12534,13 +12576,13 @@
         <v>214</v>
       </c>
       <c r="R2" t="s">
+        <v>648</v>
+      </c>
+      <c r="S2" t="s">
         <v>649</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>650</v>
-      </c>
-      <c r="T2" t="s">
-        <v>651</v>
       </c>
       <c r="U2" t="s">
         <v>215</v>
@@ -12551,10 +12593,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D3" t="s">
         <v>201</v>
@@ -12563,7 +12605,7 @@
         <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G3" t="s">
         <v>205</v>
@@ -12574,10 +12616,10 @@
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D4" t="s">
         <v>216</v>
@@ -12586,7 +12628,7 @@
         <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G4" t="s">
         <v>221</v>
@@ -12598,13 +12640,13 @@
         <v>219</v>
       </c>
       <c r="J4" t="s">
+        <v>648</v>
+      </c>
+      <c r="K4" t="s">
         <v>649</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>650</v>
-      </c>
-      <c r="L4" t="s">
-        <v>651</v>
       </c>
       <c r="M4" t="s">
         <v>215</v>
@@ -12615,10 +12657,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D5" t="s">
         <v>197</v>
@@ -12627,13 +12669,13 @@
         <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G5" t="s">
         <v>195</v>
       </c>
       <c r="H5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I5" t="s">
         <v>215</v>
@@ -12644,16 +12686,16 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D6" t="s">
         <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F6" t="s">
         <v>195</v>
@@ -12665,13 +12707,13 @@
         <v>218</v>
       </c>
       <c r="I6" t="s">
+        <v>648</v>
+      </c>
+      <c r="J6" t="s">
         <v>649</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>650</v>
-      </c>
-      <c r="K6" t="s">
-        <v>651</v>
       </c>
       <c r="L6" t="s">
         <v>215</v>
@@ -12682,10 +12724,10 @@
         <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D7" t="s">
         <v>197</v>
@@ -12694,13 +12736,13 @@
         <v>196</v>
       </c>
       <c r="F7" t="s">
+        <v>664</v>
+      </c>
+      <c r="G7" t="s">
+        <v>614</v>
+      </c>
+      <c r="H7" t="s">
         <v>665</v>
-      </c>
-      <c r="G7" t="s">
-        <v>615</v>
-      </c>
-      <c r="H7" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -12708,13 +12750,13 @@
         <v>301</v>
       </c>
       <c r="B8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C8" t="s">
         <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
@@ -12722,7 +12764,7 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C9" t="s">
         <v>244</v>
@@ -12763,10 +12805,10 @@
         <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D10" t="s">
         <v>216</v>
@@ -12775,10 +12817,10 @@
         <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
@@ -12786,51 +12828,54 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="D11" t="s">
+        <v>633</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E11" t="s">
         <v>197</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>196</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>198</v>
       </c>
-      <c r="G11" t="s">
-        <v>615</v>
-      </c>
       <c r="H11" t="s">
+        <v>614</v>
+      </c>
+      <c r="I11" t="s">
         <v>195</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>199</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>200</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>648</v>
+      </c>
+      <c r="M11" t="s">
         <v>649</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
+        <v>668</v>
+      </c>
+      <c r="O11" t="s">
+        <v>669</v>
+      </c>
+      <c r="P11" t="s">
         <v>650</v>
       </c>
-      <c r="M11" t="s">
-        <v>669</v>
-      </c>
-      <c r="N11" t="s">
-        <v>670</v>
-      </c>
-      <c r="O11" t="s">
-        <v>651</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>203</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>204</v>
       </c>
     </row>
@@ -12839,27 +12884,27 @@
         <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D12" t="s">
         <v>196</v>
       </c>
       <c r="E12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D13" t="s">
         <v>222</v>
@@ -12877,13 +12922,13 @@
         <v>227</v>
       </c>
       <c r="I13" t="s">
+        <v>690</v>
+      </c>
+      <c r="J13" t="s">
         <v>691</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>692</v>
-      </c>
-      <c r="K13" t="s">
-        <v>693</v>
       </c>
       <c r="L13" t="s">
         <v>230</v>
@@ -12901,27 +12946,27 @@
         <v>234</v>
       </c>
       <c r="Q13" t="s">
+        <v>700</v>
+      </c>
+      <c r="R13" t="s">
         <v>701</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>702</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>703</v>
-      </c>
-      <c r="T13" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D14" t="s">
         <v>222</v>
@@ -12948,22 +12993,22 @@
         <v>227</v>
       </c>
       <c r="L14" t="s">
+        <v>690</v>
+      </c>
+      <c r="M14" t="s">
         <v>691</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>692</v>
-      </c>
-      <c r="N14" t="s">
-        <v>693</v>
       </c>
       <c r="O14" t="s">
         <v>229</v>
       </c>
       <c r="P14" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q14" t="s">
         <v>699</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>700</v>
       </c>
       <c r="R14" t="s">
         <v>230</v>
@@ -12984,27 +13029,27 @@
         <v>234</v>
       </c>
       <c r="X14" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y14" t="s">
         <v>701</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>702</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>703</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D15" t="s">
         <v>222</v>
@@ -13031,22 +13076,22 @@
         <v>227</v>
       </c>
       <c r="L15" t="s">
+        <v>690</v>
+      </c>
+      <c r="M15" t="s">
         <v>691</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>692</v>
-      </c>
-      <c r="N15" t="s">
-        <v>693</v>
       </c>
       <c r="O15" t="s">
         <v>229</v>
       </c>
       <c r="P15" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q15" t="s">
         <v>699</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>700</v>
       </c>
       <c r="R15" t="s">
         <v>230</v>
@@ -13067,27 +13112,27 @@
         <v>234</v>
       </c>
       <c r="X15" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y15" t="s">
         <v>701</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>702</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>703</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C16" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D16" t="s">
         <v>222</v>
@@ -13111,16 +13156,16 @@
         <v>227</v>
       </c>
       <c r="K16" t="s">
+        <v>690</v>
+      </c>
+      <c r="L16" t="s">
         <v>691</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>692</v>
       </c>
-      <c r="M16" t="s">
-        <v>693</v>
-      </c>
       <c r="N16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O16" t="s">
         <v>230</v>
@@ -13138,27 +13183,27 @@
         <v>234</v>
       </c>
       <c r="T16" t="s">
+        <v>700</v>
+      </c>
+      <c r="U16" t="s">
         <v>701</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>702</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>703</v>
-      </c>
-      <c r="W16" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D17" t="s">
         <v>222</v>
@@ -13182,16 +13227,16 @@
         <v>227</v>
       </c>
       <c r="K17" t="s">
+        <v>690</v>
+      </c>
+      <c r="L17" t="s">
         <v>691</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>692</v>
       </c>
-      <c r="M17" t="s">
-        <v>693</v>
-      </c>
       <c r="N17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O17" t="s">
         <v>230</v>
@@ -13209,27 +13254,27 @@
         <v>234</v>
       </c>
       <c r="T17" t="s">
+        <v>700</v>
+      </c>
+      <c r="U17" t="s">
         <v>701</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>702</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>703</v>
-      </c>
-      <c r="W17" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D18" t="s">
         <v>222</v>
@@ -13253,16 +13298,16 @@
         <v>227</v>
       </c>
       <c r="K18" t="s">
+        <v>690</v>
+      </c>
+      <c r="L18" t="s">
         <v>691</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>692</v>
       </c>
-      <c r="M18" t="s">
-        <v>693</v>
-      </c>
       <c r="N18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O18" t="s">
         <v>230</v>
@@ -13280,27 +13325,27 @@
         <v>234</v>
       </c>
       <c r="T18" t="s">
+        <v>700</v>
+      </c>
+      <c r="U18" t="s">
         <v>701</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>702</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>703</v>
-      </c>
-      <c r="W18" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D19" t="s">
         <v>222</v>
@@ -13324,16 +13369,16 @@
         <v>227</v>
       </c>
       <c r="K19" t="s">
+        <v>690</v>
+      </c>
+      <c r="L19" t="s">
         <v>691</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>692</v>
       </c>
-      <c r="M19" t="s">
-        <v>693</v>
-      </c>
       <c r="N19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O19" t="s">
         <v>230</v>
@@ -13351,27 +13396,27 @@
         <v>234</v>
       </c>
       <c r="T19" t="s">
+        <v>700</v>
+      </c>
+      <c r="U19" t="s">
         <v>701</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>702</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>703</v>
-      </c>
-      <c r="W19" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>746</v>
+      </c>
+      <c r="B20" t="s">
         <v>747</v>
       </c>
-      <c r="B20" t="s">
-        <v>748</v>
-      </c>
       <c r="C20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D20" t="s">
         <v>222</v>
@@ -13395,16 +13440,16 @@
         <v>227</v>
       </c>
       <c r="K20" t="s">
+        <v>690</v>
+      </c>
+      <c r="L20" t="s">
         <v>691</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>692</v>
       </c>
-      <c r="M20" t="s">
-        <v>693</v>
-      </c>
       <c r="N20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O20" t="s">
         <v>230</v>
@@ -13422,27 +13467,27 @@
         <v>234</v>
       </c>
       <c r="T20" t="s">
+        <v>700</v>
+      </c>
+      <c r="U20" t="s">
         <v>701</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>702</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>703</v>
-      </c>
-      <c r="W20" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>750</v>
+      </c>
+      <c r="B21" t="s">
         <v>751</v>
       </c>
-      <c r="B21" t="s">
-        <v>752</v>
-      </c>
       <c r="C21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D21" t="s">
         <v>222</v>
@@ -13466,28 +13511,28 @@
         <v>227</v>
       </c>
       <c r="K21" t="s">
+        <v>690</v>
+      </c>
+      <c r="L21" t="s">
         <v>691</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>692</v>
-      </c>
-      <c r="M21" t="s">
-        <v>693</v>
       </c>
       <c r="N21" t="s">
         <v>240</v>
       </c>
       <c r="O21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P21" t="s">
         <v>241</v>
       </c>
       <c r="Q21" t="s">
+        <v>695</v>
+      </c>
+      <c r="R21" t="s">
         <v>696</v>
-      </c>
-      <c r="R21" t="s">
-        <v>697</v>
       </c>
       <c r="S21" t="s">
         <v>230</v>
@@ -13505,27 +13550,27 @@
         <v>234</v>
       </c>
       <c r="X21" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y21" t="s">
         <v>701</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>702</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>703</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B22" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D22" t="s">
         <v>222</v>
@@ -13549,13 +13594,13 @@
         <v>227</v>
       </c>
       <c r="K22" t="s">
+        <v>690</v>
+      </c>
+      <c r="L22" t="s">
         <v>691</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>692</v>
-      </c>
-      <c r="M22" t="s">
-        <v>693</v>
       </c>
       <c r="N22" t="s">
         <v>229</v>
@@ -13564,16 +13609,16 @@
         <v>240</v>
       </c>
       <c r="P22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q22" t="s">
         <v>241</v>
       </c>
       <c r="R22" t="s">
+        <v>695</v>
+      </c>
+      <c r="S22" t="s">
         <v>696</v>
-      </c>
-      <c r="S22" t="s">
-        <v>697</v>
       </c>
       <c r="T22" t="s">
         <v>230</v>
@@ -13591,27 +13636,27 @@
         <v>234</v>
       </c>
       <c r="Y22" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z22" t="s">
         <v>701</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>702</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>703</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D23" t="s">
         <v>222</v>
@@ -13635,16 +13680,16 @@
         <v>227</v>
       </c>
       <c r="K23" t="s">
+        <v>690</v>
+      </c>
+      <c r="L23" t="s">
         <v>691</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>692</v>
       </c>
-      <c r="M23" t="s">
-        <v>693</v>
-      </c>
       <c r="N23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O23" t="s">
         <v>230</v>
@@ -13656,7 +13701,7 @@
         <v>243</v>
       </c>
       <c r="R23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S23" t="s">
         <v>236</v>
@@ -13683,27 +13728,27 @@
         <v>234</v>
       </c>
       <c r="AA23" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB23" t="s">
         <v>701</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>702</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>703</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B24" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D24" t="s">
         <v>222</v>
@@ -13727,16 +13772,16 @@
         <v>227</v>
       </c>
       <c r="K24" t="s">
+        <v>690</v>
+      </c>
+      <c r="L24" t="s">
         <v>691</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>692</v>
       </c>
-      <c r="M24" t="s">
-        <v>693</v>
-      </c>
       <c r="N24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O24" t="s">
         <v>230</v>
@@ -13748,7 +13793,7 @@
         <v>243</v>
       </c>
       <c r="R24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S24" t="s">
         <v>236</v>
@@ -13775,27 +13820,27 @@
         <v>234</v>
       </c>
       <c r="AA24" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB24" t="s">
         <v>701</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>702</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>703</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B25" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D25" t="s">
         <v>222</v>
@@ -13834,16 +13879,16 @@
         <v>234</v>
       </c>
       <c r="P25" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q25" t="s">
         <v>701</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>702</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>703</v>
-      </c>
-      <c r="S25" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
@@ -13851,10 +13896,10 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D26" t="s">
         <v>197</v>
@@ -13866,10 +13911,10 @@
         <v>198</v>
       </c>
       <c r="G26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I26" t="s">
         <v>217</v>
@@ -13878,16 +13923,16 @@
         <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L26" t="s">
+        <v>648</v>
+      </c>
+      <c r="M26" t="s">
         <v>649</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" s="6" t="s">
         <v>650</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>651</v>
       </c>
       <c r="O26" t="s">
         <v>215</v>
@@ -13898,10 +13943,10 @@
         <v>163</v>
       </c>
       <c r="B27" t="s">
+        <v>605</v>
+      </c>
+      <c r="C27" t="s">
         <v>606</v>
-      </c>
-      <c r="C27" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
@@ -13909,7 +13954,7 @@
         <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C28" t="s">
         <v>229</v>
@@ -13920,21 +13965,21 @@
         <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B30" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D30" t="s">
         <v>196</v>
@@ -13946,19 +13991,19 @@
         <v>198</v>
       </c>
       <c r="G30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H30" t="s">
+        <v>618</v>
+      </c>
+      <c r="I30" t="s">
         <v>619</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>621</v>
+      </c>
+      <c r="K30" t="s">
         <v>620</v>
-      </c>
-      <c r="J30" t="s">
-        <v>622</v>
-      </c>
-      <c r="K30" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
@@ -13966,10 +14011,10 @@
         <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
@@ -13977,21 +14022,21 @@
         <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B33" t="s">
+        <v>612</v>
+      </c>
+      <c r="C33" t="s">
         <v>613</v>
-      </c>
-      <c r="C33" t="s">
-        <v>614</v>
       </c>
       <c r="D33" t="s">
         <v>196</v>
@@ -14003,19 +14048,19 @@
         <v>198</v>
       </c>
       <c r="G33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H33" t="s">
+        <v>618</v>
+      </c>
+      <c r="I33" t="s">
         <v>619</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>621</v>
+      </c>
+      <c r="K33" t="s">
         <v>620</v>
-      </c>
-      <c r="J33" t="s">
-        <v>622</v>
-      </c>
-      <c r="K33" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -14023,21 +14068,21 @@
         <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -14045,7 +14090,7 @@
         <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C36" t="s">
         <v>258</v>
@@ -14062,7 +14107,7 @@
         <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C37" t="s">
         <v>258</v>
@@ -14082,7 +14127,7 @@
         <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C38" t="s">
         <v>258</v>
@@ -14110,15 +14155,15 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" customWidth="1"/>
     <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
@@ -14154,7 +14199,7 @@
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
         <v>266</v>
@@ -14167,7 +14212,7 @@
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B3" t="s">
         <v>268</v>
@@ -14207,7 +14252,7 @@
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B4" t="s">
         <v>279</v>
@@ -14231,7 +14276,7 @@
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s">
         <v>281</v>
@@ -14253,7 +14298,7 @@
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
         <v>282</v>
@@ -14275,7 +14320,7 @@
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B7" t="s">
         <v>282</v>
@@ -14301,7 +14346,7 @@
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B8" t="s">
         <v>284</v>
@@ -14333,7 +14378,7 @@
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s">
         <v>289</v>
@@ -14357,7 +14402,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B10" t="s">
         <v>299</v>
@@ -14396,7 +14441,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B13" t="s">
         <v>351</v>
@@ -14410,7 +14455,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B14" t="s">
         <v>354</v>
@@ -14434,6 +14479,202 @@
       </c>
       <c r="F15" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" t="s">
+        <v>791</v>
+      </c>
+      <c r="C16" t="s">
+        <v>792</v>
+      </c>
+      <c r="D16" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B17" t="s">
+        <v>791</v>
+      </c>
+      <c r="C17" t="s">
+        <v>792</v>
+      </c>
+      <c r="D17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>470</v>
+      </c>
+      <c r="B18" t="s">
+        <v>791</v>
+      </c>
+      <c r="C18" t="s">
+        <v>792</v>
+      </c>
+      <c r="D18" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" t="s">
+        <v>791</v>
+      </c>
+      <c r="C19" t="s">
+        <v>792</v>
+      </c>
+      <c r="D19" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>481</v>
+      </c>
+      <c r="B20" t="s">
+        <v>791</v>
+      </c>
+      <c r="C20" t="s">
+        <v>792</v>
+      </c>
+      <c r="D20" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C21" t="s">
+        <v>792</v>
+      </c>
+      <c r="D21" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>471</v>
+      </c>
+      <c r="B22" t="s">
+        <v>791</v>
+      </c>
+      <c r="C22" t="s">
+        <v>792</v>
+      </c>
+      <c r="D22" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>472</v>
+      </c>
+      <c r="B23" t="s">
+        <v>791</v>
+      </c>
+      <c r="C23" t="s">
+        <v>792</v>
+      </c>
+      <c r="D23" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B24" t="s">
+        <v>791</v>
+      </c>
+      <c r="C24" t="s">
+        <v>792</v>
+      </c>
+      <c r="D24" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>480</v>
+      </c>
+      <c r="B25" t="s">
+        <v>791</v>
+      </c>
+      <c r="C25" t="s">
+        <v>792</v>
+      </c>
+      <c r="D25" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C26" t="s">
+        <v>792</v>
+      </c>
+      <c r="D26" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27" t="s">
+        <v>791</v>
+      </c>
+      <c r="C27" t="s">
+        <v>792</v>
+      </c>
+      <c r="D27" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>469</v>
+      </c>
+      <c r="B28" t="s">
+        <v>791</v>
+      </c>
+      <c r="C28" t="s">
+        <v>792</v>
+      </c>
+      <c r="D28" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>474</v>
+      </c>
+      <c r="B29" t="s">
+        <v>791</v>
+      </c>
+      <c r="C29" t="s">
+        <v>792</v>
+      </c>
+      <c r="D29" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474" activeTab="4"/>
+    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -10226,8 +10226,8 @@
   </sheetPr>
   <dimension ref="A1:CK85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12381,7 +12381,7 @@
   </sheetPr>
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474" activeTab="3"/>
+    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="806">
   <si>
     <t>Identifier</t>
   </si>
@@ -1984,9 +1984,6 @@
     <t>Depth Rating</t>
   </si>
   <si>
-    <t xml:space="preserve">equipment_day_rate </t>
-  </si>
-  <si>
     <t>Min Pile Diameter</t>
   </si>
   <si>
@@ -2450,6 +2447,9 @@
   </si>
   <si>
     <t>l/hour</t>
+  </si>
+  <si>
+    <t>hidden.device_filtered</t>
   </si>
 </sst>
 </file>
@@ -3132,9 +3132,9 @@
   </sheetPr>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3145,7 +3145,7 @@
     <col min="4" max="4" width="91.08984375" style="48" customWidth="1"/>
     <col min="5" max="5" width="13.90625" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" style="13" customWidth="1"/>
     <col min="8" max="8" width="15.36328125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="1021" width="20.1796875" style="13"/>
     <col min="1022" max="16384" width="9.1796875" style="13"/>
@@ -3395,16 +3395,16 @@
     </row>
     <row r="14" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -3413,16 +3413,16 @@
     </row>
     <row r="15" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C15" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>711</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>712</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -3431,16 +3431,16 @@
     </row>
     <row r="16" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C16" s="40" t="s">
+        <v>717</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>718</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>719</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -3449,16 +3449,16 @@
     </row>
     <row r="17" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>737</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>738</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>739</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -3467,16 +3467,16 @@
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>742</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>743</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>744</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -3485,16 +3485,16 @@
     </row>
     <row r="19" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>722</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>723</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>724</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -3503,16 +3503,16 @@
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="40" t="s">
+        <v>726</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>727</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>728</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -3521,16 +3521,16 @@
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -3539,16 +3539,16 @@
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="40" t="s">
+        <v>733</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>734</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>735</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="40" t="s">
+        <v>746</v>
+      </c>
+      <c r="D23" s="44" t="s">
         <v>747</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>748</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -3575,16 +3575,16 @@
     </row>
     <row r="24" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>751</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>752</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="25" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -3611,16 +3611,16 @@
     </row>
     <row r="26" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>754</v>
+      </c>
+      <c r="D26" s="44" t="s">
         <v>755</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>756</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -3658,6 +3658,9 @@
       <c r="D28" s="42" t="s">
         <v>386</v>
       </c>
+      <c r="G28" s="32" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31" t="s">
@@ -3672,6 +3675,9 @@
       <c r="D29" s="42" t="s">
         <v>417</v>
       </c>
+      <c r="G29" s="32" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="30" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
@@ -3686,6 +3692,9 @@
       <c r="D30" s="42" t="s">
         <v>434</v>
       </c>
+      <c r="G30" s="32" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
@@ -3702,7 +3711,9 @@
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="32" t="s">
+        <v>805</v>
+      </c>
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3718,6 +3729,9 @@
       <c r="D32" s="42" t="s">
         <v>435</v>
       </c>
+      <c r="G32" s="32" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="33" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
@@ -3732,6 +3746,9 @@
       <c r="D33" s="42" t="s">
         <v>415</v>
       </c>
+      <c r="G33" s="32" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="34" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
@@ -3748,7 +3765,9 @@
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="G34" s="32" t="s">
+        <v>805</v>
+      </c>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3764,6 +3783,9 @@
       <c r="D35" s="42" t="s">
         <v>416</v>
       </c>
+      <c r="G35" s="32" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="36" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
@@ -3780,7 +3802,9 @@
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="G36" s="32" t="s">
+        <v>805</v>
+      </c>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
@@ -4231,7 +4255,7 @@
         <v>463</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>507</v>
@@ -4263,7 +4287,7 @@
         <v>466</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>510</v>
@@ -4291,7 +4315,7 @@
         <v>460</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>504</v>
@@ -4319,7 +4343,7 @@
         <v>468</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>512</v>
@@ -4347,7 +4371,7 @@
         <v>471</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>515</v>
@@ -4375,7 +4399,7 @@
         <v>467</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>511</v>
@@ -4403,7 +4427,7 @@
         <v>461</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>505</v>
@@ -4431,7 +4455,7 @@
         <v>462</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>506</v>
@@ -4459,7 +4483,7 @@
         <v>469</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>513</v>
@@ -4491,7 +4515,7 @@
         <v>470</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>514</v>
@@ -4519,7 +4543,7 @@
         <v>465</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>509</v>
@@ -4555,7 +4579,7 @@
         <v>472</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>516</v>
@@ -4591,7 +4615,7 @@
         <v>459</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>503</v>
@@ -4623,7 +4647,7 @@
         <v>464</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>508</v>
@@ -5586,10 +5610,10 @@
         <v>649</v>
       </c>
       <c r="F7" t="s">
+        <v>650</v>
+      </c>
+      <c r="G7" t="s">
         <v>651</v>
-      </c>
-      <c r="G7" t="s">
-        <v>652</v>
       </c>
       <c r="H7" t="s">
         <v>636</v>
@@ -5618,7 +5642,7 @@
         <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F8" t="s">
         <v>174</v>
@@ -5638,31 +5662,31 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E9" t="s">
+        <v>669</v>
+      </c>
+      <c r="F9" t="s">
         <v>670</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>671</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>672</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>673</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>674</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>675</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>676</v>
-      </c>
-      <c r="L9" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
@@ -5693,7 +5717,7 @@
         <v>135</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D11" t="s">
         <v>133</v>
@@ -5714,7 +5738,7 @@
         <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K11" t="s">
         <v>636</v>
@@ -5723,19 +5747,19 @@
         <v>648</v>
       </c>
       <c r="M11" t="s">
+        <v>655</v>
+      </c>
+      <c r="N11" t="s">
         <v>656</v>
-      </c>
-      <c r="N11" t="s">
-        <v>657</v>
       </c>
       <c r="O11" t="s">
         <v>637</v>
       </c>
       <c r="P11" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q11" t="s">
         <v>661</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
@@ -5754,13 +5778,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B13" t="s">
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D13" t="s">
         <v>131</v>
@@ -5769,57 +5793,57 @@
         <v>143</v>
       </c>
       <c r="F13" t="s">
+        <v>698</v>
+      </c>
+      <c r="G13" t="s">
         <v>699</v>
       </c>
-      <c r="G13" t="s">
-        <v>700</v>
-      </c>
       <c r="H13" t="s">
+        <v>759</v>
+      </c>
+      <c r="I13" t="s">
         <v>760</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>761</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>701</v>
+      </c>
+      <c r="L13" t="s">
         <v>762</v>
       </c>
-      <c r="K13" t="s">
-        <v>702</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>763</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>764</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>765</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>695</v>
+      </c>
+      <c r="R13" t="s">
+        <v>776</v>
+      </c>
+      <c r="S13" t="s">
         <v>766</v>
-      </c>
-      <c r="P13" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>696</v>
-      </c>
-      <c r="R13" t="s">
-        <v>777</v>
-      </c>
-      <c r="S13" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D14" t="s">
         <v>131</v>
@@ -5828,78 +5852,78 @@
         <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I14" t="s">
+        <v>698</v>
+      </c>
+      <c r="J14" t="s">
         <v>699</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>759</v>
+      </c>
+      <c r="L14" t="s">
+        <v>760</v>
+      </c>
+      <c r="M14" t="s">
+        <v>761</v>
+      </c>
+      <c r="N14" t="s">
         <v>700</v>
       </c>
-      <c r="K14" t="s">
-        <v>760</v>
-      </c>
-      <c r="L14" t="s">
-        <v>761</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
+        <v>706</v>
+      </c>
+      <c r="P14" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>701</v>
+      </c>
+      <c r="R14" t="s">
+        <v>768</v>
+      </c>
+      <c r="S14" t="s">
         <v>762</v>
       </c>
-      <c r="N14" t="s">
-        <v>701</v>
-      </c>
-      <c r="O14" t="s">
-        <v>707</v>
-      </c>
-      <c r="P14" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>702</v>
-      </c>
-      <c r="R14" t="s">
-        <v>769</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>763</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>764</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>765</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
+        <v>696</v>
+      </c>
+      <c r="X14" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z14" t="s">
         <v>766</v>
-      </c>
-      <c r="W14" t="s">
-        <v>697</v>
-      </c>
-      <c r="X14" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>777</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B15" t="s">
         <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D15" t="s">
         <v>131</v>
@@ -5908,78 +5932,78 @@
         <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G15" t="s">
         <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I15" t="s">
+        <v>698</v>
+      </c>
+      <c r="J15" t="s">
         <v>699</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>759</v>
+      </c>
+      <c r="L15" t="s">
+        <v>760</v>
+      </c>
+      <c r="M15" t="s">
+        <v>761</v>
+      </c>
+      <c r="N15" t="s">
         <v>700</v>
       </c>
-      <c r="K15" t="s">
-        <v>760</v>
-      </c>
-      <c r="L15" t="s">
-        <v>761</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
+        <v>706</v>
+      </c>
+      <c r="P15" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>701</v>
+      </c>
+      <c r="R15" t="s">
+        <v>768</v>
+      </c>
+      <c r="S15" t="s">
         <v>762</v>
       </c>
-      <c r="N15" t="s">
-        <v>701</v>
-      </c>
-      <c r="O15" t="s">
-        <v>707</v>
-      </c>
-      <c r="P15" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>702</v>
-      </c>
-      <c r="R15" t="s">
-        <v>769</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>763</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>764</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>765</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
+        <v>696</v>
+      </c>
+      <c r="X15" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z15" t="s">
         <v>766</v>
-      </c>
-      <c r="W15" t="s">
-        <v>697</v>
-      </c>
-      <c r="X15" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>777</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B16" t="s">
         <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -5988,66 +6012,66 @@
         <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G16" t="s">
         <v>143</v>
       </c>
       <c r="H16" t="s">
+        <v>698</v>
+      </c>
+      <c r="I16" t="s">
         <v>699</v>
       </c>
-      <c r="I16" t="s">
-        <v>700</v>
-      </c>
       <c r="J16" t="s">
+        <v>759</v>
+      </c>
+      <c r="K16" t="s">
         <v>760</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>761</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
+        <v>704</v>
+      </c>
+      <c r="N16" t="s">
+        <v>701</v>
+      </c>
+      <c r="O16" t="s">
         <v>762</v>
       </c>
-      <c r="M16" t="s">
-        <v>705</v>
-      </c>
-      <c r="N16" t="s">
-        <v>702</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>763</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>764</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>765</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
+        <v>696</v>
+      </c>
+      <c r="T16" t="s">
+        <v>695</v>
+      </c>
+      <c r="U16" t="s">
+        <v>776</v>
+      </c>
+      <c r="V16" t="s">
         <v>766</v>
-      </c>
-      <c r="S16" t="s">
-        <v>697</v>
-      </c>
-      <c r="T16" t="s">
-        <v>696</v>
-      </c>
-      <c r="U16" t="s">
-        <v>777</v>
-      </c>
-      <c r="V16" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D17" t="s">
         <v>131</v>
@@ -6056,66 +6080,66 @@
         <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G17" t="s">
         <v>143</v>
       </c>
       <c r="H17" t="s">
+        <v>698</v>
+      </c>
+      <c r="I17" t="s">
         <v>699</v>
       </c>
-      <c r="I17" t="s">
-        <v>700</v>
-      </c>
       <c r="J17" t="s">
+        <v>759</v>
+      </c>
+      <c r="K17" t="s">
         <v>760</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>761</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
+        <v>704</v>
+      </c>
+      <c r="N17" t="s">
+        <v>701</v>
+      </c>
+      <c r="O17" t="s">
         <v>762</v>
       </c>
-      <c r="M17" t="s">
-        <v>705</v>
-      </c>
-      <c r="N17" t="s">
-        <v>702</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>763</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>764</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>765</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
+        <v>696</v>
+      </c>
+      <c r="T17" t="s">
+        <v>695</v>
+      </c>
+      <c r="U17" t="s">
+        <v>776</v>
+      </c>
+      <c r="V17" t="s">
         <v>766</v>
-      </c>
-      <c r="S17" t="s">
-        <v>697</v>
-      </c>
-      <c r="T17" t="s">
-        <v>696</v>
-      </c>
-      <c r="U17" t="s">
-        <v>777</v>
-      </c>
-      <c r="V17" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B18" t="s">
         <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D18" t="s">
         <v>131</v>
@@ -6124,66 +6148,66 @@
         <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G18" t="s">
         <v>143</v>
       </c>
       <c r="H18" t="s">
+        <v>698</v>
+      </c>
+      <c r="I18" t="s">
         <v>699</v>
       </c>
-      <c r="I18" t="s">
-        <v>700</v>
-      </c>
       <c r="J18" t="s">
+        <v>759</v>
+      </c>
+      <c r="K18" t="s">
         <v>760</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>761</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
+        <v>704</v>
+      </c>
+      <c r="N18" t="s">
+        <v>701</v>
+      </c>
+      <c r="O18" t="s">
         <v>762</v>
       </c>
-      <c r="M18" t="s">
-        <v>705</v>
-      </c>
-      <c r="N18" t="s">
-        <v>702</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>763</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>764</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>765</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
+        <v>696</v>
+      </c>
+      <c r="T18" t="s">
+        <v>695</v>
+      </c>
+      <c r="U18" t="s">
+        <v>776</v>
+      </c>
+      <c r="V18" t="s">
         <v>766</v>
-      </c>
-      <c r="S18" t="s">
-        <v>697</v>
-      </c>
-      <c r="T18" t="s">
-        <v>696</v>
-      </c>
-      <c r="U18" t="s">
-        <v>777</v>
-      </c>
-      <c r="V18" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B19" t="s">
         <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
@@ -6192,66 +6216,66 @@
         <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G19" t="s">
         <v>143</v>
       </c>
       <c r="H19" t="s">
+        <v>698</v>
+      </c>
+      <c r="I19" t="s">
         <v>699</v>
       </c>
-      <c r="I19" t="s">
-        <v>700</v>
-      </c>
       <c r="J19" t="s">
+        <v>759</v>
+      </c>
+      <c r="K19" t="s">
         <v>760</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>761</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
+        <v>704</v>
+      </c>
+      <c r="N19" t="s">
+        <v>701</v>
+      </c>
+      <c r="O19" t="s">
         <v>762</v>
       </c>
-      <c r="M19" t="s">
-        <v>705</v>
-      </c>
-      <c r="N19" t="s">
-        <v>702</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>763</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>764</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>765</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
+        <v>696</v>
+      </c>
+      <c r="T19" t="s">
+        <v>695</v>
+      </c>
+      <c r="U19" t="s">
+        <v>776</v>
+      </c>
+      <c r="V19" t="s">
         <v>766</v>
-      </c>
-      <c r="S19" t="s">
-        <v>697</v>
-      </c>
-      <c r="T19" t="s">
-        <v>696</v>
-      </c>
-      <c r="U19" t="s">
-        <v>777</v>
-      </c>
-      <c r="V19" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B20" t="s">
         <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -6260,66 +6284,66 @@
         <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G20" t="s">
         <v>143</v>
       </c>
       <c r="H20" t="s">
+        <v>698</v>
+      </c>
+      <c r="I20" t="s">
         <v>699</v>
       </c>
-      <c r="I20" t="s">
-        <v>700</v>
-      </c>
       <c r="J20" t="s">
+        <v>759</v>
+      </c>
+      <c r="K20" t="s">
         <v>760</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>761</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
+        <v>704</v>
+      </c>
+      <c r="N20" t="s">
+        <v>701</v>
+      </c>
+      <c r="O20" t="s">
         <v>762</v>
       </c>
-      <c r="M20" t="s">
-        <v>705</v>
-      </c>
-      <c r="N20" t="s">
-        <v>702</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>763</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>764</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>765</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
+        <v>696</v>
+      </c>
+      <c r="T20" t="s">
+        <v>695</v>
+      </c>
+      <c r="U20" t="s">
+        <v>776</v>
+      </c>
+      <c r="V20" t="s">
         <v>766</v>
-      </c>
-      <c r="S20" t="s">
-        <v>697</v>
-      </c>
-      <c r="T20" t="s">
-        <v>696</v>
-      </c>
-      <c r="U20" t="s">
-        <v>777</v>
-      </c>
-      <c r="V20" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B21" t="s">
         <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D21" t="s">
         <v>131</v>
@@ -6328,78 +6352,78 @@
         <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G21" t="s">
         <v>143</v>
       </c>
       <c r="H21" t="s">
+        <v>698</v>
+      </c>
+      <c r="I21" t="s">
         <v>699</v>
       </c>
-      <c r="I21" t="s">
-        <v>700</v>
-      </c>
       <c r="J21" t="s">
+        <v>759</v>
+      </c>
+      <c r="K21" t="s">
         <v>760</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>761</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
+        <v>682</v>
+      </c>
+      <c r="N21" t="s">
+        <v>769</v>
+      </c>
+      <c r="O21" t="s">
+        <v>702</v>
+      </c>
+      <c r="P21" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>704</v>
+      </c>
+      <c r="R21" t="s">
+        <v>701</v>
+      </c>
+      <c r="S21" t="s">
         <v>762</v>
       </c>
-      <c r="M21" t="s">
-        <v>683</v>
-      </c>
-      <c r="N21" t="s">
-        <v>770</v>
-      </c>
-      <c r="O21" t="s">
-        <v>703</v>
-      </c>
-      <c r="P21" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>705</v>
-      </c>
-      <c r="R21" t="s">
-        <v>702</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>763</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>764</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>765</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
+        <v>696</v>
+      </c>
+      <c r="X21" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z21" t="s">
         <v>766</v>
-      </c>
-      <c r="W21" t="s">
-        <v>697</v>
-      </c>
-      <c r="X21" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>777</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B22" t="s">
         <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D22" t="s">
         <v>131</v>
@@ -6408,81 +6432,81 @@
         <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G22" t="s">
         <v>143</v>
       </c>
       <c r="H22" t="s">
+        <v>698</v>
+      </c>
+      <c r="I22" t="s">
         <v>699</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>759</v>
+      </c>
+      <c r="K22" t="s">
+        <v>760</v>
+      </c>
+      <c r="L22" t="s">
+        <v>761</v>
+      </c>
+      <c r="M22" t="s">
         <v>700</v>
       </c>
-      <c r="J22" t="s">
-        <v>760</v>
-      </c>
-      <c r="K22" t="s">
-        <v>761</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
+        <v>682</v>
+      </c>
+      <c r="O22" t="s">
+        <v>769</v>
+      </c>
+      <c r="P22" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>703</v>
+      </c>
+      <c r="R22" t="s">
+        <v>704</v>
+      </c>
+      <c r="S22" t="s">
+        <v>701</v>
+      </c>
+      <c r="T22" t="s">
         <v>762</v>
       </c>
-      <c r="M22" t="s">
-        <v>701</v>
-      </c>
-      <c r="N22" t="s">
-        <v>683</v>
-      </c>
-      <c r="O22" t="s">
-        <v>770</v>
-      </c>
-      <c r="P22" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>704</v>
-      </c>
-      <c r="R22" t="s">
-        <v>705</v>
-      </c>
-      <c r="S22" t="s">
-        <v>702</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>763</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>764</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>765</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>695</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>776</v>
+      </c>
+      <c r="AA22" t="s">
         <v>766</v>
-      </c>
-      <c r="X22" t="s">
-        <v>697</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>777</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B23" t="s">
         <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D23" t="s">
         <v>131</v>
@@ -6491,87 +6515,87 @@
         <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G23" t="s">
         <v>143</v>
       </c>
       <c r="H23" t="s">
+        <v>698</v>
+      </c>
+      <c r="I23" t="s">
         <v>699</v>
       </c>
-      <c r="I23" t="s">
-        <v>700</v>
-      </c>
       <c r="J23" t="s">
+        <v>759</v>
+      </c>
+      <c r="K23" t="s">
         <v>760</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>761</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
+        <v>704</v>
+      </c>
+      <c r="N23" t="s">
+        <v>701</v>
+      </c>
+      <c r="O23" t="s">
+        <v>770</v>
+      </c>
+      <c r="P23" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>771</v>
+      </c>
+      <c r="R23" t="s">
+        <v>772</v>
+      </c>
+      <c r="S23" t="s">
+        <v>773</v>
+      </c>
+      <c r="T23" t="s">
+        <v>774</v>
+      </c>
+      <c r="U23" t="s">
+        <v>775</v>
+      </c>
+      <c r="V23" t="s">
         <v>762</v>
       </c>
-      <c r="M23" t="s">
-        <v>705</v>
-      </c>
-      <c r="N23" t="s">
-        <v>702</v>
-      </c>
-      <c r="O23" t="s">
-        <v>771</v>
-      </c>
-      <c r="P23" t="s">
-        <v>706</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>772</v>
-      </c>
-      <c r="R23" t="s">
-        <v>773</v>
-      </c>
-      <c r="S23" t="s">
-        <v>774</v>
-      </c>
-      <c r="T23" t="s">
-        <v>775</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="W23" t="s">
+        <v>763</v>
+      </c>
+      <c r="X23" t="s">
+        <v>764</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>695</v>
+      </c>
+      <c r="AB23" t="s">
         <v>776</v>
       </c>
-      <c r="V23" t="s">
-        <v>763</v>
-      </c>
-      <c r="W23" t="s">
-        <v>764</v>
-      </c>
-      <c r="X23" t="s">
-        <v>765</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="AC23" t="s">
         <v>766</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>696</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>777</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B24" t="s">
         <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D24" t="s">
         <v>131</v>
@@ -6580,87 +6604,87 @@
         <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G24" t="s">
         <v>143</v>
       </c>
       <c r="H24" t="s">
+        <v>698</v>
+      </c>
+      <c r="I24" t="s">
         <v>699</v>
       </c>
-      <c r="I24" t="s">
-        <v>700</v>
-      </c>
       <c r="J24" t="s">
+        <v>759</v>
+      </c>
+      <c r="K24" t="s">
         <v>760</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>761</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
+        <v>704</v>
+      </c>
+      <c r="N24" t="s">
+        <v>701</v>
+      </c>
+      <c r="O24" t="s">
+        <v>770</v>
+      </c>
+      <c r="P24" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>771</v>
+      </c>
+      <c r="R24" t="s">
+        <v>772</v>
+      </c>
+      <c r="S24" t="s">
+        <v>773</v>
+      </c>
+      <c r="T24" t="s">
+        <v>774</v>
+      </c>
+      <c r="U24" t="s">
+        <v>775</v>
+      </c>
+      <c r="V24" t="s">
         <v>762</v>
       </c>
-      <c r="M24" t="s">
-        <v>705</v>
-      </c>
-      <c r="N24" t="s">
-        <v>702</v>
-      </c>
-      <c r="O24" t="s">
-        <v>771</v>
-      </c>
-      <c r="P24" t="s">
-        <v>706</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>772</v>
-      </c>
-      <c r="R24" t="s">
-        <v>773</v>
-      </c>
-      <c r="S24" t="s">
-        <v>774</v>
-      </c>
-      <c r="T24" t="s">
-        <v>775</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="W24" t="s">
+        <v>763</v>
+      </c>
+      <c r="X24" t="s">
+        <v>764</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>695</v>
+      </c>
+      <c r="AB24" t="s">
         <v>776</v>
       </c>
-      <c r="V24" t="s">
-        <v>763</v>
-      </c>
-      <c r="W24" t="s">
-        <v>764</v>
-      </c>
-      <c r="X24" t="s">
-        <v>765</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="AC24" t="s">
         <v>766</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>696</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>777</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B25" t="s">
         <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D25" t="s">
         <v>131</v>
@@ -6669,43 +6693,43 @@
         <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G25" t="s">
         <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J25" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K25" t="s">
+        <v>762</v>
+      </c>
+      <c r="L25" t="s">
         <v>763</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>764</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>765</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
+        <v>696</v>
+      </c>
+      <c r="P25" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>776</v>
+      </c>
+      <c r="R25" t="s">
         <v>766</v>
-      </c>
-      <c r="O25" t="s">
-        <v>697</v>
-      </c>
-      <c r="P25" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>777</v>
-      </c>
-      <c r="R25" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
@@ -6725,19 +6749,19 @@
         <v>137</v>
       </c>
       <c r="F26" t="s">
+        <v>666</v>
+      </c>
+      <c r="G26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H26" t="s">
+        <v>650</v>
+      </c>
+      <c r="I26" t="s">
+        <v>651</v>
+      </c>
+      <c r="J26" t="s">
         <v>667</v>
-      </c>
-      <c r="G26" t="s">
-        <v>664</v>
-      </c>
-      <c r="H26" t="s">
-        <v>651</v>
-      </c>
-      <c r="I26" t="s">
-        <v>652</v>
-      </c>
-      <c r="J26" t="s">
-        <v>668</v>
       </c>
       <c r="K26" t="s">
         <v>636</v>
@@ -7608,7 +7632,7 @@
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>109</v>
@@ -7723,7 +7747,7 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>109</v>
@@ -7852,7 +7876,7 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>109</v>
@@ -7981,7 +8005,7 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>109</v>
@@ -8102,7 +8126,7 @@
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>109</v>
@@ -8223,7 +8247,7 @@
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>109</v>
@@ -8344,7 +8368,7 @@
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>109</v>
@@ -8465,7 +8489,7 @@
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>109</v>
@@ -8586,7 +8610,7 @@
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>109</v>
@@ -8717,7 +8741,7 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>109</v>
@@ -8851,7 +8875,7 @@
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>109</v>
@@ -8986,7 +9010,7 @@
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>109</v>
@@ -9121,7 +9145,7 @@
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>109</v>
@@ -10226,7 +10250,7 @@
   </sheetPr>
   <dimension ref="A1:CK85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -10619,7 +10643,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -10726,7 +10750,7 @@
     </row>
     <row r="12" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -10738,7 +10762,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -10747,7 +10771,7 @@
         <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I12" t="s">
         <v>624</v>
@@ -10785,7 +10809,7 @@
     </row>
     <row r="13" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -10806,7 +10830,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -10815,7 +10839,7 @@
         <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L13" t="s">
         <v>624</v>
@@ -10865,7 +10889,7 @@
     </row>
     <row r="14" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -10883,7 +10907,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -10892,7 +10916,7 @@
         <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K14" t="s">
         <v>624</v>
@@ -10933,7 +10957,7 @@
     </row>
     <row r="15" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -10951,7 +10975,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -10960,7 +10984,7 @@
         <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K15" t="s">
         <v>624</v>
@@ -11013,7 +11037,7 @@
     </row>
     <row r="16" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -11031,7 +11055,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -11040,7 +11064,7 @@
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K16" t="s">
         <v>624</v>
@@ -11096,7 +11120,7 @@
     </row>
     <row r="17" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -11114,7 +11138,7 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -11123,7 +11147,7 @@
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K17" t="s">
         <v>624</v>
@@ -11164,7 +11188,7 @@
     </row>
     <row r="18" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -11182,7 +11206,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -11191,7 +11215,7 @@
         <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K18" t="s">
         <v>624</v>
@@ -11232,7 +11256,7 @@
     </row>
     <row r="19" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -11250,7 +11274,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -11259,7 +11283,7 @@
         <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K19" t="s">
         <v>624</v>
@@ -11300,7 +11324,7 @@
     </row>
     <row r="20" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -11318,7 +11342,7 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -11327,7 +11351,7 @@
         <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K20" t="s">
         <v>624</v>
@@ -11368,7 +11392,7 @@
     </row>
     <row r="21" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -11386,7 +11410,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -11395,7 +11419,7 @@
         <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K21" t="s">
         <v>624</v>
@@ -11457,7 +11481,7 @@
     </row>
     <row r="22" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -11475,7 +11499,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -11484,7 +11508,7 @@
         <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K22" t="s">
         <v>624</v>
@@ -11546,7 +11570,7 @@
     </row>
     <row r="23" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -11564,10 +11588,10 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
@@ -11576,7 +11600,7 @@
         <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L23" t="s">
         <v>624</v>
@@ -11626,7 +11650,7 @@
     </row>
     <row r="24" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -11644,10 +11668,10 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
@@ -12014,7 +12038,7 @@
         <v>553</v>
       </c>
       <c r="B50" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="51" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
@@ -12199,7 +12223,7 @@
         <v>555</v>
       </c>
       <c r="B72" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
@@ -12292,7 +12316,7 @@
         <v>558</v>
       </c>
       <c r="B81" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="82" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
@@ -12300,7 +12324,7 @@
         <v>560</v>
       </c>
       <c r="B82" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="83" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
@@ -12327,40 +12351,40 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -12381,8 +12405,8 @@
   </sheetPr>
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12632,7 +12656,7 @@
         <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="I5" t="s">
         <v>210</v>
@@ -12693,13 +12717,13 @@
         <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G7" t="s">
         <v>604</v>
       </c>
       <c r="H7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -12713,7 +12737,7 @@
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
@@ -12777,7 +12801,7 @@
         <v>604</v>
       </c>
       <c r="G10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
@@ -12791,7 +12815,7 @@
         <v>623</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E11" t="s">
         <v>192</v>
@@ -12821,10 +12845,10 @@
         <v>639</v>
       </c>
       <c r="N11" t="s">
+        <v>657</v>
+      </c>
+      <c r="O11" t="s">
         <v>658</v>
-      </c>
-      <c r="O11" t="s">
-        <v>659</v>
       </c>
       <c r="P11" t="s">
         <v>640</v>
@@ -12850,15 +12874,15 @@
         <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C13" t="s">
         <v>623</v>
@@ -12879,13 +12903,13 @@
         <v>222</v>
       </c>
       <c r="I13" t="s">
+        <v>679</v>
+      </c>
+      <c r="J13" t="s">
         <v>680</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>681</v>
-      </c>
-      <c r="K13" t="s">
-        <v>682</v>
       </c>
       <c r="L13" t="s">
         <v>225</v>
@@ -12903,24 +12927,24 @@
         <v>229</v>
       </c>
       <c r="Q13" t="s">
+        <v>689</v>
+      </c>
+      <c r="R13" t="s">
         <v>690</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>691</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>692</v>
-      </c>
-      <c r="T13" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C14" t="s">
         <v>623</v>
@@ -12950,22 +12974,22 @@
         <v>222</v>
       </c>
       <c r="L14" t="s">
+        <v>679</v>
+      </c>
+      <c r="M14" t="s">
         <v>680</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>681</v>
-      </c>
-      <c r="N14" t="s">
-        <v>682</v>
       </c>
       <c r="O14" t="s">
         <v>224</v>
       </c>
       <c r="P14" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q14" t="s">
         <v>688</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>689</v>
       </c>
       <c r="R14" t="s">
         <v>225</v>
@@ -12986,24 +13010,24 @@
         <v>229</v>
       </c>
       <c r="X14" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y14" t="s">
         <v>690</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>691</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>692</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C15" t="s">
         <v>623</v>
@@ -13033,22 +13057,22 @@
         <v>222</v>
       </c>
       <c r="L15" t="s">
+        <v>679</v>
+      </c>
+      <c r="M15" t="s">
         <v>680</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>681</v>
-      </c>
-      <c r="N15" t="s">
-        <v>682</v>
       </c>
       <c r="O15" t="s">
         <v>224</v>
       </c>
       <c r="P15" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q15" t="s">
         <v>688</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>689</v>
       </c>
       <c r="R15" t="s">
         <v>225</v>
@@ -13069,24 +13093,24 @@
         <v>229</v>
       </c>
       <c r="X15" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y15" t="s">
         <v>690</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>691</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>692</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C16" t="s">
         <v>623</v>
@@ -13113,16 +13137,16 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
+        <v>679</v>
+      </c>
+      <c r="L16" t="s">
         <v>680</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>681</v>
       </c>
-      <c r="M16" t="s">
-        <v>682</v>
-      </c>
       <c r="N16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O16" t="s">
         <v>225</v>
@@ -13140,24 +13164,24 @@
         <v>229</v>
       </c>
       <c r="T16" t="s">
+        <v>689</v>
+      </c>
+      <c r="U16" t="s">
         <v>690</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>691</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>692</v>
-      </c>
-      <c r="W16" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C17" t="s">
         <v>623</v>
@@ -13184,16 +13208,16 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
+        <v>679</v>
+      </c>
+      <c r="L17" t="s">
         <v>680</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>681</v>
       </c>
-      <c r="M17" t="s">
-        <v>682</v>
-      </c>
       <c r="N17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O17" t="s">
         <v>225</v>
@@ -13211,24 +13235,24 @@
         <v>229</v>
       </c>
       <c r="T17" t="s">
+        <v>689</v>
+      </c>
+      <c r="U17" t="s">
         <v>690</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>691</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>692</v>
-      </c>
-      <c r="W17" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C18" t="s">
         <v>623</v>
@@ -13255,16 +13279,16 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
+        <v>679</v>
+      </c>
+      <c r="L18" t="s">
         <v>680</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>681</v>
       </c>
-      <c r="M18" t="s">
-        <v>682</v>
-      </c>
       <c r="N18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O18" t="s">
         <v>225</v>
@@ -13282,24 +13306,24 @@
         <v>229</v>
       </c>
       <c r="T18" t="s">
+        <v>689</v>
+      </c>
+      <c r="U18" t="s">
         <v>690</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>691</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>692</v>
-      </c>
-      <c r="W18" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C19" t="s">
         <v>623</v>
@@ -13326,16 +13350,16 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
+        <v>679</v>
+      </c>
+      <c r="L19" t="s">
         <v>680</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>681</v>
       </c>
-      <c r="M19" t="s">
-        <v>682</v>
-      </c>
       <c r="N19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O19" t="s">
         <v>225</v>
@@ -13353,24 +13377,24 @@
         <v>229</v>
       </c>
       <c r="T19" t="s">
+        <v>689</v>
+      </c>
+      <c r="U19" t="s">
         <v>690</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>691</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>692</v>
-      </c>
-      <c r="W19" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>735</v>
+      </c>
+      <c r="B20" t="s">
         <v>736</v>
-      </c>
-      <c r="B20" t="s">
-        <v>737</v>
       </c>
       <c r="C20" t="s">
         <v>623</v>
@@ -13397,16 +13421,16 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
+        <v>679</v>
+      </c>
+      <c r="L20" t="s">
         <v>680</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>681</v>
       </c>
-      <c r="M20" t="s">
-        <v>682</v>
-      </c>
       <c r="N20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O20" t="s">
         <v>225</v>
@@ -13424,24 +13448,24 @@
         <v>229</v>
       </c>
       <c r="T20" t="s">
+        <v>689</v>
+      </c>
+      <c r="U20" t="s">
         <v>690</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>691</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>692</v>
-      </c>
-      <c r="W20" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>739</v>
+      </c>
+      <c r="B21" t="s">
         <v>740</v>
-      </c>
-      <c r="B21" t="s">
-        <v>741</v>
       </c>
       <c r="C21" t="s">
         <v>623</v>
@@ -13468,28 +13492,28 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
+        <v>679</v>
+      </c>
+      <c r="L21" t="s">
         <v>680</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>681</v>
-      </c>
-      <c r="M21" t="s">
-        <v>682</v>
       </c>
       <c r="N21" t="s">
         <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="P21" t="s">
         <v>236</v>
       </c>
       <c r="Q21" t="s">
+        <v>684</v>
+      </c>
+      <c r="R21" t="s">
         <v>685</v>
-      </c>
-      <c r="R21" t="s">
-        <v>686</v>
       </c>
       <c r="S21" t="s">
         <v>225</v>
@@ -13507,24 +13531,24 @@
         <v>229</v>
       </c>
       <c r="X21" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y21" t="s">
         <v>690</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>691</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>692</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C22" t="s">
         <v>623</v>
@@ -13551,13 +13575,13 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
+        <v>679</v>
+      </c>
+      <c r="L22" t="s">
         <v>680</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>681</v>
-      </c>
-      <c r="M22" t="s">
-        <v>682</v>
       </c>
       <c r="N22" t="s">
         <v>224</v>
@@ -13566,16 +13590,16 @@
         <v>235</v>
       </c>
       <c r="P22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q22" t="s">
         <v>236</v>
       </c>
       <c r="R22" t="s">
+        <v>684</v>
+      </c>
+      <c r="S22" t="s">
         <v>685</v>
-      </c>
-      <c r="S22" t="s">
-        <v>686</v>
       </c>
       <c r="T22" t="s">
         <v>225</v>
@@ -13593,24 +13617,24 @@
         <v>229</v>
       </c>
       <c r="Y22" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z22" t="s">
         <v>690</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>691</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>692</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C23" t="s">
         <v>623</v>
@@ -13637,16 +13661,16 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
+        <v>679</v>
+      </c>
+      <c r="L23" t="s">
         <v>680</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>681</v>
       </c>
-      <c r="M23" t="s">
-        <v>682</v>
-      </c>
       <c r="N23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O23" t="s">
         <v>225</v>
@@ -13658,7 +13682,7 @@
         <v>238</v>
       </c>
       <c r="R23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S23" t="s">
         <v>231</v>
@@ -13685,24 +13709,24 @@
         <v>229</v>
       </c>
       <c r="AA23" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB23" t="s">
         <v>690</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>691</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>692</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C24" t="s">
         <v>623</v>
@@ -13729,16 +13753,16 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
+        <v>679</v>
+      </c>
+      <c r="L24" t="s">
         <v>680</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>681</v>
       </c>
-      <c r="M24" t="s">
-        <v>682</v>
-      </c>
       <c r="N24" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O24" t="s">
         <v>225</v>
@@ -13750,7 +13774,7 @@
         <v>238</v>
       </c>
       <c r="R24" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S24" t="s">
         <v>231</v>
@@ -13777,24 +13801,24 @@
         <v>229</v>
       </c>
       <c r="AA24" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB24" t="s">
         <v>690</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>691</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>692</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B25" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C25" t="s">
         <v>623</v>
@@ -13836,16 +13860,16 @@
         <v>229</v>
       </c>
       <c r="P25" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q25" t="s">
         <v>690</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>691</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>692</v>
-      </c>
-      <c r="S25" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
@@ -13868,10 +13892,10 @@
         <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I26" t="s">
         <v>212</v>
@@ -13880,7 +13904,7 @@
         <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L26" t="s">
         <v>638</v>
@@ -14101,46 +14125,46 @@
         <v>127</v>
       </c>
       <c r="B39" t="s">
+        <v>788</v>
+      </c>
+      <c r="C39" t="s">
         <v>789</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>790</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>791</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>792</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>793</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>794</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>795</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>796</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>797</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>798</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>799</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>800</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>801</v>
-      </c>
-      <c r="O39" t="s">
-        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -14206,19 +14230,19 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C2" t="s">
         <v>784</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>785</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>786</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>787</v>
-      </c>
-      <c r="F2" t="s">
-        <v>788</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -14406,13 +14430,13 @@
         <v>463</v>
       </c>
       <c r="B10" t="s">
+        <v>780</v>
+      </c>
+      <c r="C10" t="s">
         <v>781</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>782</v>
-      </c>
-      <c r="D10" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -14420,13 +14444,13 @@
         <v>466</v>
       </c>
       <c r="B11" t="s">
+        <v>780</v>
+      </c>
+      <c r="C11" t="s">
         <v>781</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>782</v>
-      </c>
-      <c r="D11" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -14434,13 +14458,13 @@
         <v>460</v>
       </c>
       <c r="B12" t="s">
+        <v>780</v>
+      </c>
+      <c r="C12" t="s">
         <v>781</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>782</v>
-      </c>
-      <c r="D12" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -14448,13 +14472,13 @@
         <v>468</v>
       </c>
       <c r="B13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C13" t="s">
         <v>781</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>782</v>
-      </c>
-      <c r="D13" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -14462,13 +14486,13 @@
         <v>471</v>
       </c>
       <c r="B14" t="s">
+        <v>780</v>
+      </c>
+      <c r="C14" t="s">
         <v>781</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>782</v>
-      </c>
-      <c r="D14" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -14476,13 +14500,13 @@
         <v>467</v>
       </c>
       <c r="B15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C15" t="s">
         <v>781</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>782</v>
-      </c>
-      <c r="D15" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -14490,13 +14514,13 @@
         <v>461</v>
       </c>
       <c r="B16" t="s">
+        <v>780</v>
+      </c>
+      <c r="C16" t="s">
         <v>781</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>782</v>
-      </c>
-      <c r="D16" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -14504,13 +14528,13 @@
         <v>462</v>
       </c>
       <c r="B17" t="s">
+        <v>780</v>
+      </c>
+      <c r="C17" t="s">
         <v>781</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>782</v>
-      </c>
-      <c r="D17" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -14518,13 +14542,13 @@
         <v>469</v>
       </c>
       <c r="B18" t="s">
+        <v>780</v>
+      </c>
+      <c r="C18" t="s">
         <v>781</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>782</v>
-      </c>
-      <c r="D18" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -14532,13 +14556,13 @@
         <v>470</v>
       </c>
       <c r="B19" t="s">
+        <v>780</v>
+      </c>
+      <c r="C19" t="s">
         <v>781</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>782</v>
-      </c>
-      <c r="D19" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -14546,13 +14570,13 @@
         <v>465</v>
       </c>
       <c r="B20" t="s">
+        <v>780</v>
+      </c>
+      <c r="C20" t="s">
         <v>781</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>782</v>
-      </c>
-      <c r="D20" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -14560,13 +14584,13 @@
         <v>472</v>
       </c>
       <c r="B21" t="s">
+        <v>780</v>
+      </c>
+      <c r="C21" t="s">
         <v>781</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>782</v>
-      </c>
-      <c r="D21" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -14574,13 +14598,13 @@
         <v>459</v>
       </c>
       <c r="B22" t="s">
+        <v>780</v>
+      </c>
+      <c r="C22" t="s">
         <v>781</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>782</v>
-      </c>
-      <c r="D22" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -14588,13 +14612,13 @@
         <v>464</v>
       </c>
       <c r="B23" t="s">
+        <v>780</v>
+      </c>
+      <c r="C23" t="s">
         <v>781</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>782</v>
-      </c>
-      <c r="D23" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474"/>
+    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="807">
   <si>
     <t>Identifier</t>
   </si>
@@ -1219,9 +1219,6 @@
     <t>Tidal Current Time Series</t>
   </si>
   <si>
-    <t>Wave time series data (HS, Tp) keyed on date and time for use in planning the installation phases.</t>
-  </si>
-  <si>
     <t>Tidal current time series data keyed on date and time.</t>
   </si>
   <si>
@@ -2450,19 +2447,32 @@
   </si>
   <si>
     <t>hidden.device_filtered</t>
+  </si>
+  <si>
+    <t>Wave time series data (Hs, Tp) keyed on date and time for use in planning the installation phases.</t>
+  </si>
+  <si>
+    <t>Velocity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2621,130 +2631,133 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="8" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent1" xfId="7" builtinId="31"/>
@@ -3132,9 +3145,9 @@
   </sheetPr>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D33" sqref="D33"/>
+      <selection pane="topRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3165,10 +3178,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>534</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>535</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>136</v>
@@ -3395,16 +3408,16 @@
     </row>
     <row r="14" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -3413,16 +3426,16 @@
     </row>
     <row r="15" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C15" s="40" t="s">
+        <v>709</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>710</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>711</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -3431,16 +3444,16 @@
     </row>
     <row r="16" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C16" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>717</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>718</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -3449,16 +3462,16 @@
     </row>
     <row r="17" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>736</v>
+      </c>
+      <c r="D17" s="44" t="s">
         <v>737</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>738</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -3467,16 +3480,16 @@
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>741</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>742</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>743</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -3485,16 +3498,16 @@
     </row>
     <row r="19" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>721</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>722</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>723</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -3503,16 +3516,16 @@
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>726</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>727</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -3521,16 +3534,16 @@
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -3539,16 +3552,16 @@
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>733</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>734</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -3557,16 +3570,16 @@
     </row>
     <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="40" t="s">
+        <v>745</v>
+      </c>
+      <c r="D23" s="44" t="s">
         <v>746</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>747</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -3575,16 +3588,16 @@
     </row>
     <row r="24" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>749</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>750</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>751</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -3593,16 +3606,16 @@
     </row>
     <row r="25" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -3611,16 +3624,16 @@
     </row>
     <row r="26" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>753</v>
+      </c>
+      <c r="D26" s="44" t="s">
         <v>754</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>755</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -3650,16 +3663,16 @@
         <v>158</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>386</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3667,16 +3680,16 @@
         <v>163</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3684,35 +3697,35 @@
         <v>161</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>384</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>170</v>
       </c>
       <c r="C31" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="D31" s="41" t="s">
         <v>428</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>429</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H31" s="23"/>
     </row>
@@ -3721,16 +3734,16 @@
         <v>162</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>385</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3738,35 +3751,35 @@
         <v>159</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>170</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H34" s="23"/>
     </row>
@@ -3775,35 +3788,35 @@
         <v>160</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="C36" s="32" t="s">
+      <c r="D36" s="42" t="s">
         <v>619</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>620</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H36" s="32"/>
     </row>
@@ -3818,7 +3831,7 @@
         <v>394</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
@@ -3837,8 +3850,8 @@
       <c r="C38" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="D38" s="42" t="s">
-        <v>395</v>
+      <c r="D38" s="50" t="s">
+        <v>805</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
@@ -3858,7 +3871,7 @@
         <v>393</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
@@ -3878,7 +3891,7 @@
         <v>353</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -3889,7 +3902,7 @@
     </row>
     <row r="41" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>173</v>
@@ -3898,7 +3911,7 @@
         <v>290</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
@@ -3925,16 +3938,16 @@
     </row>
     <row r="43" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="D43" s="46" t="s">
         <v>412</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>413</v>
       </c>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
@@ -3949,10 +3962,10 @@
         <v>128</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
@@ -3961,7 +3974,7 @@
     </row>
     <row r="45" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>180</v>
@@ -3970,7 +3983,7 @@
         <v>307</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -3981,7 +3994,7 @@
     </row>
     <row r="46" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>180</v>
@@ -3990,7 +4003,7 @@
         <v>306</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -4001,7 +4014,7 @@
     </row>
     <row r="47" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>173</v>
@@ -4010,7 +4023,7 @@
         <v>301</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -4021,7 +4034,7 @@
     </row>
     <row r="48" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>180</v>
@@ -4030,7 +4043,7 @@
         <v>309</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -4041,7 +4054,7 @@
     </row>
     <row r="49" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>173</v>
@@ -4050,7 +4063,7 @@
         <v>308</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -4061,7 +4074,7 @@
     </row>
     <row r="50" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>180</v>
@@ -4070,7 +4083,7 @@
         <v>310</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>334</v>
@@ -4078,7 +4091,7 @@
     </row>
     <row r="51" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>173</v>
@@ -4087,7 +4100,7 @@
         <v>287</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
@@ -4096,7 +4109,7 @@
     </row>
     <row r="52" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>180</v>
@@ -4105,7 +4118,7 @@
         <v>317</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>334</v>
@@ -4113,7 +4126,7 @@
     </row>
     <row r="53" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>180</v>
@@ -4122,7 +4135,7 @@
         <v>316</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>334</v>
@@ -4130,7 +4143,7 @@
     </row>
     <row r="54" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>173</v>
@@ -4139,7 +4152,7 @@
         <v>315</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>334</v>
@@ -4147,7 +4160,7 @@
     </row>
     <row r="55" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>180</v>
@@ -4156,7 +4169,7 @@
         <v>319</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>334</v>
@@ -4164,7 +4177,7 @@
     </row>
     <row r="56" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>173</v>
@@ -4173,7 +4186,7 @@
         <v>318</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>334</v>
@@ -4181,7 +4194,7 @@
     </row>
     <row r="57" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B57" s="26" t="s">
         <v>180</v>
@@ -4190,7 +4203,7 @@
         <v>320</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>334</v>
@@ -4198,7 +4211,7 @@
     </row>
     <row r="58" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>128</v>
@@ -4207,7 +4220,7 @@
         <v>186</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
@@ -4216,7 +4229,7 @@
     </row>
     <row r="59" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>128</v>
@@ -4225,7 +4238,7 @@
         <v>185</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
@@ -4234,7 +4247,7 @@
     </row>
     <row r="60" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>173</v>
@@ -4243,7 +4256,7 @@
         <v>288</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
@@ -4252,30 +4265,30 @@
     </row>
     <row r="61" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
@@ -4284,226 +4297,226 @@
     </row>
     <row r="63" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D71" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D72" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D73" s="47" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D76" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D77" s="47" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
@@ -4512,44 +4525,44 @@
     </row>
     <row r="79" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D79" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
@@ -4558,16 +4571,16 @@
     </row>
     <row r="82" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D82" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
@@ -4576,16 +4589,16 @@
     </row>
     <row r="83" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D83" s="47" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
@@ -4594,16 +4607,16 @@
     </row>
     <row r="84" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C84" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="D84" s="47" t="s">
         <v>530</v>
-      </c>
-      <c r="D84" s="47" t="s">
-        <v>531</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
@@ -4612,30 +4625,30 @@
     </row>
     <row r="85" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
@@ -4644,30 +4657,30 @@
     </row>
     <row r="87" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -4690,7 +4703,7 @@
     </row>
     <row r="90" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B90" s="26" t="s">
         <v>180</v>
@@ -4699,7 +4712,7 @@
         <v>328</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H90" s="26" t="s">
         <v>334</v>
@@ -4707,7 +4720,7 @@
     </row>
     <row r="91" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>333</v>
@@ -4716,7 +4729,7 @@
         <v>339</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
@@ -4727,7 +4740,7 @@
     </row>
     <row r="92" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B92" s="26" t="s">
         <v>128</v>
@@ -4736,7 +4749,7 @@
         <v>187</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H92" s="26" t="s">
         <v>334</v>
@@ -4744,7 +4757,7 @@
     </row>
     <row r="93" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B93" s="26" t="s">
         <v>180</v>
@@ -4753,7 +4766,7 @@
         <v>327</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H93" s="26" t="s">
         <v>334</v>
@@ -4761,7 +4774,7 @@
     </row>
     <row r="94" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B94" s="26" t="s">
         <v>180</v>
@@ -4770,7 +4783,7 @@
         <v>329</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H94" s="26" t="s">
         <v>334</v>
@@ -4778,21 +4791,21 @@
     </row>
     <row r="95" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="B95" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="B95" s="26" t="s">
-        <v>488</v>
-      </c>
       <c r="C95" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="D95" s="47" t="s">
         <v>532</v>
-      </c>
-      <c r="D95" s="47" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>180</v>
@@ -4801,7 +4814,7 @@
         <v>330</v>
       </c>
       <c r="D96" s="47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>334</v>
@@ -4809,7 +4822,7 @@
     </row>
     <row r="97" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B97" s="26" t="s">
         <v>128</v>
@@ -4818,7 +4831,7 @@
         <v>188</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H97" s="26" t="s">
         <v>334</v>
@@ -4826,7 +4839,7 @@
     </row>
     <row r="98" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>128</v>
@@ -4835,7 +4848,7 @@
         <v>293</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E98" s="29"/>
       <c r="F98" s="29"/>
@@ -4844,7 +4857,7 @@
     </row>
     <row r="99" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>175</v>
@@ -4862,7 +4875,7 @@
     </row>
     <row r="100" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>128</v>
@@ -4871,7 +4884,7 @@
         <v>184</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E100" s="30"/>
       <c r="F100" s="30"/>
@@ -4880,7 +4893,7 @@
     </row>
     <row r="101" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B101" s="26" t="s">
         <v>180</v>
@@ -4889,7 +4902,7 @@
         <v>323</v>
       </c>
       <c r="D101" s="47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H101" s="26" t="s">
         <v>334</v>
@@ -4897,7 +4910,7 @@
     </row>
     <row r="102" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B102" s="26" t="s">
         <v>180</v>
@@ -4906,7 +4919,7 @@
         <v>322</v>
       </c>
       <c r="D102" s="47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H102" s="26" t="s">
         <v>334</v>
@@ -4914,7 +4927,7 @@
     </row>
     <row r="103" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B103" s="26" t="s">
         <v>173</v>
@@ -4923,7 +4936,7 @@
         <v>321</v>
       </c>
       <c r="D103" s="47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H103" s="26" t="s">
         <v>334</v>
@@ -4931,7 +4944,7 @@
     </row>
     <row r="104" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B104" s="26" t="s">
         <v>180</v>
@@ -4940,7 +4953,7 @@
         <v>325</v>
       </c>
       <c r="D104" s="47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H104" s="26" t="s">
         <v>334</v>
@@ -4948,7 +4961,7 @@
     </row>
     <row r="105" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B105" s="26" t="s">
         <v>173</v>
@@ -4957,7 +4970,7 @@
         <v>324</v>
       </c>
       <c r="D105" s="47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H105" s="26" t="s">
         <v>334</v>
@@ -4965,7 +4978,7 @@
     </row>
     <row r="106" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B106" s="26" t="s">
         <v>180</v>
@@ -4974,7 +4987,7 @@
         <v>326</v>
       </c>
       <c r="D106" s="47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H106" s="26" t="s">
         <v>334</v>
@@ -4982,7 +4995,7 @@
     </row>
     <row r="107" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B107" s="26" t="s">
         <v>128</v>
@@ -4991,7 +5004,7 @@
         <v>178</v>
       </c>
       <c r="D107" s="47" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H107" s="26" t="s">
         <v>334</v>
@@ -4999,7 +5012,7 @@
     </row>
     <row r="108" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B108" s="26" t="s">
         <v>128</v>
@@ -5022,10 +5035,10 @@
         <v>128</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D109" s="46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="30"/>
@@ -5034,7 +5047,7 @@
     </row>
     <row r="110" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B110" s="28" t="s">
         <v>173</v>
@@ -5043,7 +5056,7 @@
         <v>189</v>
       </c>
       <c r="D110" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E110" s="30"/>
       <c r="F110" s="30"/>
@@ -5052,7 +5065,7 @@
     </row>
     <row r="111" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B111" s="28" t="s">
         <v>173</v>
@@ -5061,7 +5074,7 @@
         <v>286</v>
       </c>
       <c r="D111" s="46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
@@ -5070,7 +5083,7 @@
     </row>
     <row r="112" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B112" s="28" t="s">
         <v>128</v>
@@ -5079,7 +5092,7 @@
         <v>183</v>
       </c>
       <c r="D112" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E112" s="30"/>
       <c r="F112" s="30"/>
@@ -5088,7 +5101,7 @@
     </row>
     <row r="113" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B113" s="28" t="s">
         <v>173</v>
@@ -5097,7 +5110,7 @@
         <v>291</v>
       </c>
       <c r="D113" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E113" s="30"/>
       <c r="F113" s="30"/>
@@ -5124,7 +5137,7 @@
     </row>
     <row r="115" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B115" s="28" t="s">
         <v>128</v>
@@ -5133,7 +5146,7 @@
         <v>182</v>
       </c>
       <c r="D115" s="46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E115" s="30"/>
       <c r="F115" s="30"/>
@@ -5142,7 +5155,7 @@
     </row>
     <row r="116" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B116" s="26" t="s">
         <v>128</v>
@@ -5151,7 +5164,7 @@
         <v>331</v>
       </c>
       <c r="D116" s="47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H116" s="26" t="s">
         <v>334</v>
@@ -5159,7 +5172,7 @@
     </row>
     <row r="117" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B117" s="26" t="s">
         <v>128</v>
@@ -5168,7 +5181,7 @@
         <v>179</v>
       </c>
       <c r="D117" s="47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E117" s="26"/>
       <c r="F117" s="26"/>
@@ -5179,7 +5192,7 @@
     </row>
     <row r="118" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B118" s="28" t="s">
         <v>173</v>
@@ -5188,13 +5201,13 @@
         <v>377</v>
       </c>
       <c r="D118" s="46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G118" s="28"/>
     </row>
     <row r="119" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B119" s="28" t="s">
         <v>173</v>
@@ -5203,7 +5216,7 @@
         <v>289</v>
       </c>
       <c r="D119" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="30"/>
@@ -5229,11 +5242,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5:N5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5422,46 +5435,46 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
+        <v>624</v>
+      </c>
+      <c r="H2" t="s">
         <v>625</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>626</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>627</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>628</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>629</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>630</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>631</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>632</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>633</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>635</v>
+      </c>
+      <c r="R2" t="s">
+        <v>647</v>
+      </c>
+      <c r="S2" t="s">
+        <v>636</v>
+      </c>
+      <c r="T2" t="s">
         <v>634</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>636</v>
-      </c>
-      <c r="R2" t="s">
-        <v>648</v>
-      </c>
-      <c r="S2" t="s">
-        <v>637</v>
-      </c>
-      <c r="T2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -5472,16 +5485,16 @@
         <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
@@ -5501,25 +5514,25 @@
         <v>174</v>
       </c>
       <c r="F4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G4" t="s">
         <v>644</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>645</v>
       </c>
-      <c r="H4" t="s">
-        <v>646</v>
-      </c>
       <c r="I4" t="s">
+        <v>635</v>
+      </c>
+      <c r="J4" t="s">
+        <v>647</v>
+      </c>
+      <c r="K4" t="s">
         <v>636</v>
       </c>
-      <c r="J4" t="s">
-        <v>648</v>
-      </c>
-      <c r="K4" t="s">
-        <v>637</v>
-      </c>
       <c r="L4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
@@ -5583,13 +5596,13 @@
         <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -5607,25 +5620,25 @@
         <v>174</v>
       </c>
       <c r="E7" t="s">
+        <v>648</v>
+      </c>
+      <c r="F7" t="s">
         <v>649</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>650</v>
       </c>
-      <c r="G7" t="s">
-        <v>651</v>
-      </c>
       <c r="H7" t="s">
+        <v>635</v>
+      </c>
+      <c r="I7" t="s">
+        <v>647</v>
+      </c>
+      <c r="J7" t="s">
         <v>636</v>
       </c>
-      <c r="I7" t="s">
-        <v>648</v>
-      </c>
-      <c r="J7" t="s">
-        <v>637</v>
-      </c>
       <c r="K7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -5642,7 +5655,7 @@
         <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F8" t="s">
         <v>174</v>
@@ -5662,31 +5675,31 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E9" t="s">
+        <v>668</v>
+      </c>
+      <c r="F9" t="s">
         <v>669</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>670</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>671</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>672</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>673</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>674</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>675</v>
-      </c>
-      <c r="L9" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
@@ -5717,7 +5730,7 @@
         <v>135</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D11" t="s">
         <v>133</v>
@@ -5732,34 +5745,34 @@
         <v>174</v>
       </c>
       <c r="H11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I11" t="s">
         <v>144</v>
       </c>
       <c r="J11" t="s">
+        <v>658</v>
+      </c>
+      <c r="K11" t="s">
+        <v>635</v>
+      </c>
+      <c r="L11" t="s">
+        <v>647</v>
+      </c>
+      <c r="M11" t="s">
+        <v>654</v>
+      </c>
+      <c r="N11" t="s">
+        <v>655</v>
+      </c>
+      <c r="O11" t="s">
+        <v>636</v>
+      </c>
+      <c r="P11" t="s">
         <v>659</v>
       </c>
-      <c r="K11" t="s">
-        <v>636</v>
-      </c>
-      <c r="L11" t="s">
-        <v>648</v>
-      </c>
-      <c r="M11" t="s">
-        <v>655</v>
-      </c>
-      <c r="N11" t="s">
-        <v>656</v>
-      </c>
-      <c r="O11" t="s">
-        <v>637</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>660</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
@@ -5778,13 +5791,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B13" t="s">
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D13" t="s">
         <v>131</v>
@@ -5793,57 +5806,57 @@
         <v>143</v>
       </c>
       <c r="F13" t="s">
+        <v>697</v>
+      </c>
+      <c r="G13" t="s">
         <v>698</v>
       </c>
-      <c r="G13" t="s">
-        <v>699</v>
-      </c>
       <c r="H13" t="s">
+        <v>758</v>
+      </c>
+      <c r="I13" t="s">
         <v>759</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>760</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>700</v>
+      </c>
+      <c r="L13" t="s">
         <v>761</v>
       </c>
-      <c r="K13" t="s">
-        <v>701</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>762</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>763</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>764</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>694</v>
+      </c>
+      <c r="R13" t="s">
+        <v>775</v>
+      </c>
+      <c r="S13" t="s">
         <v>765</v>
-      </c>
-      <c r="P13" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>695</v>
-      </c>
-      <c r="R13" t="s">
-        <v>776</v>
-      </c>
-      <c r="S13" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D14" t="s">
         <v>131</v>
@@ -5852,78 +5865,78 @@
         <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I14" t="s">
+        <v>697</v>
+      </c>
+      <c r="J14" t="s">
         <v>698</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>758</v>
+      </c>
+      <c r="L14" t="s">
+        <v>759</v>
+      </c>
+      <c r="M14" t="s">
+        <v>760</v>
+      </c>
+      <c r="N14" t="s">
         <v>699</v>
       </c>
-      <c r="K14" t="s">
-        <v>759</v>
-      </c>
-      <c r="L14" t="s">
-        <v>760</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
+        <v>705</v>
+      </c>
+      <c r="P14" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>700</v>
+      </c>
+      <c r="R14" t="s">
+        <v>767</v>
+      </c>
+      <c r="S14" t="s">
         <v>761</v>
       </c>
-      <c r="N14" t="s">
-        <v>700</v>
-      </c>
-      <c r="O14" t="s">
-        <v>706</v>
-      </c>
-      <c r="P14" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>701</v>
-      </c>
-      <c r="R14" t="s">
-        <v>768</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>762</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>763</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>764</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
+        <v>695</v>
+      </c>
+      <c r="X14" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>775</v>
+      </c>
+      <c r="Z14" t="s">
         <v>765</v>
-      </c>
-      <c r="W14" t="s">
-        <v>696</v>
-      </c>
-      <c r="X14" t="s">
-        <v>695</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>776</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B15" t="s">
         <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D15" t="s">
         <v>131</v>
@@ -5932,19 +5945,19 @@
         <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G15" t="s">
         <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="I15" t="s">
         <v>698</v>
       </c>
       <c r="J15" t="s">
-        <v>699</v>
+        <v>758</v>
       </c>
       <c r="K15" t="s">
         <v>759</v>
@@ -5953,57 +5966,45 @@
         <v>760</v>
       </c>
       <c r="M15" t="s">
-        <v>761</v>
+        <v>703</v>
       </c>
       <c r="N15" t="s">
         <v>700</v>
       </c>
       <c r="O15" t="s">
-        <v>706</v>
+        <v>761</v>
       </c>
       <c r="P15" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="Q15" t="s">
-        <v>701</v>
+        <v>763</v>
       </c>
       <c r="R15" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="S15" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="T15" t="s">
-        <v>763</v>
+        <v>694</v>
       </c>
       <c r="U15" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="V15" t="s">
         <v>765</v>
       </c>
-      <c r="W15" t="s">
-        <v>696</v>
-      </c>
-      <c r="X15" t="s">
-        <v>695</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>776</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>766</v>
-      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="B16" t="s">
         <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -6012,66 +6013,78 @@
         <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G16" t="s">
         <v>143</v>
       </c>
       <c r="H16" t="s">
+        <v>697</v>
+      </c>
+      <c r="I16" t="s">
         <v>698</v>
       </c>
-      <c r="I16" t="s">
-        <v>699</v>
-      </c>
       <c r="J16" t="s">
+        <v>758</v>
+      </c>
+      <c r="K16" t="s">
         <v>759</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>760</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
+        <v>681</v>
+      </c>
+      <c r="N16" t="s">
+        <v>768</v>
+      </c>
+      <c r="O16" t="s">
+        <v>701</v>
+      </c>
+      <c r="P16" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>703</v>
+      </c>
+      <c r="R16" t="s">
+        <v>700</v>
+      </c>
+      <c r="S16" t="s">
         <v>761</v>
       </c>
-      <c r="M16" t="s">
-        <v>704</v>
-      </c>
-      <c r="N16" t="s">
-        <v>701</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="T16" t="s">
         <v>762</v>
       </c>
-      <c r="P16" t="s">
+      <c r="U16" t="s">
         <v>763</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="V16" t="s">
         <v>764</v>
       </c>
-      <c r="R16" t="s">
+      <c r="W16" t="s">
+        <v>695</v>
+      </c>
+      <c r="X16" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>775</v>
+      </c>
+      <c r="Z16" t="s">
         <v>765</v>
-      </c>
-      <c r="S16" t="s">
-        <v>696</v>
-      </c>
-      <c r="T16" t="s">
-        <v>695</v>
-      </c>
-      <c r="U16" t="s">
-        <v>776</v>
-      </c>
-      <c r="V16" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D17" t="s">
         <v>131</v>
@@ -6080,66 +6093,81 @@
         <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G17" t="s">
         <v>143</v>
       </c>
       <c r="H17" t="s">
+        <v>697</v>
+      </c>
+      <c r="I17" t="s">
         <v>698</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>758</v>
+      </c>
+      <c r="K17" t="s">
+        <v>759</v>
+      </c>
+      <c r="L17" t="s">
+        <v>760</v>
+      </c>
+      <c r="M17" t="s">
         <v>699</v>
       </c>
-      <c r="J17" t="s">
-        <v>759</v>
-      </c>
-      <c r="K17" t="s">
-        <v>760</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
+        <v>681</v>
+      </c>
+      <c r="O17" t="s">
+        <v>768</v>
+      </c>
+      <c r="P17" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>702</v>
+      </c>
+      <c r="R17" t="s">
+        <v>703</v>
+      </c>
+      <c r="S17" t="s">
+        <v>700</v>
+      </c>
+      <c r="T17" t="s">
         <v>761</v>
       </c>
-      <c r="M17" t="s">
-        <v>704</v>
-      </c>
-      <c r="N17" t="s">
-        <v>701</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="U17" t="s">
         <v>762</v>
       </c>
-      <c r="P17" t="s">
+      <c r="V17" t="s">
         <v>763</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="W17" t="s">
         <v>764</v>
       </c>
-      <c r="R17" t="s">
+      <c r="X17" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>775</v>
+      </c>
+      <c r="AA17" t="s">
         <v>765</v>
-      </c>
-      <c r="S17" t="s">
-        <v>696</v>
-      </c>
-      <c r="T17" t="s">
-        <v>695</v>
-      </c>
-      <c r="U17" t="s">
-        <v>776</v>
-      </c>
-      <c r="V17" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B18" t="s">
         <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D18" t="s">
         <v>131</v>
@@ -6148,66 +6176,66 @@
         <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G18" t="s">
         <v>143</v>
       </c>
       <c r="H18" t="s">
+        <v>697</v>
+      </c>
+      <c r="I18" t="s">
         <v>698</v>
       </c>
-      <c r="I18" t="s">
-        <v>699</v>
-      </c>
       <c r="J18" t="s">
+        <v>758</v>
+      </c>
+      <c r="K18" t="s">
         <v>759</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>760</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
+        <v>703</v>
+      </c>
+      <c r="N18" t="s">
+        <v>700</v>
+      </c>
+      <c r="O18" t="s">
         <v>761</v>
       </c>
-      <c r="M18" t="s">
-        <v>704</v>
-      </c>
-      <c r="N18" t="s">
-        <v>701</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>762</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>763</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>764</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
+        <v>695</v>
+      </c>
+      <c r="T18" t="s">
+        <v>694</v>
+      </c>
+      <c r="U18" t="s">
+        <v>775</v>
+      </c>
+      <c r="V18" t="s">
         <v>765</v>
-      </c>
-      <c r="S18" t="s">
-        <v>696</v>
-      </c>
-      <c r="T18" t="s">
-        <v>695</v>
-      </c>
-      <c r="U18" t="s">
-        <v>776</v>
-      </c>
-      <c r="V18" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B19" t="s">
         <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
@@ -6216,66 +6244,66 @@
         <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G19" t="s">
         <v>143</v>
       </c>
       <c r="H19" t="s">
+        <v>697</v>
+      </c>
+      <c r="I19" t="s">
         <v>698</v>
       </c>
-      <c r="I19" t="s">
-        <v>699</v>
-      </c>
       <c r="J19" t="s">
+        <v>758</v>
+      </c>
+      <c r="K19" t="s">
         <v>759</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>760</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
+        <v>703</v>
+      </c>
+      <c r="N19" t="s">
+        <v>700</v>
+      </c>
+      <c r="O19" t="s">
         <v>761</v>
       </c>
-      <c r="M19" t="s">
-        <v>704</v>
-      </c>
-      <c r="N19" t="s">
-        <v>701</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>762</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>763</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>764</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
+        <v>695</v>
+      </c>
+      <c r="T19" t="s">
+        <v>694</v>
+      </c>
+      <c r="U19" t="s">
+        <v>775</v>
+      </c>
+      <c r="V19" t="s">
         <v>765</v>
-      </c>
-      <c r="S19" t="s">
-        <v>696</v>
-      </c>
-      <c r="T19" t="s">
-        <v>695</v>
-      </c>
-      <c r="U19" t="s">
-        <v>776</v>
-      </c>
-      <c r="V19" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B20" t="s">
         <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -6284,66 +6312,66 @@
         <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G20" t="s">
         <v>143</v>
       </c>
       <c r="H20" t="s">
+        <v>697</v>
+      </c>
+      <c r="I20" t="s">
         <v>698</v>
       </c>
-      <c r="I20" t="s">
-        <v>699</v>
-      </c>
       <c r="J20" t="s">
+        <v>758</v>
+      </c>
+      <c r="K20" t="s">
         <v>759</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>760</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
+        <v>703</v>
+      </c>
+      <c r="N20" t="s">
+        <v>700</v>
+      </c>
+      <c r="O20" t="s">
         <v>761</v>
       </c>
-      <c r="M20" t="s">
-        <v>704</v>
-      </c>
-      <c r="N20" t="s">
-        <v>701</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>762</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>763</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>764</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
+        <v>695</v>
+      </c>
+      <c r="T20" t="s">
+        <v>694</v>
+      </c>
+      <c r="U20" t="s">
+        <v>775</v>
+      </c>
+      <c r="V20" t="s">
         <v>765</v>
-      </c>
-      <c r="S20" t="s">
-        <v>696</v>
-      </c>
-      <c r="T20" t="s">
-        <v>695</v>
-      </c>
-      <c r="U20" t="s">
-        <v>776</v>
-      </c>
-      <c r="V20" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B21" t="s">
         <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D21" t="s">
         <v>131</v>
@@ -6352,78 +6380,66 @@
         <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G21" t="s">
         <v>143</v>
       </c>
       <c r="H21" t="s">
+        <v>697</v>
+      </c>
+      <c r="I21" t="s">
         <v>698</v>
       </c>
-      <c r="I21" t="s">
-        <v>699</v>
-      </c>
       <c r="J21" t="s">
+        <v>758</v>
+      </c>
+      <c r="K21" t="s">
         <v>759</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>760</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
+        <v>703</v>
+      </c>
+      <c r="N21" t="s">
+        <v>700</v>
+      </c>
+      <c r="O21" t="s">
         <v>761</v>
       </c>
-      <c r="M21" t="s">
-        <v>682</v>
-      </c>
-      <c r="N21" t="s">
-        <v>769</v>
-      </c>
-      <c r="O21" t="s">
-        <v>702</v>
-      </c>
       <c r="P21" t="s">
-        <v>703</v>
+        <v>762</v>
       </c>
       <c r="Q21" t="s">
-        <v>704</v>
+        <v>763</v>
       </c>
       <c r="R21" t="s">
-        <v>701</v>
+        <v>764</v>
       </c>
       <c r="S21" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="T21" t="s">
-        <v>763</v>
+        <v>694</v>
       </c>
       <c r="U21" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="V21" t="s">
         <v>765</v>
       </c>
-      <c r="W21" t="s">
-        <v>696</v>
-      </c>
-      <c r="X21" t="s">
-        <v>695</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>776</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>766</v>
-      </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B22" t="s">
         <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D22" t="s">
         <v>131</v>
@@ -6432,81 +6448,87 @@
         <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G22" t="s">
         <v>143</v>
       </c>
       <c r="H22" t="s">
+        <v>697</v>
+      </c>
+      <c r="I22" t="s">
         <v>698</v>
       </c>
-      <c r="I22" t="s">
-        <v>699</v>
-      </c>
       <c r="J22" t="s">
+        <v>758</v>
+      </c>
+      <c r="K22" t="s">
         <v>759</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>760</v>
       </c>
-      <c r="L22" t="s">
-        <v>761</v>
-      </c>
       <c r="M22" t="s">
+        <v>703</v>
+      </c>
+      <c r="N22" t="s">
         <v>700</v>
-      </c>
-      <c r="N22" t="s">
-        <v>682</v>
       </c>
       <c r="O22" t="s">
         <v>769</v>
       </c>
       <c r="P22" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="Q22" t="s">
-        <v>703</v>
+        <v>770</v>
       </c>
       <c r="R22" t="s">
-        <v>704</v>
+        <v>771</v>
       </c>
       <c r="S22" t="s">
-        <v>701</v>
+        <v>772</v>
       </c>
       <c r="T22" t="s">
+        <v>773</v>
+      </c>
+      <c r="U22" t="s">
+        <v>774</v>
+      </c>
+      <c r="V22" t="s">
+        <v>761</v>
+      </c>
+      <c r="W22" t="s">
         <v>762</v>
       </c>
-      <c r="U22" t="s">
+      <c r="X22" t="s">
         <v>763</v>
       </c>
-      <c r="V22" t="s">
+      <c r="Y22" t="s">
         <v>764</v>
       </c>
-      <c r="W22" t="s">
+      <c r="Z22" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>694</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>775</v>
+      </c>
+      <c r="AC22" t="s">
         <v>765</v>
-      </c>
-      <c r="X22" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>695</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>776</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B23" t="s">
         <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D23" t="s">
         <v>131</v>
@@ -6515,87 +6537,87 @@
         <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G23" t="s">
         <v>143</v>
       </c>
       <c r="H23" t="s">
+        <v>697</v>
+      </c>
+      <c r="I23" t="s">
         <v>698</v>
       </c>
-      <c r="I23" t="s">
-        <v>699</v>
-      </c>
       <c r="J23" t="s">
+        <v>758</v>
+      </c>
+      <c r="K23" t="s">
         <v>759</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>760</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
+        <v>703</v>
+      </c>
+      <c r="N23" t="s">
+        <v>700</v>
+      </c>
+      <c r="O23" t="s">
+        <v>769</v>
+      </c>
+      <c r="P23" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>770</v>
+      </c>
+      <c r="R23" t="s">
+        <v>771</v>
+      </c>
+      <c r="S23" t="s">
+        <v>772</v>
+      </c>
+      <c r="T23" t="s">
+        <v>773</v>
+      </c>
+      <c r="U23" t="s">
+        <v>774</v>
+      </c>
+      <c r="V23" t="s">
         <v>761</v>
       </c>
-      <c r="M23" t="s">
-        <v>704</v>
-      </c>
-      <c r="N23" t="s">
-        <v>701</v>
-      </c>
-      <c r="O23" t="s">
-        <v>770</v>
-      </c>
-      <c r="P23" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>771</v>
-      </c>
-      <c r="R23" t="s">
-        <v>772</v>
-      </c>
-      <c r="S23" t="s">
-        <v>773</v>
-      </c>
-      <c r="T23" t="s">
-        <v>774</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="W23" t="s">
+        <v>762</v>
+      </c>
+      <c r="X23" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>764</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>694</v>
+      </c>
+      <c r="AB23" t="s">
         <v>775</v>
       </c>
-      <c r="V23" t="s">
-        <v>762</v>
-      </c>
-      <c r="W23" t="s">
-        <v>763</v>
-      </c>
-      <c r="X23" t="s">
-        <v>764</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="AC23" t="s">
         <v>765</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>695</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>776</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="B24" t="s">
         <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D24" t="s">
         <v>131</v>
@@ -6604,87 +6626,78 @@
         <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G24" t="s">
         <v>143</v>
       </c>
       <c r="H24" t="s">
+        <v>677</v>
+      </c>
+      <c r="I24" t="s">
+        <v>697</v>
+      </c>
+      <c r="J24" t="s">
         <v>698</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
+        <v>758</v>
+      </c>
+      <c r="L24" t="s">
+        <v>759</v>
+      </c>
+      <c r="M24" t="s">
+        <v>760</v>
+      </c>
+      <c r="N24" t="s">
         <v>699</v>
       </c>
-      <c r="J24" t="s">
-        <v>759</v>
-      </c>
-      <c r="K24" t="s">
-        <v>760</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
+        <v>705</v>
+      </c>
+      <c r="P24" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>700</v>
+      </c>
+      <c r="R24" t="s">
+        <v>767</v>
+      </c>
+      <c r="S24" t="s">
         <v>761</v>
       </c>
-      <c r="M24" t="s">
-        <v>704</v>
-      </c>
-      <c r="N24" t="s">
-        <v>701</v>
-      </c>
-      <c r="O24" t="s">
-        <v>770</v>
-      </c>
-      <c r="P24" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>771</v>
-      </c>
-      <c r="R24" t="s">
-        <v>772</v>
-      </c>
-      <c r="S24" t="s">
-        <v>773</v>
-      </c>
       <c r="T24" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="U24" t="s">
+        <v>763</v>
+      </c>
+      <c r="V24" t="s">
+        <v>764</v>
+      </c>
+      <c r="W24" t="s">
+        <v>695</v>
+      </c>
+      <c r="X24" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y24" t="s">
         <v>775</v>
       </c>
-      <c r="V24" t="s">
-        <v>762</v>
-      </c>
-      <c r="W24" t="s">
-        <v>763</v>
-      </c>
-      <c r="X24" t="s">
-        <v>764</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>765</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>695</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>776</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B25" t="s">
         <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D25" t="s">
         <v>131</v>
@@ -6693,43 +6706,43 @@
         <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G25" t="s">
         <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I25" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K25" t="s">
+        <v>761</v>
+      </c>
+      <c r="L25" t="s">
         <v>762</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>763</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>764</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
+        <v>695</v>
+      </c>
+      <c r="P25" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>775</v>
+      </c>
+      <c r="R25" t="s">
         <v>765</v>
-      </c>
-      <c r="O25" t="s">
-        <v>696</v>
-      </c>
-      <c r="P25" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>776</v>
-      </c>
-      <c r="R25" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
@@ -6749,39 +6762,39 @@
         <v>137</v>
       </c>
       <c r="F26" t="s">
+        <v>665</v>
+      </c>
+      <c r="G26" t="s">
+        <v>662</v>
+      </c>
+      <c r="H26" t="s">
+        <v>649</v>
+      </c>
+      <c r="I26" t="s">
+        <v>650</v>
+      </c>
+      <c r="J26" t="s">
         <v>666</v>
       </c>
-      <c r="G26" t="s">
-        <v>663</v>
-      </c>
-      <c r="H26" t="s">
-        <v>650</v>
-      </c>
-      <c r="I26" t="s">
-        <v>651</v>
-      </c>
-      <c r="J26" t="s">
-        <v>667</v>
-      </c>
       <c r="K26" t="s">
+        <v>635</v>
+      </c>
+      <c r="L26" t="s">
+        <v>647</v>
+      </c>
+      <c r="M26" t="s">
         <v>636</v>
       </c>
-      <c r="L26" t="s">
-        <v>648</v>
-      </c>
-      <c r="M26" t="s">
-        <v>637</v>
-      </c>
       <c r="N26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C27" t="s">
         <v>131</v>
@@ -6796,24 +6809,24 @@
         <v>174</v>
       </c>
       <c r="G27" t="s">
+        <v>605</v>
+      </c>
+      <c r="H27" t="s">
         <v>606</v>
       </c>
-      <c r="H27" t="s">
-        <v>607</v>
-      </c>
       <c r="I27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>613</v>
+      </c>
+      <c r="B28" t="s">
         <v>614</v>
-      </c>
-      <c r="B28" t="s">
-        <v>615</v>
       </c>
       <c r="C28" t="s">
         <v>131</v>
@@ -6828,215 +6841,209 @@
         <v>174</v>
       </c>
       <c r="G28" t="s">
+        <v>605</v>
+      </c>
+      <c r="H28" t="s">
         <v>606</v>
       </c>
-      <c r="H28" t="s">
-        <v>607</v>
-      </c>
       <c r="I28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J28" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
+        <v>806</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>550</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>566</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>314</v>
-      </c>
-      <c r="C31" t="s">
-        <v>304</v>
-      </c>
-      <c r="D31" t="s">
-        <v>302</v>
-      </c>
-      <c r="E31" t="s">
-        <v>303</v>
+        <v>806</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="B32" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="C32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D32" t="s">
-        <v>332</v>
-      </c>
-      <c r="E32" t="s">
-        <v>312</v>
-      </c>
-      <c r="F32" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>304</v>
+      </c>
+      <c r="D33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B34" t="s">
         <v>314</v>
       </c>
       <c r="C34" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D34" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="E34" t="s">
-        <v>303</v>
+        <v>312</v>
+      </c>
+      <c r="F34" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>311</v>
-      </c>
-      <c r="D35" t="s">
-        <v>332</v>
-      </c>
-      <c r="E35" t="s">
-        <v>312</v>
-      </c>
-      <c r="F35" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="B36" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>304</v>
+      </c>
+      <c r="D36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E36" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="D37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
+        <v>312</v>
+      </c>
+      <c r="F37" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="B38" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
-        <v>304</v>
-      </c>
-      <c r="D38" t="s">
-        <v>302</v>
-      </c>
-      <c r="E38" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B39" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C39" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="D39" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E39" t="s">
-        <v>312</v>
-      </c>
-      <c r="F39" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="B40" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>304</v>
+      </c>
+      <c r="D40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>311</v>
+      </c>
+      <c r="D41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" t="s">
+        <v>312</v>
+      </c>
+      <c r="F41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B42" t="s">
         <v>259</v>
@@ -7047,7 +7054,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B43" t="s">
         <v>259</v>
@@ -7058,7 +7065,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B44" t="s">
         <v>259</v>
@@ -7067,8 +7074,34 @@
         <v>260</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>560</v>
+      </c>
+      <c r="B45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>561</v>
+      </c>
+      <c r="B46" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE1"/>
+  <autoFilter ref="A1:AE1">
+    <sortState ref="A2:AE44">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7632,7 +7665,7 @@
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>109</v>
@@ -7747,7 +7780,7 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>109</v>
@@ -7876,7 +7909,7 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>109</v>
@@ -8005,7 +8038,7 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>109</v>
@@ -8126,7 +8159,7 @@
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>109</v>
@@ -8247,7 +8280,7 @@
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>109</v>
@@ -8368,7 +8401,7 @@
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>109</v>
@@ -8489,7 +8522,7 @@
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>109</v>
@@ -8610,7 +8643,7 @@
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>109</v>
@@ -8741,7 +8774,7 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>109</v>
@@ -8875,7 +8908,7 @@
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>109</v>
@@ -9010,7 +9043,7 @@
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>109</v>
@@ -9145,7 +9178,7 @@
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>109</v>
@@ -9327,7 +9360,7 @@
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>109</v>
@@ -9375,7 +9408,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>109</v>
@@ -9415,7 +9448,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>126</v>
@@ -9458,7 +9491,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>109</v>
@@ -9469,7 +9502,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>110</v>
@@ -9485,7 +9518,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>110</v>
@@ -9493,7 +9526,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>110</v>
@@ -9501,7 +9534,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>110</v>
@@ -9518,7 +9551,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>110</v>
@@ -9526,7 +9559,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>110</v>
@@ -9546,7 +9579,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>110</v>
@@ -9554,7 +9587,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>109</v>
@@ -9565,7 +9598,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>110</v>
@@ -9573,7 +9606,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>110</v>
@@ -9581,7 +9614,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>110</v>
@@ -9598,7 +9631,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>110</v>
@@ -9606,7 +9639,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>110</v>
@@ -9626,7 +9659,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>110</v>
@@ -9634,7 +9667,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>110</v>
@@ -9642,7 +9675,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>110</v>
@@ -9650,7 +9683,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>109</v>
@@ -9661,7 +9694,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>110</v>
@@ -9669,7 +9702,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>110</v>
@@ -9677,7 +9710,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>110</v>
@@ -9685,7 +9718,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>110</v>
@@ -9693,7 +9726,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>110</v>
@@ -9701,7 +9734,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>110</v>
@@ -9709,7 +9742,7 @@
     </row>
     <row r="65" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>110</v>
@@ -9717,7 +9750,7 @@
     </row>
     <row r="66" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>110</v>
@@ -9725,7 +9758,7 @@
     </row>
     <row r="67" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>110</v>
@@ -9733,7 +9766,7 @@
     </row>
     <row r="68" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>110</v>
@@ -9741,7 +9774,7 @@
     </row>
     <row r="69" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>110</v>
@@ -9749,7 +9782,7 @@
     </row>
     <row r="70" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>110</v>
@@ -9757,7 +9790,7 @@
     </row>
     <row r="71" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>110</v>
@@ -9852,7 +9885,7 @@
     </row>
     <row r="72" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>110</v>
@@ -9860,7 +9893,7 @@
     </row>
     <row r="73" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>110</v>
@@ -9868,7 +9901,7 @@
     </row>
     <row r="74" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B74" t="s">
         <v>109</v>
@@ -9969,7 +10002,7 @@
     </row>
     <row r="75" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>111</v>
@@ -9977,7 +10010,7 @@
     </row>
     <row r="76" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>110</v>
@@ -9985,7 +10018,7 @@
     </row>
     <row r="77" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>110</v>
@@ -9993,7 +10026,7 @@
     </row>
     <row r="78" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>109</v>
@@ -10001,7 +10034,7 @@
     </row>
     <row r="79" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>110</v>
@@ -10009,7 +10042,7 @@
     </row>
     <row r="80" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>110</v>
@@ -10017,7 +10050,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>109</v>
@@ -10031,7 +10064,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>110</v>
@@ -10039,7 +10072,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>110</v>
@@ -10047,7 +10080,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>110</v>
@@ -10055,7 +10088,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>110</v>
@@ -10063,7 +10096,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>110</v>
@@ -10080,7 +10113,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>110</v>
@@ -10088,7 +10121,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>110</v>
@@ -10108,7 +10141,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>110</v>
@@ -10116,7 +10149,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>109</v>
@@ -10124,7 +10157,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>110</v>
@@ -10140,7 +10173,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>109</v>
@@ -10151,7 +10184,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>109</v>
@@ -10162,7 +10195,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>110</v>
@@ -10170,7 +10203,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>109</v>
@@ -10189,7 +10222,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>110</v>
@@ -10197,7 +10230,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>110</v>
@@ -10205,7 +10238,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>110</v>
@@ -10213,7 +10246,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>109</v>
@@ -10224,7 +10257,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>109</v>
@@ -10436,13 +10469,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -10472,7 +10505,7 @@
         <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S2" t="s">
         <v>115</v>
@@ -10495,7 +10528,7 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F3" t="s">
         <v>115</v>
@@ -10515,7 +10548,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -10530,7 +10563,7 @@
         <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K4" t="s">
         <v>115</v>
@@ -10553,7 +10586,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -10576,7 +10609,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -10591,7 +10624,7 @@
         <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J6" t="s">
         <v>115</v>
@@ -10617,7 +10650,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G7" t="s">
         <v>305</v>
@@ -10643,7 +10676,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -10652,10 +10685,10 @@
         <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -10675,7 +10708,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F9" t="s">
         <v>305</v>
@@ -10701,13 +10734,13 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J10" t="s">
         <v>81</v>
@@ -10716,7 +10749,7 @@
         <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
@@ -10750,7 +10783,7 @@
     </row>
     <row r="12" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -10762,7 +10795,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -10771,13 +10804,13 @@
         <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
@@ -10809,7 +10842,7 @@
     </row>
     <row r="13" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -10830,7 +10863,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -10839,22 +10872,22 @@
         <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O13" t="s">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q13" t="s">
         <v>11</v>
@@ -10889,7 +10922,7 @@
     </row>
     <row r="14" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -10907,7 +10940,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -10916,13 +10949,13 @@
         <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M14" t="s">
         <v>11</v>
@@ -10957,7 +10990,7 @@
     </row>
     <row r="15" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -10975,7 +11008,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -10984,19 +11017,19 @@
         <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M15" t="s">
         <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O15" t="s">
         <v>12</v>
@@ -11037,7 +11070,7 @@
     </row>
     <row r="16" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -11055,7 +11088,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -11064,22 +11097,22 @@
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N16" t="s">
         <v>11</v>
       </c>
       <c r="O16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P16" t="s">
         <v>12</v>
@@ -11120,7 +11153,7 @@
     </row>
     <row r="17" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -11138,7 +11171,7 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -11147,13 +11180,13 @@
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M17" t="s">
         <v>11</v>
@@ -11188,7 +11221,7 @@
     </row>
     <row r="18" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -11206,7 +11239,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -11215,13 +11248,13 @@
         <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
@@ -11256,7 +11289,7 @@
     </row>
     <row r="19" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -11274,7 +11307,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -11283,13 +11316,13 @@
         <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M19" t="s">
         <v>11</v>
@@ -11324,7 +11357,7 @@
     </row>
     <row r="20" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -11342,7 +11375,7 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -11351,13 +11384,13 @@
         <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M20" t="s">
         <v>11</v>
@@ -11392,7 +11425,7 @@
     </row>
     <row r="21" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -11410,7 +11443,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -11419,13 +11452,13 @@
         <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M21" t="s">
         <v>11</v>
@@ -11440,7 +11473,7 @@
         <v>114</v>
       </c>
       <c r="Q21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R21" t="s">
         <v>12</v>
@@ -11481,7 +11514,7 @@
     </row>
     <row r="22" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -11499,7 +11532,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -11508,13 +11541,13 @@
         <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M22" t="s">
         <v>11</v>
@@ -11529,7 +11562,7 @@
         <v>114</v>
       </c>
       <c r="Q22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R22" t="s">
         <v>12</v>
@@ -11570,7 +11603,7 @@
     </row>
     <row r="23" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -11588,10 +11621,10 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
@@ -11600,22 +11633,22 @@
         <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O23" t="s">
         <v>12</v>
       </c>
       <c r="P23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q23" t="s">
         <v>11</v>
@@ -11650,7 +11683,7 @@
     </row>
     <row r="24" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -11668,16 +11701,16 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -11721,10 +11754,10 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H25" t="s">
         <v>80</v>
@@ -11733,13 +11766,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K25" t="s">
         <v>91</v>
       </c>
       <c r="L25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M25" t="s">
         <v>115</v>
@@ -11761,7 +11794,7 @@
         <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="28" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
@@ -11774,7 +11807,7 @@
     </row>
     <row r="29" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -11814,7 +11847,7 @@
     </row>
     <row r="31" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -11873,7 +11906,7 @@
     </row>
     <row r="35" spans="1:6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B35" t="s">
         <v>130</v>
@@ -11889,7 +11922,7 @@
     </row>
     <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B37" t="s">
         <v>305</v>
@@ -11897,7 +11930,7 @@
     </row>
     <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B38" t="s">
         <v>305</v>
@@ -11905,7 +11938,7 @@
     </row>
     <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -11922,7 +11955,7 @@
     </row>
     <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B40" t="s">
         <v>300</v>
@@ -11930,7 +11963,7 @@
     </row>
     <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -11950,7 +11983,7 @@
     </row>
     <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B42" t="s">
         <v>300</v>
@@ -11958,7 +11991,7 @@
     </row>
     <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B43" t="s">
         <v>305</v>
@@ -11966,7 +11999,7 @@
     </row>
     <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B44" t="s">
         <v>305</v>
@@ -11974,7 +12007,7 @@
     </row>
     <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -11991,7 +12024,7 @@
     </row>
     <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B46" t="s">
         <v>300</v>
@@ -11999,7 +12032,7 @@
     </row>
     <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -12019,7 +12052,7 @@
     </row>
     <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B48" t="s">
         <v>300</v>
@@ -12027,23 +12060,23 @@
     </row>
     <row r="49" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B49" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B50" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="51" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B51" t="s">
         <v>300</v>
@@ -12051,7 +12084,7 @@
     </row>
     <row r="52" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B52" t="s">
         <v>300</v>
@@ -12059,7 +12092,7 @@
     </row>
     <row r="53" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s">
         <v>300</v>
@@ -12067,7 +12100,7 @@
     </row>
     <row r="54" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B54" t="s">
         <v>300</v>
@@ -12075,7 +12108,7 @@
     </row>
     <row r="55" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B55" t="s">
         <v>300</v>
@@ -12083,7 +12116,7 @@
     </row>
     <row r="56" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s">
         <v>300</v>
@@ -12091,7 +12124,7 @@
     </row>
     <row r="57" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B57" t="s">
         <v>300</v>
@@ -12099,7 +12132,7 @@
     </row>
     <row r="58" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B58" t="s">
         <v>300</v>
@@ -12107,7 +12140,7 @@
     </row>
     <row r="59" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s">
         <v>300</v>
@@ -12115,7 +12148,7 @@
     </row>
     <row r="60" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s">
         <v>300</v>
@@ -12123,7 +12156,7 @@
     </row>
     <row r="61" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B61" t="s">
         <v>300</v>
@@ -12131,7 +12164,7 @@
     </row>
     <row r="62" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B62" t="s">
         <v>300</v>
@@ -12139,7 +12172,7 @@
     </row>
     <row r="63" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s">
         <v>300</v>
@@ -12147,7 +12180,7 @@
     </row>
     <row r="64" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s">
         <v>300</v>
@@ -12155,7 +12188,7 @@
     </row>
     <row r="65" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B65" t="s">
         <v>305</v>
@@ -12163,7 +12196,7 @@
     </row>
     <row r="66" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -12180,7 +12213,7 @@
     </row>
     <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B67" t="s">
         <v>305</v>
@@ -12188,7 +12221,7 @@
     </row>
     <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B68" t="s">
         <v>300</v>
@@ -12196,7 +12229,7 @@
     </row>
     <row r="69" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B69" t="s">
         <v>300</v>
@@ -12204,7 +12237,7 @@
     </row>
     <row r="70" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -12212,7 +12245,7 @@
     </row>
     <row r="71" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -12220,15 +12253,15 @@
     </row>
     <row r="72" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B72" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B73" t="s">
         <v>305</v>
@@ -12236,7 +12269,7 @@
     </row>
     <row r="74" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B74" t="s">
         <v>305</v>
@@ -12244,7 +12277,7 @@
     </row>
     <row r="75" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -12261,7 +12294,7 @@
     </row>
     <row r="76" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B76" t="s">
         <v>300</v>
@@ -12269,7 +12302,7 @@
     </row>
     <row r="77" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -12289,7 +12322,7 @@
     </row>
     <row r="78" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B78" t="s">
         <v>300</v>
@@ -12297,7 +12330,7 @@
     </row>
     <row r="79" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
@@ -12313,23 +12346,23 @@
     </row>
     <row r="81" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B81" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="82" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B82" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="83" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B83" t="s">
         <v>305</v>
@@ -12337,7 +12370,7 @@
     </row>
     <row r="84" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B84" t="s">
         <v>300</v>
@@ -12351,40 +12384,40 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N85" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -12405,8 +12438,8 @@
   </sheetPr>
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12509,10 +12542,10 @@
         <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D2" t="s">
         <v>192</v>
@@ -12524,7 +12557,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H2" t="s">
         <v>196</v>
@@ -12557,13 +12590,13 @@
         <v>209</v>
       </c>
       <c r="R2" t="s">
+        <v>637</v>
+      </c>
+      <c r="S2" t="s">
         <v>638</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>639</v>
-      </c>
-      <c r="T2" t="s">
-        <v>640</v>
       </c>
       <c r="U2" t="s">
         <v>210</v>
@@ -12574,10 +12607,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D3" t="s">
         <v>196</v>
@@ -12586,7 +12619,7 @@
         <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G3" t="s">
         <v>200</v>
@@ -12597,10 +12630,10 @@
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D4" t="s">
         <v>211</v>
@@ -12609,7 +12642,7 @@
         <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G4" t="s">
         <v>216</v>
@@ -12621,13 +12654,13 @@
         <v>214</v>
       </c>
       <c r="J4" t="s">
+        <v>637</v>
+      </c>
+      <c r="K4" t="s">
         <v>638</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>639</v>
-      </c>
-      <c r="L4" t="s">
-        <v>640</v>
       </c>
       <c r="M4" t="s">
         <v>210</v>
@@ -12638,10 +12671,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D5" t="s">
         <v>192</v>
@@ -12650,13 +12683,13 @@
         <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G5" t="s">
         <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I5" t="s">
         <v>210</v>
@@ -12667,16 +12700,16 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D6" t="s">
         <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F6" t="s">
         <v>190</v>
@@ -12688,13 +12721,13 @@
         <v>213</v>
       </c>
       <c r="I6" t="s">
+        <v>637</v>
+      </c>
+      <c r="J6" t="s">
         <v>638</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>639</v>
-      </c>
-      <c r="K6" t="s">
-        <v>640</v>
       </c>
       <c r="L6" t="s">
         <v>210</v>
@@ -12705,10 +12738,10 @@
         <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D7" t="s">
         <v>192</v>
@@ -12717,13 +12750,13 @@
         <v>191</v>
       </c>
       <c r="F7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H7" t="s">
         <v>653</v>
-      </c>
-      <c r="G7" t="s">
-        <v>604</v>
-      </c>
-      <c r="H7" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -12731,13 +12764,13 @@
         <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C8" t="s">
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
@@ -12745,7 +12778,7 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
@@ -12786,10 +12819,10 @@
         <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D10" t="s">
         <v>211</v>
@@ -12798,10 +12831,10 @@
         <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
@@ -12809,13 +12842,13 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E11" t="s">
         <v>192</v>
@@ -12827,7 +12860,7 @@
         <v>193</v>
       </c>
       <c r="H11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I11" t="s">
         <v>190</v>
@@ -12839,19 +12872,19 @@
         <v>195</v>
       </c>
       <c r="L11" t="s">
+        <v>637</v>
+      </c>
+      <c r="M11" t="s">
         <v>638</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>656</v>
+      </c>
+      <c r="O11" t="s">
+        <v>657</v>
+      </c>
+      <c r="P11" t="s">
         <v>639</v>
-      </c>
-      <c r="N11" t="s">
-        <v>657</v>
-      </c>
-      <c r="O11" t="s">
-        <v>658</v>
-      </c>
-      <c r="P11" t="s">
-        <v>640</v>
       </c>
       <c r="Q11" t="s">
         <v>198</v>
@@ -12865,27 +12898,27 @@
         <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D12" t="s">
         <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D13" t="s">
         <v>217</v>
@@ -12903,13 +12936,13 @@
         <v>222</v>
       </c>
       <c r="I13" t="s">
+        <v>678</v>
+      </c>
+      <c r="J13" t="s">
         <v>679</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>680</v>
-      </c>
-      <c r="K13" t="s">
-        <v>681</v>
       </c>
       <c r="L13" t="s">
         <v>225</v>
@@ -12927,27 +12960,27 @@
         <v>229</v>
       </c>
       <c r="Q13" t="s">
+        <v>688</v>
+      </c>
+      <c r="R13" t="s">
         <v>689</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>690</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>691</v>
-      </c>
-      <c r="T13" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D14" t="s">
         <v>217</v>
@@ -12974,22 +13007,22 @@
         <v>222</v>
       </c>
       <c r="L14" t="s">
+        <v>678</v>
+      </c>
+      <c r="M14" t="s">
         <v>679</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>680</v>
-      </c>
-      <c r="N14" t="s">
-        <v>681</v>
       </c>
       <c r="O14" t="s">
         <v>224</v>
       </c>
       <c r="P14" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q14" t="s">
         <v>687</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>688</v>
       </c>
       <c r="R14" t="s">
         <v>225</v>
@@ -13010,27 +13043,27 @@
         <v>229</v>
       </c>
       <c r="X14" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y14" t="s">
         <v>689</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>690</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>691</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D15" t="s">
         <v>217</v>
@@ -13057,22 +13090,22 @@
         <v>222</v>
       </c>
       <c r="L15" t="s">
+        <v>678</v>
+      </c>
+      <c r="M15" t="s">
         <v>679</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>680</v>
-      </c>
-      <c r="N15" t="s">
-        <v>681</v>
       </c>
       <c r="O15" t="s">
         <v>224</v>
       </c>
       <c r="P15" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q15" t="s">
         <v>687</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>688</v>
       </c>
       <c r="R15" t="s">
         <v>225</v>
@@ -13093,27 +13126,27 @@
         <v>229</v>
       </c>
       <c r="X15" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y15" t="s">
         <v>689</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>690</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>691</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B16" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D16" t="s">
         <v>217</v>
@@ -13137,16 +13170,16 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
+        <v>678</v>
+      </c>
+      <c r="L16" t="s">
         <v>679</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>680</v>
       </c>
-      <c r="M16" t="s">
-        <v>681</v>
-      </c>
       <c r="N16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O16" t="s">
         <v>225</v>
@@ -13164,27 +13197,27 @@
         <v>229</v>
       </c>
       <c r="T16" t="s">
+        <v>688</v>
+      </c>
+      <c r="U16" t="s">
         <v>689</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>690</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>691</v>
-      </c>
-      <c r="W16" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D17" t="s">
         <v>217</v>
@@ -13208,16 +13241,16 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
+        <v>678</v>
+      </c>
+      <c r="L17" t="s">
         <v>679</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>680</v>
       </c>
-      <c r="M17" t="s">
-        <v>681</v>
-      </c>
       <c r="N17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O17" t="s">
         <v>225</v>
@@ -13235,27 +13268,27 @@
         <v>229</v>
       </c>
       <c r="T17" t="s">
+        <v>688</v>
+      </c>
+      <c r="U17" t="s">
         <v>689</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>690</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>691</v>
-      </c>
-      <c r="W17" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D18" t="s">
         <v>217</v>
@@ -13279,16 +13312,16 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
+        <v>678</v>
+      </c>
+      <c r="L18" t="s">
         <v>679</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>680</v>
       </c>
-      <c r="M18" t="s">
-        <v>681</v>
-      </c>
       <c r="N18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O18" t="s">
         <v>225</v>
@@ -13306,27 +13339,27 @@
         <v>229</v>
       </c>
       <c r="T18" t="s">
+        <v>688</v>
+      </c>
+      <c r="U18" t="s">
         <v>689</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>690</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>691</v>
-      </c>
-      <c r="W18" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D19" t="s">
         <v>217</v>
@@ -13350,16 +13383,16 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
+        <v>678</v>
+      </c>
+      <c r="L19" t="s">
         <v>679</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>680</v>
       </c>
-      <c r="M19" t="s">
-        <v>681</v>
-      </c>
       <c r="N19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O19" t="s">
         <v>225</v>
@@ -13377,27 +13410,27 @@
         <v>229</v>
       </c>
       <c r="T19" t="s">
+        <v>688</v>
+      </c>
+      <c r="U19" t="s">
         <v>689</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>690</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>691</v>
-      </c>
-      <c r="W19" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>734</v>
+      </c>
+      <c r="B20" t="s">
         <v>735</v>
       </c>
-      <c r="B20" t="s">
-        <v>736</v>
-      </c>
       <c r="C20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D20" t="s">
         <v>217</v>
@@ -13421,16 +13454,16 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
+        <v>678</v>
+      </c>
+      <c r="L20" t="s">
         <v>679</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>680</v>
       </c>
-      <c r="M20" t="s">
-        <v>681</v>
-      </c>
       <c r="N20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O20" t="s">
         <v>225</v>
@@ -13448,27 +13481,27 @@
         <v>229</v>
       </c>
       <c r="T20" t="s">
+        <v>688</v>
+      </c>
+      <c r="U20" t="s">
         <v>689</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>690</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>691</v>
-      </c>
-      <c r="W20" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" t="s">
         <v>739</v>
       </c>
-      <c r="B21" t="s">
-        <v>740</v>
-      </c>
       <c r="C21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D21" t="s">
         <v>217</v>
@@ -13492,28 +13525,28 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
+        <v>678</v>
+      </c>
+      <c r="L21" t="s">
         <v>679</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>680</v>
-      </c>
-      <c r="M21" t="s">
-        <v>681</v>
       </c>
       <c r="N21" t="s">
         <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P21" t="s">
         <v>236</v>
       </c>
       <c r="Q21" t="s">
+        <v>683</v>
+      </c>
+      <c r="R21" t="s">
         <v>684</v>
-      </c>
-      <c r="R21" t="s">
-        <v>685</v>
       </c>
       <c r="S21" t="s">
         <v>225</v>
@@ -13531,27 +13564,27 @@
         <v>229</v>
       </c>
       <c r="X21" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y21" t="s">
         <v>689</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>690</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>691</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D22" t="s">
         <v>217</v>
@@ -13575,13 +13608,13 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
+        <v>678</v>
+      </c>
+      <c r="L22" t="s">
         <v>679</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>680</v>
-      </c>
-      <c r="M22" t="s">
-        <v>681</v>
       </c>
       <c r="N22" t="s">
         <v>224</v>
@@ -13590,16 +13623,16 @@
         <v>235</v>
       </c>
       <c r="P22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q22" t="s">
         <v>236</v>
       </c>
       <c r="R22" t="s">
+        <v>683</v>
+      </c>
+      <c r="S22" t="s">
         <v>684</v>
-      </c>
-      <c r="S22" t="s">
-        <v>685</v>
       </c>
       <c r="T22" t="s">
         <v>225</v>
@@ -13617,27 +13650,27 @@
         <v>229</v>
       </c>
       <c r="Y22" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z22" t="s">
         <v>689</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>690</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>691</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D23" t="s">
         <v>217</v>
@@ -13661,16 +13694,16 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
+        <v>678</v>
+      </c>
+      <c r="L23" t="s">
         <v>679</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>680</v>
       </c>
-      <c r="M23" t="s">
-        <v>681</v>
-      </c>
       <c r="N23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O23" t="s">
         <v>225</v>
@@ -13682,7 +13715,7 @@
         <v>238</v>
       </c>
       <c r="R23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S23" t="s">
         <v>231</v>
@@ -13709,27 +13742,27 @@
         <v>229</v>
       </c>
       <c r="AA23" t="s">
+        <v>688</v>
+      </c>
+      <c r="AB23" t="s">
         <v>689</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>690</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>691</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B24" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D24" t="s">
         <v>217</v>
@@ -13753,16 +13786,16 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
+        <v>678</v>
+      </c>
+      <c r="L24" t="s">
         <v>679</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>680</v>
       </c>
-      <c r="M24" t="s">
-        <v>681</v>
-      </c>
       <c r="N24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O24" t="s">
         <v>225</v>
@@ -13774,7 +13807,7 @@
         <v>238</v>
       </c>
       <c r="R24" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S24" t="s">
         <v>231</v>
@@ -13801,27 +13834,27 @@
         <v>229</v>
       </c>
       <c r="AA24" t="s">
+        <v>688</v>
+      </c>
+      <c r="AB24" t="s">
         <v>689</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>690</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>691</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B25" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D25" t="s">
         <v>217</v>
@@ -13860,16 +13893,16 @@
         <v>229</v>
       </c>
       <c r="P25" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q25" t="s">
         <v>689</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>690</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>691</v>
-      </c>
-      <c r="S25" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
@@ -13877,10 +13910,10 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D26" t="s">
         <v>192</v>
@@ -13892,10 +13925,10 @@
         <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I26" t="s">
         <v>212</v>
@@ -13904,16 +13937,16 @@
         <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L26" t="s">
+        <v>637</v>
+      </c>
+      <c r="M26" t="s">
         <v>638</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>640</v>
       </c>
       <c r="O26" t="s">
         <v>210</v>
@@ -13924,10 +13957,10 @@
         <v>158</v>
       </c>
       <c r="B27" t="s">
+        <v>594</v>
+      </c>
+      <c r="C27" t="s">
         <v>595</v>
-      </c>
-      <c r="C27" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
@@ -13935,7 +13968,7 @@
         <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C28" t="s">
         <v>224</v>
@@ -13946,21 +13979,21 @@
         <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C29" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D30" t="s">
         <v>191</v>
@@ -13972,19 +14005,19 @@
         <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H30" t="s">
+        <v>607</v>
+      </c>
+      <c r="I30" t="s">
         <v>608</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>610</v>
+      </c>
+      <c r="K30" t="s">
         <v>609</v>
-      </c>
-      <c r="J30" t="s">
-        <v>611</v>
-      </c>
-      <c r="K30" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
@@ -13992,10 +14025,10 @@
         <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C31" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
@@ -14003,21 +14036,21 @@
         <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B33" t="s">
+        <v>601</v>
+      </c>
+      <c r="C33" t="s">
         <v>602</v>
-      </c>
-      <c r="C33" t="s">
-        <v>603</v>
       </c>
       <c r="D33" t="s">
         <v>191</v>
@@ -14029,19 +14062,19 @@
         <v>193</v>
       </c>
       <c r="G33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H33" t="s">
+        <v>607</v>
+      </c>
+      <c r="I33" t="s">
         <v>608</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>610</v>
+      </c>
+      <c r="K33" t="s">
         <v>609</v>
-      </c>
-      <c r="J33" t="s">
-        <v>611</v>
-      </c>
-      <c r="K33" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -14049,21 +14082,21 @@
         <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C35" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -14071,7 +14104,7 @@
         <v>166</v>
       </c>
       <c r="B36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C36" t="s">
         <v>253</v>
@@ -14088,7 +14121,7 @@
         <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C37" t="s">
         <v>253</v>
@@ -14108,7 +14141,7 @@
         <v>167</v>
       </c>
       <c r="B38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C38" t="s">
         <v>253</v>
@@ -14125,46 +14158,46 @@
         <v>127</v>
       </c>
       <c r="B39" t="s">
+        <v>787</v>
+      </c>
+      <c r="C39" t="s">
         <v>788</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>789</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>790</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>791</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>792</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>793</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>794</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>795</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>796</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>797</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>798</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>799</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>800</v>
-      </c>
-      <c r="O39" t="s">
-        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -14230,19 +14263,19 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2" t="s">
         <v>783</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>784</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>785</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>786</v>
-      </c>
-      <c r="F2" t="s">
-        <v>787</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -14253,7 +14286,7 @@
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B3" t="s">
         <v>349</v>
@@ -14301,7 +14334,7 @@
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B5" t="s">
         <v>346</v>
@@ -14351,7 +14384,7 @@
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
         <v>279</v>
@@ -14383,7 +14416,7 @@
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s">
         <v>276</v>
@@ -14405,7 +14438,7 @@
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B9" t="s">
         <v>277</v>
@@ -14427,203 +14460,203 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
+        <v>779</v>
+      </c>
+      <c r="C10" t="s">
         <v>780</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>781</v>
-      </c>
-      <c r="D10" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
+        <v>779</v>
+      </c>
+      <c r="C11" t="s">
         <v>780</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>781</v>
-      </c>
-      <c r="D11" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" t="s">
         <v>780</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>781</v>
-      </c>
-      <c r="D12" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B13" t="s">
+        <v>779</v>
+      </c>
+      <c r="C13" t="s">
         <v>780</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>781</v>
-      </c>
-      <c r="D13" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s">
+        <v>779</v>
+      </c>
+      <c r="C14" t="s">
         <v>780</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>781</v>
-      </c>
-      <c r="D14" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" t="s">
         <v>780</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>781</v>
-      </c>
-      <c r="D15" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s">
+        <v>779</v>
+      </c>
+      <c r="C16" t="s">
         <v>780</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>781</v>
-      </c>
-      <c r="D16" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B17" t="s">
+        <v>779</v>
+      </c>
+      <c r="C17" t="s">
         <v>780</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>781</v>
-      </c>
-      <c r="D17" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s">
+        <v>779</v>
+      </c>
+      <c r="C18" t="s">
         <v>780</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>781</v>
-      </c>
-      <c r="D18" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B19" t="s">
+        <v>779</v>
+      </c>
+      <c r="C19" t="s">
         <v>780</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>781</v>
-      </c>
-      <c r="D19" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B20" t="s">
+        <v>779</v>
+      </c>
+      <c r="C20" t="s">
         <v>780</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>781</v>
-      </c>
-      <c r="D20" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B21" t="s">
+        <v>779</v>
+      </c>
+      <c r="C21" t="s">
         <v>780</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>781</v>
-      </c>
-      <c r="D21" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B22" t="s">
+        <v>779</v>
+      </c>
+      <c r="C22" t="s">
         <v>780</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>781</v>
-      </c>
-      <c r="D22" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B23" t="s">
+        <v>779</v>
+      </c>
+      <c r="C23" t="s">
         <v>780</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>781</v>
-      </c>
-      <c r="D23" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B24" t="s">
         <v>294</v>
@@ -14634,7 +14667,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B25" t="s">
         <v>261</v>
@@ -14654,7 +14687,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B26" t="s">
         <v>274</v>
@@ -14665,7 +14698,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B27" t="s">
         <v>284</v>
@@ -14676,7 +14709,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B28" t="s">
         <v>263</v>
@@ -14714,7 +14747,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B29" t="s">
         <v>277</v>

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474" activeTab="1"/>
+    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="810">
   <si>
     <t>Identifier</t>
   </si>
@@ -1129,9 +1129,6 @@
     <t>Ports database.</t>
   </si>
   <si>
-    <t>Port locations in local UTM coordinates.</t>
-  </si>
-  <si>
     <t>Installation Equipment: ROV Data</t>
   </si>
   <si>
@@ -2453,19 +2450,38 @@
   </si>
   <si>
     <t>Velocity</t>
+  </si>
+  <si>
+    <t>Port locations in geographical coordinates.</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>degrees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2631,131 +2647,134 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="8" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="9" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="7" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3145,9 +3164,9 @@
   </sheetPr>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A37" sqref="A37"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3155,7 +3174,7 @@
     <col min="1" max="1" width="57.36328125" style="13" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.08984375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="91.08984375" style="47" customWidth="1"/>
     <col min="5" max="5" width="13.90625" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" style="13" customWidth="1"/>
@@ -3178,10 +3197,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>533</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>534</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>136</v>
@@ -3198,7 +3217,7 @@
         <v>250</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>356</v>
@@ -3216,7 +3235,7 @@
         <v>250</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>355</v>
@@ -3234,7 +3253,7 @@
         <v>250</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>362</v>
@@ -3255,7 +3274,7 @@
         <v>181</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -3270,7 +3289,7 @@
         <v>250</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>357</v>
@@ -3288,7 +3307,7 @@
         <v>250</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>361</v>
@@ -3306,7 +3325,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>358</v>
@@ -3317,7 +3336,7 @@
       <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="50" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -3326,8 +3345,8 @@
       <c r="C9" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>365</v>
+      <c r="D9" s="51" t="s">
+        <v>806</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -3342,7 +3361,7 @@
         <v>250</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>364</v>
@@ -3360,7 +3379,7 @@
         <v>250</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>359</v>
@@ -3378,7 +3397,7 @@
         <v>250</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>354</v>
@@ -3396,7 +3415,7 @@
         <v>250</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>360</v>
@@ -3408,16 +3427,16 @@
     </row>
     <row r="14" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>693</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>706</v>
+        <v>692</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>705</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -3426,16 +3445,16 @@
     </row>
     <row r="15" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C15" s="40" t="s">
+        <v>708</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>709</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>710</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -3444,16 +3463,16 @@
     </row>
     <row r="16" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C16" s="40" t="s">
+        <v>715</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>716</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>717</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -3462,16 +3481,16 @@
     </row>
     <row r="17" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>735</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>736</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>737</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -3480,16 +3499,16 @@
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>740</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>741</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>742</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -3498,16 +3517,16 @@
     </row>
     <row r="19" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>720</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>721</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>722</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -3516,16 +3535,16 @@
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="40" t="s">
+        <v>724</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>725</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>726</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -3534,16 +3553,16 @@
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>730</v>
-      </c>
-      <c r="D21" s="44" t="s">
         <v>729</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>728</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -3552,16 +3571,16 @@
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="40" t="s">
+        <v>731</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>732</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>733</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -3570,16 +3589,16 @@
     </row>
     <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="40" t="s">
+        <v>744</v>
+      </c>
+      <c r="D23" s="43" t="s">
         <v>745</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>746</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -3588,16 +3607,16 @@
     </row>
     <row r="24" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>749</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>750</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -3606,16 +3625,16 @@
     </row>
     <row r="25" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>713</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>718</v>
+        <v>712</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>717</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -3624,16 +3643,16 @@
     </row>
     <row r="26" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>752</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>753</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>754</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -3648,7 +3667,7 @@
         <v>250</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>363</v>
@@ -3663,16 +3682,16 @@
         <v>158</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3680,16 +3699,16 @@
         <v>163</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3697,35 +3716,35 @@
         <v>161</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>170</v>
       </c>
       <c r="C31" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D31" s="41" t="s">
         <v>427</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>428</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H31" s="23"/>
     </row>
@@ -3734,16 +3753,16 @@
         <v>162</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3751,35 +3770,35 @@
         <v>159</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>170</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H34" s="23"/>
     </row>
@@ -3788,35 +3807,35 @@
         <v>160</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="C36" s="32" t="s">
+      <c r="D36" s="42" t="s">
         <v>618</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>619</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H36" s="32"/>
     </row>
@@ -3828,10 +3847,10 @@
         <v>292</v>
       </c>
       <c r="C37" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" s="42" t="s">
         <v>394</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>395</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
@@ -3848,10 +3867,10 @@
         <v>251</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>805</v>
+        <v>391</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>804</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
@@ -3868,10 +3887,10 @@
         <v>292</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
@@ -3890,19 +3909,19 @@
       <c r="C40" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="D40" s="45" t="s">
-        <v>426</v>
+      <c r="D40" s="44" t="s">
+        <v>425</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>173</v>
@@ -3910,8 +3929,8 @@
       <c r="C41" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>402</v>
+      <c r="D41" s="45" t="s">
+        <v>401</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
@@ -3926,10 +3945,10 @@
         <v>164</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>390</v>
+        <v>387</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>389</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
@@ -3938,16 +3957,16 @@
     </row>
     <row r="43" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D43" s="45" t="s">
         <v>411</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>412</v>
       </c>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
@@ -3962,10 +3981,10 @@
         <v>128</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>430</v>
+        <v>420</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>429</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
@@ -3974,7 +3993,7 @@
     </row>
     <row r="45" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>180</v>
@@ -3982,8 +4001,8 @@
       <c r="C45" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="D45" s="47" t="s">
-        <v>440</v>
+      <c r="D45" s="46" t="s">
+        <v>439</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -3994,7 +4013,7 @@
     </row>
     <row r="46" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>180</v>
@@ -4002,8 +4021,8 @@
       <c r="C46" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="D46" s="47" t="s">
-        <v>435</v>
+      <c r="D46" s="46" t="s">
+        <v>434</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -4014,7 +4033,7 @@
     </row>
     <row r="47" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>173</v>
@@ -4022,8 +4041,8 @@
       <c r="C47" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="D47" s="47" t="s">
-        <v>431</v>
+      <c r="D47" s="46" t="s">
+        <v>430</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -4034,7 +4053,7 @@
     </row>
     <row r="48" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>180</v>
@@ -4042,8 +4061,8 @@
       <c r="C48" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="D48" s="47" t="s">
-        <v>443</v>
+      <c r="D48" s="46" t="s">
+        <v>442</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -4054,7 +4073,7 @@
     </row>
     <row r="49" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>173</v>
@@ -4062,8 +4081,8 @@
       <c r="C49" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="D49" s="47" t="s">
-        <v>445</v>
+      <c r="D49" s="46" t="s">
+        <v>444</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -4074,7 +4093,7 @@
     </row>
     <row r="50" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>180</v>
@@ -4082,8 +4101,8 @@
       <c r="C50" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="D50" s="47" t="s">
-        <v>448</v>
+      <c r="D50" s="46" t="s">
+        <v>447</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>334</v>
@@ -4091,7 +4110,7 @@
     </row>
     <row r="51" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>173</v>
@@ -4099,8 +4118,8 @@
       <c r="C51" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="46" t="s">
-        <v>399</v>
+      <c r="D51" s="45" t="s">
+        <v>398</v>
       </c>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
@@ -4109,7 +4128,7 @@
     </row>
     <row r="52" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>180</v>
@@ -4117,8 +4136,8 @@
       <c r="C52" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D52" s="47" t="s">
-        <v>439</v>
+      <c r="D52" s="46" t="s">
+        <v>438</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>334</v>
@@ -4126,7 +4145,7 @@
     </row>
     <row r="53" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>180</v>
@@ -4134,8 +4153,8 @@
       <c r="C53" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D53" s="47" t="s">
-        <v>437</v>
+      <c r="D53" s="46" t="s">
+        <v>436</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>334</v>
@@ -4143,7 +4162,7 @@
     </row>
     <row r="54" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>173</v>
@@ -4151,8 +4170,8 @@
       <c r="C54" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="D54" s="47" t="s">
-        <v>436</v>
+      <c r="D54" s="46" t="s">
+        <v>435</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>334</v>
@@ -4160,7 +4179,7 @@
     </row>
     <row r="55" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>180</v>
@@ -4168,8 +4187,8 @@
       <c r="C55" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="D55" s="47" t="s">
-        <v>442</v>
+      <c r="D55" s="46" t="s">
+        <v>441</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>334</v>
@@ -4177,7 +4196,7 @@
     </row>
     <row r="56" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>173</v>
@@ -4185,8 +4204,8 @@
       <c r="C56" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="D56" s="47" t="s">
-        <v>446</v>
+      <c r="D56" s="46" t="s">
+        <v>445</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>334</v>
@@ -4194,7 +4213,7 @@
     </row>
     <row r="57" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B57" s="26" t="s">
         <v>180</v>
@@ -4202,8 +4221,8 @@
       <c r="C57" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="D57" s="47" t="s">
-        <v>449</v>
+      <c r="D57" s="46" t="s">
+        <v>448</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>334</v>
@@ -4211,7 +4230,7 @@
     </row>
     <row r="58" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>128</v>
@@ -4219,8 +4238,8 @@
       <c r="C58" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="46" t="s">
-        <v>409</v>
+      <c r="D58" s="45" t="s">
+        <v>408</v>
       </c>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
@@ -4229,7 +4248,7 @@
     </row>
     <row r="59" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>128</v>
@@ -4237,8 +4256,8 @@
       <c r="C59" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="46" t="s">
-        <v>408</v>
+      <c r="D59" s="45" t="s">
+        <v>407</v>
       </c>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
@@ -4247,7 +4266,7 @@
     </row>
     <row r="60" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>173</v>
@@ -4255,8 +4274,8 @@
       <c r="C60" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="D60" s="46" t="s">
-        <v>400</v>
+      <c r="D60" s="45" t="s">
+        <v>399</v>
       </c>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
@@ -4265,30 +4284,30 @@
     </row>
     <row r="61" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="D61" s="47" t="s">
-        <v>492</v>
+        <v>505</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="D62" s="47" t="s">
-        <v>530</v>
+        <v>519</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>529</v>
       </c>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
@@ -4297,226 +4316,226 @@
     </row>
     <row r="63" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="D63" s="47" t="s">
-        <v>495</v>
+        <v>508</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>530</v>
+        <v>522</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="D65" s="47" t="s">
-        <v>489</v>
+        <v>502</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>530</v>
+        <v>516</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>497</v>
+        <v>510</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="D68" s="47" t="s">
-        <v>530</v>
+        <v>524</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="D69" s="47" t="s">
-        <v>500</v>
+        <v>513</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="D70" s="47" t="s">
-        <v>530</v>
+        <v>527</v>
+      </c>
+      <c r="D70" s="46" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>496</v>
+        <v>509</v>
+      </c>
+      <c r="D71" s="46" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="D72" s="47" t="s">
-        <v>530</v>
+        <v>523</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>490</v>
+        <v>503</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="D74" s="47" t="s">
-        <v>530</v>
+        <v>517</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="D75" s="47" t="s">
-        <v>491</v>
+        <v>504</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="D76" s="47" t="s">
-        <v>530</v>
+        <v>518</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="D77" s="47" t="s">
-        <v>498</v>
+        <v>511</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="D78" s="47" t="s">
-        <v>530</v>
+        <v>525</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>529</v>
       </c>
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
@@ -4525,44 +4544,44 @@
     </row>
     <row r="79" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D79" s="47" t="s">
-        <v>499</v>
+        <v>512</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="D80" s="47" t="s">
-        <v>530</v>
+        <v>526</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="D81" s="47" t="s">
-        <v>494</v>
+        <v>507</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>493</v>
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
@@ -4571,16 +4590,16 @@
     </row>
     <row r="82" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="D82" s="47" t="s">
-        <v>530</v>
+        <v>521</v>
+      </c>
+      <c r="D82" s="46" t="s">
+        <v>529</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
@@ -4589,16 +4608,16 @@
     </row>
     <row r="83" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="D83" s="47" t="s">
-        <v>501</v>
+        <v>514</v>
+      </c>
+      <c r="D83" s="46" t="s">
+        <v>500</v>
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
@@ -4607,16 +4626,16 @@
     </row>
     <row r="84" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B84" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C84" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="D84" s="46" t="s">
         <v>529</v>
-      </c>
-      <c r="D84" s="47" t="s">
-        <v>530</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
@@ -4625,30 +4644,30 @@
     </row>
     <row r="85" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="D85" s="47" t="s">
-        <v>488</v>
+        <v>501</v>
+      </c>
+      <c r="D85" s="46" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="D86" s="47" t="s">
-        <v>530</v>
+        <v>515</v>
+      </c>
+      <c r="D86" s="46" t="s">
+        <v>529</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
@@ -4657,30 +4676,30 @@
     </row>
     <row r="87" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="D87" s="47" t="s">
-        <v>493</v>
+        <v>506</v>
+      </c>
+      <c r="D87" s="46" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D88" s="47" t="s">
-        <v>530</v>
+        <v>520</v>
+      </c>
+      <c r="D88" s="46" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -4691,10 +4710,10 @@
         <v>164</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="D89" s="46" t="s">
+        <v>386</v>
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
@@ -4703,7 +4722,7 @@
     </row>
     <row r="90" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B90" s="26" t="s">
         <v>180</v>
@@ -4711,8 +4730,8 @@
       <c r="C90" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="D90" s="47" t="s">
-        <v>454</v>
+      <c r="D90" s="46" t="s">
+        <v>453</v>
       </c>
       <c r="H90" s="26" t="s">
         <v>334</v>
@@ -4720,7 +4739,7 @@
     </row>
     <row r="91" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>333</v>
@@ -4728,8 +4747,8 @@
       <c r="C91" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="D91" s="47" t="s">
-        <v>457</v>
+      <c r="D91" s="46" t="s">
+        <v>456</v>
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
@@ -4740,7 +4759,7 @@
     </row>
     <row r="92" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B92" s="26" t="s">
         <v>128</v>
@@ -4748,8 +4767,8 @@
       <c r="C92" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D92" s="47" t="s">
-        <v>424</v>
+      <c r="D92" s="46" t="s">
+        <v>423</v>
       </c>
       <c r="H92" s="26" t="s">
         <v>334</v>
@@ -4757,7 +4776,7 @@
     </row>
     <row r="93" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B93" s="26" t="s">
         <v>180</v>
@@ -4765,8 +4784,8 @@
       <c r="C93" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="D93" s="47" t="s">
-        <v>451</v>
+      <c r="D93" s="46" t="s">
+        <v>450</v>
       </c>
       <c r="H93" s="26" t="s">
         <v>334</v>
@@ -4774,7 +4793,7 @@
     </row>
     <row r="94" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B94" s="26" t="s">
         <v>180</v>
@@ -4782,8 +4801,8 @@
       <c r="C94" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="D94" s="47" t="s">
-        <v>453</v>
+      <c r="D94" s="46" t="s">
+        <v>452</v>
       </c>
       <c r="H94" s="26" t="s">
         <v>334</v>
@@ -4791,21 +4810,21 @@
     </row>
     <row r="95" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B95" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="B95" s="26" t="s">
-        <v>487</v>
-      </c>
       <c r="C95" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="D95" s="46" t="s">
         <v>531</v>
-      </c>
-      <c r="D95" s="47" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>180</v>
@@ -4813,8 +4832,8 @@
       <c r="C96" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="D96" s="47" t="s">
-        <v>455</v>
+      <c r="D96" s="46" t="s">
+        <v>454</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>334</v>
@@ -4822,7 +4841,7 @@
     </row>
     <row r="97" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B97" s="26" t="s">
         <v>128</v>
@@ -4830,8 +4849,8 @@
       <c r="C97" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="47" t="s">
-        <v>425</v>
+      <c r="D97" s="46" t="s">
+        <v>424</v>
       </c>
       <c r="H97" s="26" t="s">
         <v>334</v>
@@ -4839,7 +4858,7 @@
     </row>
     <row r="98" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>128</v>
@@ -4847,8 +4866,8 @@
       <c r="C98" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="D98" s="45" t="s">
-        <v>422</v>
+      <c r="D98" s="44" t="s">
+        <v>421</v>
       </c>
       <c r="E98" s="29"/>
       <c r="F98" s="29"/>
@@ -4857,16 +4876,16 @@
     </row>
     <row r="99" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>175</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="D99" s="46" t="s">
-        <v>380</v>
+        <v>377</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>379</v>
       </c>
       <c r="E99" s="30"/>
       <c r="F99" s="30"/>
@@ -4875,7 +4894,7 @@
     </row>
     <row r="100" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>128</v>
@@ -4883,8 +4902,8 @@
       <c r="C100" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D100" s="46" t="s">
-        <v>407</v>
+      <c r="D100" s="45" t="s">
+        <v>406</v>
       </c>
       <c r="E100" s="30"/>
       <c r="F100" s="30"/>
@@ -4893,7 +4912,7 @@
     </row>
     <row r="101" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B101" s="26" t="s">
         <v>180</v>
@@ -4901,8 +4920,8 @@
       <c r="C101" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D101" s="47" t="s">
-        <v>441</v>
+      <c r="D101" s="46" t="s">
+        <v>440</v>
       </c>
       <c r="H101" s="26" t="s">
         <v>334</v>
@@ -4910,7 +4929,7 @@
     </row>
     <row r="102" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B102" s="26" t="s">
         <v>180</v>
@@ -4918,8 +4937,8 @@
       <c r="C102" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D102" s="47" t="s">
-        <v>438</v>
+      <c r="D102" s="46" t="s">
+        <v>437</v>
       </c>
       <c r="H102" s="26" t="s">
         <v>334</v>
@@ -4927,7 +4946,7 @@
     </row>
     <row r="103" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B103" s="26" t="s">
         <v>173</v>
@@ -4935,8 +4954,8 @@
       <c r="C103" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D103" s="47" t="s">
-        <v>432</v>
+      <c r="D103" s="46" t="s">
+        <v>431</v>
       </c>
       <c r="H103" s="26" t="s">
         <v>334</v>
@@ -4944,7 +4963,7 @@
     </row>
     <row r="104" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B104" s="26" t="s">
         <v>180</v>
@@ -4952,8 +4971,8 @@
       <c r="C104" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="D104" s="47" t="s">
-        <v>444</v>
+      <c r="D104" s="46" t="s">
+        <v>443</v>
       </c>
       <c r="H104" s="26" t="s">
         <v>334</v>
@@ -4961,7 +4980,7 @@
     </row>
     <row r="105" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B105" s="26" t="s">
         <v>173</v>
@@ -4969,8 +4988,8 @@
       <c r="C105" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="D105" s="47" t="s">
-        <v>447</v>
+      <c r="D105" s="46" t="s">
+        <v>446</v>
       </c>
       <c r="H105" s="26" t="s">
         <v>334</v>
@@ -4978,7 +4997,7 @@
     </row>
     <row r="106" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B106" s="26" t="s">
         <v>180</v>
@@ -4986,8 +5005,8 @@
       <c r="C106" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="D106" s="47" t="s">
-        <v>450</v>
+      <c r="D106" s="46" t="s">
+        <v>449</v>
       </c>
       <c r="H106" s="26" t="s">
         <v>334</v>
@@ -4995,7 +5014,7 @@
     </row>
     <row r="107" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B107" s="26" t="s">
         <v>128</v>
@@ -5003,8 +5022,8 @@
       <c r="C107" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D107" s="47" t="s">
-        <v>423</v>
+      <c r="D107" s="46" t="s">
+        <v>422</v>
       </c>
       <c r="H107" s="26" t="s">
         <v>334</v>
@@ -5012,7 +5031,7 @@
     </row>
     <row r="108" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B108" s="26" t="s">
         <v>128</v>
@@ -5020,8 +5039,8 @@
       <c r="C108" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D108" s="47" t="s">
-        <v>391</v>
+      <c r="D108" s="46" t="s">
+        <v>390</v>
       </c>
       <c r="H108" s="26" t="s">
         <v>334</v>
@@ -5035,10 +5054,10 @@
         <v>128</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="D109" s="46" t="s">
-        <v>410</v>
+        <v>412</v>
+      </c>
+      <c r="D109" s="45" t="s">
+        <v>409</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="30"/>
@@ -5047,7 +5066,7 @@
     </row>
     <row r="110" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B110" s="28" t="s">
         <v>173</v>
@@ -5055,8 +5074,8 @@
       <c r="C110" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D110" s="46" t="s">
-        <v>397</v>
+      <c r="D110" s="45" t="s">
+        <v>396</v>
       </c>
       <c r="E110" s="30"/>
       <c r="F110" s="30"/>
@@ -5065,7 +5084,7 @@
     </row>
     <row r="111" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B111" s="28" t="s">
         <v>173</v>
@@ -5073,8 +5092,8 @@
       <c r="C111" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="D111" s="46" t="s">
-        <v>398</v>
+      <c r="D111" s="45" t="s">
+        <v>397</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
@@ -5083,7 +5102,7 @@
     </row>
     <row r="112" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B112" s="28" t="s">
         <v>128</v>
@@ -5091,8 +5110,8 @@
       <c r="C112" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D112" s="46" t="s">
-        <v>406</v>
+      <c r="D112" s="45" t="s">
+        <v>405</v>
       </c>
       <c r="E112" s="30"/>
       <c r="F112" s="30"/>
@@ -5101,7 +5120,7 @@
     </row>
     <row r="113" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B113" s="28" t="s">
         <v>173</v>
@@ -5109,8 +5128,8 @@
       <c r="C113" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="D113" s="46" t="s">
-        <v>403</v>
+      <c r="D113" s="45" t="s">
+        <v>402</v>
       </c>
       <c r="E113" s="30"/>
       <c r="F113" s="30"/>
@@ -5125,10 +5144,10 @@
         <v>164</v>
       </c>
       <c r="C114" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="D114" s="44" t="s">
         <v>382</v>
-      </c>
-      <c r="D114" s="45" t="s">
-        <v>383</v>
       </c>
       <c r="E114" s="29"/>
       <c r="F114" s="29"/>
@@ -5137,7 +5156,7 @@
     </row>
     <row r="115" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B115" s="28" t="s">
         <v>128</v>
@@ -5145,8 +5164,8 @@
       <c r="C115" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D115" s="46" t="s">
-        <v>405</v>
+      <c r="D115" s="45" t="s">
+        <v>404</v>
       </c>
       <c r="E115" s="30"/>
       <c r="F115" s="30"/>
@@ -5155,7 +5174,7 @@
     </row>
     <row r="116" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B116" s="26" t="s">
         <v>128</v>
@@ -5163,8 +5182,8 @@
       <c r="C116" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="D116" s="47" t="s">
-        <v>452</v>
+      <c r="D116" s="46" t="s">
+        <v>451</v>
       </c>
       <c r="H116" s="26" t="s">
         <v>334</v>
@@ -5172,7 +5191,7 @@
     </row>
     <row r="117" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B117" s="26" t="s">
         <v>128</v>
@@ -5180,8 +5199,8 @@
       <c r="C117" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D117" s="47" t="s">
-        <v>456</v>
+      <c r="D117" s="46" t="s">
+        <v>455</v>
       </c>
       <c r="E117" s="26"/>
       <c r="F117" s="26"/>
@@ -5192,22 +5211,22 @@
     </row>
     <row r="118" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B118" s="28" t="s">
         <v>173</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="D118" s="46" t="s">
-        <v>404</v>
+        <v>376</v>
+      </c>
+      <c r="D118" s="45" t="s">
+        <v>403</v>
       </c>
       <c r="G118" s="28"/>
     </row>
     <row r="119" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B119" s="28" t="s">
         <v>173</v>
@@ -5215,8 +5234,8 @@
       <c r="C119" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="D119" s="46" t="s">
-        <v>401</v>
+      <c r="D119" s="45" t="s">
+        <v>400</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="30"/>
@@ -5242,11 +5261,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AE46"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5435,46 +5454,46 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H2" t="s">
         <v>624</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>625</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>626</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>627</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>628</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>629</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>630</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>631</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>632</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>634</v>
+      </c>
+      <c r="R2" t="s">
+        <v>646</v>
+      </c>
+      <c r="S2" t="s">
+        <v>635</v>
+      </c>
+      <c r="T2" t="s">
         <v>633</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>635</v>
-      </c>
-      <c r="R2" t="s">
-        <v>647</v>
-      </c>
-      <c r="S2" t="s">
-        <v>636</v>
-      </c>
-      <c r="T2" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -5485,16 +5504,16 @@
         <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
@@ -5514,25 +5533,25 @@
         <v>174</v>
       </c>
       <c r="F4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G4" t="s">
         <v>643</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>644</v>
       </c>
-      <c r="H4" t="s">
-        <v>645</v>
-      </c>
       <c r="I4" t="s">
+        <v>634</v>
+      </c>
+      <c r="J4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K4" t="s">
         <v>635</v>
       </c>
-      <c r="J4" t="s">
-        <v>647</v>
-      </c>
-      <c r="K4" t="s">
-        <v>636</v>
-      </c>
       <c r="L4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
@@ -5596,13 +5615,13 @@
         <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -5620,25 +5639,25 @@
         <v>174</v>
       </c>
       <c r="E7" t="s">
+        <v>647</v>
+      </c>
+      <c r="F7" t="s">
         <v>648</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>649</v>
       </c>
-      <c r="G7" t="s">
-        <v>650</v>
-      </c>
       <c r="H7" t="s">
+        <v>634</v>
+      </c>
+      <c r="I7" t="s">
+        <v>646</v>
+      </c>
+      <c r="J7" t="s">
         <v>635</v>
       </c>
-      <c r="I7" t="s">
-        <v>647</v>
-      </c>
-      <c r="J7" t="s">
-        <v>636</v>
-      </c>
       <c r="K7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -5655,7 +5674,7 @@
         <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F8" t="s">
         <v>174</v>
@@ -5675,31 +5694,31 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E9" t="s">
+        <v>667</v>
+      </c>
+      <c r="F9" t="s">
         <v>668</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>669</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>670</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>671</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>672</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>673</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>674</v>
-      </c>
-      <c r="L9" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
@@ -5730,7 +5749,7 @@
         <v>135</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D11" t="s">
         <v>133</v>
@@ -5745,34 +5764,34 @@
         <v>174</v>
       </c>
       <c r="H11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I11" t="s">
         <v>144</v>
       </c>
       <c r="J11" t="s">
+        <v>657</v>
+      </c>
+      <c r="K11" t="s">
+        <v>634</v>
+      </c>
+      <c r="L11" t="s">
+        <v>646</v>
+      </c>
+      <c r="M11" t="s">
+        <v>653</v>
+      </c>
+      <c r="N11" t="s">
+        <v>654</v>
+      </c>
+      <c r="O11" t="s">
+        <v>635</v>
+      </c>
+      <c r="P11" t="s">
         <v>658</v>
       </c>
-      <c r="K11" t="s">
-        <v>635</v>
-      </c>
-      <c r="L11" t="s">
-        <v>647</v>
-      </c>
-      <c r="M11" t="s">
-        <v>654</v>
-      </c>
-      <c r="N11" t="s">
-        <v>655</v>
-      </c>
-      <c r="O11" t="s">
-        <v>636</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>659</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
@@ -5791,13 +5810,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B13" t="s">
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D13" t="s">
         <v>131</v>
@@ -5806,57 +5825,57 @@
         <v>143</v>
       </c>
       <c r="F13" t="s">
+        <v>696</v>
+      </c>
+      <c r="G13" t="s">
         <v>697</v>
       </c>
-      <c r="G13" t="s">
-        <v>698</v>
-      </c>
       <c r="H13" t="s">
+        <v>757</v>
+      </c>
+      <c r="I13" t="s">
         <v>758</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>759</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>699</v>
+      </c>
+      <c r="L13" t="s">
         <v>760</v>
       </c>
-      <c r="K13" t="s">
-        <v>700</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>761</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>762</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>763</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>693</v>
+      </c>
+      <c r="R13" t="s">
+        <v>774</v>
+      </c>
+      <c r="S13" t="s">
         <v>764</v>
-      </c>
-      <c r="P13" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>694</v>
-      </c>
-      <c r="R13" t="s">
-        <v>775</v>
-      </c>
-      <c r="S13" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D14" t="s">
         <v>131</v>
@@ -5865,78 +5884,78 @@
         <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I14" t="s">
+        <v>696</v>
+      </c>
+      <c r="J14" t="s">
         <v>697</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>757</v>
+      </c>
+      <c r="L14" t="s">
+        <v>758</v>
+      </c>
+      <c r="M14" t="s">
+        <v>759</v>
+      </c>
+      <c r="N14" t="s">
         <v>698</v>
       </c>
-      <c r="K14" t="s">
-        <v>758</v>
-      </c>
-      <c r="L14" t="s">
-        <v>759</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
+        <v>704</v>
+      </c>
+      <c r="P14" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>699</v>
+      </c>
+      <c r="R14" t="s">
+        <v>766</v>
+      </c>
+      <c r="S14" t="s">
         <v>760</v>
       </c>
-      <c r="N14" t="s">
-        <v>699</v>
-      </c>
-      <c r="O14" t="s">
-        <v>705</v>
-      </c>
-      <c r="P14" t="s">
-        <v>756</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>700</v>
-      </c>
-      <c r="R14" t="s">
-        <v>767</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>761</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>762</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>763</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
+        <v>694</v>
+      </c>
+      <c r="X14" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>774</v>
+      </c>
+      <c r="Z14" t="s">
         <v>764</v>
-      </c>
-      <c r="W14" t="s">
-        <v>695</v>
-      </c>
-      <c r="X14" t="s">
-        <v>694</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>775</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B15" t="s">
         <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D15" t="s">
         <v>131</v>
@@ -5945,66 +5964,66 @@
         <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G15" t="s">
         <v>143</v>
       </c>
       <c r="H15" t="s">
+        <v>696</v>
+      </c>
+      <c r="I15" t="s">
         <v>697</v>
       </c>
-      <c r="I15" t="s">
-        <v>698</v>
-      </c>
       <c r="J15" t="s">
+        <v>757</v>
+      </c>
+      <c r="K15" t="s">
         <v>758</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>759</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
+        <v>702</v>
+      </c>
+      <c r="N15" t="s">
+        <v>699</v>
+      </c>
+      <c r="O15" t="s">
         <v>760</v>
       </c>
-      <c r="M15" t="s">
-        <v>703</v>
-      </c>
-      <c r="N15" t="s">
-        <v>700</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>761</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>762</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>763</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
+        <v>694</v>
+      </c>
+      <c r="T15" t="s">
+        <v>693</v>
+      </c>
+      <c r="U15" t="s">
+        <v>774</v>
+      </c>
+      <c r="V15" t="s">
         <v>764</v>
-      </c>
-      <c r="S15" t="s">
-        <v>695</v>
-      </c>
-      <c r="T15" t="s">
-        <v>694</v>
-      </c>
-      <c r="U15" t="s">
-        <v>775</v>
-      </c>
-      <c r="V15" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B16" t="s">
         <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -6013,78 +6032,78 @@
         <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G16" t="s">
         <v>143</v>
       </c>
       <c r="H16" t="s">
+        <v>696</v>
+      </c>
+      <c r="I16" t="s">
         <v>697</v>
       </c>
-      <c r="I16" t="s">
-        <v>698</v>
-      </c>
       <c r="J16" t="s">
+        <v>757</v>
+      </c>
+      <c r="K16" t="s">
         <v>758</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>759</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
+        <v>680</v>
+      </c>
+      <c r="N16" t="s">
+        <v>767</v>
+      </c>
+      <c r="O16" t="s">
+        <v>700</v>
+      </c>
+      <c r="P16" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>702</v>
+      </c>
+      <c r="R16" t="s">
+        <v>699</v>
+      </c>
+      <c r="S16" t="s">
         <v>760</v>
       </c>
-      <c r="M16" t="s">
-        <v>681</v>
-      </c>
-      <c r="N16" t="s">
-        <v>768</v>
-      </c>
-      <c r="O16" t="s">
-        <v>701</v>
-      </c>
-      <c r="P16" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>703</v>
-      </c>
-      <c r="R16" t="s">
-        <v>700</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>761</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>762</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>763</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
+        <v>694</v>
+      </c>
+      <c r="X16" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>774</v>
+      </c>
+      <c r="Z16" t="s">
         <v>764</v>
-      </c>
-      <c r="W16" t="s">
-        <v>695</v>
-      </c>
-      <c r="X16" t="s">
-        <v>694</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>775</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D17" t="s">
         <v>131</v>
@@ -6093,81 +6112,81 @@
         <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G17" t="s">
         <v>143</v>
       </c>
       <c r="H17" t="s">
+        <v>696</v>
+      </c>
+      <c r="I17" t="s">
         <v>697</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>757</v>
+      </c>
+      <c r="K17" t="s">
+        <v>758</v>
+      </c>
+      <c r="L17" t="s">
+        <v>759</v>
+      </c>
+      <c r="M17" t="s">
         <v>698</v>
       </c>
-      <c r="J17" t="s">
-        <v>758</v>
-      </c>
-      <c r="K17" t="s">
-        <v>759</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
+        <v>680</v>
+      </c>
+      <c r="O17" t="s">
+        <v>767</v>
+      </c>
+      <c r="P17" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>701</v>
+      </c>
+      <c r="R17" t="s">
+        <v>702</v>
+      </c>
+      <c r="S17" t="s">
+        <v>699</v>
+      </c>
+      <c r="T17" t="s">
         <v>760</v>
       </c>
-      <c r="M17" t="s">
-        <v>699</v>
-      </c>
-      <c r="N17" t="s">
-        <v>681</v>
-      </c>
-      <c r="O17" t="s">
-        <v>768</v>
-      </c>
-      <c r="P17" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>702</v>
-      </c>
-      <c r="R17" t="s">
-        <v>703</v>
-      </c>
-      <c r="S17" t="s">
-        <v>700</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>761</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>762</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>763</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>774</v>
+      </c>
+      <c r="AA17" t="s">
         <v>764</v>
-      </c>
-      <c r="X17" t="s">
-        <v>695</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>694</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>775</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B18" t="s">
         <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D18" t="s">
         <v>131</v>
@@ -6176,66 +6195,66 @@
         <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G18" t="s">
         <v>143</v>
       </c>
       <c r="H18" t="s">
+        <v>696</v>
+      </c>
+      <c r="I18" t="s">
         <v>697</v>
       </c>
-      <c r="I18" t="s">
-        <v>698</v>
-      </c>
       <c r="J18" t="s">
+        <v>757</v>
+      </c>
+      <c r="K18" t="s">
         <v>758</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>759</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
+        <v>702</v>
+      </c>
+      <c r="N18" t="s">
+        <v>699</v>
+      </c>
+      <c r="O18" t="s">
         <v>760</v>
       </c>
-      <c r="M18" t="s">
-        <v>703</v>
-      </c>
-      <c r="N18" t="s">
-        <v>700</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>761</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>762</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>763</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
+        <v>694</v>
+      </c>
+      <c r="T18" t="s">
+        <v>693</v>
+      </c>
+      <c r="U18" t="s">
+        <v>774</v>
+      </c>
+      <c r="V18" t="s">
         <v>764</v>
-      </c>
-      <c r="S18" t="s">
-        <v>695</v>
-      </c>
-      <c r="T18" t="s">
-        <v>694</v>
-      </c>
-      <c r="U18" t="s">
-        <v>775</v>
-      </c>
-      <c r="V18" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B19" t="s">
         <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
@@ -6244,66 +6263,66 @@
         <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G19" t="s">
         <v>143</v>
       </c>
       <c r="H19" t="s">
+        <v>696</v>
+      </c>
+      <c r="I19" t="s">
         <v>697</v>
       </c>
-      <c r="I19" t="s">
-        <v>698</v>
-      </c>
       <c r="J19" t="s">
+        <v>757</v>
+      </c>
+      <c r="K19" t="s">
         <v>758</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>759</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
+        <v>702</v>
+      </c>
+      <c r="N19" t="s">
+        <v>699</v>
+      </c>
+      <c r="O19" t="s">
         <v>760</v>
       </c>
-      <c r="M19" t="s">
-        <v>703</v>
-      </c>
-      <c r="N19" t="s">
-        <v>700</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>761</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>762</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>763</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
+        <v>694</v>
+      </c>
+      <c r="T19" t="s">
+        <v>693</v>
+      </c>
+      <c r="U19" t="s">
+        <v>774</v>
+      </c>
+      <c r="V19" t="s">
         <v>764</v>
-      </c>
-      <c r="S19" t="s">
-        <v>695</v>
-      </c>
-      <c r="T19" t="s">
-        <v>694</v>
-      </c>
-      <c r="U19" t="s">
-        <v>775</v>
-      </c>
-      <c r="V19" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B20" t="s">
         <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -6312,66 +6331,66 @@
         <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G20" t="s">
         <v>143</v>
       </c>
       <c r="H20" t="s">
+        <v>696</v>
+      </c>
+      <c r="I20" t="s">
         <v>697</v>
       </c>
-      <c r="I20" t="s">
-        <v>698</v>
-      </c>
       <c r="J20" t="s">
+        <v>757</v>
+      </c>
+      <c r="K20" t="s">
         <v>758</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>759</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
+        <v>702</v>
+      </c>
+      <c r="N20" t="s">
+        <v>699</v>
+      </c>
+      <c r="O20" t="s">
         <v>760</v>
       </c>
-      <c r="M20" t="s">
-        <v>703</v>
-      </c>
-      <c r="N20" t="s">
-        <v>700</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>761</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>762</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>763</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
+        <v>694</v>
+      </c>
+      <c r="T20" t="s">
+        <v>693</v>
+      </c>
+      <c r="U20" t="s">
+        <v>774</v>
+      </c>
+      <c r="V20" t="s">
         <v>764</v>
-      </c>
-      <c r="S20" t="s">
-        <v>695</v>
-      </c>
-      <c r="T20" t="s">
-        <v>694</v>
-      </c>
-      <c r="U20" t="s">
-        <v>775</v>
-      </c>
-      <c r="V20" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B21" t="s">
         <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D21" t="s">
         <v>131</v>
@@ -6380,66 +6399,66 @@
         <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G21" t="s">
         <v>143</v>
       </c>
       <c r="H21" t="s">
+        <v>696</v>
+      </c>
+      <c r="I21" t="s">
         <v>697</v>
       </c>
-      <c r="I21" t="s">
-        <v>698</v>
-      </c>
       <c r="J21" t="s">
+        <v>757</v>
+      </c>
+      <c r="K21" t="s">
         <v>758</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>759</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
+        <v>702</v>
+      </c>
+      <c r="N21" t="s">
+        <v>699</v>
+      </c>
+      <c r="O21" t="s">
         <v>760</v>
       </c>
-      <c r="M21" t="s">
-        <v>703</v>
-      </c>
-      <c r="N21" t="s">
-        <v>700</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>761</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>762</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>763</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
+        <v>694</v>
+      </c>
+      <c r="T21" t="s">
+        <v>693</v>
+      </c>
+      <c r="U21" t="s">
+        <v>774</v>
+      </c>
+      <c r="V21" t="s">
         <v>764</v>
-      </c>
-      <c r="S21" t="s">
-        <v>695</v>
-      </c>
-      <c r="T21" t="s">
-        <v>694</v>
-      </c>
-      <c r="U21" t="s">
-        <v>775</v>
-      </c>
-      <c r="V21" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B22" t="s">
         <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D22" t="s">
         <v>131</v>
@@ -6448,87 +6467,87 @@
         <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G22" t="s">
         <v>143</v>
       </c>
       <c r="H22" t="s">
+        <v>696</v>
+      </c>
+      <c r="I22" t="s">
         <v>697</v>
       </c>
-      <c r="I22" t="s">
-        <v>698</v>
-      </c>
       <c r="J22" t="s">
+        <v>757</v>
+      </c>
+      <c r="K22" t="s">
         <v>758</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>759</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
+        <v>702</v>
+      </c>
+      <c r="N22" t="s">
+        <v>699</v>
+      </c>
+      <c r="O22" t="s">
+        <v>768</v>
+      </c>
+      <c r="P22" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>769</v>
+      </c>
+      <c r="R22" t="s">
+        <v>770</v>
+      </c>
+      <c r="S22" t="s">
+        <v>771</v>
+      </c>
+      <c r="T22" t="s">
+        <v>772</v>
+      </c>
+      <c r="U22" t="s">
+        <v>773</v>
+      </c>
+      <c r="V22" t="s">
         <v>760</v>
       </c>
-      <c r="M22" t="s">
-        <v>703</v>
-      </c>
-      <c r="N22" t="s">
-        <v>700</v>
-      </c>
-      <c r="O22" t="s">
-        <v>769</v>
-      </c>
-      <c r="P22" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>770</v>
-      </c>
-      <c r="R22" t="s">
-        <v>771</v>
-      </c>
-      <c r="S22" t="s">
-        <v>772</v>
-      </c>
-      <c r="T22" t="s">
-        <v>773</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="W22" t="s">
+        <v>761</v>
+      </c>
+      <c r="X22" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>763</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB22" t="s">
         <v>774</v>
       </c>
-      <c r="V22" t="s">
-        <v>761</v>
-      </c>
-      <c r="W22" t="s">
-        <v>762</v>
-      </c>
-      <c r="X22" t="s">
-        <v>763</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="AC22" t="s">
         <v>764</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>694</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>775</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B23" t="s">
         <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D23" t="s">
         <v>131</v>
@@ -6537,87 +6556,87 @@
         <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G23" t="s">
         <v>143</v>
       </c>
       <c r="H23" t="s">
+        <v>696</v>
+      </c>
+      <c r="I23" t="s">
         <v>697</v>
       </c>
-      <c r="I23" t="s">
-        <v>698</v>
-      </c>
       <c r="J23" t="s">
+        <v>757</v>
+      </c>
+      <c r="K23" t="s">
         <v>758</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>759</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
+        <v>702</v>
+      </c>
+      <c r="N23" t="s">
+        <v>699</v>
+      </c>
+      <c r="O23" t="s">
+        <v>768</v>
+      </c>
+      <c r="P23" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>769</v>
+      </c>
+      <c r="R23" t="s">
+        <v>770</v>
+      </c>
+      <c r="S23" t="s">
+        <v>771</v>
+      </c>
+      <c r="T23" t="s">
+        <v>772</v>
+      </c>
+      <c r="U23" t="s">
+        <v>773</v>
+      </c>
+      <c r="V23" t="s">
         <v>760</v>
       </c>
-      <c r="M23" t="s">
-        <v>703</v>
-      </c>
-      <c r="N23" t="s">
-        <v>700</v>
-      </c>
-      <c r="O23" t="s">
-        <v>769</v>
-      </c>
-      <c r="P23" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>770</v>
-      </c>
-      <c r="R23" t="s">
-        <v>771</v>
-      </c>
-      <c r="S23" t="s">
-        <v>772</v>
-      </c>
-      <c r="T23" t="s">
-        <v>773</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="W23" t="s">
+        <v>761</v>
+      </c>
+      <c r="X23" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>763</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB23" t="s">
         <v>774</v>
       </c>
-      <c r="V23" t="s">
-        <v>761</v>
-      </c>
-      <c r="W23" t="s">
-        <v>762</v>
-      </c>
-      <c r="X23" t="s">
-        <v>763</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="AC23" t="s">
         <v>764</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>694</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>775</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B24" t="s">
         <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D24" t="s">
         <v>131</v>
@@ -6626,78 +6645,78 @@
         <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G24" t="s">
         <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I24" t="s">
+        <v>696</v>
+      </c>
+      <c r="J24" t="s">
         <v>697</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>757</v>
+      </c>
+      <c r="L24" t="s">
+        <v>758</v>
+      </c>
+      <c r="M24" t="s">
+        <v>759</v>
+      </c>
+      <c r="N24" t="s">
         <v>698</v>
       </c>
-      <c r="K24" t="s">
-        <v>758</v>
-      </c>
-      <c r="L24" t="s">
-        <v>759</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
+        <v>704</v>
+      </c>
+      <c r="P24" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>699</v>
+      </c>
+      <c r="R24" t="s">
+        <v>766</v>
+      </c>
+      <c r="S24" t="s">
         <v>760</v>
       </c>
-      <c r="N24" t="s">
-        <v>699</v>
-      </c>
-      <c r="O24" t="s">
-        <v>705</v>
-      </c>
-      <c r="P24" t="s">
-        <v>756</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>700</v>
-      </c>
-      <c r="R24" t="s">
-        <v>767</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>761</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>762</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>763</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
+        <v>694</v>
+      </c>
+      <c r="X24" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>774</v>
+      </c>
+      <c r="Z24" t="s">
         <v>764</v>
-      </c>
-      <c r="W24" t="s">
-        <v>695</v>
-      </c>
-      <c r="X24" t="s">
-        <v>694</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>775</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B25" t="s">
         <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D25" t="s">
         <v>131</v>
@@ -6706,43 +6725,43 @@
         <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G25" t="s">
         <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I25" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K25" t="s">
+        <v>760</v>
+      </c>
+      <c r="L25" t="s">
         <v>761</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>762</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>763</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
+        <v>694</v>
+      </c>
+      <c r="P25" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>774</v>
+      </c>
+      <c r="R25" t="s">
         <v>764</v>
-      </c>
-      <c r="O25" t="s">
-        <v>695</v>
-      </c>
-      <c r="P25" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>775</v>
-      </c>
-      <c r="R25" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
@@ -6762,39 +6781,39 @@
         <v>137</v>
       </c>
       <c r="F26" t="s">
+        <v>664</v>
+      </c>
+      <c r="G26" t="s">
+        <v>661</v>
+      </c>
+      <c r="H26" t="s">
+        <v>648</v>
+      </c>
+      <c r="I26" t="s">
+        <v>649</v>
+      </c>
+      <c r="J26" t="s">
         <v>665</v>
       </c>
-      <c r="G26" t="s">
-        <v>662</v>
-      </c>
-      <c r="H26" t="s">
-        <v>649</v>
-      </c>
-      <c r="I26" t="s">
-        <v>650</v>
-      </c>
-      <c r="J26" t="s">
-        <v>666</v>
-      </c>
       <c r="K26" t="s">
+        <v>634</v>
+      </c>
+      <c r="L26" t="s">
+        <v>646</v>
+      </c>
+      <c r="M26" t="s">
         <v>635</v>
       </c>
-      <c r="L26" t="s">
-        <v>647</v>
-      </c>
-      <c r="M26" t="s">
-        <v>636</v>
-      </c>
       <c r="N26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C27" t="s">
         <v>131</v>
@@ -6809,24 +6828,24 @@
         <v>174</v>
       </c>
       <c r="G27" t="s">
+        <v>604</v>
+      </c>
+      <c r="H27" t="s">
         <v>605</v>
       </c>
-      <c r="H27" t="s">
-        <v>606</v>
-      </c>
       <c r="I27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J27" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>612</v>
+      </c>
+      <c r="B28" t="s">
         <v>613</v>
-      </c>
-      <c r="B28" t="s">
-        <v>614</v>
       </c>
       <c r="C28" t="s">
         <v>131</v>
@@ -6841,16 +6860,16 @@
         <v>174</v>
       </c>
       <c r="G28" t="s">
+        <v>604</v>
+      </c>
+      <c r="H28" t="s">
         <v>605</v>
       </c>
-      <c r="H28" t="s">
-        <v>606</v>
-      </c>
       <c r="I28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
@@ -6858,7 +6877,7 @@
         <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
@@ -6877,12 +6896,12 @@
         <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B32" t="s">
         <v>259</v>
@@ -6893,7 +6912,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B33" t="s">
         <v>314</v>
@@ -6910,7 +6929,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B34" t="s">
         <v>314</v>
@@ -6930,7 +6949,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B35" t="s">
         <v>259</v>
@@ -6941,7 +6960,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B36" t="s">
         <v>314</v>
@@ -6958,7 +6977,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B37" t="s">
         <v>314</v>
@@ -6978,7 +6997,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B38" t="s">
         <v>259</v>
@@ -6989,7 +7008,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B39" t="s">
         <v>335</v>
@@ -7006,7 +7025,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B40" t="s">
         <v>314</v>
@@ -7023,7 +7042,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B41" t="s">
         <v>314</v>
@@ -7043,7 +7062,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B42" t="s">
         <v>259</v>
@@ -7054,7 +7073,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B43" t="s">
         <v>259</v>
@@ -7065,7 +7084,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B44" t="s">
         <v>259</v>
@@ -7076,7 +7095,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B45" t="s">
         <v>259</v>
@@ -7087,13 +7106,24 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B46" t="s">
         <v>259</v>
       </c>
       <c r="C46" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>296</v>
+      </c>
+      <c r="B47" t="s">
+        <v>807</v>
+      </c>
+      <c r="C47" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -7593,7 +7623,7 @@
       <c r="B11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -7665,7 +7695,7 @@
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>109</v>
@@ -7780,7 +7810,7 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>109</v>
@@ -7909,7 +7939,7 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>109</v>
@@ -8038,7 +8068,7 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>109</v>
@@ -8159,7 +8189,7 @@
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>109</v>
@@ -8280,7 +8310,7 @@
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>109</v>
@@ -8401,7 +8431,7 @@
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>109</v>
@@ -8522,7 +8552,7 @@
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>109</v>
@@ -8643,7 +8673,7 @@
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>109</v>
@@ -8774,7 +8804,7 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>109</v>
@@ -8908,7 +8938,7 @@
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>109</v>
@@ -9043,7 +9073,7 @@
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>109</v>
@@ -9178,7 +9208,7 @@
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>109</v>
@@ -9360,7 +9390,7 @@
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>109</v>
@@ -9408,7 +9438,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>109</v>
@@ -9448,7 +9478,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>126</v>
@@ -9491,7 +9521,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>109</v>
@@ -9502,7 +9532,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>110</v>
@@ -9518,7 +9548,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>110</v>
@@ -9526,7 +9556,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>110</v>
@@ -9534,7 +9564,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>110</v>
@@ -9551,7 +9581,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>110</v>
@@ -9559,7 +9589,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>110</v>
@@ -9579,7 +9609,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>110</v>
@@ -9587,7 +9617,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>109</v>
@@ -9598,7 +9628,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>110</v>
@@ -9606,7 +9636,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>110</v>
@@ -9614,7 +9644,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>110</v>
@@ -9631,7 +9661,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>110</v>
@@ -9639,7 +9669,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>110</v>
@@ -9659,7 +9689,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>110</v>
@@ -9667,7 +9697,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>110</v>
@@ -9675,7 +9705,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>110</v>
@@ -9683,7 +9713,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>109</v>
@@ -9694,7 +9724,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>110</v>
@@ -9702,7 +9732,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>110</v>
@@ -9710,7 +9740,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>110</v>
@@ -9718,7 +9748,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>110</v>
@@ -9726,7 +9756,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>110</v>
@@ -9734,7 +9764,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>110</v>
@@ -9742,7 +9772,7 @@
     </row>
     <row r="65" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>110</v>
@@ -9750,7 +9780,7 @@
     </row>
     <row r="66" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>110</v>
@@ -9758,7 +9788,7 @@
     </row>
     <row r="67" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>110</v>
@@ -9766,7 +9796,7 @@
     </row>
     <row r="68" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>110</v>
@@ -9774,7 +9804,7 @@
     </row>
     <row r="69" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>110</v>
@@ -9782,7 +9812,7 @@
     </row>
     <row r="70" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>110</v>
@@ -9790,7 +9820,7 @@
     </row>
     <row r="71" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>110</v>
@@ -9885,7 +9915,7 @@
     </row>
     <row r="72" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>110</v>
@@ -9893,7 +9923,7 @@
     </row>
     <row r="73" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>110</v>
@@ -9901,7 +9931,7 @@
     </row>
     <row r="74" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B74" t="s">
         <v>109</v>
@@ -10002,7 +10032,7 @@
     </row>
     <row r="75" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>111</v>
@@ -10010,7 +10040,7 @@
     </row>
     <row r="76" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>110</v>
@@ -10018,7 +10048,7 @@
     </row>
     <row r="77" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>110</v>
@@ -10026,7 +10056,7 @@
     </row>
     <row r="78" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>109</v>
@@ -10034,7 +10064,7 @@
     </row>
     <row r="79" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>110</v>
@@ -10042,7 +10072,7 @@
     </row>
     <row r="80" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>110</v>
@@ -10050,7 +10080,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>109</v>
@@ -10064,7 +10094,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>110</v>
@@ -10072,7 +10102,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>110</v>
@@ -10080,7 +10110,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>110</v>
@@ -10088,7 +10118,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>110</v>
@@ -10096,7 +10126,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>110</v>
@@ -10113,7 +10143,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>110</v>
@@ -10121,7 +10151,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>110</v>
@@ -10141,7 +10171,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>110</v>
@@ -10149,7 +10179,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>109</v>
@@ -10157,7 +10187,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>110</v>
@@ -10173,7 +10203,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>109</v>
@@ -10184,7 +10214,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>109</v>
@@ -10195,7 +10225,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>110</v>
@@ -10203,7 +10233,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>109</v>
@@ -10222,7 +10252,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>110</v>
@@ -10230,7 +10260,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>110</v>
@@ -10238,7 +10268,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>110</v>
@@ -10246,7 +10276,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>109</v>
@@ -10257,7 +10287,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>109</v>
@@ -10281,10 +10311,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:CK85"/>
+  <dimension ref="A1:CK86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10469,13 +10499,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -10505,7 +10535,7 @@
         <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S2" t="s">
         <v>115</v>
@@ -10528,7 +10558,7 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F3" t="s">
         <v>115</v>
@@ -10548,7 +10578,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -10563,7 +10593,7 @@
         <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K4" t="s">
         <v>115</v>
@@ -10586,7 +10616,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -10609,7 +10639,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -10624,7 +10654,7 @@
         <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J6" t="s">
         <v>115</v>
@@ -10650,7 +10680,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G7" t="s">
         <v>305</v>
@@ -10676,7 +10706,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -10685,10 +10715,10 @@
         <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -10708,7 +10738,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F9" t="s">
         <v>305</v>
@@ -10734,13 +10764,13 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J10" t="s">
         <v>81</v>
@@ -10749,7 +10779,7 @@
         <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
@@ -10783,7 +10813,7 @@
     </row>
     <row r="12" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -10795,7 +10825,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -10804,13 +10834,13 @@
         <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
@@ -10842,7 +10872,7 @@
     </row>
     <row r="13" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -10863,7 +10893,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -10872,22 +10902,22 @@
         <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O13" t="s">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q13" t="s">
         <v>11</v>
@@ -10922,7 +10952,7 @@
     </row>
     <row r="14" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -10940,7 +10970,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -10949,13 +10979,13 @@
         <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M14" t="s">
         <v>11</v>
@@ -10990,7 +11020,7 @@
     </row>
     <row r="15" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -11008,7 +11038,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -11017,19 +11047,19 @@
         <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M15" t="s">
         <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O15" t="s">
         <v>12</v>
@@ -11070,7 +11100,7 @@
     </row>
     <row r="16" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -11088,7 +11118,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -11097,22 +11127,22 @@
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N16" t="s">
         <v>11</v>
       </c>
       <c r="O16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P16" t="s">
         <v>12</v>
@@ -11153,7 +11183,7 @@
     </row>
     <row r="17" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -11171,7 +11201,7 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -11180,13 +11210,13 @@
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M17" t="s">
         <v>11</v>
@@ -11221,7 +11251,7 @@
     </row>
     <row r="18" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -11239,7 +11269,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -11248,13 +11278,13 @@
         <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
@@ -11289,7 +11319,7 @@
     </row>
     <row r="19" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -11307,7 +11337,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -11316,13 +11346,13 @@
         <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M19" t="s">
         <v>11</v>
@@ -11357,7 +11387,7 @@
     </row>
     <row r="20" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -11375,7 +11405,7 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -11384,13 +11414,13 @@
         <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M20" t="s">
         <v>11</v>
@@ -11425,7 +11455,7 @@
     </row>
     <row r="21" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -11443,7 +11473,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -11452,13 +11482,13 @@
         <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M21" t="s">
         <v>11</v>
@@ -11473,7 +11503,7 @@
         <v>114</v>
       </c>
       <c r="Q21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R21" t="s">
         <v>12</v>
@@ -11514,7 +11544,7 @@
     </row>
     <row r="22" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -11532,7 +11562,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -11541,13 +11571,13 @@
         <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M22" t="s">
         <v>11</v>
@@ -11562,7 +11592,7 @@
         <v>114</v>
       </c>
       <c r="Q22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R22" t="s">
         <v>12</v>
@@ -11603,7 +11633,7 @@
     </row>
     <row r="23" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -11621,10 +11651,10 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
@@ -11633,22 +11663,22 @@
         <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O23" t="s">
         <v>12</v>
       </c>
       <c r="P23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q23" t="s">
         <v>11</v>
@@ -11683,7 +11713,7 @@
     </row>
     <row r="24" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -11701,16 +11731,16 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -11754,10 +11784,10 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H25" t="s">
         <v>80</v>
@@ -11766,13 +11796,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K25" t="s">
         <v>91</v>
       </c>
       <c r="L25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M25" t="s">
         <v>115</v>
@@ -11794,7 +11824,7 @@
         <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="28" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
@@ -11807,7 +11837,7 @@
     </row>
     <row r="29" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -11847,7 +11877,7 @@
     </row>
     <row r="31" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -11906,7 +11936,7 @@
     </row>
     <row r="35" spans="1:6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B35" t="s">
         <v>130</v>
@@ -11922,7 +11952,7 @@
     </row>
     <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B37" t="s">
         <v>305</v>
@@ -11930,7 +11960,7 @@
     </row>
     <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B38" t="s">
         <v>305</v>
@@ -11938,7 +11968,7 @@
     </row>
     <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -11955,7 +11985,7 @@
     </row>
     <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B40" t="s">
         <v>300</v>
@@ -11963,7 +11993,7 @@
     </row>
     <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -11983,7 +12013,7 @@
     </row>
     <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B42" t="s">
         <v>300</v>
@@ -11991,7 +12021,7 @@
     </row>
     <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B43" t="s">
         <v>305</v>
@@ -11999,7 +12029,7 @@
     </row>
     <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B44" t="s">
         <v>305</v>
@@ -12007,7 +12037,7 @@
     </row>
     <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -12024,7 +12054,7 @@
     </row>
     <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B46" t="s">
         <v>300</v>
@@ -12032,7 +12062,7 @@
     </row>
     <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -12052,7 +12082,7 @@
     </row>
     <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B48" t="s">
         <v>300</v>
@@ -12060,23 +12090,23 @@
     </row>
     <row r="49" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B49" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B50" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="51" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B51" t="s">
         <v>300</v>
@@ -12084,7 +12114,7 @@
     </row>
     <row r="52" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B52" t="s">
         <v>300</v>
@@ -12092,7 +12122,7 @@
     </row>
     <row r="53" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B53" t="s">
         <v>300</v>
@@ -12100,7 +12130,7 @@
     </row>
     <row r="54" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B54" t="s">
         <v>300</v>
@@ -12108,7 +12138,7 @@
     </row>
     <row r="55" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s">
         <v>300</v>
@@ -12116,7 +12146,7 @@
     </row>
     <row r="56" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B56" t="s">
         <v>300</v>
@@ -12124,7 +12154,7 @@
     </row>
     <row r="57" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s">
         <v>300</v>
@@ -12132,7 +12162,7 @@
     </row>
     <row r="58" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s">
         <v>300</v>
@@ -12140,7 +12170,7 @@
     </row>
     <row r="59" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B59" t="s">
         <v>300</v>
@@ -12148,7 +12178,7 @@
     </row>
     <row r="60" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B60" t="s">
         <v>300</v>
@@ -12156,7 +12186,7 @@
     </row>
     <row r="61" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s">
         <v>300</v>
@@ -12164,7 +12194,7 @@
     </row>
     <row r="62" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B62" t="s">
         <v>300</v>
@@ -12172,7 +12202,7 @@
     </row>
     <row r="63" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s">
         <v>300</v>
@@ -12180,7 +12210,7 @@
     </row>
     <row r="64" spans="1:2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s">
         <v>300</v>
@@ -12188,7 +12218,7 @@
     </row>
     <row r="65" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B65" t="s">
         <v>305</v>
@@ -12196,7 +12226,7 @@
     </row>
     <row r="66" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -12213,7 +12243,7 @@
     </row>
     <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B67" t="s">
         <v>305</v>
@@ -12221,7 +12251,7 @@
     </row>
     <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B68" t="s">
         <v>300</v>
@@ -12229,7 +12259,7 @@
     </row>
     <row r="69" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B69" t="s">
         <v>300</v>
@@ -12237,7 +12267,7 @@
     </row>
     <row r="70" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -12245,7 +12275,7 @@
     </row>
     <row r="71" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -12253,15 +12283,15 @@
     </row>
     <row r="72" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B72" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B73" t="s">
         <v>305</v>
@@ -12269,7 +12299,7 @@
     </row>
     <row r="74" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B74" t="s">
         <v>305</v>
@@ -12277,7 +12307,7 @@
     </row>
     <row r="75" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -12294,7 +12324,7 @@
     </row>
     <row r="76" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B76" t="s">
         <v>300</v>
@@ -12302,7 +12332,7 @@
     </row>
     <row r="77" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -12322,7 +12352,7 @@
     </row>
     <row r="78" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B78" t="s">
         <v>300</v>
@@ -12330,7 +12360,7 @@
     </row>
     <row r="79" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
@@ -12346,23 +12376,23 @@
     </row>
     <row r="81" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B81" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="82" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B82" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="83" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B83" t="s">
         <v>305</v>
@@ -12370,7 +12400,7 @@
     </row>
     <row r="84" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B84" t="s">
         <v>300</v>
@@ -12384,40 +12414,51 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M85" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N85" t="s">
-        <v>801</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>296</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -12542,10 +12583,10 @@
         <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D2" t="s">
         <v>192</v>
@@ -12557,7 +12598,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H2" t="s">
         <v>196</v>
@@ -12590,13 +12631,13 @@
         <v>209</v>
       </c>
       <c r="R2" t="s">
+        <v>636</v>
+      </c>
+      <c r="S2" t="s">
         <v>637</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>638</v>
-      </c>
-      <c r="T2" t="s">
-        <v>639</v>
       </c>
       <c r="U2" t="s">
         <v>210</v>
@@ -12607,10 +12648,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
         <v>196</v>
@@ -12619,7 +12660,7 @@
         <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G3" t="s">
         <v>200</v>
@@ -12630,10 +12671,10 @@
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D4" t="s">
         <v>211</v>
@@ -12642,7 +12683,7 @@
         <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G4" t="s">
         <v>216</v>
@@ -12654,13 +12695,13 @@
         <v>214</v>
       </c>
       <c r="J4" t="s">
+        <v>636</v>
+      </c>
+      <c r="K4" t="s">
         <v>637</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>638</v>
-      </c>
-      <c r="L4" t="s">
-        <v>639</v>
       </c>
       <c r="M4" t="s">
         <v>210</v>
@@ -12671,10 +12712,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D5" t="s">
         <v>192</v>
@@ -12683,13 +12724,13 @@
         <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G5" t="s">
         <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I5" t="s">
         <v>210</v>
@@ -12700,16 +12741,16 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D6" t="s">
         <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F6" t="s">
         <v>190</v>
@@ -12721,13 +12762,13 @@
         <v>213</v>
       </c>
       <c r="I6" t="s">
+        <v>636</v>
+      </c>
+      <c r="J6" t="s">
         <v>637</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>638</v>
-      </c>
-      <c r="K6" t="s">
-        <v>639</v>
       </c>
       <c r="L6" t="s">
         <v>210</v>
@@ -12738,10 +12779,10 @@
         <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D7" t="s">
         <v>192</v>
@@ -12750,13 +12791,13 @@
         <v>191</v>
       </c>
       <c r="F7" t="s">
+        <v>651</v>
+      </c>
+      <c r="G7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H7" t="s">
         <v>652</v>
-      </c>
-      <c r="G7" t="s">
-        <v>603</v>
-      </c>
-      <c r="H7" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -12764,13 +12805,13 @@
         <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C8" t="s">
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
@@ -12778,7 +12819,7 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
@@ -12819,10 +12860,10 @@
         <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D10" t="s">
         <v>211</v>
@@ -12831,10 +12872,10 @@
         <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
@@ -12842,13 +12883,13 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E11" t="s">
         <v>192</v>
@@ -12860,7 +12901,7 @@
         <v>193</v>
       </c>
       <c r="H11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I11" t="s">
         <v>190</v>
@@ -12872,19 +12913,19 @@
         <v>195</v>
       </c>
       <c r="L11" t="s">
+        <v>636</v>
+      </c>
+      <c r="M11" t="s">
         <v>637</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>655</v>
+      </c>
+      <c r="O11" t="s">
+        <v>656</v>
+      </c>
+      <c r="P11" t="s">
         <v>638</v>
-      </c>
-      <c r="N11" t="s">
-        <v>656</v>
-      </c>
-      <c r="O11" t="s">
-        <v>657</v>
-      </c>
-      <c r="P11" t="s">
-        <v>639</v>
       </c>
       <c r="Q11" t="s">
         <v>198</v>
@@ -12898,27 +12939,27 @@
         <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D12" t="s">
         <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D13" t="s">
         <v>217</v>
@@ -12936,13 +12977,13 @@
         <v>222</v>
       </c>
       <c r="I13" t="s">
+        <v>677</v>
+      </c>
+      <c r="J13" t="s">
         <v>678</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>679</v>
-      </c>
-      <c r="K13" t="s">
-        <v>680</v>
       </c>
       <c r="L13" t="s">
         <v>225</v>
@@ -12960,27 +13001,27 @@
         <v>229</v>
       </c>
       <c r="Q13" t="s">
+        <v>687</v>
+      </c>
+      <c r="R13" t="s">
         <v>688</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>689</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>690</v>
-      </c>
-      <c r="T13" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D14" t="s">
         <v>217</v>
@@ -13007,22 +13048,22 @@
         <v>222</v>
       </c>
       <c r="L14" t="s">
+        <v>677</v>
+      </c>
+      <c r="M14" t="s">
         <v>678</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>679</v>
-      </c>
-      <c r="N14" t="s">
-        <v>680</v>
       </c>
       <c r="O14" t="s">
         <v>224</v>
       </c>
       <c r="P14" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q14" t="s">
         <v>686</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>687</v>
       </c>
       <c r="R14" t="s">
         <v>225</v>
@@ -13043,27 +13084,27 @@
         <v>229</v>
       </c>
       <c r="X14" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y14" t="s">
         <v>688</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>689</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>690</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D15" t="s">
         <v>217</v>
@@ -13090,22 +13131,22 @@
         <v>222</v>
       </c>
       <c r="L15" t="s">
+        <v>677</v>
+      </c>
+      <c r="M15" t="s">
         <v>678</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>679</v>
-      </c>
-      <c r="N15" t="s">
-        <v>680</v>
       </c>
       <c r="O15" t="s">
         <v>224</v>
       </c>
       <c r="P15" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q15" t="s">
         <v>686</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>687</v>
       </c>
       <c r="R15" t="s">
         <v>225</v>
@@ -13126,27 +13167,27 @@
         <v>229</v>
       </c>
       <c r="X15" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y15" t="s">
         <v>688</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>689</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>690</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D16" t="s">
         <v>217</v>
@@ -13170,16 +13211,16 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
+        <v>677</v>
+      </c>
+      <c r="L16" t="s">
         <v>678</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>679</v>
       </c>
-      <c r="M16" t="s">
-        <v>680</v>
-      </c>
       <c r="N16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O16" t="s">
         <v>225</v>
@@ -13197,27 +13238,27 @@
         <v>229</v>
       </c>
       <c r="T16" t="s">
+        <v>687</v>
+      </c>
+      <c r="U16" t="s">
         <v>688</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>689</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>690</v>
-      </c>
-      <c r="W16" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D17" t="s">
         <v>217</v>
@@ -13241,16 +13282,16 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
+        <v>677</v>
+      </c>
+      <c r="L17" t="s">
         <v>678</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>679</v>
       </c>
-      <c r="M17" t="s">
-        <v>680</v>
-      </c>
       <c r="N17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O17" t="s">
         <v>225</v>
@@ -13268,27 +13309,27 @@
         <v>229</v>
       </c>
       <c r="T17" t="s">
+        <v>687</v>
+      </c>
+      <c r="U17" t="s">
         <v>688</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>689</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>690</v>
-      </c>
-      <c r="W17" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D18" t="s">
         <v>217</v>
@@ -13312,16 +13353,16 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
+        <v>677</v>
+      </c>
+      <c r="L18" t="s">
         <v>678</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>679</v>
       </c>
-      <c r="M18" t="s">
-        <v>680</v>
-      </c>
       <c r="N18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O18" t="s">
         <v>225</v>
@@ -13339,27 +13380,27 @@
         <v>229</v>
       </c>
       <c r="T18" t="s">
+        <v>687</v>
+      </c>
+      <c r="U18" t="s">
         <v>688</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>689</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>690</v>
-      </c>
-      <c r="W18" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D19" t="s">
         <v>217</v>
@@ -13383,16 +13424,16 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
+        <v>677</v>
+      </c>
+      <c r="L19" t="s">
         <v>678</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>679</v>
       </c>
-      <c r="M19" t="s">
-        <v>680</v>
-      </c>
       <c r="N19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O19" t="s">
         <v>225</v>
@@ -13410,27 +13451,27 @@
         <v>229</v>
       </c>
       <c r="T19" t="s">
+        <v>687</v>
+      </c>
+      <c r="U19" t="s">
         <v>688</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>689</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>690</v>
-      </c>
-      <c r="W19" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>733</v>
+      </c>
+      <c r="B20" t="s">
         <v>734</v>
       </c>
-      <c r="B20" t="s">
-        <v>735</v>
-      </c>
       <c r="C20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D20" t="s">
         <v>217</v>
@@ -13454,16 +13495,16 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
+        <v>677</v>
+      </c>
+      <c r="L20" t="s">
         <v>678</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>679</v>
       </c>
-      <c r="M20" t="s">
-        <v>680</v>
-      </c>
       <c r="N20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O20" t="s">
         <v>225</v>
@@ -13481,27 +13522,27 @@
         <v>229</v>
       </c>
       <c r="T20" t="s">
+        <v>687</v>
+      </c>
+      <c r="U20" t="s">
         <v>688</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>689</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>690</v>
-      </c>
-      <c r="W20" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>737</v>
+      </c>
+      <c r="B21" t="s">
         <v>738</v>
       </c>
-      <c r="B21" t="s">
-        <v>739</v>
-      </c>
       <c r="C21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D21" t="s">
         <v>217</v>
@@ -13525,28 +13566,28 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
+        <v>677</v>
+      </c>
+      <c r="L21" t="s">
         <v>678</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>679</v>
-      </c>
-      <c r="M21" t="s">
-        <v>680</v>
       </c>
       <c r="N21" t="s">
         <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P21" t="s">
         <v>236</v>
       </c>
       <c r="Q21" t="s">
+        <v>682</v>
+      </c>
+      <c r="R21" t="s">
         <v>683</v>
-      </c>
-      <c r="R21" t="s">
-        <v>684</v>
       </c>
       <c r="S21" t="s">
         <v>225</v>
@@ -13564,27 +13605,27 @@
         <v>229</v>
       </c>
       <c r="X21" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y21" t="s">
         <v>688</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>689</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>690</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D22" t="s">
         <v>217</v>
@@ -13608,13 +13649,13 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
+        <v>677</v>
+      </c>
+      <c r="L22" t="s">
         <v>678</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>679</v>
-      </c>
-      <c r="M22" t="s">
-        <v>680</v>
       </c>
       <c r="N22" t="s">
         <v>224</v>
@@ -13623,16 +13664,16 @@
         <v>235</v>
       </c>
       <c r="P22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q22" t="s">
         <v>236</v>
       </c>
       <c r="R22" t="s">
+        <v>682</v>
+      </c>
+      <c r="S22" t="s">
         <v>683</v>
-      </c>
-      <c r="S22" t="s">
-        <v>684</v>
       </c>
       <c r="T22" t="s">
         <v>225</v>
@@ -13650,27 +13691,27 @@
         <v>229</v>
       </c>
       <c r="Y22" t="s">
+        <v>687</v>
+      </c>
+      <c r="Z22" t="s">
         <v>688</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>689</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>690</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B23" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D23" t="s">
         <v>217</v>
@@ -13694,16 +13735,16 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
+        <v>677</v>
+      </c>
+      <c r="L23" t="s">
         <v>678</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>679</v>
       </c>
-      <c r="M23" t="s">
-        <v>680</v>
-      </c>
       <c r="N23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O23" t="s">
         <v>225</v>
@@ -13715,7 +13756,7 @@
         <v>238</v>
       </c>
       <c r="R23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S23" t="s">
         <v>231</v>
@@ -13742,27 +13783,27 @@
         <v>229</v>
       </c>
       <c r="AA23" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB23" t="s">
         <v>688</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>689</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>690</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D24" t="s">
         <v>217</v>
@@ -13786,16 +13827,16 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
+        <v>677</v>
+      </c>
+      <c r="L24" t="s">
         <v>678</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>679</v>
       </c>
-      <c r="M24" t="s">
-        <v>680</v>
-      </c>
       <c r="N24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O24" t="s">
         <v>225</v>
@@ -13807,7 +13848,7 @@
         <v>238</v>
       </c>
       <c r="R24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S24" t="s">
         <v>231</v>
@@ -13834,27 +13875,27 @@
         <v>229</v>
       </c>
       <c r="AA24" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB24" t="s">
         <v>688</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>689</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>690</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B25" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D25" t="s">
         <v>217</v>
@@ -13893,16 +13934,16 @@
         <v>229</v>
       </c>
       <c r="P25" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q25" t="s">
         <v>688</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>689</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>690</v>
-      </c>
-      <c r="S25" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
@@ -13910,10 +13951,10 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D26" t="s">
         <v>192</v>
@@ -13925,10 +13966,10 @@
         <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I26" t="s">
         <v>212</v>
@@ -13937,16 +13978,16 @@
         <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L26" t="s">
+        <v>636</v>
+      </c>
+      <c r="M26" t="s">
         <v>637</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="O26" t="s">
         <v>210</v>
@@ -13957,10 +13998,10 @@
         <v>158</v>
       </c>
       <c r="B27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27" t="s">
         <v>594</v>
-      </c>
-      <c r="C27" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
@@ -13968,7 +14009,7 @@
         <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C28" t="s">
         <v>224</v>
@@ -13979,21 +14020,21 @@
         <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D30" t="s">
         <v>191</v>
@@ -14005,19 +14046,19 @@
         <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H30" t="s">
+        <v>606</v>
+      </c>
+      <c r="I30" t="s">
         <v>607</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>609</v>
+      </c>
+      <c r="K30" t="s">
         <v>608</v>
-      </c>
-      <c r="J30" t="s">
-        <v>610</v>
-      </c>
-      <c r="K30" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
@@ -14025,10 +14066,10 @@
         <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
@@ -14036,21 +14077,21 @@
         <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B33" t="s">
+        <v>600</v>
+      </c>
+      <c r="C33" t="s">
         <v>601</v>
-      </c>
-      <c r="C33" t="s">
-        <v>602</v>
       </c>
       <c r="D33" t="s">
         <v>191</v>
@@ -14062,19 +14103,19 @@
         <v>193</v>
       </c>
       <c r="G33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H33" t="s">
+        <v>606</v>
+      </c>
+      <c r="I33" t="s">
         <v>607</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>609</v>
+      </c>
+      <c r="K33" t="s">
         <v>608</v>
-      </c>
-      <c r="J33" t="s">
-        <v>610</v>
-      </c>
-      <c r="K33" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -14082,21 +14123,21 @@
         <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -14104,7 +14145,7 @@
         <v>166</v>
       </c>
       <c r="B36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C36" t="s">
         <v>253</v>
@@ -14121,7 +14162,7 @@
         <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C37" t="s">
         <v>253</v>
@@ -14141,7 +14182,7 @@
         <v>167</v>
       </c>
       <c r="B38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C38" t="s">
         <v>253</v>
@@ -14158,46 +14199,46 @@
         <v>127</v>
       </c>
       <c r="B39" t="s">
+        <v>786</v>
+      </c>
+      <c r="C39" t="s">
         <v>787</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>788</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>789</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>790</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>791</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>792</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>793</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>794</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>795</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>796</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>797</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>798</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>799</v>
-      </c>
-      <c r="O39" t="s">
-        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -14263,19 +14304,19 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" t="s">
         <v>782</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>783</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>784</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>785</v>
-      </c>
-      <c r="F2" t="s">
-        <v>786</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -14286,7 +14327,7 @@
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B3" t="s">
         <v>349</v>
@@ -14334,7 +14375,7 @@
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B5" t="s">
         <v>346</v>
@@ -14384,7 +14425,7 @@
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7" t="s">
         <v>279</v>
@@ -14416,7 +14457,7 @@
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B8" t="s">
         <v>276</v>
@@ -14438,7 +14479,7 @@
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B9" t="s">
         <v>277</v>
@@ -14460,203 +14501,203 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
+        <v>778</v>
+      </c>
+      <c r="C10" t="s">
         <v>779</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>780</v>
-      </c>
-      <c r="D10" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
+        <v>778</v>
+      </c>
+      <c r="C11" t="s">
         <v>779</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>780</v>
-      </c>
-      <c r="D11" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B12" t="s">
+        <v>778</v>
+      </c>
+      <c r="C12" t="s">
         <v>779</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>780</v>
-      </c>
-      <c r="D12" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s">
+        <v>778</v>
+      </c>
+      <c r="C13" t="s">
         <v>779</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>780</v>
-      </c>
-      <c r="D13" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B14" t="s">
+        <v>778</v>
+      </c>
+      <c r="C14" t="s">
         <v>779</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>780</v>
-      </c>
-      <c r="D14" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C15" t="s">
         <v>779</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>780</v>
-      </c>
-      <c r="D15" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B16" t="s">
+        <v>778</v>
+      </c>
+      <c r="C16" t="s">
         <v>779</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>780</v>
-      </c>
-      <c r="D16" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B17" t="s">
+        <v>778</v>
+      </c>
+      <c r="C17" t="s">
         <v>779</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>780</v>
-      </c>
-      <c r="D17" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B18" t="s">
+        <v>778</v>
+      </c>
+      <c r="C18" t="s">
         <v>779</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>780</v>
-      </c>
-      <c r="D18" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B19" t="s">
+        <v>778</v>
+      </c>
+      <c r="C19" t="s">
         <v>779</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>780</v>
-      </c>
-      <c r="D19" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B20" t="s">
+        <v>778</v>
+      </c>
+      <c r="C20" t="s">
         <v>779</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>780</v>
-      </c>
-      <c r="D20" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B21" t="s">
+        <v>778</v>
+      </c>
+      <c r="C21" t="s">
         <v>779</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>780</v>
-      </c>
-      <c r="D21" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B22" t="s">
+        <v>778</v>
+      </c>
+      <c r="C22" t="s">
         <v>779</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>780</v>
-      </c>
-      <c r="D22" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B23" t="s">
+        <v>778</v>
+      </c>
+      <c r="C23" t="s">
         <v>779</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>780</v>
-      </c>
-      <c r="D23" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B24" t="s">
         <v>294</v>
@@ -14667,7 +14708,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B25" t="s">
         <v>261</v>
@@ -14687,7 +14728,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B26" t="s">
         <v>274</v>
@@ -14698,7 +14739,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B27" t="s">
         <v>284</v>
@@ -14709,7 +14750,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B28" t="s">
         <v>263</v>
@@ -14747,7 +14788,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B29" t="s">
         <v>277</v>

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474" activeTab="3"/>
+    <workbookView xWindow="590" yWindow="1010" windowWidth="10210" windowHeight="6080" tabRatio="474" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="870">
   <si>
     <t>Identifier</t>
   </si>
@@ -2462,6 +2462,186 @@
   </si>
   <si>
     <t>degrees</t>
+  </si>
+  <si>
+    <t>Wave Height Operational Limits</t>
+  </si>
+  <si>
+    <t>SimpleDictColumn</t>
+  </si>
+  <si>
+    <t>Per operation limit conditions for significant wave height</t>
+  </si>
+  <si>
+    <t>Hs Limit</t>
+  </si>
+  <si>
+    <t>reference.view_operations_limit_hs</t>
+  </si>
+  <si>
+    <t>component.operations_limit_hs</t>
+  </si>
+  <si>
+    <t>operations_type</t>
+  </si>
+  <si>
+    <t>hs_limit</t>
+  </si>
+  <si>
+    <t>Vessel Positioning + Connection to cable pull-head + Cable float-out + Cable lay into pre-excavated trench</t>
+  </si>
+  <si>
+    <t>Vessel positioning + Connection to cable pull-head + Cable float-out + Cable pull-in through HDD conduit</t>
+  </si>
+  <si>
+    <t>Deploy of Cable Burial Tool</t>
+  </si>
+  <si>
+    <t>Recover cable burial tool</t>
+  </si>
+  <si>
+    <t>Cable lay and burial through cable route</t>
+  </si>
+  <si>
+    <t>Cable lay through cable route</t>
+  </si>
+  <si>
+    <t>Cable lay through open trench</t>
+  </si>
+  <si>
+    <t>Cable lay with split pipes</t>
+  </si>
+  <si>
+    <t>Cable lay with buoyancy modules</t>
+  </si>
+  <si>
+    <t>Conduct dry-mate connection on deck</t>
+  </si>
+  <si>
+    <t>Conduct splice connection on deck</t>
+  </si>
+  <si>
+    <t>Connect to guide wire + Lower cable and connection equip + Perform wet-mate connect + Recover connection equip</t>
+  </si>
+  <si>
+    <t>J-tube entrance inspection + Guide wire connection + Cable lay + Cable pull + Cable connection</t>
+  </si>
+  <si>
+    <t>Lower cable-end to the seabed</t>
+  </si>
+  <si>
+    <t>Lift cable-end from seabed</t>
+  </si>
+  <si>
+    <t>Lower collection point to the seabed</t>
+  </si>
+  <si>
+    <t>Lift top-side platform</t>
+  </si>
+  <si>
+    <t>Connect top-side platform to the support structure</t>
+  </si>
+  <si>
+    <t>Lift and overboard concrete mattress + Lower concrete mattress to seabed + Position and release concrete mattress + Recover installation frame</t>
+  </si>
+  <si>
+    <t>Lift and overboard rock filter bag + Lower rock filter bag to seabed + Position and release concrete mattress</t>
+  </si>
+  <si>
+    <t>Wave Period Operational Limits</t>
+  </si>
+  <si>
+    <t>Per operation limit conditions for peak wave period</t>
+  </si>
+  <si>
+    <t>component.operations_limit_tp</t>
+  </si>
+  <si>
+    <t>component.operations_limit_ws</t>
+  </si>
+  <si>
+    <t>Wind Speed Operational Limits</t>
+  </si>
+  <si>
+    <t>component.operations_limit_cs</t>
+  </si>
+  <si>
+    <t>Current Speed Operational Limits</t>
+  </si>
+  <si>
+    <t>Per operation limit conditions for current speed</t>
+  </si>
+  <si>
+    <t>Per operation limit conditions for wind speed</t>
+  </si>
+  <si>
+    <t>Tp Limit</t>
+  </si>
+  <si>
+    <t>Wind Velocity Limit</t>
+  </si>
+  <si>
+    <t>Current Velocity Limit</t>
+  </si>
+  <si>
+    <t>reference.view_operations_limit_tp</t>
+  </si>
+  <si>
+    <t>reference.view_operations_limit_ws</t>
+  </si>
+  <si>
+    <t>reference.view_operations_limit_cs</t>
+  </si>
+  <si>
+    <t>tp_limit</t>
+  </si>
+  <si>
+    <t>ws_limit</t>
+  </si>
+  <si>
+    <t>cs_limit</t>
+  </si>
+  <si>
+    <t>Seafloor &amp; equipment preparation</t>
+  </si>
+  <si>
+    <t>Grouting</t>
+  </si>
+  <si>
+    <t>Grouting equipment removal</t>
+  </si>
+  <si>
+    <t>Guiding template positioning + seafloor preparation equipment preparation</t>
+  </si>
+  <si>
+    <t>Seafloor preparation + support structure positioning and equipment preparation</t>
+  </si>
+  <si>
+    <t>Driven pile foundation or anchor seafloor penetration through drilling rig + positioning</t>
+  </si>
+  <si>
+    <t>Driven pile foundation or anchor seafloor penetration through hammering + positioning</t>
+  </si>
+  <si>
+    <t>Driven pile foundation or anchor seafloor penetration through vibro-driving + positioning</t>
+  </si>
+  <si>
+    <t>Gravity based foundation or anchor lowering</t>
+  </si>
+  <si>
+    <t>Lowering mooring lines + Drag-embedment anchor seafloor penetration + Tensioning</t>
+  </si>
+  <si>
+    <t>Lowering mooring lines + Connecting end of mooring line to pre-installed pile + Tensioning</t>
+  </si>
+  <si>
+    <t>Lowering anchors with mooring lines + Direct-embedment anchor seafloor penetration through suction-embedment + Tensioning</t>
+  </si>
+  <si>
+    <t>Lowering anchors with mooring lines + Direct-embedment anchor seafloor penetration through jetting-embedment + Tensioning</t>
+  </si>
+  <si>
+    <t>Lowering anchors with mooring lines + Direct-embedment anchor seafloor penetration through mechanical-embedment + Tensioning</t>
   </si>
 </sst>
 </file>
@@ -3162,11 +3342,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5242,6 +5422,62 @@
       <c r="G119" s="30"/>
       <c r="H119" s="30"/>
     </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>810</v>
+      </c>
+      <c r="D120" s="47" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="C121" s="47" t="s">
+        <v>838</v>
+      </c>
+      <c r="D121" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="C122" s="47" t="s">
+        <v>842</v>
+      </c>
+      <c r="D122" s="47" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="B123" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="D123" s="47" t="s">
+        <v>845</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H119">
     <sortState ref="A2:H119">
@@ -5261,11 +5497,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AE47"/>
+  <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A47" sqref="A47"/>
+      <selection pane="topRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7126,6 +7362,50 @@
         <v>808</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>849</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE1">
     <sortState ref="A2:AE44">
@@ -7142,10 +7422,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:CK102"/>
+  <dimension ref="A1:CK106"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD72"/>
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10296,6 +10576,38 @@
         <v>110</v>
       </c>
     </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE1"/>
   <sortState ref="A1:Z58">
@@ -10311,10 +10623,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:CK86"/>
+  <dimension ref="A1:CK90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12461,6 +12773,38 @@
         <v>809</v>
       </c>
     </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A87" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE1">
     <sortState ref="A2:AE84">
@@ -12477,10 +12821,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14241,6 +14585,62 @@
         <v>799</v>
       </c>
     </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B40" t="s">
+        <v>814</v>
+      </c>
+      <c r="C40" t="s">
+        <v>816</v>
+      </c>
+      <c r="D40" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="B41" t="s">
+        <v>850</v>
+      </c>
+      <c r="C41" t="s">
+        <v>816</v>
+      </c>
+      <c r="D41" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="B42" t="s">
+        <v>851</v>
+      </c>
+      <c r="C42" t="s">
+        <v>816</v>
+      </c>
+      <c r="D42" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="B43" t="s">
+        <v>852</v>
+      </c>
+      <c r="C43" t="s">
+        <v>816</v>
+      </c>
+      <c r="D43" t="s">
+        <v>855</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:BX38">
     <sortState ref="A2:BX26">
@@ -14257,10 +14657,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14597,7 +14997,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>460</v>
       </c>
@@ -14611,7 +15011,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>467</v>
       </c>
@@ -14625,7 +15025,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>468</v>
       </c>
@@ -14639,7 +15039,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>463</v>
       </c>
@@ -14653,7 +15053,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>470</v>
       </c>
@@ -14667,7 +15067,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>457</v>
       </c>
@@ -14681,7 +15081,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>462</v>
       </c>
@@ -14695,7 +15095,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>561</v>
       </c>
@@ -14706,7 +15106,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>554</v>
       </c>
@@ -14726,7 +15126,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>555</v>
       </c>
@@ -14737,7 +15137,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>557</v>
       </c>
@@ -14748,7 +15148,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>559</v>
       </c>
@@ -14786,7 +15186,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>560</v>
       </c>
@@ -14798,6 +15198,386 @@
       </c>
       <c r="D29" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B30" t="s">
+        <v>818</v>
+      </c>
+      <c r="C30" t="s">
+        <v>819</v>
+      </c>
+      <c r="D30" t="s">
+        <v>820</v>
+      </c>
+      <c r="E30" t="s">
+        <v>821</v>
+      </c>
+      <c r="F30" t="s">
+        <v>822</v>
+      </c>
+      <c r="G30" t="s">
+        <v>823</v>
+      </c>
+      <c r="H30" t="s">
+        <v>824</v>
+      </c>
+      <c r="I30" t="s">
+        <v>825</v>
+      </c>
+      <c r="J30" t="s">
+        <v>826</v>
+      </c>
+      <c r="K30" t="s">
+        <v>827</v>
+      </c>
+      <c r="L30" t="s">
+        <v>828</v>
+      </c>
+      <c r="M30" t="s">
+        <v>829</v>
+      </c>
+      <c r="N30" t="s">
+        <v>830</v>
+      </c>
+      <c r="O30" t="s">
+        <v>831</v>
+      </c>
+      <c r="P30" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>833</v>
+      </c>
+      <c r="R30" t="s">
+        <v>834</v>
+      </c>
+      <c r="S30" t="s">
+        <v>835</v>
+      </c>
+      <c r="T30" t="s">
+        <v>836</v>
+      </c>
+      <c r="U30" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="B31" t="s">
+        <v>856</v>
+      </c>
+      <c r="C31" t="s">
+        <v>857</v>
+      </c>
+      <c r="D31" t="s">
+        <v>858</v>
+      </c>
+      <c r="E31" t="s">
+        <v>818</v>
+      </c>
+      <c r="F31" t="s">
+        <v>819</v>
+      </c>
+      <c r="G31" t="s">
+        <v>820</v>
+      </c>
+      <c r="H31" t="s">
+        <v>821</v>
+      </c>
+      <c r="I31" t="s">
+        <v>822</v>
+      </c>
+      <c r="J31" t="s">
+        <v>823</v>
+      </c>
+      <c r="K31" t="s">
+        <v>824</v>
+      </c>
+      <c r="L31" t="s">
+        <v>825</v>
+      </c>
+      <c r="M31" t="s">
+        <v>826</v>
+      </c>
+      <c r="N31" t="s">
+        <v>827</v>
+      </c>
+      <c r="O31" t="s">
+        <v>828</v>
+      </c>
+      <c r="P31" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>830</v>
+      </c>
+      <c r="R31" t="s">
+        <v>831</v>
+      </c>
+      <c r="S31" t="s">
+        <v>832</v>
+      </c>
+      <c r="T31" t="s">
+        <v>833</v>
+      </c>
+      <c r="U31" t="s">
+        <v>834</v>
+      </c>
+      <c r="V31" t="s">
+        <v>835</v>
+      </c>
+      <c r="W31" t="s">
+        <v>836</v>
+      </c>
+      <c r="X31" t="s">
+        <v>837</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>859</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>860</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>861</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>862</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>863</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>864</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>865</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>866</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>867</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>868</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="B32" t="s">
+        <v>856</v>
+      </c>
+      <c r="C32" t="s">
+        <v>857</v>
+      </c>
+      <c r="D32" t="s">
+        <v>858</v>
+      </c>
+      <c r="E32" t="s">
+        <v>818</v>
+      </c>
+      <c r="F32" t="s">
+        <v>819</v>
+      </c>
+      <c r="G32" t="s">
+        <v>820</v>
+      </c>
+      <c r="H32" t="s">
+        <v>821</v>
+      </c>
+      <c r="I32" t="s">
+        <v>822</v>
+      </c>
+      <c r="J32" t="s">
+        <v>823</v>
+      </c>
+      <c r="K32" t="s">
+        <v>824</v>
+      </c>
+      <c r="L32" t="s">
+        <v>825</v>
+      </c>
+      <c r="M32" t="s">
+        <v>826</v>
+      </c>
+      <c r="N32" t="s">
+        <v>827</v>
+      </c>
+      <c r="O32" t="s">
+        <v>828</v>
+      </c>
+      <c r="P32" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>830</v>
+      </c>
+      <c r="R32" t="s">
+        <v>831</v>
+      </c>
+      <c r="S32" t="s">
+        <v>832</v>
+      </c>
+      <c r="T32" t="s">
+        <v>833</v>
+      </c>
+      <c r="U32" t="s">
+        <v>834</v>
+      </c>
+      <c r="V32" t="s">
+        <v>835</v>
+      </c>
+      <c r="W32" t="s">
+        <v>836</v>
+      </c>
+      <c r="X32" t="s">
+        <v>837</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>859</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>860</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>861</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>862</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>863</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>864</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>865</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>866</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>867</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>868</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="B33" t="s">
+        <v>856</v>
+      </c>
+      <c r="C33" t="s">
+        <v>857</v>
+      </c>
+      <c r="D33" t="s">
+        <v>858</v>
+      </c>
+      <c r="E33" t="s">
+        <v>818</v>
+      </c>
+      <c r="F33" t="s">
+        <v>819</v>
+      </c>
+      <c r="G33" t="s">
+        <v>820</v>
+      </c>
+      <c r="H33" t="s">
+        <v>821</v>
+      </c>
+      <c r="I33" t="s">
+        <v>822</v>
+      </c>
+      <c r="J33" t="s">
+        <v>823</v>
+      </c>
+      <c r="K33" t="s">
+        <v>824</v>
+      </c>
+      <c r="L33" t="s">
+        <v>825</v>
+      </c>
+      <c r="M33" t="s">
+        <v>826</v>
+      </c>
+      <c r="N33" t="s">
+        <v>829</v>
+      </c>
+      <c r="O33" t="s">
+        <v>830</v>
+      </c>
+      <c r="P33" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>832</v>
+      </c>
+      <c r="R33" t="s">
+        <v>833</v>
+      </c>
+      <c r="S33" t="s">
+        <v>834</v>
+      </c>
+      <c r="T33" t="s">
+        <v>835</v>
+      </c>
+      <c r="U33" t="s">
+        <v>836</v>
+      </c>
+      <c r="V33" t="s">
+        <v>837</v>
+      </c>
+      <c r="W33" t="s">
+        <v>859</v>
+      </c>
+      <c r="X33" t="s">
+        <v>860</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>861</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>862</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>863</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>864</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>865</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>867</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>868</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="842">
   <si>
     <t>Identifier</t>
   </si>
@@ -1318,9 +1318,6 @@
     <t>Dimensions and assembly data for the device Control System.</t>
   </si>
   <si>
-    <t>Dimensions and assembly data for three device subsystems: Prime Mover, PTO and Support Structure. The control system is defined by Device Control System Installation Specification.</t>
-  </si>
-  <si>
     <t>Installation contingency percentage; applied on top of the total installation costs.</t>
   </si>
   <si>
@@ -1342,12 +1339,6 @@
     <t>Cost information for the installation of the electrical network. Cost components are assigned to the following categories: Equipment, Port and Vessel.</t>
   </si>
   <si>
-    <t>Cost information breakdown displaying the total cost associated with installing individual subsystems of the electrical network.</t>
-  </si>
-  <si>
-    <t>Cost information breakdown displaying the total cost associated with installing individual subsystems of the moorings and foundations.</t>
-  </si>
-  <si>
     <t>Cost information breakdown displaying the contribution of the equipment, port and vessel costs to the total cost of installing the electrical network.</t>
   </si>
   <si>
@@ -1357,24 +1348,6 @@
     <t>Cost information breakdown displaying the contribution of the equipment, port and vessel costs to the total cost of installing the moorings and foundations.</t>
   </si>
   <si>
-    <t>Time information breakdown displaying the total time associated with installing individual subsystems of the electrical network.</t>
-  </si>
-  <si>
-    <t>Time information breakdown displaying the total time associated with installing individual subsystems of the devices.</t>
-  </si>
-  <si>
-    <t>Time information breakdown displaying the total time associated with installing individual subsystems of the moorings and foundations.</t>
-  </si>
-  <si>
-    <t>Information on the installation time of installing individual subsystems of the devices. Time is divided into the following components: Preparation, Operations, Transit and Waiting.</t>
-  </si>
-  <si>
-    <t>Information on the installation time of installing individual subsystems of the electrical network. Time is divided into the following components: Preparation, Operations, Transit and Waiting.</t>
-  </si>
-  <si>
-    <t>Information on the installation time of installing individual subsystems of the moorings and foundations. Time is divided into the following components: Preparation, Operations, Transit and Waiting.</t>
-  </si>
-  <si>
     <t>Information on the total installation time of installing devices. Time is divided into the following components: Preparation, Operations, Transit and Waiting.</t>
   </si>
   <si>
@@ -2560,7 +2533,31 @@
     <t>UTM x</t>
   </si>
   <si>
-    <t>UTM y</t>
+    <t>Dimensions and assembly data for three device sub-systems: Prime Mover, PTO and Support Structure. The control system is defined by Device Control System Installation Specification.</t>
+  </si>
+  <si>
+    <t>Time information breakdown displaying the total time associated with installing individual sub-systems of the devices.</t>
+  </si>
+  <si>
+    <t>Information on the installation time of installing individual sub-systems of the devices. Time is divided into the following components: Preparation, Operations, Transit and Waiting.</t>
+  </si>
+  <si>
+    <t>Cost information breakdown displaying the total cost associated with installing individual sub-systems of the electrical network.</t>
+  </si>
+  <si>
+    <t>Time information breakdown displaying the total time associated with installing individual sub-systems of the electrical network.</t>
+  </si>
+  <si>
+    <t>Information on the installation time of installing individual sub-systems of the electrical network. Time is divided into the following components: Preparation, Operations, Transit and Waiting.</t>
+  </si>
+  <si>
+    <t>Cost information breakdown displaying the total cost associated with installing individual sub-systems of the moorings and foundations.</t>
+  </si>
+  <si>
+    <t>Time information breakdown displaying the total time associated with installing individual sub-systems of the moorings and foundations.</t>
+  </si>
+  <si>
+    <t>Information on the installation time of installing individual sub-systems of the moorings and foundations. Time is divided into the following components: Preparation, Operations, Transit and Waiting.</t>
   </si>
 </sst>
 </file>
@@ -3311,10 +3308,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>136</v>
@@ -3460,7 +3457,7 @@
         <v>298</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -3541,16 +3538,16 @@
     </row>
     <row r="14" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -3559,16 +3556,16 @@
     </row>
     <row r="15" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -3577,16 +3574,16 @@
     </row>
     <row r="16" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -3595,16 +3592,16 @@
     </row>
     <row r="17" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -3613,16 +3610,16 @@
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -3631,16 +3628,16 @@
     </row>
     <row r="19" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -3649,16 +3646,16 @@
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -3667,16 +3664,16 @@
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -3685,16 +3682,16 @@
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -3703,16 +3700,16 @@
     </row>
     <row r="23" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -3721,16 +3718,16 @@
     </row>
     <row r="24" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -3739,16 +3736,16 @@
     </row>
     <row r="25" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -3757,16 +3754,16 @@
     </row>
     <row r="26" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -3796,7 +3793,7 @@
         <v>158</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>416</v>
@@ -3805,7 +3802,7 @@
         <v>385</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3813,7 +3810,7 @@
         <v>163</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>419</v>
@@ -3822,7 +3819,7 @@
         <v>415</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3830,21 +3827,21 @@
         <v>161</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>383</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>170</v>
@@ -3858,7 +3855,7 @@
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="32" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="H31" s="23"/>
     </row>
@@ -3867,16 +3864,16 @@
         <v>162</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>384</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -3884,7 +3881,7 @@
         <v>159</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>417</v>
@@ -3893,26 +3890,26 @@
         <v>413</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>170</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>428</v>
+        <v>833</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="32" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="H34" s="23"/>
     </row>
@@ -3921,7 +3918,7 @@
         <v>160</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>418</v>
@@ -3930,26 +3927,26 @@
         <v>414</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="H36" s="32"/>
     </row>
@@ -3984,7 +3981,7 @@
         <v>391</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
@@ -4035,7 +4032,7 @@
     </row>
     <row r="41" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>173</v>
@@ -4071,7 +4068,7 @@
     </row>
     <row r="43" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>128</v>
@@ -4098,7 +4095,7 @@
         <v>420</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
@@ -4107,7 +4104,7 @@
     </row>
     <row r="45" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>180</v>
@@ -4116,7 +4113,7 @@
         <v>307</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -4127,7 +4124,7 @@
     </row>
     <row r="46" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>180</v>
@@ -4136,7 +4133,7 @@
         <v>306</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -4147,7 +4144,7 @@
     </row>
     <row r="47" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>173</v>
@@ -4156,7 +4153,7 @@
         <v>301</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -4167,7 +4164,7 @@
     </row>
     <row r="48" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>180</v>
@@ -4176,7 +4173,7 @@
         <v>309</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>442</v>
+        <v>834</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -4187,7 +4184,7 @@
     </row>
     <row r="49" spans="1:8" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="51" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>173</v>
@@ -4196,7 +4193,7 @@
         <v>308</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>444</v>
+        <v>835</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -4207,7 +4204,7 @@
     </row>
     <row r="50" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>180</v>
@@ -4216,7 +4213,7 @@
         <v>310</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>334</v>
@@ -4224,7 +4221,7 @@
     </row>
     <row r="51" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>173</v>
@@ -4242,7 +4239,7 @@
     </row>
     <row r="52" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>180</v>
@@ -4251,7 +4248,7 @@
         <v>317</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>334</v>
@@ -4259,7 +4256,7 @@
     </row>
     <row r="53" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>180</v>
@@ -4268,7 +4265,7 @@
         <v>316</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>436</v>
+        <v>836</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>334</v>
@@ -4276,7 +4273,7 @@
     </row>
     <row r="54" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>173</v>
@@ -4285,7 +4282,7 @@
         <v>315</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H54" s="26" t="s">
         <v>334</v>
@@ -4293,7 +4290,7 @@
     </row>
     <row r="55" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>180</v>
@@ -4302,7 +4299,7 @@
         <v>319</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>441</v>
+        <v>837</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>334</v>
@@ -4310,7 +4307,7 @@
     </row>
     <row r="56" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>173</v>
@@ -4319,7 +4316,7 @@
         <v>318</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>445</v>
+        <v>838</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>334</v>
@@ -4327,7 +4324,7 @@
     </row>
     <row r="57" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B57" s="26" t="s">
         <v>180</v>
@@ -4336,7 +4333,7 @@
         <v>320</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>334</v>
@@ -4344,7 +4341,7 @@
     </row>
     <row r="58" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>128</v>
@@ -4362,7 +4359,7 @@
     </row>
     <row r="59" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>128</v>
@@ -4380,7 +4377,7 @@
     </row>
     <row r="60" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>173</v>
@@ -4398,156 +4395,156 @@
     </row>
     <row r="61" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
@@ -4556,16 +4553,16 @@
     </row>
     <row r="72" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
@@ -4574,30 +4571,30 @@
     </row>
     <row r="73" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -4620,7 +4617,7 @@
     </row>
     <row r="76" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>180</v>
@@ -4629,7 +4626,7 @@
         <v>328</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H76" s="26" t="s">
         <v>334</v>
@@ -4637,7 +4634,7 @@
     </row>
     <row r="77" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B77" s="33" t="s">
         <v>333</v>
@@ -4646,7 +4643,7 @@
         <v>339</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E77" s="33"/>
       <c r="F77" s="33"/>
@@ -4657,7 +4654,7 @@
     </row>
     <row r="78" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>128</v>
@@ -4674,7 +4671,7 @@
     </row>
     <row r="79" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>180</v>
@@ -4683,7 +4680,7 @@
         <v>327</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="H79" s="26" t="s">
         <v>334</v>
@@ -4691,7 +4688,7 @@
     </row>
     <row r="80" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>180</v>
@@ -4700,7 +4697,7 @@
         <v>329</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="H80" s="26" t="s">
         <v>334</v>
@@ -4708,21 +4705,21 @@
     </row>
     <row r="81" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>180</v>
@@ -4731,7 +4728,7 @@
         <v>330</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="H82" s="26" t="s">
         <v>334</v>
@@ -4739,7 +4736,7 @@
     </row>
     <row r="83" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B83" s="26" t="s">
         <v>128</v>
@@ -4756,7 +4753,7 @@
     </row>
     <row r="84" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="30" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B84" s="30" t="s">
         <v>128</v>
@@ -4774,7 +4771,7 @@
     </row>
     <row r="85" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="27" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B85" s="28" t="s">
         <v>175</v>
@@ -4792,7 +4789,7 @@
     </row>
     <row r="86" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B86" s="28" t="s">
         <v>128</v>
@@ -4810,7 +4807,7 @@
     </row>
     <row r="87" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B87" s="26" t="s">
         <v>180</v>
@@ -4819,7 +4816,7 @@
         <v>323</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H87" s="26" t="s">
         <v>334</v>
@@ -4827,7 +4824,7 @@
     </row>
     <row r="88" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B88" s="26" t="s">
         <v>180</v>
@@ -4836,7 +4833,7 @@
         <v>322</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>437</v>
+        <v>839</v>
       </c>
       <c r="H88" s="26" t="s">
         <v>334</v>
@@ -4844,7 +4841,7 @@
     </row>
     <row r="89" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B89" s="26" t="s">
         <v>173</v>
@@ -4853,7 +4850,7 @@
         <v>321</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H89" s="26" t="s">
         <v>334</v>
@@ -4861,7 +4858,7 @@
     </row>
     <row r="90" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="51" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B90" s="26" t="s">
         <v>180</v>
@@ -4870,7 +4867,7 @@
         <v>325</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>443</v>
+        <v>840</v>
       </c>
       <c r="H90" s="26" t="s">
         <v>334</v>
@@ -4878,7 +4875,7 @@
     </row>
     <row r="91" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B91" s="26" t="s">
         <v>173</v>
@@ -4887,7 +4884,7 @@
         <v>324</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>446</v>
+        <v>841</v>
       </c>
       <c r="H91" s="26" t="s">
         <v>334</v>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="92" spans="1:8" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B92" s="26" t="s">
         <v>180</v>
@@ -4904,7 +4901,7 @@
         <v>326</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="H92" s="26" t="s">
         <v>334</v>
@@ -4912,7 +4909,7 @@
     </row>
     <row r="93" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B93" s="26" t="s">
         <v>128</v>
@@ -4929,7 +4926,7 @@
     </row>
     <row r="94" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B94" s="26" t="s">
         <v>128</v>
@@ -4964,7 +4961,7 @@
     </row>
     <row r="96" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B96" s="28" t="s">
         <v>173</v>
@@ -4982,7 +4979,7 @@
     </row>
     <row r="97" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>173</v>
@@ -5000,7 +4997,7 @@
     </row>
     <row r="98" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="27" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>128</v>
@@ -5018,7 +5015,7 @@
     </row>
     <row r="99" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="27" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>173</v>
@@ -5054,7 +5051,7 @@
     </row>
     <row r="101" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="27" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B101" s="28" t="s">
         <v>128</v>
@@ -5072,7 +5069,7 @@
     </row>
     <row r="102" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B102" s="26" t="s">
         <v>128</v>
@@ -5081,7 +5078,7 @@
         <v>331</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="H102" s="26" t="s">
         <v>334</v>
@@ -5089,7 +5086,7 @@
     </row>
     <row r="103" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B103" s="26" t="s">
         <v>128</v>
@@ -5098,7 +5095,7 @@
         <v>179</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
@@ -5109,7 +5106,7 @@
     </row>
     <row r="104" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="27" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B104" s="28" t="s">
         <v>173</v>
@@ -5124,7 +5121,7 @@
     </row>
     <row r="105" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="27" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B105" s="28" t="s">
         <v>173</v>
@@ -5142,58 +5139,58 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="14" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="D106" s="46" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="14" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C107" s="46" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D107" s="46" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="14" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C108" s="46" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D108" s="46" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="14" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C109" s="46" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="D109" s="46" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -5219,7 +5216,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C52" sqref="C52"/>
+      <selection pane="topRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5408,46 +5405,46 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H2" t="s">
+        <v>586</v>
+      </c>
+      <c r="I2" t="s">
+        <v>587</v>
+      </c>
+      <c r="J2" t="s">
+        <v>588</v>
+      </c>
+      <c r="K2" t="s">
+        <v>589</v>
+      </c>
+      <c r="L2" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" t="s">
+        <v>591</v>
+      </c>
+      <c r="N2" t="s">
+        <v>592</v>
+      </c>
+      <c r="O2" t="s">
+        <v>593</v>
+      </c>
+      <c r="P2" t="s">
         <v>594</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
+        <v>596</v>
+      </c>
+      <c r="R2" t="s">
+        <v>608</v>
+      </c>
+      <c r="S2" t="s">
+        <v>597</v>
+      </c>
+      <c r="T2" t="s">
         <v>595</v>
-      </c>
-      <c r="I2" t="s">
-        <v>596</v>
-      </c>
-      <c r="J2" t="s">
-        <v>597</v>
-      </c>
-      <c r="K2" t="s">
-        <v>598</v>
-      </c>
-      <c r="L2" t="s">
-        <v>599</v>
-      </c>
-      <c r="M2" t="s">
-        <v>600</v>
-      </c>
-      <c r="N2" t="s">
-        <v>601</v>
-      </c>
-      <c r="O2" t="s">
-        <v>602</v>
-      </c>
-      <c r="P2" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>605</v>
-      </c>
-      <c r="R2" t="s">
-        <v>617</v>
-      </c>
-      <c r="S2" t="s">
-        <v>606</v>
-      </c>
-      <c r="T2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -5458,16 +5455,16 @@
         <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="E3" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
@@ -5487,25 +5484,25 @@
         <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="G4" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="H4" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="I4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="J4" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="K4" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="L4" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
@@ -5569,13 +5566,13 @@
         <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G6" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="H6" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -5593,25 +5590,25 @@
         <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="G7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="H7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="I7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="J7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="K7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -5628,7 +5625,7 @@
         <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F8" t="s">
         <v>174</v>
@@ -5648,31 +5645,31 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E9" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="F9" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="G9" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="H9" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="I9" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="J9" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="K9" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="L9" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
@@ -5703,7 +5700,7 @@
         <v>135</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D11" t="s">
         <v>133</v>
@@ -5718,34 +5715,34 @@
         <v>174</v>
       </c>
       <c r="H11" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="I11" t="s">
         <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="K11" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L11" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="M11" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="N11" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="O11" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="P11" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="Q11" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
@@ -5764,13 +5761,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B13" t="s">
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D13" t="s">
         <v>131</v>
@@ -5779,57 +5776,57 @@
         <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G13" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="H13" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I13" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="J13" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="K13" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="L13" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="M13" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="N13" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="O13" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="P13" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="Q13" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="R13" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="S13" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D14" t="s">
         <v>131</v>
@@ -5838,78 +5835,78 @@
         <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="I14" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="J14" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="K14" t="s">
+        <v>706</v>
+      </c>
+      <c r="L14" t="s">
+        <v>707</v>
+      </c>
+      <c r="M14" t="s">
+        <v>708</v>
+      </c>
+      <c r="N14" t="s">
+        <v>659</v>
+      </c>
+      <c r="O14" t="s">
+        <v>665</v>
+      </c>
+      <c r="P14" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>660</v>
+      </c>
+      <c r="R14" t="s">
         <v>715</v>
       </c>
-      <c r="L14" t="s">
-        <v>716</v>
-      </c>
-      <c r="M14" t="s">
-        <v>717</v>
-      </c>
-      <c r="N14" t="s">
-        <v>668</v>
-      </c>
-      <c r="O14" t="s">
-        <v>674</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="S14" t="s">
+        <v>709</v>
+      </c>
+      <c r="T14" t="s">
+        <v>710</v>
+      </c>
+      <c r="U14" t="s">
+        <v>711</v>
+      </c>
+      <c r="V14" t="s">
+        <v>712</v>
+      </c>
+      <c r="W14" t="s">
+        <v>655</v>
+      </c>
+      <c r="X14" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z14" t="s">
         <v>713</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>669</v>
-      </c>
-      <c r="R14" t="s">
-        <v>724</v>
-      </c>
-      <c r="S14" t="s">
-        <v>718</v>
-      </c>
-      <c r="T14" t="s">
-        <v>719</v>
-      </c>
-      <c r="U14" t="s">
-        <v>720</v>
-      </c>
-      <c r="V14" t="s">
-        <v>721</v>
-      </c>
-      <c r="W14" t="s">
-        <v>664</v>
-      </c>
-      <c r="X14" t="s">
-        <v>663</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>732</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B15" t="s">
         <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D15" t="s">
         <v>131</v>
@@ -5918,66 +5915,66 @@
         <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G15" t="s">
         <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I15" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J15" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K15" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="L15" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="M15" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="N15" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="O15" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="P15" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="Q15" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="R15" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="S15" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="T15" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="U15" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="V15" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B16" t="s">
         <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -5986,78 +5983,78 @@
         <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G16" t="s">
         <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I16" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J16" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K16" t="s">
+        <v>707</v>
+      </c>
+      <c r="L16" t="s">
+        <v>708</v>
+      </c>
+      <c r="M16" t="s">
+        <v>642</v>
+      </c>
+      <c r="N16" t="s">
         <v>716</v>
       </c>
-      <c r="L16" t="s">
-        <v>717</v>
-      </c>
-      <c r="M16" t="s">
-        <v>651</v>
-      </c>
-      <c r="N16" t="s">
-        <v>725</v>
-      </c>
       <c r="O16" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="P16" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="Q16" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="R16" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="S16" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="T16" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="U16" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="V16" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="W16" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="X16" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="Y16" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="Z16" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D17" t="s">
         <v>131</v>
@@ -6066,81 +6063,81 @@
         <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G17" t="s">
         <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I17" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J17" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K17" t="s">
+        <v>707</v>
+      </c>
+      <c r="L17" t="s">
+        <v>708</v>
+      </c>
+      <c r="M17" t="s">
+        <v>659</v>
+      </c>
+      <c r="N17" t="s">
+        <v>642</v>
+      </c>
+      <c r="O17" t="s">
         <v>716</v>
       </c>
-      <c r="L17" t="s">
-        <v>717</v>
-      </c>
-      <c r="M17" t="s">
-        <v>668</v>
-      </c>
-      <c r="N17" t="s">
-        <v>651</v>
-      </c>
-      <c r="O17" t="s">
-        <v>725</v>
-      </c>
       <c r="P17" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="Q17" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="R17" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="S17" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="T17" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="U17" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="V17" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="W17" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="X17" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="Y17" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="Z17" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="AA17" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B18" t="s">
         <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D18" t="s">
         <v>131</v>
@@ -6149,66 +6146,66 @@
         <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G18" t="s">
         <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I18" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J18" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K18" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="L18" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="M18" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="N18" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="O18" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="P18" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="Q18" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="R18" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="S18" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="T18" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="U18" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="V18" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B19" t="s">
         <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
@@ -6217,66 +6214,66 @@
         <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G19" t="s">
         <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I19" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J19" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K19" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="L19" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="M19" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="N19" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="O19" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="P19" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="Q19" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="R19" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="S19" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="T19" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="U19" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="V19" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B20" t="s">
         <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -6285,66 +6282,66 @@
         <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G20" t="s">
         <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I20" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J20" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K20" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="L20" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="M20" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="N20" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="O20" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="P20" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="Q20" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="R20" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="S20" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="T20" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="U20" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="V20" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B21" t="s">
         <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D21" t="s">
         <v>131</v>
@@ -6353,66 +6350,66 @@
         <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G21" t="s">
         <v>143</v>
       </c>
       <c r="H21" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I21" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J21" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K21" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="L21" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="M21" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="N21" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="O21" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="P21" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="Q21" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="R21" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="S21" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="T21" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="U21" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="V21" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B22" t="s">
         <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D22" t="s">
         <v>131</v>
@@ -6421,87 +6418,87 @@
         <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G22" t="s">
         <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I22" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J22" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K22" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="L22" t="s">
+        <v>708</v>
+      </c>
+      <c r="M22" t="s">
+        <v>663</v>
+      </c>
+      <c r="N22" t="s">
+        <v>660</v>
+      </c>
+      <c r="O22" t="s">
         <v>717</v>
       </c>
-      <c r="M22" t="s">
-        <v>672</v>
-      </c>
-      <c r="N22" t="s">
-        <v>669</v>
-      </c>
-      <c r="O22" t="s">
-        <v>726</v>
-      </c>
       <c r="P22" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="Q22" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="R22" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="S22" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="T22" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="U22" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="V22" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="W22" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="X22" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="Y22" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="Z22" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="AA22" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="AB22" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="AC22" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B23" t="s">
         <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D23" t="s">
         <v>131</v>
@@ -6510,87 +6507,87 @@
         <v>142</v>
       </c>
       <c r="F23" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G23" t="s">
         <v>143</v>
       </c>
       <c r="H23" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="I23" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="J23" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K23" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="L23" t="s">
+        <v>708</v>
+      </c>
+      <c r="M23" t="s">
+        <v>663</v>
+      </c>
+      <c r="N23" t="s">
+        <v>660</v>
+      </c>
+      <c r="O23" t="s">
         <v>717</v>
       </c>
-      <c r="M23" t="s">
-        <v>672</v>
-      </c>
-      <c r="N23" t="s">
-        <v>669</v>
-      </c>
-      <c r="O23" t="s">
-        <v>726</v>
-      </c>
       <c r="P23" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="Q23" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="R23" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="S23" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="T23" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="U23" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="V23" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="W23" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="X23" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="Y23" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="Z23" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="AA23" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="AB23" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="AC23" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B24" t="s">
         <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D24" t="s">
         <v>131</v>
@@ -6599,78 +6596,78 @@
         <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G24" t="s">
         <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="I24" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="J24" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="K24" t="s">
+        <v>706</v>
+      </c>
+      <c r="L24" t="s">
+        <v>707</v>
+      </c>
+      <c r="M24" t="s">
+        <v>708</v>
+      </c>
+      <c r="N24" t="s">
+        <v>659</v>
+      </c>
+      <c r="O24" t="s">
+        <v>665</v>
+      </c>
+      <c r="P24" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>660</v>
+      </c>
+      <c r="R24" t="s">
         <v>715</v>
       </c>
-      <c r="L24" t="s">
-        <v>716</v>
-      </c>
-      <c r="M24" t="s">
-        <v>717</v>
-      </c>
-      <c r="N24" t="s">
-        <v>668</v>
-      </c>
-      <c r="O24" t="s">
-        <v>674</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="S24" t="s">
+        <v>709</v>
+      </c>
+      <c r="T24" t="s">
+        <v>710</v>
+      </c>
+      <c r="U24" t="s">
+        <v>711</v>
+      </c>
+      <c r="V24" t="s">
+        <v>712</v>
+      </c>
+      <c r="W24" t="s">
+        <v>655</v>
+      </c>
+      <c r="X24" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z24" t="s">
         <v>713</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>669</v>
-      </c>
-      <c r="R24" t="s">
-        <v>724</v>
-      </c>
-      <c r="S24" t="s">
-        <v>718</v>
-      </c>
-      <c r="T24" t="s">
-        <v>719</v>
-      </c>
-      <c r="U24" t="s">
-        <v>720</v>
-      </c>
-      <c r="V24" t="s">
-        <v>721</v>
-      </c>
-      <c r="W24" t="s">
-        <v>664</v>
-      </c>
-      <c r="X24" t="s">
-        <v>663</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>732</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B25" t="s">
         <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D25" t="s">
         <v>131</v>
@@ -6679,43 +6676,43 @@
         <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G25" t="s">
         <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="I25" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="J25" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="K25" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="L25" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="M25" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="N25" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="O25" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="P25" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="Q25" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="R25" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
@@ -6735,39 +6732,39 @@
         <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="G26" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="H26" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="I26" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="J26" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="K26" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L26" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="M26" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="N26" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B27" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C27" t="s">
         <v>131</v>
@@ -6782,24 +6779,24 @@
         <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H27" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="I27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="J27" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B28" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C28" t="s">
         <v>131</v>
@@ -6814,16 +6811,16 @@
         <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H28" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="I28" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="J28" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
@@ -6831,7 +6828,7 @@
         <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
@@ -6850,12 +6847,12 @@
         <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B32" t="s">
         <v>259</v>
@@ -6866,7 +6863,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B33" t="s">
         <v>314</v>
@@ -6883,7 +6880,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B34" t="s">
         <v>314</v>
@@ -6903,7 +6900,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B35" t="s">
         <v>259</v>
@@ -6914,7 +6911,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B36" t="s">
         <v>314</v>
@@ -6931,7 +6928,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B37" t="s">
         <v>314</v>
@@ -6951,7 +6948,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B38" t="s">
         <v>259</v>
@@ -6962,7 +6959,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B39" t="s">
         <v>335</v>
@@ -6979,7 +6976,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B40" t="s">
         <v>314</v>
@@ -6996,7 +6993,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B41" t="s">
         <v>314</v>
@@ -7016,7 +7013,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B42" t="s">
         <v>259</v>
@@ -7027,7 +7024,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B43" t="s">
         <v>259</v>
@@ -7038,7 +7035,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B44" t="s">
         <v>259</v>
@@ -7049,7 +7046,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B45" t="s">
         <v>259</v>
@@ -7060,7 +7057,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B46" t="s">
         <v>259</v>
@@ -7074,65 +7071,65 @@
         <v>296</v>
       </c>
       <c r="B47" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C47" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B48" t="s">
         <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B49" t="s">
         <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B50" t="s">
         <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B51" t="s">
         <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B52" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C52" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -7704,7 +7701,7 @@
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>109</v>
@@ -7819,7 +7816,7 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>109</v>
@@ -7948,7 +7945,7 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>109</v>
@@ -8077,7 +8074,7 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>109</v>
@@ -8198,7 +8195,7 @@
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>109</v>
@@ -8319,7 +8316,7 @@
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>109</v>
@@ -8440,7 +8437,7 @@
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>109</v>
@@ -8561,7 +8558,7 @@
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>109</v>
@@ -8682,7 +8679,7 @@
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>109</v>
@@ -8813,7 +8810,7 @@
     </row>
     <row r="22" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>109</v>
@@ -8947,7 +8944,7 @@
     </row>
     <row r="23" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>109</v>
@@ -9082,7 +9079,7 @@
     </row>
     <row r="24" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>109</v>
@@ -9217,7 +9214,7 @@
     </row>
     <row r="25" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>109</v>
@@ -9399,7 +9396,7 @@
     </row>
     <row r="30" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>109</v>
@@ -9447,7 +9444,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>109</v>
@@ -9487,7 +9484,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>126</v>
@@ -9530,7 +9527,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>109</v>
@@ -9541,7 +9538,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>110</v>
@@ -9557,7 +9554,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>110</v>
@@ -9565,7 +9562,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>110</v>
@@ -9573,7 +9570,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>110</v>
@@ -9590,7 +9587,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>110</v>
@@ -9598,7 +9595,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>110</v>
@@ -9618,7 +9615,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>110</v>
@@ -9626,7 +9623,7 @@
     </row>
     <row r="49" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>109</v>
@@ -9637,7 +9634,7 @@
     </row>
     <row r="50" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>110</v>
@@ -9645,7 +9642,7 @@
     </row>
     <row r="51" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>110</v>
@@ -9653,7 +9650,7 @@
     </row>
     <row r="52" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>110</v>
@@ -9670,7 +9667,7 @@
     </row>
     <row r="53" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>110</v>
@@ -9678,7 +9675,7 @@
     </row>
     <row r="54" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>110</v>
@@ -9698,7 +9695,7 @@
     </row>
     <row r="55" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>110</v>
@@ -9706,7 +9703,7 @@
     </row>
     <row r="56" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>110</v>
@@ -9714,7 +9711,7 @@
     </row>
     <row r="57" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>110</v>
@@ -9722,7 +9719,7 @@
     </row>
     <row r="58" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>109</v>
@@ -9733,7 +9730,7 @@
     </row>
     <row r="59" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>110</v>
@@ -9741,7 +9738,7 @@
     </row>
     <row r="60" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B60" t="s">
         <v>109</v>
@@ -9842,7 +9839,7 @@
     </row>
     <row r="61" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>111</v>
@@ -9850,7 +9847,7 @@
     </row>
     <row r="62" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>110</v>
@@ -9858,7 +9855,7 @@
     </row>
     <row r="63" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>110</v>
@@ -9866,7 +9863,7 @@
     </row>
     <row r="64" spans="1:89" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>109</v>
@@ -9874,7 +9871,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>110</v>
@@ -9882,7 +9879,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>110</v>
@@ -9890,7 +9887,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>109</v>
@@ -9904,7 +9901,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>110</v>
@@ -9912,7 +9909,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>110</v>
@@ -9920,7 +9917,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>110</v>
@@ -9928,7 +9925,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>110</v>
@@ -9936,7 +9933,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>110</v>
@@ -9953,7 +9950,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>110</v>
@@ -9961,7 +9958,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>110</v>
@@ -9981,7 +9978,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>110</v>
@@ -9989,7 +9986,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>109</v>
@@ -9997,7 +9994,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>110</v>
@@ -10013,7 +10010,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>109</v>
@@ -10024,7 +10021,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>109</v>
@@ -10035,7 +10032,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>110</v>
@@ -10043,7 +10040,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>109</v>
@@ -10062,7 +10059,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>110</v>
@@ -10070,7 +10067,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>110</v>
@@ -10078,7 +10075,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>110</v>
@@ -10086,7 +10083,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>109</v>
@@ -10097,7 +10094,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>109</v>
@@ -10108,7 +10105,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="14" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>110</v>
@@ -10116,7 +10113,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="14" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>110</v>
@@ -10124,7 +10121,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="14" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>110</v>
@@ -10132,7 +10129,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>110</v>
@@ -10341,13 +10338,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -10377,7 +10374,7 @@
         <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="S2" t="s">
         <v>115</v>
@@ -10400,7 +10397,7 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F3" t="s">
         <v>115</v>
@@ -10420,7 +10417,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -10435,7 +10432,7 @@
         <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="K4" t="s">
         <v>115</v>
@@ -10458,7 +10455,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -10481,7 +10478,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -10496,7 +10493,7 @@
         <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="J6" t="s">
         <v>115</v>
@@ -10522,7 +10519,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G7" t="s">
         <v>305</v>
@@ -10548,7 +10545,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -10557,10 +10554,10 @@
         <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="K8" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -10580,7 +10577,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F9" t="s">
         <v>305</v>
@@ -10606,13 +10603,13 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="J10" t="s">
         <v>81</v>
@@ -10621,7 +10618,7 @@
         <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
@@ -10655,7 +10652,7 @@
     </row>
     <row r="12" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -10667,7 +10664,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -10676,13 +10673,13 @@
         <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="I12" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="J12" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="K12" t="s">
         <v>11</v>
@@ -10714,7 +10711,7 @@
     </row>
     <row r="13" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -10735,7 +10732,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -10744,22 +10741,22 @@
         <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="L13" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M13" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="N13" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="O13" t="s">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="Q13" t="s">
         <v>11</v>
@@ -10794,7 +10791,7 @@
     </row>
     <row r="14" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -10812,7 +10809,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -10821,13 +10818,13 @@
         <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K14" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L14" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M14" t="s">
         <v>11</v>
@@ -10862,7 +10859,7 @@
     </row>
     <row r="15" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -10880,7 +10877,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -10889,19 +10886,19 @@
         <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K15" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L15" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M15" t="s">
         <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="O15" t="s">
         <v>12</v>
@@ -10942,7 +10939,7 @@
     </row>
     <row r="16" spans="1:89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -10960,7 +10957,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -10969,22 +10966,22 @@
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K16" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L16" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M16" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="N16" t="s">
         <v>11</v>
       </c>
       <c r="O16" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="P16" t="s">
         <v>12</v>
@@ -11025,7 +11022,7 @@
     </row>
     <row r="17" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -11043,7 +11040,7 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -11052,13 +11049,13 @@
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K17" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L17" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M17" t="s">
         <v>11</v>
@@ -11093,7 +11090,7 @@
     </row>
     <row r="18" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -11111,7 +11108,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -11120,13 +11117,13 @@
         <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K18" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L18" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
@@ -11161,7 +11158,7 @@
     </row>
     <row r="19" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -11179,7 +11176,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -11188,13 +11185,13 @@
         <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K19" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L19" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M19" t="s">
         <v>11</v>
@@ -11229,7 +11226,7 @@
     </row>
     <row r="20" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -11247,7 +11244,7 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -11256,13 +11253,13 @@
         <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K20" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L20" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M20" t="s">
         <v>11</v>
@@ -11297,7 +11294,7 @@
     </row>
     <row r="21" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -11315,7 +11312,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -11324,13 +11321,13 @@
         <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K21" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L21" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M21" t="s">
         <v>11</v>
@@ -11345,7 +11342,7 @@
         <v>114</v>
       </c>
       <c r="Q21" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="R21" t="s">
         <v>12</v>
@@ -11386,7 +11383,7 @@
     </row>
     <row r="22" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -11404,7 +11401,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -11413,13 +11410,13 @@
         <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="K22" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L22" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M22" t="s">
         <v>11</v>
@@ -11434,7 +11431,7 @@
         <v>114</v>
       </c>
       <c r="Q22" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="R22" t="s">
         <v>12</v>
@@ -11475,7 +11472,7 @@
     </row>
     <row r="23" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -11493,10 +11490,10 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H23" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
@@ -11505,22 +11502,22 @@
         <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="L23" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M23" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="N23" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="O23" t="s">
         <v>12</v>
       </c>
       <c r="P23" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="Q23" t="s">
         <v>11</v>
@@ -11555,7 +11552,7 @@
     </row>
     <row r="24" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -11573,16 +11570,16 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="H24" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -11626,10 +11623,10 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G25" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="H25" t="s">
         <v>80</v>
@@ -11638,13 +11635,13 @@
         <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="K25" t="s">
         <v>91</v>
       </c>
       <c r="L25" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M25" t="s">
         <v>115</v>
@@ -11666,7 +11663,7 @@
         <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
@@ -11679,7 +11676,7 @@
     </row>
     <row r="29" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -11719,7 +11716,7 @@
     </row>
     <row r="31" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -11778,7 +11775,7 @@
     </row>
     <row r="35" spans="1:6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B35" t="s">
         <v>130</v>
@@ -11794,7 +11791,7 @@
     </row>
     <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B37" t="s">
         <v>305</v>
@@ -11802,7 +11799,7 @@
     </row>
     <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B38" t="s">
         <v>305</v>
@@ -11810,7 +11807,7 @@
     </row>
     <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -11827,7 +11824,7 @@
     </row>
     <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B40" t="s">
         <v>300</v>
@@ -11835,7 +11832,7 @@
     </row>
     <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -11855,7 +11852,7 @@
     </row>
     <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B42" t="s">
         <v>300</v>
@@ -11863,7 +11860,7 @@
     </row>
     <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B43" t="s">
         <v>305</v>
@@ -11871,7 +11868,7 @@
     </row>
     <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B44" t="s">
         <v>305</v>
@@ -11879,7 +11876,7 @@
     </row>
     <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -11896,7 +11893,7 @@
     </row>
     <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B46" t="s">
         <v>300</v>
@@ -11904,7 +11901,7 @@
     </row>
     <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -11924,7 +11921,7 @@
     </row>
     <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B48" t="s">
         <v>300</v>
@@ -11932,23 +11929,23 @@
     </row>
     <row r="49" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B49" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B50" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B51" t="s">
         <v>305</v>
@@ -11956,7 +11953,7 @@
     </row>
     <row r="52" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -11973,7 +11970,7 @@
     </row>
     <row r="53" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B53" t="s">
         <v>305</v>
@@ -11981,7 +11978,7 @@
     </row>
     <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B54" t="s">
         <v>300</v>
@@ -11989,7 +11986,7 @@
     </row>
     <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B55" t="s">
         <v>300</v>
@@ -11997,7 +11994,7 @@
     </row>
     <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
@@ -12005,7 +12002,7 @@
     </row>
     <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -12016,15 +12013,15 @@
     </row>
     <row r="58" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B58" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B59" t="s">
         <v>305</v>
@@ -12032,7 +12029,7 @@
     </row>
     <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B60" t="s">
         <v>305</v>
@@ -12040,7 +12037,7 @@
     </row>
     <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -12057,7 +12054,7 @@
     </row>
     <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B62" t="s">
         <v>300</v>
@@ -12065,7 +12062,7 @@
     </row>
     <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -12085,7 +12082,7 @@
     </row>
     <row r="64" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B64" t="s">
         <v>300</v>
@@ -12093,7 +12090,7 @@
     </row>
     <row r="65" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B65" t="s">
         <v>112</v>
@@ -12109,23 +12106,23 @@
     </row>
     <row r="67" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B67" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B68" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="69" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B69" t="s">
         <v>305</v>
@@ -12133,7 +12130,7 @@
     </row>
     <row r="70" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B70" t="s">
         <v>300</v>
@@ -12147,40 +12144,40 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="D71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="E71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="F71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="H71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="J71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="K71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="L71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="M71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="N71" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -12188,15 +12185,15 @@
         <v>296</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="14" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>12</v>
@@ -12204,7 +12201,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>12</v>
@@ -12212,7 +12209,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>12</v>
@@ -12220,7 +12217,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>12</v>
@@ -12348,10 +12345,10 @@
         <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D2" t="s">
         <v>192</v>
@@ -12363,7 +12360,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="H2" t="s">
         <v>196</v>
@@ -12396,13 +12393,13 @@
         <v>209</v>
       </c>
       <c r="R2" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="S2" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="T2" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="U2" t="s">
         <v>210</v>
@@ -12413,10 +12410,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C3" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D3" t="s">
         <v>196</v>
@@ -12425,7 +12422,7 @@
         <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G3" t="s">
         <v>200</v>
@@ -12436,10 +12433,10 @@
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D4" t="s">
         <v>211</v>
@@ -12448,7 +12445,7 @@
         <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="G4" t="s">
         <v>216</v>
@@ -12460,13 +12457,13 @@
         <v>214</v>
       </c>
       <c r="J4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="K4" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="L4" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="M4" t="s">
         <v>210</v>
@@ -12477,10 +12474,10 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C5" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D5" t="s">
         <v>192</v>
@@ -12489,13 +12486,13 @@
         <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="G5" t="s">
         <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="I5" t="s">
         <v>210</v>
@@ -12506,16 +12503,16 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D6" t="s">
         <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F6" t="s">
         <v>190</v>
@@ -12527,13 +12524,13 @@
         <v>213</v>
       </c>
       <c r="I6" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="J6" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="K6" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="L6" t="s">
         <v>210</v>
@@ -12544,10 +12541,10 @@
         <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D7" t="s">
         <v>192</v>
@@ -12556,13 +12553,13 @@
         <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="H7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -12570,13 +12567,13 @@
         <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C8" t="s">
         <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
@@ -12584,7 +12581,7 @@
         <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C9" t="s">
         <v>239</v>
@@ -12625,10 +12622,10 @@
         <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D10" t="s">
         <v>211</v>
@@ -12637,10 +12634,10 @@
         <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="G10" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
@@ -12648,13 +12645,13 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E11" t="s">
         <v>192</v>
@@ -12666,7 +12663,7 @@
         <v>193</v>
       </c>
       <c r="H11" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="I11" t="s">
         <v>190</v>
@@ -12678,19 +12675,19 @@
         <v>195</v>
       </c>
       <c r="L11" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="M11" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="N11" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="O11" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="P11" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="s">
         <v>198</v>
@@ -12704,27 +12701,27 @@
         <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C12" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D12" t="s">
         <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B13" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="C13" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D13" t="s">
         <v>217</v>
@@ -12742,13 +12739,13 @@
         <v>222</v>
       </c>
       <c r="I13" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="J13" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="K13" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="L13" t="s">
         <v>225</v>
@@ -12766,27 +12763,27 @@
         <v>229</v>
       </c>
       <c r="Q13" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="R13" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="S13" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="T13" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="B14" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C14" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D14" t="s">
         <v>217</v>
@@ -12813,22 +12810,22 @@
         <v>222</v>
       </c>
       <c r="L14" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="M14" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="N14" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="O14" t="s">
         <v>224</v>
       </c>
       <c r="P14" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="Q14" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="R14" t="s">
         <v>225</v>
@@ -12849,27 +12846,27 @@
         <v>229</v>
       </c>
       <c r="X14" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Y14" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="Z14" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="AA14" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B15" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C15" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D15" t="s">
         <v>217</v>
@@ -12896,22 +12893,22 @@
         <v>222</v>
       </c>
       <c r="L15" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="M15" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="N15" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="O15" t="s">
         <v>224</v>
       </c>
       <c r="P15" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="Q15" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="R15" t="s">
         <v>225</v>
@@ -12932,27 +12929,27 @@
         <v>229</v>
       </c>
       <c r="X15" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Y15" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="Z15" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="AA15" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B16" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C16" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D16" t="s">
         <v>217</v>
@@ -12976,16 +12973,16 @@
         <v>222</v>
       </c>
       <c r="K16" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="L16" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M16" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N16" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="O16" t="s">
         <v>225</v>
@@ -13003,27 +13000,27 @@
         <v>229</v>
       </c>
       <c r="T16" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="U16" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="V16" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="W16" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B17" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C17" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D17" t="s">
         <v>217</v>
@@ -13047,16 +13044,16 @@
         <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="L17" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M17" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N17" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="O17" t="s">
         <v>225</v>
@@ -13074,27 +13071,27 @@
         <v>229</v>
       </c>
       <c r="T17" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="U17" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="V17" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="W17" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B18" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C18" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D18" t="s">
         <v>217</v>
@@ -13118,16 +13115,16 @@
         <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="L18" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M18" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N18" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="O18" t="s">
         <v>225</v>
@@ -13145,27 +13142,27 @@
         <v>229</v>
       </c>
       <c r="T18" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="U18" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="V18" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="W18" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B19" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="C19" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D19" t="s">
         <v>217</v>
@@ -13189,16 +13186,16 @@
         <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="L19" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M19" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N19" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="O19" t="s">
         <v>225</v>
@@ -13216,27 +13213,27 @@
         <v>229</v>
       </c>
       <c r="T19" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="U19" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="V19" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="W19" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B20" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C20" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D20" t="s">
         <v>217</v>
@@ -13260,16 +13257,16 @@
         <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="L20" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M20" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N20" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="O20" t="s">
         <v>225</v>
@@ -13287,27 +13284,27 @@
         <v>229</v>
       </c>
       <c r="T20" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="U20" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="V20" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="W20" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B21" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="C21" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D21" t="s">
         <v>217</v>
@@ -13331,28 +13328,28 @@
         <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="L21" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M21" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N21" t="s">
         <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="P21" t="s">
         <v>236</v>
       </c>
       <c r="Q21" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="R21" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="S21" t="s">
         <v>225</v>
@@ -13370,27 +13367,27 @@
         <v>229</v>
       </c>
       <c r="X21" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Y21" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="Z21" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="AA21" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B22" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="C22" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D22" t="s">
         <v>217</v>
@@ -13414,13 +13411,13 @@
         <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="L22" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M22" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N22" t="s">
         <v>224</v>
@@ -13429,16 +13426,16 @@
         <v>235</v>
       </c>
       <c r="P22" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="Q22" t="s">
         <v>236</v>
       </c>
       <c r="R22" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="S22" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="T22" t="s">
         <v>225</v>
@@ -13456,27 +13453,27 @@
         <v>229</v>
       </c>
       <c r="Y22" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Z22" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="AA22" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="AB22" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B23" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="C23" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D23" t="s">
         <v>217</v>
@@ -13500,16 +13497,16 @@
         <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="L23" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M23" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N23" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="O23" t="s">
         <v>225</v>
@@ -13521,7 +13518,7 @@
         <v>238</v>
       </c>
       <c r="R23" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="S23" t="s">
         <v>231</v>
@@ -13548,27 +13545,27 @@
         <v>229</v>
       </c>
       <c r="AA23" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="AB23" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="AC23" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="AD23" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B24" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C24" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D24" t="s">
         <v>217</v>
@@ -13592,16 +13589,16 @@
         <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="L24" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M24" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="N24" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="O24" t="s">
         <v>225</v>
@@ -13613,7 +13610,7 @@
         <v>238</v>
       </c>
       <c r="R24" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="S24" t="s">
         <v>231</v>
@@ -13640,27 +13637,27 @@
         <v>229</v>
       </c>
       <c r="AA24" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="AB24" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="AC24" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="AD24" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B25" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C25" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D25" t="s">
         <v>217</v>
@@ -13699,16 +13696,16 @@
         <v>229</v>
       </c>
       <c r="P25" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Q25" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="R25" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="S25" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
@@ -13716,10 +13713,10 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D26" t="s">
         <v>192</v>
@@ -13731,10 +13728,10 @@
         <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="H26" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="I26" t="s">
         <v>212</v>
@@ -13743,16 +13740,16 @@
         <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="L26" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="M26" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="O26" t="s">
         <v>210</v>
@@ -13763,10 +13760,10 @@
         <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C27" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
@@ -13774,7 +13771,7 @@
         <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C28" t="s">
         <v>224</v>
@@ -13785,21 +13782,21 @@
         <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C29" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B30" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C30" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D30" t="s">
         <v>191</v>
@@ -13811,19 +13808,19 @@
         <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="H30" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="I30" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="J30" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="K30" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
@@ -13831,10 +13828,10 @@
         <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C31" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
@@ -13842,21 +13839,21 @@
         <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C32" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B33" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C33" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D33" t="s">
         <v>191</v>
@@ -13868,19 +13865,19 @@
         <v>193</v>
       </c>
       <c r="G33" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="H33" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="I33" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="J33" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="K33" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -13888,21 +13885,21 @@
         <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C34" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B35" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C35" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -13910,7 +13907,7 @@
         <v>166</v>
       </c>
       <c r="B36" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C36" t="s">
         <v>253</v>
@@ -13927,7 +13924,7 @@
         <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C37" t="s">
         <v>253</v>
@@ -13947,7 +13944,7 @@
         <v>167</v>
       </c>
       <c r="B38" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C38" t="s">
         <v>253</v>
@@ -13964,102 +13961,102 @@
         <v>127</v>
       </c>
       <c r="B39" t="s">
+        <v>735</v>
+      </c>
+      <c r="C39" t="s">
+        <v>736</v>
+      </c>
+      <c r="D39" t="s">
+        <v>737</v>
+      </c>
+      <c r="E39" t="s">
+        <v>738</v>
+      </c>
+      <c r="F39" t="s">
+        <v>739</v>
+      </c>
+      <c r="G39" t="s">
+        <v>740</v>
+      </c>
+      <c r="H39" t="s">
+        <v>741</v>
+      </c>
+      <c r="I39" t="s">
+        <v>742</v>
+      </c>
+      <c r="J39" t="s">
+        <v>743</v>
+      </c>
+      <c r="K39" t="s">
         <v>744</v>
       </c>
-      <c r="C39" t="s">
+      <c r="L39" t="s">
         <v>745</v>
       </c>
-      <c r="D39" t="s">
+      <c r="M39" t="s">
         <v>746</v>
       </c>
-      <c r="E39" t="s">
+      <c r="N39" t="s">
         <v>747</v>
       </c>
-      <c r="F39" t="s">
+      <c r="O39" t="s">
         <v>748</v>
-      </c>
-      <c r="G39" t="s">
-        <v>749</v>
-      </c>
-      <c r="H39" t="s">
-        <v>750</v>
-      </c>
-      <c r="I39" t="s">
-        <v>751</v>
-      </c>
-      <c r="J39" t="s">
-        <v>752</v>
-      </c>
-      <c r="K39" t="s">
-        <v>753</v>
-      </c>
-      <c r="L39" t="s">
-        <v>754</v>
-      </c>
-      <c r="M39" t="s">
-        <v>755</v>
-      </c>
-      <c r="N39" t="s">
-        <v>756</v>
-      </c>
-      <c r="O39" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B40" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C40" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D40" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B41" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="C41" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D41" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B42" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="C42" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D42" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="B43" t="s">
         <v>801</v>
       </c>
-      <c r="B43" t="s">
-        <v>810</v>
-      </c>
       <c r="C43" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D43" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -14125,19 +14122,19 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C2" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D2" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E2" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="F2" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -14148,7 +14145,7 @@
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B3" t="s">
         <v>349</v>
@@ -14196,7 +14193,7 @@
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B5" t="s">
         <v>346</v>
@@ -14246,7 +14243,7 @@
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
         <v>279</v>
@@ -14278,7 +14275,7 @@
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B8" t="s">
         <v>276</v>
@@ -14300,7 +14297,7 @@
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B9" t="s">
         <v>277</v>
@@ -14322,203 +14319,203 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C10" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D10" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C11" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D11" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B12" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C12" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D12" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B13" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C13" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D13" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B14" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C14" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D14" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C15" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D15" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C16" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D16" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C17" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D17" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C18" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D18" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C19" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D19" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C20" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D20" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B21" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C21" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D21" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B22" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C22" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D22" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B23" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C23" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D23" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B24" t="s">
         <v>294</v>
@@ -14529,7 +14526,7 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B25" t="s">
         <v>261</v>
@@ -14549,7 +14546,7 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B26" t="s">
         <v>274</v>
@@ -14560,7 +14557,7 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B27" t="s">
         <v>284</v>
@@ -14571,7 +14568,7 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B28" t="s">
         <v>263</v>
@@ -14609,7 +14606,7 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B29" t="s">
         <v>277</v>
@@ -14623,382 +14620,382 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="B30" t="s">
+        <v>767</v>
+      </c>
+      <c r="C30" t="s">
+        <v>768</v>
+      </c>
+      <c r="D30" t="s">
+        <v>769</v>
+      </c>
+      <c r="E30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F30" t="s">
+        <v>771</v>
+      </c>
+      <c r="G30" t="s">
+        <v>772</v>
+      </c>
+      <c r="H30" t="s">
         <v>773</v>
       </c>
-      <c r="B30" t="s">
+      <c r="I30" t="s">
+        <v>774</v>
+      </c>
+      <c r="J30" t="s">
+        <v>775</v>
+      </c>
+      <c r="K30" t="s">
         <v>776</v>
       </c>
-      <c r="C30" t="s">
+      <c r="L30" t="s">
         <v>777</v>
       </c>
-      <c r="D30" t="s">
+      <c r="M30" t="s">
         <v>778</v>
       </c>
-      <c r="E30" t="s">
+      <c r="N30" t="s">
         <v>779</v>
       </c>
-      <c r="F30" t="s">
+      <c r="O30" t="s">
         <v>780</v>
       </c>
-      <c r="G30" t="s">
+      <c r="P30" t="s">
         <v>781</v>
       </c>
-      <c r="H30" t="s">
+      <c r="Q30" t="s">
         <v>782</v>
       </c>
-      <c r="I30" t="s">
+      <c r="R30" t="s">
         <v>783</v>
       </c>
-      <c r="J30" t="s">
+      <c r="S30" t="s">
         <v>784</v>
       </c>
-      <c r="K30" t="s">
+      <c r="T30" t="s">
         <v>785</v>
       </c>
-      <c r="L30" t="s">
+      <c r="U30" t="s">
         <v>786</v>
-      </c>
-      <c r="M30" t="s">
-        <v>787</v>
-      </c>
-      <c r="N30" t="s">
-        <v>788</v>
-      </c>
-      <c r="O30" t="s">
-        <v>789</v>
-      </c>
-      <c r="P30" t="s">
-        <v>790</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>791</v>
-      </c>
-      <c r="R30" t="s">
-        <v>792</v>
-      </c>
-      <c r="S30" t="s">
-        <v>793</v>
-      </c>
-      <c r="T30" t="s">
-        <v>794</v>
-      </c>
-      <c r="U30" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B31" t="s">
+        <v>805</v>
+      </c>
+      <c r="C31" t="s">
+        <v>806</v>
+      </c>
+      <c r="D31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E31" t="s">
+        <v>767</v>
+      </c>
+      <c r="F31" t="s">
+        <v>768</v>
+      </c>
+      <c r="G31" t="s">
+        <v>769</v>
+      </c>
+      <c r="H31" t="s">
+        <v>770</v>
+      </c>
+      <c r="I31" t="s">
+        <v>771</v>
+      </c>
+      <c r="J31" t="s">
+        <v>772</v>
+      </c>
+      <c r="K31" t="s">
+        <v>773</v>
+      </c>
+      <c r="L31" t="s">
+        <v>774</v>
+      </c>
+      <c r="M31" t="s">
+        <v>775</v>
+      </c>
+      <c r="N31" t="s">
+        <v>776</v>
+      </c>
+      <c r="O31" t="s">
+        <v>777</v>
+      </c>
+      <c r="P31" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>779</v>
+      </c>
+      <c r="R31" t="s">
+        <v>780</v>
+      </c>
+      <c r="S31" t="s">
+        <v>781</v>
+      </c>
+      <c r="T31" t="s">
+        <v>782</v>
+      </c>
+      <c r="U31" t="s">
+        <v>783</v>
+      </c>
+      <c r="V31" t="s">
+        <v>784</v>
+      </c>
+      <c r="W31" t="s">
+        <v>785</v>
+      </c>
+      <c r="X31" t="s">
+        <v>786</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>808</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>809</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>810</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>811</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>812</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>813</v>
+      </c>
+      <c r="AE31" t="s">
         <v>814</v>
       </c>
-      <c r="C31" t="s">
+      <c r="AF31" t="s">
         <v>815</v>
       </c>
-      <c r="D31" t="s">
+      <c r="AG31" t="s">
         <v>816</v>
       </c>
-      <c r="E31" t="s">
-        <v>776</v>
-      </c>
-      <c r="F31" t="s">
-        <v>777</v>
-      </c>
-      <c r="G31" t="s">
-        <v>778</v>
-      </c>
-      <c r="H31" t="s">
-        <v>779</v>
-      </c>
-      <c r="I31" t="s">
-        <v>780</v>
-      </c>
-      <c r="J31" t="s">
-        <v>781</v>
-      </c>
-      <c r="K31" t="s">
-        <v>782</v>
-      </c>
-      <c r="L31" t="s">
-        <v>783</v>
-      </c>
-      <c r="M31" t="s">
-        <v>784</v>
-      </c>
-      <c r="N31" t="s">
-        <v>785</v>
-      </c>
-      <c r="O31" t="s">
-        <v>786</v>
-      </c>
-      <c r="P31" t="s">
-        <v>787</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>788</v>
-      </c>
-      <c r="R31" t="s">
-        <v>789</v>
-      </c>
-      <c r="S31" t="s">
-        <v>790</v>
-      </c>
-      <c r="T31" t="s">
-        <v>791</v>
-      </c>
-      <c r="U31" t="s">
-        <v>792</v>
-      </c>
-      <c r="V31" t="s">
-        <v>793</v>
-      </c>
-      <c r="W31" t="s">
-        <v>794</v>
-      </c>
-      <c r="X31" t="s">
-        <v>795</v>
-      </c>
-      <c r="Y31" t="s">
+      <c r="AH31" t="s">
         <v>817</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AI31" t="s">
         <v>818</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>819</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>820</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>821</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>822</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>823</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>824</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>825</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>826</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B32" t="s">
+        <v>805</v>
+      </c>
+      <c r="C32" t="s">
+        <v>806</v>
+      </c>
+      <c r="D32" t="s">
+        <v>807</v>
+      </c>
+      <c r="E32" t="s">
+        <v>767</v>
+      </c>
+      <c r="F32" t="s">
+        <v>768</v>
+      </c>
+      <c r="G32" t="s">
+        <v>769</v>
+      </c>
+      <c r="H32" t="s">
+        <v>770</v>
+      </c>
+      <c r="I32" t="s">
+        <v>771</v>
+      </c>
+      <c r="J32" t="s">
+        <v>772</v>
+      </c>
+      <c r="K32" t="s">
+        <v>773</v>
+      </c>
+      <c r="L32" t="s">
+        <v>774</v>
+      </c>
+      <c r="M32" t="s">
+        <v>775</v>
+      </c>
+      <c r="N32" t="s">
+        <v>776</v>
+      </c>
+      <c r="O32" t="s">
+        <v>777</v>
+      </c>
+      <c r="P32" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>779</v>
+      </c>
+      <c r="R32" t="s">
+        <v>780</v>
+      </c>
+      <c r="S32" t="s">
+        <v>781</v>
+      </c>
+      <c r="T32" t="s">
+        <v>782</v>
+      </c>
+      <c r="U32" t="s">
+        <v>783</v>
+      </c>
+      <c r="V32" t="s">
+        <v>784</v>
+      </c>
+      <c r="W32" t="s">
+        <v>785</v>
+      </c>
+      <c r="X32" t="s">
+        <v>786</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>808</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>809</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>810</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>811</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>812</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>813</v>
+      </c>
+      <c r="AE32" t="s">
         <v>814</v>
       </c>
-      <c r="C32" t="s">
+      <c r="AF32" t="s">
         <v>815</v>
       </c>
-      <c r="D32" t="s">
+      <c r="AG32" t="s">
         <v>816</v>
       </c>
-      <c r="E32" t="s">
-        <v>776</v>
-      </c>
-      <c r="F32" t="s">
-        <v>777</v>
-      </c>
-      <c r="G32" t="s">
-        <v>778</v>
-      </c>
-      <c r="H32" t="s">
-        <v>779</v>
-      </c>
-      <c r="I32" t="s">
-        <v>780</v>
-      </c>
-      <c r="J32" t="s">
-        <v>781</v>
-      </c>
-      <c r="K32" t="s">
-        <v>782</v>
-      </c>
-      <c r="L32" t="s">
-        <v>783</v>
-      </c>
-      <c r="M32" t="s">
-        <v>784</v>
-      </c>
-      <c r="N32" t="s">
-        <v>785</v>
-      </c>
-      <c r="O32" t="s">
-        <v>786</v>
-      </c>
-      <c r="P32" t="s">
-        <v>787</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>788</v>
-      </c>
-      <c r="R32" t="s">
-        <v>789</v>
-      </c>
-      <c r="S32" t="s">
-        <v>790</v>
-      </c>
-      <c r="T32" t="s">
-        <v>791</v>
-      </c>
-      <c r="U32" t="s">
-        <v>792</v>
-      </c>
-      <c r="V32" t="s">
-        <v>793</v>
-      </c>
-      <c r="W32" t="s">
-        <v>794</v>
-      </c>
-      <c r="X32" t="s">
-        <v>795</v>
-      </c>
-      <c r="Y32" t="s">
+      <c r="AH32" t="s">
         <v>817</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AI32" t="s">
         <v>818</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>819</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>820</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>821</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>822</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>823</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>824</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>825</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>826</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B33" t="s">
+        <v>805</v>
+      </c>
+      <c r="C33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D33" t="s">
+        <v>807</v>
+      </c>
+      <c r="E33" t="s">
+        <v>767</v>
+      </c>
+      <c r="F33" t="s">
+        <v>768</v>
+      </c>
+      <c r="G33" t="s">
+        <v>769</v>
+      </c>
+      <c r="H33" t="s">
+        <v>770</v>
+      </c>
+      <c r="I33" t="s">
+        <v>771</v>
+      </c>
+      <c r="J33" t="s">
+        <v>772</v>
+      </c>
+      <c r="K33" t="s">
+        <v>773</v>
+      </c>
+      <c r="L33" t="s">
+        <v>774</v>
+      </c>
+      <c r="M33" t="s">
+        <v>775</v>
+      </c>
+      <c r="N33" t="s">
+        <v>778</v>
+      </c>
+      <c r="O33" t="s">
+        <v>779</v>
+      </c>
+      <c r="P33" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>781</v>
+      </c>
+      <c r="R33" t="s">
+        <v>782</v>
+      </c>
+      <c r="S33" t="s">
+        <v>783</v>
+      </c>
+      <c r="T33" t="s">
+        <v>784</v>
+      </c>
+      <c r="U33" t="s">
+        <v>785</v>
+      </c>
+      <c r="V33" t="s">
+        <v>786</v>
+      </c>
+      <c r="W33" t="s">
+        <v>808</v>
+      </c>
+      <c r="X33" t="s">
+        <v>809</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>810</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>811</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>812</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>813</v>
+      </c>
+      <c r="AC33" t="s">
         <v>814</v>
       </c>
-      <c r="C33" t="s">
+      <c r="AD33" t="s">
         <v>815</v>
       </c>
-      <c r="D33" t="s">
+      <c r="AE33" t="s">
         <v>816</v>
       </c>
-      <c r="E33" t="s">
-        <v>776</v>
-      </c>
-      <c r="F33" t="s">
-        <v>777</v>
-      </c>
-      <c r="G33" t="s">
-        <v>778</v>
-      </c>
-      <c r="H33" t="s">
-        <v>779</v>
-      </c>
-      <c r="I33" t="s">
-        <v>780</v>
-      </c>
-      <c r="J33" t="s">
-        <v>781</v>
-      </c>
-      <c r="K33" t="s">
-        <v>782</v>
-      </c>
-      <c r="L33" t="s">
-        <v>783</v>
-      </c>
-      <c r="M33" t="s">
-        <v>784</v>
-      </c>
-      <c r="N33" t="s">
-        <v>787</v>
-      </c>
-      <c r="O33" t="s">
-        <v>788</v>
-      </c>
-      <c r="P33" t="s">
-        <v>789</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>790</v>
-      </c>
-      <c r="R33" t="s">
-        <v>791</v>
-      </c>
-      <c r="S33" t="s">
-        <v>792</v>
-      </c>
-      <c r="T33" t="s">
-        <v>793</v>
-      </c>
-      <c r="U33" t="s">
-        <v>794</v>
-      </c>
-      <c r="V33" t="s">
-        <v>795</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="AF33" t="s">
         <v>817</v>
       </c>
-      <c r="X33" t="s">
+      <c r="AG33" t="s">
         <v>818</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>819</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>820</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>821</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>822</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>823</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>824</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>825</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>826</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>827</v>
       </c>
     </row>
   </sheetData>

--- a/dds/installation.xlsx
+++ b/dds/installation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,11 +23,17 @@
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Units!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Valid Values'!$A$1:$L$29</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ROOT!$A$1:$H$109</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ROOT!$A$1:$H$109</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Labels!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Labels!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Types!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Types!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Units!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Units!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Tables!$A$1:$BX$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Tables!$A$1:$BX$38</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Valid Values'!$A$1:$L$29</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Valid Values'!$A$1:$L$29</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -689,7 +695,7 @@
     <t xml:space="preserve">project.install_driven_piles_dates</t>
   </si>
   <si>
-    <t xml:space="preserve">Driven Pile Anchor/Foundations: Installation Dates</t>
+    <t xml:space="preserve">Driven Pile Foundations: Installation Dates</t>
   </si>
   <si>
     <t xml:space="preserve">Dates for installing the driven pile anchors or foundations. Dates are defined as: Start, Depart and End.</t>
@@ -725,7 +731,7 @@
     <t xml:space="preserve">project.install_pile_anchor_dates</t>
   </si>
   <si>
-    <t xml:space="preserve">Pile Anchors: Installation Dates</t>
+    <t xml:space="preserve">Driven Pile Anchors: Installation Dates</t>
   </si>
   <si>
     <t xml:space="preserve">Dates for installing the pile anchors. Dates are defined as: Start, Depart and End.</t>
@@ -2619,7 +2625,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2628,26 +2634,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD7E4BD"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFB9CDE5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B9B8"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB9CDE5"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -2676,7 +2664,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2700,44 +2688,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2766,55 +2721,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="27" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="28" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="29" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="29" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2846,24 +2785,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2891,23 +2818,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2 2 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2 3" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3 2" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in 40% - Accent3" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in 40% - Accent5" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in 40% - Accent2" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in 40% - Accent1" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2925,7 +2843,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -2945,12 +2863,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFD7E4BD"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFE6B9B8"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF9BBB59"/>
@@ -3004,10 +2922,10 @@
   </sheetPr>
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B76" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
-      <selection pane="topRight" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B55" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+      <selection pane="topRight" activeCell="C70" activeCellId="0" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3016,7 +2934,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="56.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="91.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.36"/>
@@ -3700,7 +3618,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="11" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
         <v>123</v>
       </c>
@@ -3720,7 +3638,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="11" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>127</v>
       </c>
@@ -3740,7 +3658,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="11" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
         <v>130</v>
       </c>
@@ -3750,71 +3668,61 @@
       <c r="C40" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
+    <row r="41" s="11" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="s">
+    </row>
+    <row r="42" s="11" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" s="11" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" s="11" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
         <v>146</v>
       </c>
@@ -3824,142 +3732,138 @@
       <c r="C44" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="s">
+    </row>
+    <row r="45" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="46" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18" t="s">
+    <row r="46" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18" t="s">
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18" t="s">
+    <row r="47" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18" t="s">
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="s">
+    <row r="48" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18" t="s">
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="s">
+    <row r="49" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18" t="s">
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="50" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="s">
+    <row r="50" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
+    <row r="51" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="13" t="s">
         <v>171</v>
       </c>
       <c r="E51" s="11"/>
@@ -3967,155 +3871,155 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="s">
+    <row r="52" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18" t="s">
+    <row r="53" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="s">
+    <row r="54" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="s">
+    <row r="55" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="s">
+    <row r="56" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="s">
+    <row r="57" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
+    <row r="58" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="13" t="s">
         <v>192</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="17"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
+    <row r="59" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="13" t="s">
         <v>195</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="17"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
+    <row r="60" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="13" t="s">
         <v>198</v>
       </c>
       <c r="E60" s="11"/>
@@ -4123,358 +4027,358 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="s">
+    <row r="61" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="62" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="s">
+    <row r="62" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="63" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18" t="s">
+    <row r="63" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="15" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="64" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18" t="s">
+    <row r="64" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="65" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18" t="s">
+    <row r="65" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="15" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="66" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18" t="s">
+    <row r="66" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="67" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18" t="s">
+    <row r="67" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="68" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18" t="s">
+    <row r="68" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="69" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18" t="s">
+    <row r="69" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="15" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="70" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18" t="s">
+    <row r="70" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="71" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
     </row>
     <row r="72" s="11" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-    </row>
-    <row r="73" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18" t="s">
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="74" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18" t="s">
+    <row r="74" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="75" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18" t="s">
+    <row r="75" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="76" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18" t="s">
+    <row r="76" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18" t="s">
+    <row r="77" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="H77" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18" t="s">
+    <row r="78" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18" t="s">
+    <row r="79" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="H79" s="18" t="s">
+      <c r="H79" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="18" t="s">
+    <row r="80" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="18" t="s">
+    <row r="81" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="82" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="18" t="s">
+    <row r="82" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="83" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="18" t="s">
+    <row r="83" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="H83" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="84" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
         <v>271</v>
       </c>
@@ -4484,7 +4388,7 @@
       <c r="C84" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="13" t="s">
         <v>273</v>
       </c>
       <c r="E84" s="11"/>
@@ -4492,225 +4396,225 @@
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16" t="s">
+    <row r="85" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="8" t="s">
         <v>275</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="13" t="s">
         <v>277</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
-      <c r="G85" s="17"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="16" t="s">
+    <row r="86" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="13" t="s">
         <v>280</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
-      <c r="G86" s="17"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="18" t="s">
+    <row r="87" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="H87" s="18" t="s">
+      <c r="H87" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="18" t="s">
+    <row r="88" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="18" t="s">
+    <row r="89" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="H89" s="18" t="s">
+      <c r="H89" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="90" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="18" t="s">
+    <row r="90" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="H90" s="18" t="s">
+      <c r="H90" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="91" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="18" t="s">
+    <row r="91" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="H91" s="18" t="s">
+      <c r="H91" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="92" s="18" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="18" t="s">
+    <row r="92" s="14" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="18" t="s">
+    <row r="93" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="H93" s="18" t="s">
+      <c r="H93" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="94" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="18" t="s">
+    <row r="94" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="H94" s="18" t="s">
+      <c r="H94" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="95" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="16" t="s">
+    <row r="95" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="13" t="s">
         <v>307</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="17"/>
+      <c r="G95" s="8"/>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="16" t="s">
+    <row r="96" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="13" t="s">
         <v>310</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
-      <c r="G96" s="17"/>
+      <c r="G96" s="8"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="16" t="s">
+    <row r="97" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="13" t="s">
         <v>313</v>
       </c>
       <c r="E97" s="11"/>
@@ -4718,35 +4622,35 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="16" t="s">
+    <row r="98" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="13" t="s">
         <v>316</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
-      <c r="G98" s="17"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="16" t="s">
+    <row r="99" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="13" t="s">
         <v>319</v>
       </c>
       <c r="E99" s="11"/>
@@ -4754,8 +4658,8 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="16" t="s">
+    <row r="100" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="12" t="s">
         <v>320</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -4764,7 +4668,7 @@
       <c r="C100" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="13" t="s">
         <v>322</v>
       </c>
       <c r="E100" s="11"/>
@@ -4772,87 +4676,87 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="16" t="s">
+    <row r="101" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D101" s="13" t="s">
         <v>325</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
-      <c r="G101" s="17"/>
+      <c r="G101" s="8"/>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="18" t="s">
+    <row r="102" s="14" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="H102" s="18" t="s">
+      <c r="H102" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103" s="11" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18" t="s">
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="104" s="11" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="G104" s="17"/>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D105" s="13" t="s">
         <v>337</v>
       </c>
       <c r="E105" s="11"/>
@@ -4861,10 +4765,10 @@
       <c r="H105" s="11"/>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="8" t="s">
         <v>339</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -4875,10 +4779,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="8" t="s">
         <v>339</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -4889,10 +4793,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="8" t="s">
         <v>339</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -4903,10 +4807,10 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="8" t="s">
         <v>339</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -4945,8 +4849,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.72"/>
@@ -4961,7 +4865,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="27.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="29.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="27.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.18"/>
@@ -4971,30 +4875,30 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="25.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="16.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="17.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="22.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="18.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="19.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="15.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="15.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="49" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="49" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="17.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="21.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="17.82"/>
@@ -5004,109 +4908,109 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="18.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="70" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="70" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="76" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="76" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="0" width="21.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="17" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5196,7 +5100,7 @@
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>382</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -5299,13 +5203,13 @@
       <c r="H6" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>382</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -5340,7 +5244,7 @@
       <c r="A8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>382</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -5401,7 +5305,7 @@
       <c r="A10" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>382</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -5421,10 +5325,10 @@
       <c r="A11" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>436</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -6444,7 +6348,7 @@
       <c r="A26" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="19" t="s">
         <v>382</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -6803,7 +6707,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="16" t="s">
         <v>338</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -6814,7 +6718,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="16" t="s">
         <v>342</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -6825,7 +6729,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="16" t="s">
         <v>345</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -6836,7 +6740,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="16" t="s">
         <v>348</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -6885,166 +6789,166 @@
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="1" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="1" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="11" style="1" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="1" width="20.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="24"/>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24"/>
-      <c r="CI1" s="24"/>
-      <c r="CJ1" s="24"/>
-      <c r="CK1" s="24"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7106,7 +7010,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7126,10 +7030,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>540</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7164,7 +7068,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -7208,7 +7112,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7234,10 +7138,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>540</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -7269,10 +7173,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>540</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -7292,7 +7196,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7330,10 +7234,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>540</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -7350,70 +7254,70 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="M11" s="29" t="s">
+      <c r="D11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="M11" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="O11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
+      <c r="O11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -7427,40 +7331,40 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K13" s="31" t="s">
+      <c r="C13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K13" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="25" t="s">
         <v>541</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -7469,127 +7373,127 @@
       <c r="N13" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="O13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="P13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="31"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="31"/>
-      <c r="BL13" s="31"/>
-      <c r="BM13" s="31"/>
-      <c r="BN13" s="31"/>
-      <c r="BO13" s="31"/>
-      <c r="BP13" s="31"/>
-      <c r="BQ13" s="31"/>
-      <c r="BR13" s="31"/>
-      <c r="BS13" s="31"/>
-      <c r="BT13" s="31"/>
-      <c r="BU13" s="31"/>
-      <c r="BV13" s="31"/>
-      <c r="BW13" s="31"/>
+      <c r="O13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="25"/>
+      <c r="AZ13" s="25"/>
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="25"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="25"/>
+      <c r="BF13" s="25"/>
+      <c r="BG13" s="25"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="25"/>
+      <c r="BL13" s="25"/>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="25"/>
+      <c r="BO13" s="25"/>
+      <c r="BP13" s="25"/>
+      <c r="BQ13" s="25"/>
+      <c r="BR13" s="25"/>
+      <c r="BS13" s="25"/>
+      <c r="BT13" s="25"/>
+      <c r="BU13" s="25"/>
+      <c r="BV13" s="25"/>
+      <c r="BW13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="O14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="P14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q14" s="31" t="s">
+      <c r="C14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q14" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="R14" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S14" s="31" t="s">
+      <c r="R14" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S14" s="25" t="s">
         <v>541</v>
       </c>
       <c r="T14" s="1" t="s">
@@ -7598,7 +7502,7 @@
       <c r="U14" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="V14" s="31" t="s">
+      <c r="V14" s="25" t="s">
         <v>541</v>
       </c>
       <c r="W14" s="1" t="s">
@@ -7613,109 +7517,109 @@
       <c r="Z14" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="31"/>
-      <c r="AY14" s="31"/>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="31"/>
-      <c r="BB14" s="31"/>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="31"/>
-      <c r="BH14" s="31"/>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="31"/>
-      <c r="BK14" s="31"/>
-      <c r="BL14" s="31"/>
-      <c r="BM14" s="31"/>
-      <c r="BN14" s="31"/>
-      <c r="BO14" s="31"/>
-      <c r="BP14" s="31"/>
-      <c r="BQ14" s="31"/>
-      <c r="BR14" s="31"/>
-      <c r="BS14" s="31"/>
-      <c r="BT14" s="31"/>
-      <c r="BU14" s="31"/>
-      <c r="BV14" s="31"/>
-      <c r="BW14" s="31"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="25"/>
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="25"/>
+      <c r="BL14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="25"/>
+      <c r="BS14" s="25"/>
+      <c r="BT14" s="25"/>
+      <c r="BU14" s="25"/>
+      <c r="BV14" s="25"/>
+      <c r="BW14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q15" s="31" t="s">
+      <c r="C15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q15" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="R15" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S15" s="31" t="s">
+      <c r="R15" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S15" s="25" t="s">
         <v>541</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -7724,7 +7628,7 @@
       <c r="U15" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="V15" s="31" t="s">
+      <c r="V15" s="25" t="s">
         <v>541</v>
       </c>
       <c r="W15" s="1" t="s">
@@ -7739,97 +7643,97 @@
       <c r="Z15" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="31"/>
-      <c r="BB15" s="31"/>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="31"/>
-      <c r="BE15" s="31"/>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="31"/>
-      <c r="BH15" s="31"/>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="31"/>
-      <c r="BK15" s="31"/>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="31"/>
-      <c r="BN15" s="31"/>
-      <c r="BO15" s="31"/>
-      <c r="BP15" s="31"/>
-      <c r="BQ15" s="31"/>
-      <c r="BR15" s="31"/>
-      <c r="BS15" s="31"/>
-      <c r="BT15" s="31"/>
-      <c r="BU15" s="31"/>
-      <c r="BV15" s="31"/>
-      <c r="BW15" s="31"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="25"/>
+      <c r="BQ15" s="25"/>
+      <c r="BR15" s="25"/>
+      <c r="BS15" s="25"/>
+      <c r="BT15" s="25"/>
+      <c r="BU15" s="25"/>
+      <c r="BV15" s="25"/>
+      <c r="BW15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M16" s="31" t="s">
+      <c r="C16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M16" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="25" t="s">
         <v>541</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -7838,112 +7742,112 @@
       <c r="Q16" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="R16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="T16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="U16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="V16" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="31"/>
-      <c r="AY16" s="31"/>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="31"/>
-      <c r="BB16" s="31"/>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="31"/>
-      <c r="BE16" s="31"/>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="31"/>
-      <c r="BH16" s="31"/>
-      <c r="BI16" s="31"/>
-      <c r="BJ16" s="31"/>
-      <c r="BK16" s="31"/>
-      <c r="BL16" s="31"/>
-      <c r="BM16" s="31"/>
-      <c r="BN16" s="31"/>
-      <c r="BO16" s="31"/>
-      <c r="BP16" s="31"/>
-      <c r="BQ16" s="31"/>
-      <c r="BR16" s="31"/>
-      <c r="BS16" s="31"/>
-      <c r="BT16" s="31"/>
-      <c r="BU16" s="31"/>
-      <c r="BV16" s="31"/>
-      <c r="BW16" s="31"/>
+      <c r="R16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="T16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="U16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="V16" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
+      <c r="BD16" s="25"/>
+      <c r="BE16" s="25"/>
+      <c r="BF16" s="25"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="25"/>
+      <c r="BL16" s="25"/>
+      <c r="BM16" s="25"/>
+      <c r="BN16" s="25"/>
+      <c r="BO16" s="25"/>
+      <c r="BP16" s="25"/>
+      <c r="BQ16" s="25"/>
+      <c r="BR16" s="25"/>
+      <c r="BS16" s="25"/>
+      <c r="BT16" s="25"/>
+      <c r="BU16" s="25"/>
+      <c r="BV16" s="25"/>
+      <c r="BW16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M17" s="31" t="s">
+      <c r="C17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="25" t="s">
         <v>541</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -7952,112 +7856,112 @@
       <c r="Q17" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="R17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="T17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="U17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="V17" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="31"/>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="31"/>
-      <c r="BE17" s="31"/>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="31"/>
-      <c r="BH17" s="31"/>
-      <c r="BI17" s="31"/>
-      <c r="BJ17" s="31"/>
-      <c r="BK17" s="31"/>
-      <c r="BL17" s="31"/>
-      <c r="BM17" s="31"/>
-      <c r="BN17" s="31"/>
-      <c r="BO17" s="31"/>
-      <c r="BP17" s="31"/>
-      <c r="BQ17" s="31"/>
-      <c r="BR17" s="31"/>
-      <c r="BS17" s="31"/>
-      <c r="BT17" s="31"/>
-      <c r="BU17" s="31"/>
-      <c r="BV17" s="31"/>
-      <c r="BW17" s="31"/>
+      <c r="R17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="T17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="U17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="V17" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="25"/>
+      <c r="BD17" s="25"/>
+      <c r="BE17" s="25"/>
+      <c r="BF17" s="25"/>
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="25"/>
+      <c r="BL17" s="25"/>
+      <c r="BM17" s="25"/>
+      <c r="BN17" s="25"/>
+      <c r="BO17" s="25"/>
+      <c r="BP17" s="25"/>
+      <c r="BQ17" s="25"/>
+      <c r="BR17" s="25"/>
+      <c r="BS17" s="25"/>
+      <c r="BT17" s="25"/>
+      <c r="BU17" s="25"/>
+      <c r="BV17" s="25"/>
+      <c r="BW17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M18" s="31" t="s">
+      <c r="C18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M18" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N18" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="25" t="s">
         <v>541</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -8066,112 +7970,112 @@
       <c r="Q18" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="R18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="T18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="U18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="V18" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
-      <c r="BK18" s="31"/>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="31"/>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="31"/>
-      <c r="BQ18" s="31"/>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="31"/>
-      <c r="BT18" s="31"/>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="31"/>
-      <c r="BW18" s="31"/>
+      <c r="R18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="T18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="U18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="V18" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="25"/>
+      <c r="AZ18" s="25"/>
+      <c r="BA18" s="25"/>
+      <c r="BB18" s="25"/>
+      <c r="BC18" s="25"/>
+      <c r="BD18" s="25"/>
+      <c r="BE18" s="25"/>
+      <c r="BF18" s="25"/>
+      <c r="BG18" s="25"/>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="25"/>
+      <c r="BJ18" s="25"/>
+      <c r="BK18" s="25"/>
+      <c r="BL18" s="25"/>
+      <c r="BM18" s="25"/>
+      <c r="BN18" s="25"/>
+      <c r="BO18" s="25"/>
+      <c r="BP18" s="25"/>
+      <c r="BQ18" s="25"/>
+      <c r="BR18" s="25"/>
+      <c r="BS18" s="25"/>
+      <c r="BT18" s="25"/>
+      <c r="BU18" s="25"/>
+      <c r="BV18" s="25"/>
+      <c r="BW18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M19" s="31" t="s">
+      <c r="C19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M19" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="N19" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="25" t="s">
         <v>541</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -8180,112 +8084,112 @@
       <c r="Q19" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="R19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="T19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="U19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="V19" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="31"/>
-      <c r="AY19" s="31"/>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="31"/>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="31"/>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="31"/>
-      <c r="BK19" s="31"/>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="31"/>
-      <c r="BN19" s="31"/>
-      <c r="BO19" s="31"/>
-      <c r="BP19" s="31"/>
-      <c r="BQ19" s="31"/>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="31"/>
-      <c r="BT19" s="31"/>
-      <c r="BU19" s="31"/>
-      <c r="BV19" s="31"/>
-      <c r="BW19" s="31"/>
+      <c r="R19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="T19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="U19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="V19" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="25"/>
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="25"/>
+      <c r="AZ19" s="25"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="25"/>
+      <c r="BD19" s="25"/>
+      <c r="BE19" s="25"/>
+      <c r="BF19" s="25"/>
+      <c r="BG19" s="25"/>
+      <c r="BH19" s="25"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="25"/>
+      <c r="BK19" s="25"/>
+      <c r="BL19" s="25"/>
+      <c r="BM19" s="25"/>
+      <c r="BN19" s="25"/>
+      <c r="BO19" s="25"/>
+      <c r="BP19" s="25"/>
+      <c r="BQ19" s="25"/>
+      <c r="BR19" s="25"/>
+      <c r="BS19" s="25"/>
+      <c r="BT19" s="25"/>
+      <c r="BU19" s="25"/>
+      <c r="BV19" s="25"/>
+      <c r="BW19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M20" s="31" t="s">
+      <c r="C20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M20" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="N20" s="31" t="s">
+      <c r="N20" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="25" t="s">
         <v>541</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -8294,124 +8198,124 @@
       <c r="Q20" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="R20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="T20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="U20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="V20" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="31"/>
-      <c r="BB20" s="31"/>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="31"/>
-      <c r="BE20" s="31"/>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="31"/>
-      <c r="BH20" s="31"/>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="31"/>
-      <c r="BK20" s="31"/>
-      <c r="BL20" s="31"/>
-      <c r="BM20" s="31"/>
-      <c r="BN20" s="31"/>
-      <c r="BO20" s="31"/>
-      <c r="BP20" s="31"/>
-      <c r="BQ20" s="31"/>
-      <c r="BR20" s="31"/>
-      <c r="BS20" s="31"/>
-      <c r="BT20" s="31"/>
-      <c r="BU20" s="31"/>
-      <c r="BV20" s="31"/>
-      <c r="BW20" s="31"/>
+      <c r="R20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="T20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="U20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="V20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="25"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="25"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="25"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="25"/>
+      <c r="BC20" s="25"/>
+      <c r="BD20" s="25"/>
+      <c r="BE20" s="25"/>
+      <c r="BF20" s="25"/>
+      <c r="BG20" s="25"/>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="25"/>
+      <c r="BK20" s="25"/>
+      <c r="BL20" s="25"/>
+      <c r="BM20" s="25"/>
+      <c r="BN20" s="25"/>
+      <c r="BO20" s="25"/>
+      <c r="BP20" s="25"/>
+      <c r="BQ20" s="25"/>
+      <c r="BR20" s="25"/>
+      <c r="BS20" s="25"/>
+      <c r="BT20" s="25"/>
+      <c r="BU20" s="25"/>
+      <c r="BV20" s="25"/>
+      <c r="BW20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M21" s="31" t="s">
+      <c r="C21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M21" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="N21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="P21" s="32" t="s">
+      <c r="N21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="P21" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="Q21" s="31" t="s">
+      <c r="Q21" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="R21" s="31" t="s">
+      <c r="R21" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="S21" s="31" t="s">
+      <c r="S21" s="25" t="s">
         <v>541</v>
       </c>
       <c r="T21" s="1" t="s">
@@ -8420,13 +8324,13 @@
       <c r="U21" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="V21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="W21" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="X21" s="31" t="s">
+      <c r="V21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="W21" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="X21" s="25" t="s">
         <v>541</v>
       </c>
       <c r="Y21" s="1" t="s">
@@ -8435,112 +8339,112 @@
       <c r="Z21" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="31"/>
-      <c r="BH21" s="31"/>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="31"/>
-      <c r="BK21" s="31"/>
-      <c r="BL21" s="31"/>
-      <c r="BM21" s="31"/>
-      <c r="BN21" s="31"/>
-      <c r="BO21" s="31"/>
-      <c r="BP21" s="31"/>
-      <c r="BQ21" s="31"/>
-      <c r="BR21" s="31"/>
-      <c r="BS21" s="31"/>
-      <c r="BT21" s="31"/>
-      <c r="BU21" s="31"/>
-      <c r="BV21" s="31"/>
-      <c r="BW21" s="31"/>
-      <c r="BX21" s="31"/>
-      <c r="BY21" s="31"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="25"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="25"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="25"/>
+      <c r="AY21" s="25"/>
+      <c r="AZ21" s="25"/>
+      <c r="BA21" s="25"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="25"/>
+      <c r="BD21" s="25"/>
+      <c r="BE21" s="25"/>
+      <c r="BF21" s="25"/>
+      <c r="BG21" s="25"/>
+      <c r="BH21" s="25"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="25"/>
+      <c r="BK21" s="25"/>
+      <c r="BL21" s="25"/>
+      <c r="BM21" s="25"/>
+      <c r="BN21" s="25"/>
+      <c r="BO21" s="25"/>
+      <c r="BP21" s="25"/>
+      <c r="BQ21" s="25"/>
+      <c r="BR21" s="25"/>
+      <c r="BS21" s="25"/>
+      <c r="BT21" s="25"/>
+      <c r="BU21" s="25"/>
+      <c r="BV21" s="25"/>
+      <c r="BW21" s="25"/>
+      <c r="BX21" s="25"/>
+      <c r="BY21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="N22" s="31" t="s">
+      <c r="C22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="N22" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="O22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="P22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q22" s="32" t="s">
+      <c r="O22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q22" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="R22" s="31" t="s">
+      <c r="R22" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="S22" s="31" t="s">
+      <c r="S22" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="T22" s="31" t="s">
+      <c r="T22" s="25" t="s">
         <v>541</v>
       </c>
       <c r="U22" s="1" t="s">
@@ -8549,13 +8453,13 @@
       <c r="V22" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="W22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="X22" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="Y22" s="31" t="s">
+      <c r="W22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="X22" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y22" s="25" t="s">
         <v>541</v>
       </c>
       <c r="Z22" s="1" t="s">
@@ -8564,118 +8468,118 @@
       <c r="AA22" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
-      <c r="AX22" s="31"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="31"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="31"/>
-      <c r="BC22" s="31"/>
-      <c r="BD22" s="31"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="31"/>
-      <c r="BI22" s="31"/>
-      <c r="BJ22" s="31"/>
-      <c r="BK22" s="31"/>
-      <c r="BL22" s="31"/>
-      <c r="BM22" s="31"/>
-      <c r="BN22" s="31"/>
-      <c r="BO22" s="31"/>
-      <c r="BP22" s="31"/>
-      <c r="BQ22" s="31"/>
-      <c r="BR22" s="31"/>
-      <c r="BS22" s="31"/>
-      <c r="BT22" s="31"/>
-      <c r="BU22" s="31"/>
-      <c r="BV22" s="31"/>
-      <c r="BW22" s="31"/>
-      <c r="BX22" s="31"/>
-      <c r="BY22" s="31"/>
-      <c r="BZ22" s="31"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="25"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="25"/>
+      <c r="BD22" s="25"/>
+      <c r="BE22" s="25"/>
+      <c r="BF22" s="25"/>
+      <c r="BG22" s="25"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="25"/>
+      <c r="BK22" s="25"/>
+      <c r="BL22" s="25"/>
+      <c r="BM22" s="25"/>
+      <c r="BN22" s="25"/>
+      <c r="BO22" s="25"/>
+      <c r="BP22" s="25"/>
+      <c r="BQ22" s="25"/>
+      <c r="BR22" s="25"/>
+      <c r="BS22" s="25"/>
+      <c r="BT22" s="25"/>
+      <c r="BU22" s="25"/>
+      <c r="BV22" s="25"/>
+      <c r="BW22" s="25"/>
+      <c r="BX22" s="25"/>
+      <c r="BY22" s="25"/>
+      <c r="BZ22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M23" s="31" t="s">
+      <c r="C23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M23" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="O23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="R23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="T23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="U23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="V23" s="31" t="s">
+      <c r="O23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="T23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="U23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="V23" s="25" t="s">
         <v>541</v>
       </c>
       <c r="W23" s="1" t="s">
@@ -8684,133 +8588,133 @@
       <c r="X23" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="Y23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="Z23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AB23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC23" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="31"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="31"/>
-      <c r="AS23" s="31"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="31"/>
-      <c r="AW23" s="31"/>
-      <c r="AX23" s="31"/>
-      <c r="AY23" s="31"/>
-      <c r="AZ23" s="31"/>
-      <c r="BA23" s="31"/>
-      <c r="BB23" s="31"/>
-      <c r="BC23" s="31"/>
-      <c r="BD23" s="31"/>
-      <c r="BE23" s="31"/>
-      <c r="BF23" s="31"/>
-      <c r="BG23" s="31"/>
-      <c r="BH23" s="31"/>
-      <c r="BI23" s="31"/>
-      <c r="BJ23" s="31"/>
-      <c r="BK23" s="31"/>
-      <c r="BL23" s="31"/>
-      <c r="BM23" s="31"/>
-      <c r="BN23" s="31"/>
-      <c r="BO23" s="31"/>
-      <c r="BP23" s="31"/>
-      <c r="BQ23" s="31"/>
-      <c r="BR23" s="31"/>
-      <c r="BS23" s="31"/>
-      <c r="BT23" s="31"/>
-      <c r="BU23" s="31"/>
-      <c r="BV23" s="31"/>
-      <c r="BW23" s="31"/>
+      <c r="Y23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC23" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="25"/>
+      <c r="BC23" s="25"/>
+      <c r="BD23" s="25"/>
+      <c r="BE23" s="25"/>
+      <c r="BF23" s="25"/>
+      <c r="BG23" s="25"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="25"/>
+      <c r="BJ23" s="25"/>
+      <c r="BK23" s="25"/>
+      <c r="BL23" s="25"/>
+      <c r="BM23" s="25"/>
+      <c r="BN23" s="25"/>
+      <c r="BO23" s="25"/>
+      <c r="BP23" s="25"/>
+      <c r="BQ23" s="25"/>
+      <c r="BR23" s="25"/>
+      <c r="BS23" s="25"/>
+      <c r="BT23" s="25"/>
+      <c r="BU23" s="25"/>
+      <c r="BV23" s="25"/>
+      <c r="BW23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="M24" s="31" t="s">
+      <c r="C24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="M24" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="N24" s="31" t="s">
+      <c r="N24" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="O24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="P24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="R24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="T24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="U24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="V24" s="31" t="s">
+      <c r="O24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="T24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="U24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="V24" s="25" t="s">
         <v>541</v>
       </c>
       <c r="W24" s="1" t="s">
@@ -8819,100 +8723,100 @@
       <c r="X24" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="Y24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="Z24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AB24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC24" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
-      <c r="AX24" s="31"/>
-      <c r="AY24" s="31"/>
-      <c r="AZ24" s="31"/>
-      <c r="BA24" s="31"/>
-      <c r="BB24" s="31"/>
-      <c r="BC24" s="31"/>
-      <c r="BD24" s="31"/>
-      <c r="BE24" s="31"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="31"/>
-      <c r="BI24" s="31"/>
-      <c r="BJ24" s="31"/>
-      <c r="BK24" s="31"/>
-      <c r="BL24" s="31"/>
-      <c r="BM24" s="31"/>
-      <c r="BN24" s="31"/>
-      <c r="BO24" s="31"/>
-      <c r="BP24" s="31"/>
-      <c r="BQ24" s="31"/>
-      <c r="BR24" s="31"/>
-      <c r="BS24" s="31"/>
-      <c r="BT24" s="31"/>
-      <c r="BU24" s="31"/>
-      <c r="BV24" s="31"/>
-      <c r="BW24" s="31"/>
+      <c r="Y24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC24" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="25"/>
+      <c r="AY24" s="25"/>
+      <c r="AZ24" s="25"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="25"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="25"/>
+      <c r="BE24" s="25"/>
+      <c r="BF24" s="25"/>
+      <c r="BG24" s="25"/>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="25"/>
+      <c r="BK24" s="25"/>
+      <c r="BL24" s="25"/>
+      <c r="BM24" s="25"/>
+      <c r="BN24" s="25"/>
+      <c r="BO24" s="25"/>
+      <c r="BP24" s="25"/>
+      <c r="BQ24" s="25"/>
+      <c r="BR24" s="25"/>
+      <c r="BS24" s="25"/>
+      <c r="BT24" s="25"/>
+      <c r="BU24" s="25"/>
+      <c r="BV24" s="25"/>
+      <c r="BW24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="K25" s="31" t="s">
+      <c r="C25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="K25" s="25" t="s">
         <v>541</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -8921,76 +8825,76 @@
       <c r="M25" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="N25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="O25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="P25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="R25" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
-      <c r="AX25" s="31"/>
-      <c r="AY25" s="31"/>
-      <c r="AZ25" s="31"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="31"/>
-      <c r="BC25" s="31"/>
-      <c r="BD25" s="31"/>
-      <c r="BE25" s="31"/>
-      <c r="BF25" s="31"/>
-      <c r="BG25" s="31"/>
-      <c r="BH25" s="31"/>
-      <c r="BI25" s="31"/>
-      <c r="BJ25" s="31"/>
-      <c r="BK25" s="31"/>
-      <c r="BL25" s="31"/>
-      <c r="BM25" s="31"/>
-      <c r="BN25" s="31"/>
-      <c r="BO25" s="31"/>
-      <c r="BP25" s="31"/>
-      <c r="BQ25" s="31"/>
-      <c r="BR25" s="31"/>
-      <c r="BS25" s="31"/>
-      <c r="BT25" s="31"/>
-      <c r="BU25" s="31"/>
-      <c r="BV25" s="31"/>
-      <c r="BW25" s="31"/>
-      <c r="BX25" s="31"/>
+      <c r="N25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="25"/>
+      <c r="AY25" s="25"/>
+      <c r="AZ25" s="25"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="25"/>
+      <c r="BC25" s="25"/>
+      <c r="BD25" s="25"/>
+      <c r="BE25" s="25"/>
+      <c r="BF25" s="25"/>
+      <c r="BG25" s="25"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="25"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" s="25"/>
+      <c r="BM25" s="25"/>
+      <c r="BN25" s="25"/>
+      <c r="BO25" s="25"/>
+      <c r="BP25" s="25"/>
+      <c r="BQ25" s="25"/>
+      <c r="BR25" s="25"/>
+      <c r="BS25" s="25"/>
+      <c r="BT25" s="25"/>
+      <c r="BU25" s="25"/>
+      <c r="BV25" s="25"/>
+      <c r="BW25" s="25"/>
+      <c r="BX25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="19" t="s">
         <v>540</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -9031,7 +8935,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -9039,7 +8943,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="22" t="s">
         <v>94</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -9047,7 +8951,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -9055,10 +8959,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="22" t="s">
         <v>540</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -9087,7 +8991,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="22" t="s">
         <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -9095,7 +8999,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="22" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -9103,10 +9007,10 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="22" t="s">
         <v>540</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -9135,7 +9039,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="22" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -9186,7 +9090,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="22" t="s">
         <v>135</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -9197,7 +9101,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="22" t="s">
         <v>143</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -9282,7 +9186,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="22" t="s">
         <v>169</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -9362,7 +9266,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="22" t="s">
         <v>190</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -9370,7 +9274,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="22" t="s">
         <v>193</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -9378,7 +9282,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>196</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -9465,12 +9369,12 @@
       <c r="A67" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="22" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="22" t="s">
         <v>274</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -9478,7 +9382,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="22" t="s">
         <v>278</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -9571,7 +9475,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="22" t="s">
         <v>305</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -9579,7 +9483,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="22" t="s">
         <v>308</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -9590,7 +9494,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="22" t="s">
         <v>311</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -9601,7 +9505,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="22" t="s">
         <v>314</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -9609,7 +9513,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="22" t="s">
         <v>317</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -9620,15 +9524,15 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="25" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="22" t="s">
         <v>323</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -9652,7 +9556,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="22" t="s">
         <v>332</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -9663,7 +9567,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="22" t="s">
         <v>335</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -9674,7 +9578,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="16" t="s">
         <v>338</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -9682,7 +9586,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="16" t="s">
         <v>342</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -9690,7 +9594,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="16" t="s">
         <v>345</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -9698,7 +9602,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="16" t="s">
         <v>348</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -9726,2073 +9630,2073 @@
   </sheetPr>
   <dimension ref="A1:CK76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="46.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="2" style="20" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="20" width="12.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="20" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="20" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="11" style="20" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="20" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="46.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="2" style="16" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="16" width="12.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="16" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="16" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="11" style="16" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="90" style="16" width="20.18"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="27" t="s">
         <v>558</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Y1" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="Z1" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AA1" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AE1" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="34"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="34"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="34"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="34"/>
-      <c r="CE1" s="34"/>
-      <c r="CF1" s="34"/>
-      <c r="CG1" s="34"/>
-      <c r="CH1" s="34"/>
-      <c r="CI1" s="34"/>
-      <c r="CJ1" s="34"/>
-      <c r="CK1" s="34"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27"/>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27"/>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="27"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="27"/>
+      <c r="CA1" s="27"/>
+      <c r="CB1" s="27"/>
+      <c r="CC1" s="27"/>
+      <c r="CD1" s="27"/>
+      <c r="CE1" s="27"/>
+      <c r="CF1" s="27"/>
+      <c r="CG1" s="27"/>
+      <c r="CH1" s="27"/>
+      <c r="CI1" s="27"/>
+      <c r="CJ1" s="27"/>
+      <c r="CK1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="16" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="S13" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="V13" s="20" t="s">
+      <c r="V13" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="W13" s="20" t="s">
+      <c r="W13" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="X13" s="20" t="s">
+      <c r="X13" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="Y13" s="20" t="s">
+      <c r="Y13" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="Z13" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="R14" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="S14" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="T14" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="U14" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="V14" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="S15" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="T15" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="U15" s="20" t="s">
+      <c r="U15" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="V15" s="20" t="s">
+      <c r="V15" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="W15" s="20" t="s">
+      <c r="W15" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="X15" s="20" t="s">
+      <c r="X15" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="Y15" s="20" t="s">
+      <c r="Y15" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="Z15" s="20" t="s">
+      <c r="Z15" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="R16" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="S16" s="20" t="s">
+      <c r="S16" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="U16" s="20" t="s">
+      <c r="U16" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="V16" s="20" t="s">
+      <c r="V16" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="W16" s="20" t="s">
+      <c r="W16" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="X16" s="20" t="s">
+      <c r="X16" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="Y16" s="20" t="s">
+      <c r="Y16" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="Z16" s="20" t="s">
+      <c r="Z16" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="AA16" s="20" t="s">
+      <c r="AA16" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="S17" s="20" t="s">
+      <c r="S17" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="T17" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="U17" s="20" t="s">
+      <c r="U17" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="V17" s="20" t="s">
+      <c r="V17" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="Q18" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="R18" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="S18" s="20" t="s">
+      <c r="S18" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="T18" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="U18" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="V18" s="20" t="s">
+      <c r="V18" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="R19" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="S19" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="T19" s="20" t="s">
+      <c r="T19" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="U19" s="20" t="s">
+      <c r="U19" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="V19" s="20" t="s">
+      <c r="V19" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="P20" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="S20" s="20" t="s">
+      <c r="S20" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="T20" s="20" t="s">
+      <c r="T20" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="U20" s="20" t="s">
+      <c r="U20" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="V20" s="20" t="s">
+      <c r="V20" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="S21" s="20" t="s">
+      <c r="S21" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="U21" s="20" t="s">
+      <c r="U21" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="V21" s="20" t="s">
+      <c r="V21" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="W21" s="20" t="s">
+      <c r="W21" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="X21" s="20" t="s">
+      <c r="X21" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="Y21" s="20" t="s">
+      <c r="Y21" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="Z21" s="20" t="s">
+      <c r="Z21" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="AA21" s="20" t="s">
+      <c r="AA21" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="AB21" s="20" t="s">
+      <c r="AB21" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="AC21" s="20" t="s">
+      <c r="AC21" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="P22" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="Q22" s="20" t="s">
+      <c r="Q22" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="R22" s="20" t="s">
+      <c r="R22" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="U22" s="20" t="s">
+      <c r="U22" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="V22" s="20" t="s">
+      <c r="V22" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="W22" s="20" t="s">
+      <c r="W22" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="X22" s="20" t="s">
+      <c r="X22" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="Y22" s="20" t="s">
+      <c r="Y22" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="Z22" s="20" t="s">
+      <c r="Z22" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="AA22" s="20" t="s">
+      <c r="AA22" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="AB22" s="20" t="s">
+      <c r="AB22" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="AC22" s="20" t="s">
+      <c r="AC22" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="P23" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="Q23" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="R23" s="20" t="s">
+      <c r="R23" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="S23" s="20" t="s">
+      <c r="S23" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="T23" s="20" t="s">
+      <c r="T23" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="U23" s="20" t="s">
+      <c r="U23" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="V23" s="20" t="s">
+      <c r="V23" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="W23" s="20" t="s">
+      <c r="W23" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="X23" s="20" t="s">
+      <c r="X23" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="Y23" s="20" t="s">
+      <c r="Y23" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="Z23" s="20" t="s">
+      <c r="Z23" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="R24" s="20" t="s">
+      <c r="R24" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="16" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="16" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="16" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="16" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="16" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="16" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="16" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="16" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="16" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="16" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="16" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="16" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="16" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="16" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="16" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="16" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="16" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="16" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="16" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="16" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="16" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="G71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="H71" s="20" t="s">
+      <c r="H71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="I71" s="20" t="s">
+      <c r="I71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="J71" s="20" t="s">
+      <c r="J71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="K71" s="20" t="s">
+      <c r="K71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="L71" s="20" t="s">
+      <c r="L71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="M71" s="20" t="s">
+      <c r="M71" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="N71" s="20" t="s">
+      <c r="N71" s="16" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="16" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="16" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="16" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="16" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="16" t="s">
         <v>585</v>
       </c>
     </row>
@@ -11827,17 +11731,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="28.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="30.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="28.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="24.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.09"/>
@@ -11848,12 +11752,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="26.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="13.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="14.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="17.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="15.72"/>
@@ -11884,12 +11788,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="18.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="23.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="21.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="18.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="9.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="15"/>
@@ -11898,20 +11802,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="77" style="0" width="20.18"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>600</v>
       </c>
       <c r="F1" s="5"/>
@@ -12011,7 +11915,7 @@
       <c r="B4" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>602</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -12081,7 +11985,7 @@
       <c r="B6" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>602</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -12119,7 +12023,7 @@
       <c r="B7" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>602</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -12139,7 +12043,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -12200,7 +12104,7 @@
       <c r="B10" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>602</v>
       </c>
       <c r="D10" s="0" t="s">
@@ -12223,10 +12127,10 @@
       <c r="B11" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="19" t="s">
         <v>653</v>
       </c>
       <c r="E11" s="0" t="s">
@@ -12290,7 +12194,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -13291,7 +13195,7 @@
       <c r="B26" s="0" t="s">
         <v>709</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="19" t="s">
         <v>602</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -13324,7 +13228,7 @@
       <c r="M26" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="19" t="s">
         <v>619</v>
       </c>
       <c r="O26" s="0" t="s">
@@ -13533,7 +13437,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -13580,7 +13484,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="16" t="s">
         <v>338</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -13594,7 +13498,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="16" t="s">
         <v>342</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -13608,7 +13512,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="16" t="s">
         <v>345</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -13622,7 +13526,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="16" t="s">
         <v>348</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -13665,7 +13569,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.9"/>
@@ -13679,129 +13583,129 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="20.18"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="18" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>759</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>760</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>761</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="2" s="36" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+    <row r="2" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>763</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="29" t="s">
         <v>764</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="29" t="s">
         <v>765</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="29" t="s">
         <v>766</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="29" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="3" s="36" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
+    <row r="3" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="29" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="4" s="36" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
+    <row r="4" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="29" t="s">
         <v>769</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="29" t="s">
         <v>770</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="29" t="s">
         <v>771</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="29" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="5" s="36" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+    <row r="5" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="29" t="s">
         <v>773</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="29" t="s">
         <v>774</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="29" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="6" s="36" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+    <row r="6" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="29" t="s">
         <v>776</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="29" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="7" s="36" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
+    <row r="7" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="29" t="s">
         <v>779</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="29" t="s">
         <v>780</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="29" t="s">
         <v>781</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="29" t="s">
         <v>782</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="29" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="8" s="36" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+    <row r="8" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="29" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="9" s="36" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
+    <row r="9" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>784</v>
       </c>
     </row>
@@ -14013,7 +13917,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="22" t="s">
         <v>308</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -14022,18 +13926,18 @@
       <c r="C25" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="22" t="s">
         <v>311</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -14044,7 +13948,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="22" t="s">
         <v>317</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -14055,7 +13959,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="22" t="s">
         <v>332</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -14093,7 +13997,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="22" t="s">
         <v>335</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -14107,7 +14011,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>338</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -14172,7 +14076,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="16" t="s">
         <v>342</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -14279,7 +14183,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="16" t="s">
         <v>345</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -14386,7 +14290,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="16" t="s">
         <v>348</v>
       </c>
       <c r="B33" s="0" t="s">
